--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DBA21-2360-4415-A355-4E001E8087A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD834382-F39A-4793-8893-F7EAF9D2C23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="180" yWindow="1455" windowWidth="24525" windowHeight="12975" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -215,13 +215,6 @@
   </si>
   <si>
     <t>MoveSpeed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -682,7 +675,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -769,9 +762,6 @@
       <c r="J2">
         <v>100</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -801,9 +791,6 @@
       <c r="J3">
         <v>200</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -833,9 +820,6 @@
       <c r="J4">
         <v>300</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -865,9 +849,6 @@
       <c r="J5">
         <v>400</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -897,9 +878,6 @@
       <c r="J6">
         <v>500</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -929,9 +907,6 @@
       <c r="J7">
         <v>600</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -961,9 +936,6 @@
       <c r="J8">
         <v>700</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -993,9 +965,6 @@
       <c r="J9">
         <v>800</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -1025,9 +994,6 @@
       <c r="J10">
         <v>900</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -1056,9 +1022,6 @@
       </c>
       <c r="J11">
         <v>1000</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD834382-F39A-4793-8893-F7EAF9D2C23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBF613-9CD9-41E5-AC1B-E929A28F4B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1455" windowWidth="24525" windowHeight="12975" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -351,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:P13" totalsRowShown="0">
-  <autoFilter ref="A1:P13" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:P14" totalsRowShown="0">
+  <autoFilter ref="A1:P14" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{D1EF384A-425E-4487-AE5A-7D618D4858AA}" name="ID"/>
     <tableColumn id="2" xr3:uid="{880AC199-8029-4F09-82BC-EB19B7F216CC}" name="Name"/>
@@ -672,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1116,6 +1116,53 @@
       </c>
       <c r="P13">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8000</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <v>11000</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBF613-9CD9-41E5-AC1B-E929A28F4B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DA679-C39C-494A-8467-41FE60C31131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="10410" yWindow="2475" windowWidth="17430" windowHeight="12525" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -202,19 +202,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>101,100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DazeTime</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MoveSpeed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Monster3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Character/EnemyObject_3d_001</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -351,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:P14" totalsRowShown="0">
-  <autoFilter ref="A1:P14" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:P16" totalsRowShown="0">
+  <autoFilter ref="A1:P16" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{D1EF384A-425E-4487-AE5A-7D618D4858AA}" name="ID"/>
     <tableColumn id="2" xr3:uid="{880AC199-8029-4F09-82BC-EB19B7F216CC}" name="Name"/>
@@ -672,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -728,10 +732,10 @@
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -1053,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1100,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L13">
-        <v>11001</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>10</v>
@@ -1126,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1147,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>10</v>
@@ -1162,6 +1166,100 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8000</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8000</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DA679-C39C-494A-8467-41FE60C31131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B16E72-1356-47A0-AB6F-40C8D76DACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="2475" windowWidth="17430" windowHeight="12525" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>5</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B16E72-1356-47A0-AB6F-40C8D76DACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A400A-9A0F-401A-B5F8-C9B587A6B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Character/EnemyObject_3d_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AddExp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -355,9 +359,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:P16" totalsRowShown="0">
-  <autoFilter ref="A1:P16" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:Q16" totalsRowShown="0">
+  <autoFilter ref="A1:Q16" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{D1EF384A-425E-4487-AE5A-7D618D4858AA}" name="ID"/>
     <tableColumn id="2" xr3:uid="{880AC199-8029-4F09-82BC-EB19B7F216CC}" name="Name"/>
     <tableColumn id="11" xr3:uid="{86E13BF9-C43B-4519-8454-0F175528AB2E}" name="Prefab"/>
@@ -370,6 +374,7 @@
     <tableColumn id="10" xr3:uid="{3D63D03E-1383-4FBD-8DAD-E488CCA8D0E7}" name="LvUpExp"/>
     <tableColumn id="14" xr3:uid="{7782E1AA-F31F-4BB6-A3BC-DD50DDAF7891}" name="Skills" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{60926B88-34B3-449E-BFE2-6D3A914BF1CA}" name="PondId"/>
+    <tableColumn id="17" xr3:uid="{8AED82A1-0872-487F-B5D8-04904ED70395}" name="AddExp"/>
     <tableColumn id="12" xr3:uid="{DFBBD057-C268-4632-94D8-341D417F3D16}" name="SecurityRange"/>
     <tableColumn id="13" xr3:uid="{1B41519A-FE0E-4E3C-ACF8-B6315F7A2650}" name="CallForHelpRange"/>
     <tableColumn id="15" xr3:uid="{6626FA5E-7C0C-41E7-89DA-CD6CEECAF3E4}" name="DazeTime"/>
@@ -676,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -688,7 +693,7 @@
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,19 +731,22 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -767,7 +775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,7 +804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -825,7 +833,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -854,7 +862,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -883,7 +891,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -912,7 +920,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -941,7 +949,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -970,7 +978,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -1063,19 +1071,22 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
         <v>5</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -1110,19 +1121,22 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -1157,19 +1171,22 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1204,19 +1221,22 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1004</v>
       </c>
@@ -1251,15 +1271,18 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
         <v>5</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE664D-4ACF-41D7-BB4D-BB29B6B8508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44171E8-1CA5-4FD7-9069-9166DC3E178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -266,6 +266,79 @@
     <t>Prefabs/Game/Character/EnemyObject_3d_001</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>アセットパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>倒れるともらう経験値</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>警備範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ケイビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>周りから助けを呼ぶ範囲</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>立てる場合、他の動作をする時間</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +538,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +578,12 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
   <dimension ref="A1:Q695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="U688" sqref="U688"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35314,13 +35393,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6281B96-95F5-4EAF-8BEE-7EC22AAC6AAC}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -35349,87 +35431,158 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
+      <c r="A17" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44171E8-1CA5-4FD7-9069-9166DC3E178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A500345C-AE5F-4ECA-92BB-AD504284B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -35396,7 +35396,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A500345C-AE5F-4ECA-92BB-AD504284B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8EF777-D4DA-4606-916B-C35DC571C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -936,18 +934,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
   <dimension ref="A1:Q695"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="Q598" sqref="Q598:Q695"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="26" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1029,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1145,7 +1143,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1174,7 +1172,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1319,7 +1317,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1435,7 +1433,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1522,7 +1520,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1551,7 +1549,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1667,7 +1665,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1841,7 +1839,7 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>12864</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>13662</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2073,7 +2071,7 @@
         <v>17094</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>18012</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>18954</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>19920</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>20910</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>21924</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>22962</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>24024</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>26220</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>27354</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>28512</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>29694</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2450,7 +2448,7 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2479,7 +2477,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>33384</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2537,7 +2535,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2595,7 +2593,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2624,7 +2622,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>50730</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>52490</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>54280</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2740,7 +2738,7 @@
         <v>56100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2769,7 +2767,7 @@
         <v>57950</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2798,7 +2796,7 @@
         <v>59830</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>61740</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2856,7 +2854,7 @@
         <v>63680</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>65650</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>67650</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>69680</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>71740</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>73830</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3030,7 +3028,7 @@
         <v>75950</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3059,7 +3057,7 @@
         <v>78100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>80280</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>82490</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>84730</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3204,7 +3202,7 @@
         <v>89300</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3233,7 +3231,7 @@
         <v>91630</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3262,7 +3260,7 @@
         <v>93990</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>96380</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>103730</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>106240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3465,7 +3463,7 @@
         <v>111350</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>113950</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>116580</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3552,7 +3550,7 @@
         <v>119240</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>121930</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>245700</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3639,7 +3637,7 @@
         <v>252980</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3668,7 +3666,7 @@
         <v>301300</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3697,7 +3695,7 @@
         <v>351075</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>446500</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>546250</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>649920</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>757570</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3842,7 +3840,7 @@
         <v>965300</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>1473120</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3899,7 +3897,7 @@
       </c>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4058,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4111,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4164,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4217,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4429,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4482,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4535,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4694,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4747,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4800,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4906,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4959,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5012,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5171,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5224,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5277,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5383,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5436,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5595,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5648,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5754,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5807,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5860,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5913,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5966,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6019,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6125,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6178,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6284,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6390,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6443,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6496,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6602,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6655,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6761,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6814,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6920,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6973,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7026,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7079,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7132,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7185,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7238,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7344,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7503,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7556,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7715,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7768,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7821,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7874,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7927,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7980,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8033,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8086,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8139,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8245,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8298,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8351,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8404,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8510,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8563,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8616,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8722,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8775,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8881,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8987,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9040,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9093,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9146,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9196,10 +9194,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9249,10 +9247,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9302,10 +9300,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9355,10 +9353,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9408,10 +9406,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9461,10 +9459,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9514,10 +9512,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9567,10 +9565,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9620,10 +9618,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9673,10 +9671,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9726,10 +9724,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9779,10 +9777,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9832,10 +9830,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9885,10 +9883,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9938,10 +9936,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9991,10 +9989,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10044,10 +10042,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10097,10 +10095,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10150,10 +10148,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10203,10 +10201,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10256,10 +10254,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10309,10 +10307,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10362,10 +10360,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10415,10 +10413,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10468,10 +10466,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10521,10 +10519,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10574,10 +10572,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10627,10 +10625,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10680,10 +10678,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10733,10 +10731,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10786,10 +10784,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10839,10 +10837,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10892,10 +10890,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10945,10 +10943,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10998,10 +10996,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11051,10 +11049,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11104,10 +11102,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11157,10 +11155,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11210,10 +11208,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11263,10 +11261,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11316,10 +11314,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11369,10 +11367,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11422,10 +11420,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11475,10 +11473,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11528,10 +11526,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11581,10 +11579,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11634,10 +11632,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11687,10 +11685,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11740,10 +11738,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11793,10 +11791,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11846,10 +11844,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11899,10 +11897,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11952,10 +11950,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12005,10 +12003,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12058,10 +12056,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12111,10 +12109,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12164,10 +12162,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12217,10 +12215,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12270,10 +12268,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12323,10 +12321,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12376,10 +12374,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12429,10 +12427,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12482,10 +12480,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12535,10 +12533,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12588,10 +12586,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12641,10 +12639,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12694,10 +12692,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12747,10 +12745,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12800,10 +12798,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12853,10 +12851,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12906,10 +12904,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12959,10 +12957,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13012,10 +13010,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13065,10 +13063,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13118,10 +13116,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13171,10 +13169,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13224,10 +13222,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13277,10 +13275,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13330,10 +13328,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13383,10 +13381,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13436,10 +13434,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13489,10 +13487,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13542,10 +13540,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13595,10 +13593,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13648,10 +13646,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13701,10 +13699,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13754,10 +13752,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13807,10 +13805,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13860,10 +13858,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13913,10 +13911,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13966,10 +13964,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14019,10 +14017,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14072,10 +14070,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14125,10 +14123,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14178,10 +14176,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14231,10 +14229,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14284,10 +14282,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14337,10 +14335,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14390,10 +14388,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14443,10 +14441,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14496,10 +14494,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14549,10 +14547,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14602,10 +14600,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14655,10 +14653,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14708,10 +14706,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14761,10 +14759,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14814,10 +14812,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14867,10 +14865,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14920,10 +14918,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14973,10 +14971,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15026,10 +15024,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15079,10 +15077,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15132,10 +15130,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15185,10 +15183,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15238,10 +15236,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15291,10 +15289,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15344,10 +15342,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15397,10 +15395,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15450,10 +15448,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15503,10 +15501,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15556,10 +15554,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15609,10 +15607,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15662,10 +15660,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15715,10 +15713,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15768,10 +15766,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15821,10 +15819,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15874,10 +15872,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15927,10 +15925,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15980,10 +15978,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16033,10 +16031,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16086,10 +16084,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16139,10 +16137,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16192,10 +16190,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16245,10 +16243,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16298,10 +16296,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16351,10 +16349,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16404,10 +16402,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16457,10 +16455,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16510,10 +16508,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16563,10 +16561,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16616,10 +16614,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16669,10 +16667,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16722,10 +16720,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16775,10 +16773,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16828,10 +16826,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16881,10 +16879,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16934,10 +16932,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16987,10 +16985,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17040,10 +17038,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17093,10 +17091,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17146,10 +17144,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17199,10 +17197,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17252,10 +17250,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17305,10 +17303,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17358,10 +17356,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17411,10 +17409,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17464,10 +17462,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17517,10 +17515,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17570,10 +17568,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17623,10 +17621,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17676,10 +17674,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17729,10 +17727,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17782,10 +17780,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17835,10 +17833,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17888,10 +17886,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17941,10 +17939,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17994,10 +17992,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>367</v>
       </c>
@@ -18047,10 +18045,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>368</v>
       </c>
@@ -18100,10 +18098,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>369</v>
       </c>
@@ -18153,10 +18151,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>370</v>
       </c>
@@ -18206,10 +18204,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>371</v>
       </c>
@@ -18259,10 +18257,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>372</v>
       </c>
@@ -18312,10 +18310,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>373</v>
       </c>
@@ -18365,10 +18363,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>374</v>
       </c>
@@ -18418,10 +18416,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>375</v>
       </c>
@@ -18471,10 +18469,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>376</v>
       </c>
@@ -18524,10 +18522,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>377</v>
       </c>
@@ -18577,10 +18575,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>378</v>
       </c>
@@ -18630,10 +18628,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>379</v>
       </c>
@@ -18683,10 +18681,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18736,10 +18734,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18789,10 +18787,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18842,10 +18840,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18895,10 +18893,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18948,10 +18946,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19001,10 +18999,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19054,10 +19052,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19107,10 +19105,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>388</v>
       </c>
@@ -19160,10 +19158,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>389</v>
       </c>
@@ -19213,10 +19211,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>390</v>
       </c>
@@ -19266,10 +19264,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>391</v>
       </c>
@@ -19319,10 +19317,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>392</v>
       </c>
@@ -19372,10 +19370,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>393</v>
       </c>
@@ -19425,10 +19423,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>394</v>
       </c>
@@ -19478,10 +19476,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>395</v>
       </c>
@@ -19531,10 +19529,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>396</v>
       </c>
@@ -19584,10 +19582,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>397</v>
       </c>
@@ -19637,10 +19635,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>398</v>
       </c>
@@ -19693,7 +19691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>399</v>
       </c>
@@ -19746,7 +19744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>400</v>
       </c>
@@ -19799,7 +19797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>401</v>
       </c>
@@ -19852,7 +19850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>402</v>
       </c>
@@ -19905,7 +19903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>403</v>
       </c>
@@ -19958,7 +19956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20011,7 +20009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20064,7 +20062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20117,7 +20115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20170,7 +20168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20223,7 +20221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20276,7 +20274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>410</v>
       </c>
@@ -20329,7 +20327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>411</v>
       </c>
@@ -20382,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>412</v>
       </c>
@@ -20435,7 +20433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>413</v>
       </c>
@@ -20488,7 +20486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>414</v>
       </c>
@@ -20541,7 +20539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>415</v>
       </c>
@@ -20594,7 +20592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>416</v>
       </c>
@@ -20647,7 +20645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>417</v>
       </c>
@@ -20700,7 +20698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>418</v>
       </c>
@@ -20753,7 +20751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>419</v>
       </c>
@@ -20806,7 +20804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>420</v>
       </c>
@@ -20859,7 +20857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>421</v>
       </c>
@@ -20912,7 +20910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20965,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21018,7 +21016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>424</v>
       </c>
@@ -21071,7 +21069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>425</v>
       </c>
@@ -21124,7 +21122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>426</v>
       </c>
@@ -21177,7 +21175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>427</v>
       </c>
@@ -21230,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21283,7 +21281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21336,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>430</v>
       </c>
@@ -21389,7 +21387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>431</v>
       </c>
@@ -21442,7 +21440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>432</v>
       </c>
@@ -21495,7 +21493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>433</v>
       </c>
@@ -21548,7 +21546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>434</v>
       </c>
@@ -21601,7 +21599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>435</v>
       </c>
@@ -21654,7 +21652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>436</v>
       </c>
@@ -21707,7 +21705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>437</v>
       </c>
@@ -21760,7 +21758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>438</v>
       </c>
@@ -21813,7 +21811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>439</v>
       </c>
@@ -21866,7 +21864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>440</v>
       </c>
@@ -21919,7 +21917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>441</v>
       </c>
@@ -21972,7 +21970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>442</v>
       </c>
@@ -22025,7 +22023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>443</v>
       </c>
@@ -22078,7 +22076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>444</v>
       </c>
@@ -22131,7 +22129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>445</v>
       </c>
@@ -22184,7 +22182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>446</v>
       </c>
@@ -22237,7 +22235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>447</v>
       </c>
@@ -22290,7 +22288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>448</v>
       </c>
@@ -22343,7 +22341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>449</v>
       </c>
@@ -22396,7 +22394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>450</v>
       </c>
@@ -22449,7 +22447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>451</v>
       </c>
@@ -22502,7 +22500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>452</v>
       </c>
@@ -22555,7 +22553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>453</v>
       </c>
@@ -22608,7 +22606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>454</v>
       </c>
@@ -22661,7 +22659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>455</v>
       </c>
@@ -22714,7 +22712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>456</v>
       </c>
@@ -22767,7 +22765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>457</v>
       </c>
@@ -22820,7 +22818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>458</v>
       </c>
@@ -22873,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>459</v>
       </c>
@@ -22926,7 +22924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>460</v>
       </c>
@@ -22979,7 +22977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>461</v>
       </c>
@@ -23032,7 +23030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>462</v>
       </c>
@@ -23085,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>463</v>
       </c>
@@ -23138,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>464</v>
       </c>
@@ -23191,7 +23189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>465</v>
       </c>
@@ -23244,7 +23242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>466</v>
       </c>
@@ -23297,7 +23295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>467</v>
       </c>
@@ -23350,7 +23348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>468</v>
       </c>
@@ -23403,7 +23401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>469</v>
       </c>
@@ -23456,7 +23454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>470</v>
       </c>
@@ -23509,7 +23507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>471</v>
       </c>
@@ -23562,7 +23560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>472</v>
       </c>
@@ -23615,7 +23613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>473</v>
       </c>
@@ -23668,7 +23666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>474</v>
       </c>
@@ -23721,7 +23719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>475</v>
       </c>
@@ -23774,7 +23772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>476</v>
       </c>
@@ -23827,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>477</v>
       </c>
@@ -23880,7 +23878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>478</v>
       </c>
@@ -23933,7 +23931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>479</v>
       </c>
@@ -23986,7 +23984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>480</v>
       </c>
@@ -24039,7 +24037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>481</v>
       </c>
@@ -24092,7 +24090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>482</v>
       </c>
@@ -24145,7 +24143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>483</v>
       </c>
@@ -24198,7 +24196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>484</v>
       </c>
@@ -24251,7 +24249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>485</v>
       </c>
@@ -24304,7 +24302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>486</v>
       </c>
@@ -24357,7 +24355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>487</v>
       </c>
@@ -24410,7 +24408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>488</v>
       </c>
@@ -24463,7 +24461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>489</v>
       </c>
@@ -24516,7 +24514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>490</v>
       </c>
@@ -24569,7 +24567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>491</v>
       </c>
@@ -24622,7 +24620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>492</v>
       </c>
@@ -24675,7 +24673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>493</v>
       </c>
@@ -24728,7 +24726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>494</v>
       </c>
@@ -24781,7 +24779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>495</v>
       </c>
@@ -24834,7 +24832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>496</v>
       </c>
@@ -24887,7 +24885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>497</v>
       </c>
@@ -24937,10 +24935,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>498</v>
       </c>
@@ -24990,10 +24988,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>499</v>
       </c>
@@ -25043,10 +25041,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>500</v>
       </c>
@@ -25096,10 +25094,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>501</v>
       </c>
@@ -25149,10 +25147,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>502</v>
       </c>
@@ -25202,10 +25200,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q503">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>503</v>
       </c>
@@ -25255,10 +25253,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q504">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>504</v>
       </c>
@@ -25308,10 +25306,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q505">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>505</v>
       </c>
@@ -25361,10 +25359,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>506</v>
       </c>
@@ -25414,10 +25412,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q507">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>507</v>
       </c>
@@ -25467,10 +25465,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>508</v>
       </c>
@@ -25520,10 +25518,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q509">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>509</v>
       </c>
@@ -25573,10 +25571,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>510</v>
       </c>
@@ -25626,10 +25624,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q511">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>511</v>
       </c>
@@ -25679,10 +25677,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>512</v>
       </c>
@@ -25732,10 +25730,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>513</v>
       </c>
@@ -25785,10 +25783,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q514">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>514</v>
       </c>
@@ -25838,10 +25836,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q515">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>515</v>
       </c>
@@ -25891,10 +25889,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>516</v>
       </c>
@@ -25944,10 +25942,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>517</v>
       </c>
@@ -25997,10 +25995,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q518">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>518</v>
       </c>
@@ -26050,10 +26048,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>519</v>
       </c>
@@ -26103,10 +26101,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>520</v>
       </c>
@@ -26156,10 +26154,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q521">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>521</v>
       </c>
@@ -26209,10 +26207,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q522">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>522</v>
       </c>
@@ -26262,10 +26260,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q523">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>523</v>
       </c>
@@ -26315,10 +26313,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>524</v>
       </c>
@@ -26368,10 +26366,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q525">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>525</v>
       </c>
@@ -26421,10 +26419,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>526</v>
       </c>
@@ -26474,10 +26472,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q527">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>527</v>
       </c>
@@ -26527,10 +26525,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>528</v>
       </c>
@@ -26580,10 +26578,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q529">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>529</v>
       </c>
@@ -26633,10 +26631,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>530</v>
       </c>
@@ -26686,10 +26684,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q531">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>531</v>
       </c>
@@ -26739,10 +26737,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>532</v>
       </c>
@@ -26792,10 +26790,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>533</v>
       </c>
@@ -26845,10 +26843,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>534</v>
       </c>
@@ -26898,10 +26896,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>535</v>
       </c>
@@ -26951,10 +26949,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>536</v>
       </c>
@@ -27004,10 +27002,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q537">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>537</v>
       </c>
@@ -27057,10 +27055,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q538">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>538</v>
       </c>
@@ -27110,10 +27108,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q539">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>539</v>
       </c>
@@ -27163,10 +27161,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q540">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>540</v>
       </c>
@@ -27216,10 +27214,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q541">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>541</v>
       </c>
@@ -27269,10 +27267,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q542">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>542</v>
       </c>
@@ -27322,10 +27320,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>543</v>
       </c>
@@ -27375,10 +27373,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q544">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>544</v>
       </c>
@@ -27428,10 +27426,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q545">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>545</v>
       </c>
@@ -27481,10 +27479,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q546">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>546</v>
       </c>
@@ -27534,10 +27532,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q547">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>547</v>
       </c>
@@ -27587,10 +27585,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q548">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>548</v>
       </c>
@@ -27640,10 +27638,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q549">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>549</v>
       </c>
@@ -27693,10 +27691,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q550">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>550</v>
       </c>
@@ -27746,10 +27744,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q551">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>551</v>
       </c>
@@ -27799,10 +27797,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q552">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>552</v>
       </c>
@@ -27852,10 +27850,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q553">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>553</v>
       </c>
@@ -27905,10 +27903,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q554">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>554</v>
       </c>
@@ -27958,10 +27956,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q555">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>555</v>
       </c>
@@ -28011,10 +28009,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q556">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>556</v>
       </c>
@@ -28064,10 +28062,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q557">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>557</v>
       </c>
@@ -28117,10 +28115,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q558">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>558</v>
       </c>
@@ -28170,10 +28168,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q559">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>559</v>
       </c>
@@ -28223,10 +28221,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q560">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>560</v>
       </c>
@@ -28276,10 +28274,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q561">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>561</v>
       </c>
@@ -28329,10 +28327,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q562">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>562</v>
       </c>
@@ -28382,10 +28380,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q563">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>563</v>
       </c>
@@ -28435,10 +28433,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q564">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>564</v>
       </c>
@@ -28488,10 +28486,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q565">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>565</v>
       </c>
@@ -28541,10 +28539,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q566">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>566</v>
       </c>
@@ -28594,10 +28592,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q567">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>567</v>
       </c>
@@ -28647,10 +28645,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q568">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>568</v>
       </c>
@@ -28700,10 +28698,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q569">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>569</v>
       </c>
@@ -28753,10 +28751,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q570">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>570</v>
       </c>
@@ -28806,10 +28804,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q571">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>571</v>
       </c>
@@ -28859,10 +28857,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q572">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>572</v>
       </c>
@@ -28912,10 +28910,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q573">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>573</v>
       </c>
@@ -28965,10 +28963,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q574">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>574</v>
       </c>
@@ -29018,10 +29016,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q575">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>575</v>
       </c>
@@ -29071,10 +29069,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q576">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>576</v>
       </c>
@@ -29124,10 +29122,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q577">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>577</v>
       </c>
@@ -29177,10 +29175,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q578">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>578</v>
       </c>
@@ -29230,10 +29228,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q579">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>579</v>
       </c>
@@ -29283,10 +29281,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q580">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>580</v>
       </c>
@@ -29336,10 +29334,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q581">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>581</v>
       </c>
@@ -29389,10 +29387,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q582">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>582</v>
       </c>
@@ -29442,10 +29440,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q583">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>583</v>
       </c>
@@ -29495,10 +29493,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q584">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>584</v>
       </c>
@@ -29548,10 +29546,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q585">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>585</v>
       </c>
@@ -29601,10 +29599,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q586">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>586</v>
       </c>
@@ -29654,10 +29652,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q587">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>587</v>
       </c>
@@ -29707,10 +29705,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q588">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>588</v>
       </c>
@@ -29760,10 +29758,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q589">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>589</v>
       </c>
@@ -29813,10 +29811,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q590">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>590</v>
       </c>
@@ -29866,10 +29864,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q591">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>591</v>
       </c>
@@ -29919,10 +29917,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q592">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>592</v>
       </c>
@@ -29972,10 +29970,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q593">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>593</v>
       </c>
@@ -30025,10 +30023,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q594">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>594</v>
       </c>
@@ -30078,10 +30076,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q595">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>595</v>
       </c>
@@ -30131,10 +30129,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q596">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>596</v>
       </c>
@@ -30184,10 +30182,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q597">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>597</v>
       </c>
@@ -30237,10 +30235,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q598">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>598</v>
       </c>
@@ -30290,10 +30288,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q599">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>599</v>
       </c>
@@ -30343,10 +30341,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q600">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>600</v>
       </c>
@@ -30396,10 +30394,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q601">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>601</v>
       </c>
@@ -30449,10 +30447,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q602">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>602</v>
       </c>
@@ -30502,10 +30500,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q603">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>603</v>
       </c>
@@ -30555,10 +30553,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q604">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>604</v>
       </c>
@@ -30608,10 +30606,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q605">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>605</v>
       </c>
@@ -30661,10 +30659,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q606">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>606</v>
       </c>
@@ -30714,10 +30712,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q607">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>607</v>
       </c>
@@ -30767,10 +30765,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q608">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>608</v>
       </c>
@@ -30820,10 +30818,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q609">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>609</v>
       </c>
@@ -30873,10 +30871,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q610">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>610</v>
       </c>
@@ -30926,10 +30924,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q611">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>611</v>
       </c>
@@ -30979,10 +30977,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q612">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>612</v>
       </c>
@@ -31032,10 +31030,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q613">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>613</v>
       </c>
@@ -31085,10 +31083,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q614">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>614</v>
       </c>
@@ -31138,10 +31136,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q615">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>615</v>
       </c>
@@ -31191,10 +31189,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q616">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>616</v>
       </c>
@@ -31244,10 +31242,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q617">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>617</v>
       </c>
@@ -31297,10 +31295,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q618">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>618</v>
       </c>
@@ -31350,10 +31348,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q619">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>619</v>
       </c>
@@ -31403,10 +31401,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q620">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>620</v>
       </c>
@@ -31456,10 +31454,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q621">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>621</v>
       </c>
@@ -31509,10 +31507,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q622">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>622</v>
       </c>
@@ -31562,10 +31560,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q623">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>623</v>
       </c>
@@ -31615,10 +31613,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q624">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>624</v>
       </c>
@@ -31668,10 +31666,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q625">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>625</v>
       </c>
@@ -31721,10 +31719,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q626">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>626</v>
       </c>
@@ -31774,10 +31772,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q627">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>627</v>
       </c>
@@ -31827,10 +31825,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q628">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>628</v>
       </c>
@@ -31880,10 +31878,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q629">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>629</v>
       </c>
@@ -31933,10 +31931,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q630">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>630</v>
       </c>
@@ -31986,10 +31984,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q631">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>631</v>
       </c>
@@ -32039,10 +32037,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q632">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>632</v>
       </c>
@@ -32092,10 +32090,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q633">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>633</v>
       </c>
@@ -32145,10 +32143,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q634">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>634</v>
       </c>
@@ -32198,10 +32196,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q635">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>635</v>
       </c>
@@ -32251,10 +32249,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q636">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>636</v>
       </c>
@@ -32304,10 +32302,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q637">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>637</v>
       </c>
@@ -32357,10 +32355,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q638">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>638</v>
       </c>
@@ -32410,10 +32408,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q639">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>639</v>
       </c>
@@ -32463,10 +32461,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q640">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>640</v>
       </c>
@@ -32516,10 +32514,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q641">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>641</v>
       </c>
@@ -32569,10 +32567,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q642">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>642</v>
       </c>
@@ -32622,10 +32620,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q643">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>643</v>
       </c>
@@ -32675,10 +32673,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q644">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>644</v>
       </c>
@@ -32728,10 +32726,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q645">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>645</v>
       </c>
@@ -32781,10 +32779,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q646">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>646</v>
       </c>
@@ -32834,10 +32832,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q647">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>647</v>
       </c>
@@ -32887,10 +32885,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q648">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>648</v>
       </c>
@@ -32940,10 +32938,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q649">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>649</v>
       </c>
@@ -32993,10 +32991,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q650">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>650</v>
       </c>
@@ -33046,10 +33044,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q651">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>651</v>
       </c>
@@ -33099,10 +33097,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q652">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>652</v>
       </c>
@@ -33152,10 +33150,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q653">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>653</v>
       </c>
@@ -33205,10 +33203,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q654">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>654</v>
       </c>
@@ -33258,10 +33256,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q655">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>655</v>
       </c>
@@ -33311,10 +33309,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q656">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>656</v>
       </c>
@@ -33364,10 +33362,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q657">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>657</v>
       </c>
@@ -33417,10 +33415,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q658">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>658</v>
       </c>
@@ -33470,10 +33468,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q659">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>659</v>
       </c>
@@ -33523,10 +33521,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q660">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>660</v>
       </c>
@@ -33576,10 +33574,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q661">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>661</v>
       </c>
@@ -33629,10 +33627,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q662">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>662</v>
       </c>
@@ -33682,10 +33680,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q663">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>663</v>
       </c>
@@ -33735,10 +33733,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q664">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>664</v>
       </c>
@@ -33788,10 +33786,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q665">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>665</v>
       </c>
@@ -33841,10 +33839,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q666">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>666</v>
       </c>
@@ -33894,10 +33892,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q667">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>667</v>
       </c>
@@ -33947,10 +33945,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q668">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>668</v>
       </c>
@@ -34000,10 +33998,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q669">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>669</v>
       </c>
@@ -34053,10 +34051,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q670">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="671" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>670</v>
       </c>
@@ -34106,10 +34104,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q671">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>671</v>
       </c>
@@ -34159,10 +34157,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q672">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>672</v>
       </c>
@@ -34212,10 +34210,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q673">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>673</v>
       </c>
@@ -34265,10 +34263,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q674">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>674</v>
       </c>
@@ -34318,10 +34316,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q675">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>675</v>
       </c>
@@ -34371,10 +34369,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q676">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>676</v>
       </c>
@@ -34424,10 +34422,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q677">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>677</v>
       </c>
@@ -34477,10 +34475,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q678">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>678</v>
       </c>
@@ -34530,10 +34528,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q679">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>679</v>
       </c>
@@ -34583,10 +34581,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q680">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>680</v>
       </c>
@@ -34636,10 +34634,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q681">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>681</v>
       </c>
@@ -34689,10 +34687,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q682">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="683" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>682</v>
       </c>
@@ -34742,10 +34740,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q683">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>683</v>
       </c>
@@ -34795,10 +34793,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q684">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>684</v>
       </c>
@@ -34848,10 +34846,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q685">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>685</v>
       </c>
@@ -34901,10 +34899,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q686">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A687">
         <v>686</v>
       </c>
@@ -34954,10 +34952,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q687">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A688">
         <v>687</v>
       </c>
@@ -35007,10 +35005,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q688">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A689">
         <v>688</v>
       </c>
@@ -35060,10 +35058,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q689">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A690">
         <v>689</v>
       </c>
@@ -35113,10 +35111,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q690">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A691">
         <v>690</v>
       </c>
@@ -35166,10 +35164,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q691">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A692">
         <v>691</v>
       </c>
@@ -35219,10 +35217,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q692">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A693">
         <v>692</v>
       </c>
@@ -35272,10 +35270,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q693">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A694">
         <v>693</v>
       </c>
@@ -35325,10 +35323,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q694">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A695">
         <v>694</v>
       </c>
@@ -35378,7 +35376,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -35395,186 +35393,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6281B96-95F5-4EAF-8BEE-7EC22AAC6AAC}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -35594,9 +35592,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35604,7 +35602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -35626,9 +35624,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35636,7 +35634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8EF777-D4DA-4606-916B-C35DC571C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD01A3F-42C6-4E5F-816F-05FF9AC5F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
   <dimension ref="A1:Q695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="Q598" sqref="Q598:Q695"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103:L695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3932,10 +3932,10 @@
         <v>30</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N102">
         <v>10</v>
@@ -3985,10 +3985,10 @@
         <v>30</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M103">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N103">
         <v>10</v>
@@ -4038,10 +4038,10 @@
         <v>41</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M104">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N104">
         <v>10</v>
@@ -4091,10 +4091,10 @@
         <v>41</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M105">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N105">
         <v>10</v>
@@ -4144,10 +4144,10 @@
         <v>41</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M106">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N106">
         <v>10</v>
@@ -4197,10 +4197,10 @@
         <v>41</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M107">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N107">
         <v>10</v>
@@ -4250,10 +4250,10 @@
         <v>41</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M108">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N108">
         <v>10</v>
@@ -4303,10 +4303,10 @@
         <v>41</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M109">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N109">
         <v>10</v>
@@ -4356,10 +4356,10 @@
         <v>41</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M110">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N110">
         <v>10</v>
@@ -4409,10 +4409,10 @@
         <v>41</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M111">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N111">
         <v>10</v>
@@ -4462,10 +4462,10 @@
         <v>41</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M112">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N112">
         <v>10</v>
@@ -4515,10 +4515,10 @@
         <v>41</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M113">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N113">
         <v>10</v>
@@ -4568,10 +4568,10 @@
         <v>41</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M114">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N114">
         <v>10</v>
@@ -4621,10 +4621,10 @@
         <v>41</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M115">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N115">
         <v>10</v>
@@ -4674,10 +4674,10 @@
         <v>41</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M116">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N116">
         <v>10</v>
@@ -4727,10 +4727,10 @@
         <v>41</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M117">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N117">
         <v>10</v>
@@ -4780,10 +4780,10 @@
         <v>41</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M118">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N118">
         <v>10</v>
@@ -4833,10 +4833,10 @@
         <v>41</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M119">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N119">
         <v>10</v>
@@ -4886,10 +4886,10 @@
         <v>41</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M120">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N120">
         <v>10</v>
@@ -4939,10 +4939,10 @@
         <v>41</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M121">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N121">
         <v>10</v>
@@ -4992,10 +4992,10 @@
         <v>41</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M122">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N122">
         <v>10</v>
@@ -5045,10 +5045,10 @@
         <v>41</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M123">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N123">
         <v>10</v>
@@ -5098,10 +5098,10 @@
         <v>41</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M124">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N124">
         <v>10</v>
@@ -5151,10 +5151,10 @@
         <v>41</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M125">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N125">
         <v>10</v>
@@ -5204,10 +5204,10 @@
         <v>41</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M126">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N126">
         <v>10</v>
@@ -5257,10 +5257,10 @@
         <v>41</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M127">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N127">
         <v>10</v>
@@ -5310,10 +5310,10 @@
         <v>41</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M128">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N128">
         <v>10</v>
@@ -5363,10 +5363,10 @@
         <v>41</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M129">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N129">
         <v>10</v>
@@ -5416,10 +5416,10 @@
         <v>41</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M130">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N130">
         <v>10</v>
@@ -5469,10 +5469,10 @@
         <v>41</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M131">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N131">
         <v>10</v>
@@ -5522,10 +5522,10 @@
         <v>41</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M132">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N132">
         <v>10</v>
@@ -5575,10 +5575,10 @@
         <v>41</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M133">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N133">
         <v>10</v>
@@ -5628,10 +5628,10 @@
         <v>41</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M134">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N134">
         <v>10</v>
@@ -5681,10 +5681,10 @@
         <v>41</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M135">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N135">
         <v>10</v>
@@ -5734,10 +5734,10 @@
         <v>41</v>
       </c>
       <c r="L136">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M136">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N136">
         <v>10</v>
@@ -5787,10 +5787,10 @@
         <v>41</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M137">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N137">
         <v>10</v>
@@ -5840,10 +5840,10 @@
         <v>41</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M138">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N138">
         <v>10</v>
@@ -5893,10 +5893,10 @@
         <v>41</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M139">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N139">
         <v>10</v>
@@ -5946,10 +5946,10 @@
         <v>41</v>
       </c>
       <c r="L140">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M140">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N140">
         <v>10</v>
@@ -5999,10 +5999,10 @@
         <v>41</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M141">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N141">
         <v>10</v>
@@ -6052,10 +6052,10 @@
         <v>41</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M142">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N142">
         <v>10</v>
@@ -6105,10 +6105,10 @@
         <v>41</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M143">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N143">
         <v>10</v>
@@ -6158,10 +6158,10 @@
         <v>41</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M144">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N144">
         <v>10</v>
@@ -6211,10 +6211,10 @@
         <v>41</v>
       </c>
       <c r="L145">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M145">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N145">
         <v>10</v>
@@ -6264,10 +6264,10 @@
         <v>41</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M146">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N146">
         <v>10</v>
@@ -6317,10 +6317,10 @@
         <v>41</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M147">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N147">
         <v>10</v>
@@ -6370,10 +6370,10 @@
         <v>41</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M148">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N148">
         <v>10</v>
@@ -6423,10 +6423,10 @@
         <v>41</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M149">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N149">
         <v>10</v>
@@ -6476,10 +6476,10 @@
         <v>41</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M150">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N150">
         <v>10</v>
@@ -6529,10 +6529,10 @@
         <v>41</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M151">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N151">
         <v>10</v>
@@ -6582,10 +6582,10 @@
         <v>41</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M152">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N152">
         <v>10</v>
@@ -6635,10 +6635,10 @@
         <v>41</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M153">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N153">
         <v>10</v>
@@ -6688,10 +6688,10 @@
         <v>41</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M154">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N154">
         <v>10</v>
@@ -6741,10 +6741,10 @@
         <v>41</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M155">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N155">
         <v>10</v>
@@ -6794,10 +6794,10 @@
         <v>41</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M156">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N156">
         <v>10</v>
@@ -6847,10 +6847,10 @@
         <v>41</v>
       </c>
       <c r="L157">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M157">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N157">
         <v>10</v>
@@ -6900,10 +6900,10 @@
         <v>41</v>
       </c>
       <c r="L158">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M158">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N158">
         <v>10</v>
@@ -6953,10 +6953,10 @@
         <v>41</v>
       </c>
       <c r="L159">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M159">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N159">
         <v>10</v>
@@ -7006,10 +7006,10 @@
         <v>41</v>
       </c>
       <c r="L160">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M160">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N160">
         <v>10</v>
@@ -7059,10 +7059,10 @@
         <v>41</v>
       </c>
       <c r="L161">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M161">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N161">
         <v>10</v>
@@ -7112,7 +7112,7 @@
         <v>41</v>
       </c>
       <c r="L162">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M162">
         <v>100</v>
@@ -7165,7 +7165,7 @@
         <v>41</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M163">
         <v>100</v>
@@ -7218,7 +7218,7 @@
         <v>41</v>
       </c>
       <c r="L164">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M164">
         <v>100</v>
@@ -7271,7 +7271,7 @@
         <v>41</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M165">
         <v>100</v>
@@ -7324,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M166">
         <v>100</v>
@@ -7377,7 +7377,7 @@
         <v>41</v>
       </c>
       <c r="L167">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M167">
         <v>100</v>
@@ -7430,7 +7430,7 @@
         <v>41</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M168">
         <v>100</v>
@@ -7483,7 +7483,7 @@
         <v>41</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M169">
         <v>100</v>
@@ -7536,7 +7536,7 @@
         <v>41</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M170">
         <v>100</v>
@@ -7589,7 +7589,7 @@
         <v>41</v>
       </c>
       <c r="L171">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M171">
         <v>100</v>
@@ -7642,7 +7642,7 @@
         <v>41</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M172">
         <v>100</v>
@@ -7695,7 +7695,7 @@
         <v>41</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M173">
         <v>100</v>
@@ -7748,7 +7748,7 @@
         <v>41</v>
       </c>
       <c r="L174">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M174">
         <v>100</v>
@@ -7801,7 +7801,7 @@
         <v>41</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M175">
         <v>100</v>
@@ -7854,7 +7854,7 @@
         <v>41</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M176">
         <v>100</v>
@@ -7907,7 +7907,7 @@
         <v>41</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M177">
         <v>100</v>
@@ -7960,7 +7960,7 @@
         <v>41</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M178">
         <v>100</v>
@@ -8013,7 +8013,7 @@
         <v>41</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M179">
         <v>100</v>
@@ -8066,7 +8066,7 @@
         <v>41</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M180">
         <v>100</v>
@@ -8119,7 +8119,7 @@
         <v>41</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M181">
         <v>100</v>
@@ -8172,7 +8172,7 @@
         <v>41</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M182">
         <v>100</v>
@@ -8225,7 +8225,7 @@
         <v>41</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M183">
         <v>100</v>
@@ -8278,7 +8278,7 @@
         <v>41</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M184">
         <v>100</v>
@@ -8331,7 +8331,7 @@
         <v>41</v>
       </c>
       <c r="L185">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M185">
         <v>100</v>
@@ -8384,7 +8384,7 @@
         <v>41</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M186">
         <v>100</v>
@@ -8437,7 +8437,7 @@
         <v>41</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M187">
         <v>100</v>
@@ -8490,7 +8490,7 @@
         <v>41</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M188">
         <v>100</v>
@@ -8543,7 +8543,7 @@
         <v>41</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M189">
         <v>100</v>
@@ -8596,7 +8596,7 @@
         <v>41</v>
       </c>
       <c r="L190">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M190">
         <v>100</v>
@@ -8649,7 +8649,7 @@
         <v>41</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M191">
         <v>100</v>
@@ -8702,7 +8702,7 @@
         <v>41</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M192">
         <v>100</v>
@@ -8755,7 +8755,7 @@
         <v>41</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M193">
         <v>100</v>
@@ -8808,7 +8808,7 @@
         <v>41</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M194">
         <v>100</v>
@@ -8861,7 +8861,7 @@
         <v>41</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M195">
         <v>100</v>
@@ -8914,7 +8914,7 @@
         <v>41</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M196">
         <v>100</v>
@@ -8967,7 +8967,7 @@
         <v>41</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M197">
         <v>100</v>
@@ -9020,7 +9020,7 @@
         <v>41</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M198">
         <v>100</v>
@@ -9073,7 +9073,7 @@
         <v>41</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M199">
         <v>100</v>
@@ -9126,7 +9126,7 @@
         <v>41</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M200">
         <v>100</v>
@@ -9179,10 +9179,10 @@
         <v>41</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M201">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N201">
         <v>10</v>
@@ -9232,10 +9232,10 @@
         <v>41</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M202">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N202">
         <v>10</v>
@@ -9285,10 +9285,10 @@
         <v>41</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M203">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N203">
         <v>10</v>
@@ -9338,10 +9338,10 @@
         <v>41</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M204">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N204">
         <v>10</v>
@@ -9391,10 +9391,10 @@
         <v>41</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M205">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N205">
         <v>10</v>
@@ -9444,10 +9444,10 @@
         <v>41</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M206">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N206">
         <v>10</v>
@@ -9497,10 +9497,10 @@
         <v>41</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M207">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N207">
         <v>10</v>
@@ -9550,10 +9550,10 @@
         <v>41</v>
       </c>
       <c r="L208">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M208">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N208">
         <v>10</v>
@@ -9603,10 +9603,10 @@
         <v>41</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M209">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N209">
         <v>10</v>
@@ -9656,10 +9656,10 @@
         <v>41</v>
       </c>
       <c r="L210">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M210">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N210">
         <v>10</v>
@@ -9709,10 +9709,10 @@
         <v>41</v>
       </c>
       <c r="L211">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M211">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N211">
         <v>10</v>
@@ -9762,10 +9762,10 @@
         <v>41</v>
       </c>
       <c r="L212">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M212">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N212">
         <v>10</v>
@@ -9815,10 +9815,10 @@
         <v>41</v>
       </c>
       <c r="L213">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M213">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N213">
         <v>10</v>
@@ -9868,10 +9868,10 @@
         <v>41</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M214">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N214">
         <v>10</v>
@@ -9921,10 +9921,10 @@
         <v>41</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M215">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N215">
         <v>10</v>
@@ -9974,10 +9974,10 @@
         <v>41</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M216">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N216">
         <v>10</v>
@@ -10027,10 +10027,10 @@
         <v>41</v>
       </c>
       <c r="L217">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M217">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N217">
         <v>10</v>
@@ -10080,10 +10080,10 @@
         <v>41</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M218">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N218">
         <v>10</v>
@@ -10133,10 +10133,10 @@
         <v>41</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M219">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N219">
         <v>10</v>
@@ -10186,10 +10186,10 @@
         <v>41</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M220">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N220">
         <v>10</v>
@@ -10239,10 +10239,10 @@
         <v>41</v>
       </c>
       <c r="L221">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M221">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N221">
         <v>10</v>
@@ -10292,10 +10292,10 @@
         <v>41</v>
       </c>
       <c r="L222">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M222">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N222">
         <v>10</v>
@@ -10345,10 +10345,10 @@
         <v>41</v>
       </c>
       <c r="L223">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M223">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N223">
         <v>10</v>
@@ -10398,10 +10398,10 @@
         <v>41</v>
       </c>
       <c r="L224">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M224">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N224">
         <v>10</v>
@@ -10451,10 +10451,10 @@
         <v>41</v>
       </c>
       <c r="L225">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M225">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N225">
         <v>10</v>
@@ -10504,10 +10504,10 @@
         <v>41</v>
       </c>
       <c r="L226">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M226">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N226">
         <v>10</v>
@@ -10557,10 +10557,10 @@
         <v>41</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M227">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N227">
         <v>10</v>
@@ -10610,10 +10610,10 @@
         <v>41</v>
       </c>
       <c r="L228">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M228">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N228">
         <v>10</v>
@@ -10663,10 +10663,10 @@
         <v>41</v>
       </c>
       <c r="L229">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M229">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N229">
         <v>10</v>
@@ -10716,10 +10716,10 @@
         <v>41</v>
       </c>
       <c r="L230">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M230">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N230">
         <v>10</v>
@@ -10769,10 +10769,10 @@
         <v>41</v>
       </c>
       <c r="L231">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M231">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N231">
         <v>10</v>
@@ -10822,10 +10822,10 @@
         <v>41</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M232">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N232">
         <v>10</v>
@@ -10875,10 +10875,10 @@
         <v>41</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M233">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N233">
         <v>10</v>
@@ -10928,10 +10928,10 @@
         <v>41</v>
       </c>
       <c r="L234">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M234">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N234">
         <v>10</v>
@@ -10981,10 +10981,10 @@
         <v>41</v>
       </c>
       <c r="L235">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M235">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N235">
         <v>10</v>
@@ -11034,10 +11034,10 @@
         <v>41</v>
       </c>
       <c r="L236">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M236">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N236">
         <v>10</v>
@@ -11087,10 +11087,10 @@
         <v>41</v>
       </c>
       <c r="L237">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M237">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N237">
         <v>10</v>
@@ -11140,10 +11140,10 @@
         <v>41</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M238">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N238">
         <v>10</v>
@@ -11193,10 +11193,10 @@
         <v>41</v>
       </c>
       <c r="L239">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M239">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N239">
         <v>10</v>
@@ -11246,10 +11246,10 @@
         <v>41</v>
       </c>
       <c r="L240">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M240">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N240">
         <v>10</v>
@@ -11299,10 +11299,10 @@
         <v>41</v>
       </c>
       <c r="L241">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M241">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N241">
         <v>10</v>
@@ -11352,10 +11352,10 @@
         <v>41</v>
       </c>
       <c r="L242">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M242">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N242">
         <v>10</v>
@@ -11405,10 +11405,10 @@
         <v>41</v>
       </c>
       <c r="L243">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M243">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N243">
         <v>10</v>
@@ -11458,10 +11458,10 @@
         <v>41</v>
       </c>
       <c r="L244">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M244">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N244">
         <v>10</v>
@@ -11511,10 +11511,10 @@
         <v>41</v>
       </c>
       <c r="L245">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M245">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N245">
         <v>10</v>
@@ -11564,10 +11564,10 @@
         <v>41</v>
       </c>
       <c r="L246">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M246">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N246">
         <v>10</v>
@@ -11617,10 +11617,10 @@
         <v>41</v>
       </c>
       <c r="L247">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M247">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N247">
         <v>10</v>
@@ -11670,10 +11670,10 @@
         <v>41</v>
       </c>
       <c r="L248">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M248">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N248">
         <v>10</v>
@@ -11723,10 +11723,10 @@
         <v>41</v>
       </c>
       <c r="L249">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M249">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N249">
         <v>10</v>
@@ -11776,10 +11776,10 @@
         <v>41</v>
       </c>
       <c r="L250">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M250">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N250">
         <v>10</v>
@@ -11829,10 +11829,10 @@
         <v>41</v>
       </c>
       <c r="L251">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M251">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N251">
         <v>10</v>
@@ -11882,10 +11882,10 @@
         <v>41</v>
       </c>
       <c r="L252">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M252">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N252">
         <v>10</v>
@@ -11935,10 +11935,10 @@
         <v>41</v>
       </c>
       <c r="L253">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M253">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N253">
         <v>10</v>
@@ -11988,10 +11988,10 @@
         <v>41</v>
       </c>
       <c r="L254">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M254">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N254">
         <v>10</v>
@@ -12041,10 +12041,10 @@
         <v>41</v>
       </c>
       <c r="L255">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M255">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N255">
         <v>10</v>
@@ -12094,10 +12094,10 @@
         <v>41</v>
       </c>
       <c r="L256">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M256">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N256">
         <v>10</v>
@@ -12147,10 +12147,10 @@
         <v>41</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M257">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N257">
         <v>10</v>
@@ -12200,10 +12200,10 @@
         <v>41</v>
       </c>
       <c r="L258">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M258">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N258">
         <v>10</v>
@@ -12253,10 +12253,10 @@
         <v>41</v>
       </c>
       <c r="L259">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M259">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N259">
         <v>10</v>
@@ -12306,10 +12306,10 @@
         <v>41</v>
       </c>
       <c r="L260">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M260">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N260">
         <v>10</v>
@@ -12359,7 +12359,7 @@
         <v>41</v>
       </c>
       <c r="L261">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M261">
         <v>100</v>
@@ -12412,7 +12412,7 @@
         <v>41</v>
       </c>
       <c r="L262">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M262">
         <v>100</v>
@@ -12465,7 +12465,7 @@
         <v>41</v>
       </c>
       <c r="L263">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M263">
         <v>100</v>
@@ -12518,7 +12518,7 @@
         <v>41</v>
       </c>
       <c r="L264">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M264">
         <v>100</v>
@@ -12571,7 +12571,7 @@
         <v>41</v>
       </c>
       <c r="L265">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M265">
         <v>100</v>
@@ -12624,7 +12624,7 @@
         <v>41</v>
       </c>
       <c r="L266">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M266">
         <v>100</v>
@@ -12677,7 +12677,7 @@
         <v>41</v>
       </c>
       <c r="L267">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M267">
         <v>100</v>
@@ -12730,7 +12730,7 @@
         <v>41</v>
       </c>
       <c r="L268">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M268">
         <v>100</v>
@@ -12783,7 +12783,7 @@
         <v>41</v>
       </c>
       <c r="L269">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M269">
         <v>100</v>
@@ -12836,7 +12836,7 @@
         <v>41</v>
       </c>
       <c r="L270">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M270">
         <v>100</v>
@@ -12889,7 +12889,7 @@
         <v>41</v>
       </c>
       <c r="L271">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M271">
         <v>100</v>
@@ -12942,7 +12942,7 @@
         <v>41</v>
       </c>
       <c r="L272">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M272">
         <v>100</v>
@@ -12995,7 +12995,7 @@
         <v>41</v>
       </c>
       <c r="L273">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M273">
         <v>100</v>
@@ -13048,7 +13048,7 @@
         <v>41</v>
       </c>
       <c r="L274">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M274">
         <v>100</v>
@@ -13101,7 +13101,7 @@
         <v>41</v>
       </c>
       <c r="L275">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M275">
         <v>100</v>
@@ -13154,7 +13154,7 @@
         <v>41</v>
       </c>
       <c r="L276">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M276">
         <v>100</v>
@@ -13207,7 +13207,7 @@
         <v>41</v>
       </c>
       <c r="L277">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M277">
         <v>100</v>
@@ -13260,7 +13260,7 @@
         <v>41</v>
       </c>
       <c r="L278">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M278">
         <v>100</v>
@@ -13313,7 +13313,7 @@
         <v>41</v>
       </c>
       <c r="L279">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M279">
         <v>100</v>
@@ -13366,7 +13366,7 @@
         <v>41</v>
       </c>
       <c r="L280">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M280">
         <v>100</v>
@@ -13419,7 +13419,7 @@
         <v>41</v>
       </c>
       <c r="L281">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M281">
         <v>100</v>
@@ -13472,7 +13472,7 @@
         <v>41</v>
       </c>
       <c r="L282">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M282">
         <v>100</v>
@@ -13525,7 +13525,7 @@
         <v>41</v>
       </c>
       <c r="L283">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M283">
         <v>100</v>
@@ -13578,7 +13578,7 @@
         <v>41</v>
       </c>
       <c r="L284">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M284">
         <v>100</v>
@@ -13631,7 +13631,7 @@
         <v>41</v>
       </c>
       <c r="L285">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M285">
         <v>100</v>
@@ -13684,7 +13684,7 @@
         <v>41</v>
       </c>
       <c r="L286">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M286">
         <v>100</v>
@@ -13737,7 +13737,7 @@
         <v>41</v>
       </c>
       <c r="L287">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M287">
         <v>100</v>
@@ -13790,7 +13790,7 @@
         <v>41</v>
       </c>
       <c r="L288">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M288">
         <v>100</v>
@@ -13843,7 +13843,7 @@
         <v>41</v>
       </c>
       <c r="L289">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M289">
         <v>100</v>
@@ -13896,7 +13896,7 @@
         <v>41</v>
       </c>
       <c r="L290">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M290">
         <v>100</v>
@@ -13949,7 +13949,7 @@
         <v>41</v>
       </c>
       <c r="L291">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M291">
         <v>100</v>
@@ -14002,7 +14002,7 @@
         <v>41</v>
       </c>
       <c r="L292">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M292">
         <v>100</v>
@@ -14055,7 +14055,7 @@
         <v>41</v>
       </c>
       <c r="L293">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M293">
         <v>100</v>
@@ -14108,7 +14108,7 @@
         <v>41</v>
       </c>
       <c r="L294">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M294">
         <v>100</v>
@@ -14161,7 +14161,7 @@
         <v>41</v>
       </c>
       <c r="L295">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M295">
         <v>100</v>
@@ -14214,7 +14214,7 @@
         <v>41</v>
       </c>
       <c r="L296">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M296">
         <v>100</v>
@@ -14267,7 +14267,7 @@
         <v>41</v>
       </c>
       <c r="L297">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M297">
         <v>100</v>
@@ -14320,7 +14320,7 @@
         <v>41</v>
       </c>
       <c r="L298">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M298">
         <v>100</v>
@@ -14373,7 +14373,7 @@
         <v>41</v>
       </c>
       <c r="L299">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M299">
         <v>100</v>
@@ -14426,10 +14426,10 @@
         <v>41</v>
       </c>
       <c r="L300">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M300">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N300">
         <v>10</v>
@@ -14479,10 +14479,10 @@
         <v>41</v>
       </c>
       <c r="L301">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M301">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N301">
         <v>10</v>
@@ -14532,10 +14532,10 @@
         <v>41</v>
       </c>
       <c r="L302">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M302">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N302">
         <v>10</v>
@@ -14585,10 +14585,10 @@
         <v>41</v>
       </c>
       <c r="L303">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M303">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N303">
         <v>10</v>
@@ -14638,10 +14638,10 @@
         <v>41</v>
       </c>
       <c r="L304">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M304">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N304">
         <v>10</v>
@@ -14691,10 +14691,10 @@
         <v>41</v>
       </c>
       <c r="L305">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M305">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N305">
         <v>10</v>
@@ -14744,10 +14744,10 @@
         <v>41</v>
       </c>
       <c r="L306">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M306">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N306">
         <v>10</v>
@@ -14797,10 +14797,10 @@
         <v>41</v>
       </c>
       <c r="L307">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M307">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N307">
         <v>10</v>
@@ -14850,10 +14850,10 @@
         <v>41</v>
       </c>
       <c r="L308">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M308">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N308">
         <v>10</v>
@@ -14903,10 +14903,10 @@
         <v>41</v>
       </c>
       <c r="L309">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M309">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N309">
         <v>10</v>
@@ -14956,10 +14956,10 @@
         <v>41</v>
       </c>
       <c r="L310">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M310">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N310">
         <v>10</v>
@@ -15009,10 +15009,10 @@
         <v>41</v>
       </c>
       <c r="L311">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M311">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N311">
         <v>10</v>
@@ -15062,10 +15062,10 @@
         <v>41</v>
       </c>
       <c r="L312">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M312">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N312">
         <v>10</v>
@@ -15115,10 +15115,10 @@
         <v>41</v>
       </c>
       <c r="L313">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M313">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N313">
         <v>10</v>
@@ -15168,10 +15168,10 @@
         <v>41</v>
       </c>
       <c r="L314">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M314">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N314">
         <v>10</v>
@@ -15221,10 +15221,10 @@
         <v>41</v>
       </c>
       <c r="L315">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M315">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N315">
         <v>10</v>
@@ -15274,10 +15274,10 @@
         <v>41</v>
       </c>
       <c r="L316">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M316">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N316">
         <v>10</v>
@@ -15327,10 +15327,10 @@
         <v>41</v>
       </c>
       <c r="L317">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M317">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N317">
         <v>10</v>
@@ -15380,10 +15380,10 @@
         <v>41</v>
       </c>
       <c r="L318">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M318">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N318">
         <v>10</v>
@@ -15433,10 +15433,10 @@
         <v>41</v>
       </c>
       <c r="L319">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M319">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N319">
         <v>10</v>
@@ -15486,10 +15486,10 @@
         <v>41</v>
       </c>
       <c r="L320">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M320">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N320">
         <v>10</v>
@@ -15539,10 +15539,10 @@
         <v>41</v>
       </c>
       <c r="L321">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M321">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N321">
         <v>10</v>
@@ -15592,10 +15592,10 @@
         <v>41</v>
       </c>
       <c r="L322">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M322">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N322">
         <v>10</v>
@@ -15645,10 +15645,10 @@
         <v>41</v>
       </c>
       <c r="L323">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M323">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N323">
         <v>10</v>
@@ -15698,10 +15698,10 @@
         <v>41</v>
       </c>
       <c r="L324">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M324">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N324">
         <v>10</v>
@@ -15751,10 +15751,10 @@
         <v>41</v>
       </c>
       <c r="L325">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M325">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N325">
         <v>10</v>
@@ -15804,10 +15804,10 @@
         <v>41</v>
       </c>
       <c r="L326">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M326">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N326">
         <v>10</v>
@@ -15857,10 +15857,10 @@
         <v>41</v>
       </c>
       <c r="L327">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M327">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N327">
         <v>10</v>
@@ -15910,10 +15910,10 @@
         <v>41</v>
       </c>
       <c r="L328">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M328">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N328">
         <v>10</v>
@@ -15963,10 +15963,10 @@
         <v>41</v>
       </c>
       <c r="L329">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M329">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N329">
         <v>10</v>
@@ -16016,10 +16016,10 @@
         <v>41</v>
       </c>
       <c r="L330">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M330">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N330">
         <v>10</v>
@@ -16069,10 +16069,10 @@
         <v>41</v>
       </c>
       <c r="L331">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M331">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N331">
         <v>10</v>
@@ -16122,10 +16122,10 @@
         <v>41</v>
       </c>
       <c r="L332">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M332">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N332">
         <v>10</v>
@@ -16175,10 +16175,10 @@
         <v>41</v>
       </c>
       <c r="L333">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M333">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N333">
         <v>10</v>
@@ -16228,10 +16228,10 @@
         <v>41</v>
       </c>
       <c r="L334">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M334">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N334">
         <v>10</v>
@@ -16281,10 +16281,10 @@
         <v>41</v>
       </c>
       <c r="L335">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M335">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N335">
         <v>10</v>
@@ -16334,10 +16334,10 @@
         <v>41</v>
       </c>
       <c r="L336">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M336">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N336">
         <v>10</v>
@@ -16387,10 +16387,10 @@
         <v>41</v>
       </c>
       <c r="L337">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M337">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N337">
         <v>10</v>
@@ -16440,10 +16440,10 @@
         <v>41</v>
       </c>
       <c r="L338">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M338">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N338">
         <v>10</v>
@@ -16493,10 +16493,10 @@
         <v>41</v>
       </c>
       <c r="L339">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M339">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N339">
         <v>10</v>
@@ -16546,10 +16546,10 @@
         <v>41</v>
       </c>
       <c r="L340">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M340">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N340">
         <v>10</v>
@@ -16599,10 +16599,10 @@
         <v>41</v>
       </c>
       <c r="L341">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M341">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N341">
         <v>10</v>
@@ -16652,10 +16652,10 @@
         <v>41</v>
       </c>
       <c r="L342">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M342">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N342">
         <v>10</v>
@@ -16705,10 +16705,10 @@
         <v>41</v>
       </c>
       <c r="L343">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M343">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N343">
         <v>10</v>
@@ -16758,10 +16758,10 @@
         <v>41</v>
       </c>
       <c r="L344">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M344">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N344">
         <v>10</v>
@@ -16811,10 +16811,10 @@
         <v>41</v>
       </c>
       <c r="L345">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M345">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N345">
         <v>10</v>
@@ -16864,10 +16864,10 @@
         <v>41</v>
       </c>
       <c r="L346">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M346">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N346">
         <v>10</v>
@@ -16917,10 +16917,10 @@
         <v>41</v>
       </c>
       <c r="L347">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M347">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N347">
         <v>10</v>
@@ -16970,10 +16970,10 @@
         <v>41</v>
       </c>
       <c r="L348">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M348">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N348">
         <v>10</v>
@@ -17023,10 +17023,10 @@
         <v>41</v>
       </c>
       <c r="L349">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M349">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N349">
         <v>10</v>
@@ -17076,10 +17076,10 @@
         <v>41</v>
       </c>
       <c r="L350">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M350">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N350">
         <v>10</v>
@@ -17129,10 +17129,10 @@
         <v>41</v>
       </c>
       <c r="L351">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M351">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N351">
         <v>10</v>
@@ -17182,10 +17182,10 @@
         <v>41</v>
       </c>
       <c r="L352">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M352">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N352">
         <v>10</v>
@@ -17235,10 +17235,10 @@
         <v>41</v>
       </c>
       <c r="L353">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M353">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N353">
         <v>10</v>
@@ -17288,10 +17288,10 @@
         <v>41</v>
       </c>
       <c r="L354">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M354">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N354">
         <v>10</v>
@@ -17341,10 +17341,10 @@
         <v>41</v>
       </c>
       <c r="L355">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M355">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N355">
         <v>10</v>
@@ -17394,10 +17394,10 @@
         <v>41</v>
       </c>
       <c r="L356">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M356">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N356">
         <v>10</v>
@@ -17447,10 +17447,10 @@
         <v>41</v>
       </c>
       <c r="L357">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M357">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N357">
         <v>10</v>
@@ -17500,10 +17500,10 @@
         <v>41</v>
       </c>
       <c r="L358">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M358">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N358">
         <v>10</v>
@@ -17553,10 +17553,10 @@
         <v>41</v>
       </c>
       <c r="L359">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M359">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N359">
         <v>10</v>
@@ -17606,7 +17606,7 @@
         <v>41</v>
       </c>
       <c r="L360">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M360">
         <v>100</v>
@@ -17659,7 +17659,7 @@
         <v>41</v>
       </c>
       <c r="L361">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M361">
         <v>100</v>
@@ -17712,7 +17712,7 @@
         <v>41</v>
       </c>
       <c r="L362">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M362">
         <v>100</v>
@@ -17765,7 +17765,7 @@
         <v>41</v>
       </c>
       <c r="L363">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M363">
         <v>100</v>
@@ -17818,7 +17818,7 @@
         <v>41</v>
       </c>
       <c r="L364">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M364">
         <v>100</v>
@@ -17871,7 +17871,7 @@
         <v>41</v>
       </c>
       <c r="L365">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M365">
         <v>100</v>
@@ -17924,7 +17924,7 @@
         <v>41</v>
       </c>
       <c r="L366">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M366">
         <v>100</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="L367">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M367">
         <v>100</v>
@@ -18030,7 +18030,7 @@
         <v>41</v>
       </c>
       <c r="L368">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M368">
         <v>100</v>
@@ -18083,7 +18083,7 @@
         <v>41</v>
       </c>
       <c r="L369">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M369">
         <v>100</v>
@@ -18136,7 +18136,7 @@
         <v>41</v>
       </c>
       <c r="L370">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M370">
         <v>100</v>
@@ -18189,7 +18189,7 @@
         <v>41</v>
       </c>
       <c r="L371">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M371">
         <v>100</v>
@@ -18242,7 +18242,7 @@
         <v>41</v>
       </c>
       <c r="L372">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M372">
         <v>100</v>
@@ -18295,7 +18295,7 @@
         <v>41</v>
       </c>
       <c r="L373">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M373">
         <v>100</v>
@@ -18348,7 +18348,7 @@
         <v>41</v>
       </c>
       <c r="L374">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M374">
         <v>100</v>
@@ -18401,7 +18401,7 @@
         <v>41</v>
       </c>
       <c r="L375">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M375">
         <v>100</v>
@@ -18454,7 +18454,7 @@
         <v>41</v>
       </c>
       <c r="L376">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M376">
         <v>100</v>
@@ -18507,7 +18507,7 @@
         <v>41</v>
       </c>
       <c r="L377">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M377">
         <v>100</v>
@@ -18560,7 +18560,7 @@
         <v>41</v>
       </c>
       <c r="L378">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M378">
         <v>100</v>
@@ -18613,7 +18613,7 @@
         <v>41</v>
       </c>
       <c r="L379">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M379">
         <v>100</v>
@@ -18666,7 +18666,7 @@
         <v>41</v>
       </c>
       <c r="L380">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M380">
         <v>100</v>
@@ -18719,7 +18719,7 @@
         <v>41</v>
       </c>
       <c r="L381">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M381">
         <v>100</v>
@@ -18772,7 +18772,7 @@
         <v>41</v>
       </c>
       <c r="L382">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M382">
         <v>100</v>
@@ -18825,7 +18825,7 @@
         <v>41</v>
       </c>
       <c r="L383">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M383">
         <v>100</v>
@@ -18878,7 +18878,7 @@
         <v>41</v>
       </c>
       <c r="L384">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M384">
         <v>100</v>
@@ -18931,7 +18931,7 @@
         <v>41</v>
       </c>
       <c r="L385">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M385">
         <v>100</v>
@@ -18984,7 +18984,7 @@
         <v>41</v>
       </c>
       <c r="L386">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M386">
         <v>100</v>
@@ -19037,7 +19037,7 @@
         <v>41</v>
       </c>
       <c r="L387">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M387">
         <v>100</v>
@@ -19090,7 +19090,7 @@
         <v>41</v>
       </c>
       <c r="L388">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M388">
         <v>100</v>
@@ -19143,7 +19143,7 @@
         <v>41</v>
       </c>
       <c r="L389">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M389">
         <v>100</v>
@@ -19196,7 +19196,7 @@
         <v>41</v>
       </c>
       <c r="L390">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M390">
         <v>100</v>
@@ -19249,7 +19249,7 @@
         <v>41</v>
       </c>
       <c r="L391">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M391">
         <v>100</v>
@@ -19302,7 +19302,7 @@
         <v>41</v>
       </c>
       <c r="L392">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M392">
         <v>100</v>
@@ -19355,7 +19355,7 @@
         <v>41</v>
       </c>
       <c r="L393">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M393">
         <v>100</v>
@@ -19408,7 +19408,7 @@
         <v>41</v>
       </c>
       <c r="L394">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M394">
         <v>100</v>
@@ -19461,7 +19461,7 @@
         <v>41</v>
       </c>
       <c r="L395">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M395">
         <v>100</v>
@@ -19514,7 +19514,7 @@
         <v>41</v>
       </c>
       <c r="L396">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M396">
         <v>100</v>
@@ -19567,7 +19567,7 @@
         <v>41</v>
       </c>
       <c r="L397">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M397">
         <v>100</v>
@@ -19620,7 +19620,7 @@
         <v>41</v>
       </c>
       <c r="L398">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M398">
         <v>100</v>
@@ -19673,10 +19673,10 @@
         <v>41</v>
       </c>
       <c r="L399">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M399">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N399">
         <v>10</v>
@@ -19726,10 +19726,10 @@
         <v>41</v>
       </c>
       <c r="L400">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M400">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N400">
         <v>10</v>
@@ -19779,10 +19779,10 @@
         <v>41</v>
       </c>
       <c r="L401">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M401">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N401">
         <v>10</v>
@@ -19832,10 +19832,10 @@
         <v>41</v>
       </c>
       <c r="L402">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M402">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N402">
         <v>10</v>
@@ -19885,10 +19885,10 @@
         <v>41</v>
       </c>
       <c r="L403">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M403">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N403">
         <v>10</v>
@@ -19938,10 +19938,10 @@
         <v>41</v>
       </c>
       <c r="L404">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M404">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N404">
         <v>10</v>
@@ -19991,10 +19991,10 @@
         <v>41</v>
       </c>
       <c r="L405">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M405">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N405">
         <v>10</v>
@@ -20044,10 +20044,10 @@
         <v>41</v>
       </c>
       <c r="L406">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M406">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N406">
         <v>10</v>
@@ -20097,10 +20097,10 @@
         <v>41</v>
       </c>
       <c r="L407">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M407">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N407">
         <v>10</v>
@@ -20150,10 +20150,10 @@
         <v>41</v>
       </c>
       <c r="L408">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M408">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N408">
         <v>10</v>
@@ -20203,10 +20203,10 @@
         <v>41</v>
       </c>
       <c r="L409">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M409">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N409">
         <v>10</v>
@@ -20256,10 +20256,10 @@
         <v>41</v>
       </c>
       <c r="L410">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M410">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N410">
         <v>10</v>
@@ -20309,10 +20309,10 @@
         <v>41</v>
       </c>
       <c r="L411">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M411">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N411">
         <v>10</v>
@@ -20362,10 +20362,10 @@
         <v>41</v>
       </c>
       <c r="L412">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M412">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N412">
         <v>10</v>
@@ -20415,10 +20415,10 @@
         <v>41</v>
       </c>
       <c r="L413">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M413">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N413">
         <v>10</v>
@@ -20468,10 +20468,10 @@
         <v>41</v>
       </c>
       <c r="L414">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M414">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N414">
         <v>10</v>
@@ -20521,10 +20521,10 @@
         <v>41</v>
       </c>
       <c r="L415">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M415">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N415">
         <v>10</v>
@@ -20574,10 +20574,10 @@
         <v>41</v>
       </c>
       <c r="L416">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M416">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N416">
         <v>10</v>
@@ -20627,10 +20627,10 @@
         <v>41</v>
       </c>
       <c r="L417">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M417">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N417">
         <v>10</v>
@@ -20680,10 +20680,10 @@
         <v>41</v>
       </c>
       <c r="L418">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M418">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N418">
         <v>10</v>
@@ -20733,10 +20733,10 @@
         <v>41</v>
       </c>
       <c r="L419">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M419">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N419">
         <v>10</v>
@@ -20786,10 +20786,10 @@
         <v>41</v>
       </c>
       <c r="L420">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M420">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N420">
         <v>10</v>
@@ -20839,10 +20839,10 @@
         <v>41</v>
       </c>
       <c r="L421">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M421">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N421">
         <v>10</v>
@@ -20892,10 +20892,10 @@
         <v>41</v>
       </c>
       <c r="L422">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M422">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N422">
         <v>10</v>
@@ -20945,10 +20945,10 @@
         <v>41</v>
       </c>
       <c r="L423">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M423">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N423">
         <v>10</v>
@@ -20998,10 +20998,10 @@
         <v>41</v>
       </c>
       <c r="L424">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M424">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N424">
         <v>10</v>
@@ -21051,10 +21051,10 @@
         <v>41</v>
       </c>
       <c r="L425">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M425">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N425">
         <v>10</v>
@@ -21104,10 +21104,10 @@
         <v>41</v>
       </c>
       <c r="L426">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M426">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N426">
         <v>10</v>
@@ -21157,10 +21157,10 @@
         <v>41</v>
       </c>
       <c r="L427">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M427">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N427">
         <v>10</v>
@@ -21210,10 +21210,10 @@
         <v>41</v>
       </c>
       <c r="L428">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M428">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N428">
         <v>10</v>
@@ -21263,10 +21263,10 @@
         <v>41</v>
       </c>
       <c r="L429">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M429">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N429">
         <v>10</v>
@@ -21316,10 +21316,10 @@
         <v>41</v>
       </c>
       <c r="L430">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M430">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N430">
         <v>10</v>
@@ -21369,10 +21369,10 @@
         <v>41</v>
       </c>
       <c r="L431">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M431">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N431">
         <v>10</v>
@@ -21422,10 +21422,10 @@
         <v>41</v>
       </c>
       <c r="L432">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M432">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N432">
         <v>10</v>
@@ -21475,10 +21475,10 @@
         <v>41</v>
       </c>
       <c r="L433">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M433">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N433">
         <v>10</v>
@@ -21528,10 +21528,10 @@
         <v>41</v>
       </c>
       <c r="L434">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M434">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N434">
         <v>10</v>
@@ -21581,10 +21581,10 @@
         <v>41</v>
       </c>
       <c r="L435">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M435">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N435">
         <v>10</v>
@@ -21634,10 +21634,10 @@
         <v>41</v>
       </c>
       <c r="L436">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M436">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N436">
         <v>10</v>
@@ -21687,10 +21687,10 @@
         <v>41</v>
       </c>
       <c r="L437">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M437">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N437">
         <v>10</v>
@@ -21740,10 +21740,10 @@
         <v>41</v>
       </c>
       <c r="L438">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M438">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N438">
         <v>10</v>
@@ -21793,10 +21793,10 @@
         <v>41</v>
       </c>
       <c r="L439">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M439">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N439">
         <v>10</v>
@@ -21846,10 +21846,10 @@
         <v>41</v>
       </c>
       <c r="L440">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M440">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N440">
         <v>10</v>
@@ -21899,10 +21899,10 @@
         <v>41</v>
       </c>
       <c r="L441">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M441">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N441">
         <v>10</v>
@@ -21952,10 +21952,10 @@
         <v>41</v>
       </c>
       <c r="L442">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M442">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N442">
         <v>10</v>
@@ -22005,10 +22005,10 @@
         <v>41</v>
       </c>
       <c r="L443">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M443">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N443">
         <v>10</v>
@@ -22058,10 +22058,10 @@
         <v>41</v>
       </c>
       <c r="L444">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M444">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N444">
         <v>10</v>
@@ -22111,10 +22111,10 @@
         <v>41</v>
       </c>
       <c r="L445">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M445">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N445">
         <v>10</v>
@@ -22164,10 +22164,10 @@
         <v>41</v>
       </c>
       <c r="L446">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M446">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N446">
         <v>10</v>
@@ -22217,10 +22217,10 @@
         <v>41</v>
       </c>
       <c r="L447">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M447">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N447">
         <v>10</v>
@@ -22270,10 +22270,10 @@
         <v>41</v>
       </c>
       <c r="L448">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M448">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N448">
         <v>10</v>
@@ -22323,10 +22323,10 @@
         <v>41</v>
       </c>
       <c r="L449">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M449">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N449">
         <v>10</v>
@@ -22376,10 +22376,10 @@
         <v>41</v>
       </c>
       <c r="L450">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M450">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N450">
         <v>10</v>
@@ -22429,10 +22429,10 @@
         <v>41</v>
       </c>
       <c r="L451">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M451">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N451">
         <v>10</v>
@@ -22482,10 +22482,10 @@
         <v>41</v>
       </c>
       <c r="L452">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M452">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N452">
         <v>10</v>
@@ -22535,10 +22535,10 @@
         <v>41</v>
       </c>
       <c r="L453">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M453">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N453">
         <v>10</v>
@@ -22588,10 +22588,10 @@
         <v>41</v>
       </c>
       <c r="L454">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M454">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N454">
         <v>10</v>
@@ -22641,10 +22641,10 @@
         <v>41</v>
       </c>
       <c r="L455">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M455">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N455">
         <v>10</v>
@@ -22694,10 +22694,10 @@
         <v>41</v>
       </c>
       <c r="L456">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M456">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N456">
         <v>10</v>
@@ -22747,10 +22747,10 @@
         <v>41</v>
       </c>
       <c r="L457">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M457">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N457">
         <v>10</v>
@@ -22800,10 +22800,10 @@
         <v>41</v>
       </c>
       <c r="L458">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M458">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N458">
         <v>10</v>
@@ -22853,7 +22853,7 @@
         <v>41</v>
       </c>
       <c r="L459">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M459">
         <v>100</v>
@@ -22906,7 +22906,7 @@
         <v>41</v>
       </c>
       <c r="L460">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M460">
         <v>100</v>
@@ -22959,7 +22959,7 @@
         <v>41</v>
       </c>
       <c r="L461">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M461">
         <v>100</v>
@@ -23012,7 +23012,7 @@
         <v>41</v>
       </c>
       <c r="L462">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M462">
         <v>100</v>
@@ -23065,7 +23065,7 @@
         <v>41</v>
       </c>
       <c r="L463">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M463">
         <v>100</v>
@@ -23118,7 +23118,7 @@
         <v>41</v>
       </c>
       <c r="L464">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M464">
         <v>100</v>
@@ -23171,7 +23171,7 @@
         <v>41</v>
       </c>
       <c r="L465">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M465">
         <v>100</v>
@@ -23224,7 +23224,7 @@
         <v>41</v>
       </c>
       <c r="L466">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M466">
         <v>100</v>
@@ -23277,7 +23277,7 @@
         <v>41</v>
       </c>
       <c r="L467">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M467">
         <v>100</v>
@@ -23330,7 +23330,7 @@
         <v>41</v>
       </c>
       <c r="L468">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M468">
         <v>100</v>
@@ -23383,7 +23383,7 @@
         <v>41</v>
       </c>
       <c r="L469">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M469">
         <v>100</v>
@@ -23436,7 +23436,7 @@
         <v>41</v>
       </c>
       <c r="L470">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M470">
         <v>100</v>
@@ -23489,7 +23489,7 @@
         <v>41</v>
       </c>
       <c r="L471">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M471">
         <v>100</v>
@@ -23542,7 +23542,7 @@
         <v>41</v>
       </c>
       <c r="L472">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M472">
         <v>100</v>
@@ -23595,7 +23595,7 @@
         <v>41</v>
       </c>
       <c r="L473">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M473">
         <v>100</v>
@@ -23648,7 +23648,7 @@
         <v>41</v>
       </c>
       <c r="L474">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M474">
         <v>100</v>
@@ -23701,7 +23701,7 @@
         <v>41</v>
       </c>
       <c r="L475">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M475">
         <v>100</v>
@@ -23754,7 +23754,7 @@
         <v>41</v>
       </c>
       <c r="L476">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M476">
         <v>100</v>
@@ -23807,7 +23807,7 @@
         <v>41</v>
       </c>
       <c r="L477">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M477">
         <v>100</v>
@@ -23860,7 +23860,7 @@
         <v>41</v>
       </c>
       <c r="L478">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M478">
         <v>100</v>
@@ -23913,7 +23913,7 @@
         <v>41</v>
       </c>
       <c r="L479">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M479">
         <v>100</v>
@@ -23966,7 +23966,7 @@
         <v>41</v>
       </c>
       <c r="L480">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M480">
         <v>100</v>
@@ -24019,7 +24019,7 @@
         <v>41</v>
       </c>
       <c r="L481">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M481">
         <v>100</v>
@@ -24072,7 +24072,7 @@
         <v>41</v>
       </c>
       <c r="L482">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M482">
         <v>100</v>
@@ -24125,7 +24125,7 @@
         <v>41</v>
       </c>
       <c r="L483">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M483">
         <v>100</v>
@@ -24178,7 +24178,7 @@
         <v>41</v>
       </c>
       <c r="L484">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M484">
         <v>100</v>
@@ -24231,7 +24231,7 @@
         <v>41</v>
       </c>
       <c r="L485">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M485">
         <v>100</v>
@@ -24284,7 +24284,7 @@
         <v>41</v>
       </c>
       <c r="L486">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M486">
         <v>100</v>
@@ -24337,7 +24337,7 @@
         <v>41</v>
       </c>
       <c r="L487">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M487">
         <v>100</v>
@@ -24390,7 +24390,7 @@
         <v>41</v>
       </c>
       <c r="L488">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M488">
         <v>100</v>
@@ -24443,7 +24443,7 @@
         <v>41</v>
       </c>
       <c r="L489">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M489">
         <v>100</v>
@@ -24496,7 +24496,7 @@
         <v>41</v>
       </c>
       <c r="L490">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M490">
         <v>100</v>
@@ -24549,7 +24549,7 @@
         <v>41</v>
       </c>
       <c r="L491">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M491">
         <v>100</v>
@@ -24602,7 +24602,7 @@
         <v>41</v>
       </c>
       <c r="L492">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M492">
         <v>100</v>
@@ -24655,7 +24655,7 @@
         <v>41</v>
       </c>
       <c r="L493">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M493">
         <v>100</v>
@@ -24708,7 +24708,7 @@
         <v>41</v>
       </c>
       <c r="L494">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M494">
         <v>100</v>
@@ -24761,7 +24761,7 @@
         <v>41</v>
       </c>
       <c r="L495">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M495">
         <v>100</v>
@@ -24814,7 +24814,7 @@
         <v>41</v>
       </c>
       <c r="L496">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M496">
         <v>100</v>
@@ -24867,7 +24867,7 @@
         <v>41</v>
       </c>
       <c r="L497">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M497">
         <v>100</v>
@@ -24920,10 +24920,10 @@
         <v>41</v>
       </c>
       <c r="L498">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M498">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N498">
         <v>10</v>
@@ -24973,10 +24973,10 @@
         <v>41</v>
       </c>
       <c r="L499">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M499">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N499">
         <v>10</v>
@@ -25026,10 +25026,10 @@
         <v>41</v>
       </c>
       <c r="L500">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M500">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N500">
         <v>10</v>
@@ -25079,10 +25079,10 @@
         <v>41</v>
       </c>
       <c r="L501">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M501">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N501">
         <v>10</v>
@@ -25132,10 +25132,10 @@
         <v>41</v>
       </c>
       <c r="L502">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M502">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N502">
         <v>10</v>
@@ -25185,10 +25185,10 @@
         <v>41</v>
       </c>
       <c r="L503">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M503">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N503">
         <v>10</v>
@@ -25238,10 +25238,10 @@
         <v>41</v>
       </c>
       <c r="L504">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M504">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N504">
         <v>10</v>
@@ -25291,10 +25291,10 @@
         <v>41</v>
       </c>
       <c r="L505">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M505">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N505">
         <v>10</v>
@@ -25344,10 +25344,10 @@
         <v>41</v>
       </c>
       <c r="L506">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M506">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N506">
         <v>10</v>
@@ -25397,10 +25397,10 @@
         <v>41</v>
       </c>
       <c r="L507">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M507">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N507">
         <v>10</v>
@@ -25450,10 +25450,10 @@
         <v>41</v>
       </c>
       <c r="L508">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M508">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N508">
         <v>10</v>
@@ -25503,10 +25503,10 @@
         <v>41</v>
       </c>
       <c r="L509">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M509">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N509">
         <v>10</v>
@@ -25556,10 +25556,10 @@
         <v>41</v>
       </c>
       <c r="L510">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M510">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N510">
         <v>10</v>
@@ -25609,10 +25609,10 @@
         <v>41</v>
       </c>
       <c r="L511">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M511">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N511">
         <v>10</v>
@@ -25662,10 +25662,10 @@
         <v>41</v>
       </c>
       <c r="L512">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M512">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N512">
         <v>10</v>
@@ -25715,10 +25715,10 @@
         <v>41</v>
       </c>
       <c r="L513">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M513">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N513">
         <v>10</v>
@@ -25768,10 +25768,10 @@
         <v>41</v>
       </c>
       <c r="L514">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M514">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N514">
         <v>10</v>
@@ -25821,10 +25821,10 @@
         <v>41</v>
       </c>
       <c r="L515">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M515">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N515">
         <v>10</v>
@@ -25874,10 +25874,10 @@
         <v>41</v>
       </c>
       <c r="L516">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M516">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N516">
         <v>10</v>
@@ -25927,10 +25927,10 @@
         <v>41</v>
       </c>
       <c r="L517">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M517">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N517">
         <v>10</v>
@@ -25980,10 +25980,10 @@
         <v>41</v>
       </c>
       <c r="L518">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M518">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N518">
         <v>10</v>
@@ -26033,10 +26033,10 @@
         <v>41</v>
       </c>
       <c r="L519">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M519">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N519">
         <v>10</v>
@@ -26086,10 +26086,10 @@
         <v>41</v>
       </c>
       <c r="L520">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M520">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N520">
         <v>10</v>
@@ -26139,10 +26139,10 @@
         <v>41</v>
       </c>
       <c r="L521">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M521">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N521">
         <v>10</v>
@@ -26192,10 +26192,10 @@
         <v>41</v>
       </c>
       <c r="L522">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M522">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N522">
         <v>10</v>
@@ -26245,10 +26245,10 @@
         <v>41</v>
       </c>
       <c r="L523">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M523">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N523">
         <v>10</v>
@@ -26298,10 +26298,10 @@
         <v>41</v>
       </c>
       <c r="L524">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M524">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N524">
         <v>10</v>
@@ -26351,10 +26351,10 @@
         <v>41</v>
       </c>
       <c r="L525">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M525">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N525">
         <v>10</v>
@@ -26404,10 +26404,10 @@
         <v>41</v>
       </c>
       <c r="L526">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M526">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N526">
         <v>10</v>
@@ -26457,10 +26457,10 @@
         <v>41</v>
       </c>
       <c r="L527">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M527">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N527">
         <v>10</v>
@@ -26510,10 +26510,10 @@
         <v>41</v>
       </c>
       <c r="L528">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M528">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N528">
         <v>10</v>
@@ -26563,10 +26563,10 @@
         <v>41</v>
       </c>
       <c r="L529">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M529">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N529">
         <v>10</v>
@@ -26616,10 +26616,10 @@
         <v>41</v>
       </c>
       <c r="L530">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M530">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N530">
         <v>10</v>
@@ -26669,10 +26669,10 @@
         <v>41</v>
       </c>
       <c r="L531">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M531">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N531">
         <v>10</v>
@@ -26722,10 +26722,10 @@
         <v>41</v>
       </c>
       <c r="L532">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M532">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N532">
         <v>10</v>
@@ -26775,10 +26775,10 @@
         <v>41</v>
       </c>
       <c r="L533">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M533">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N533">
         <v>10</v>
@@ -26828,10 +26828,10 @@
         <v>41</v>
       </c>
       <c r="L534">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M534">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N534">
         <v>10</v>
@@ -26881,10 +26881,10 @@
         <v>41</v>
       </c>
       <c r="L535">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M535">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N535">
         <v>10</v>
@@ -26934,10 +26934,10 @@
         <v>41</v>
       </c>
       <c r="L536">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M536">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N536">
         <v>10</v>
@@ -26987,10 +26987,10 @@
         <v>41</v>
       </c>
       <c r="L537">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M537">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N537">
         <v>10</v>
@@ -27040,10 +27040,10 @@
         <v>41</v>
       </c>
       <c r="L538">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M538">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N538">
         <v>10</v>
@@ -27093,10 +27093,10 @@
         <v>41</v>
       </c>
       <c r="L539">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M539">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N539">
         <v>10</v>
@@ -27146,10 +27146,10 @@
         <v>41</v>
       </c>
       <c r="L540">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M540">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N540">
         <v>10</v>
@@ -27199,10 +27199,10 @@
         <v>41</v>
       </c>
       <c r="L541">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M541">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N541">
         <v>10</v>
@@ -27252,10 +27252,10 @@
         <v>41</v>
       </c>
       <c r="L542">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M542">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N542">
         <v>10</v>
@@ -27305,10 +27305,10 @@
         <v>41</v>
       </c>
       <c r="L543">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M543">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N543">
         <v>10</v>
@@ -27358,10 +27358,10 @@
         <v>41</v>
       </c>
       <c r="L544">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M544">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N544">
         <v>10</v>
@@ -27411,10 +27411,10 @@
         <v>41</v>
       </c>
       <c r="L545">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M545">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N545">
         <v>10</v>
@@ -27464,10 +27464,10 @@
         <v>41</v>
       </c>
       <c r="L546">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M546">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N546">
         <v>10</v>
@@ -27517,10 +27517,10 @@
         <v>41</v>
       </c>
       <c r="L547">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M547">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N547">
         <v>10</v>
@@ -27570,10 +27570,10 @@
         <v>41</v>
       </c>
       <c r="L548">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M548">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N548">
         <v>10</v>
@@ -27623,10 +27623,10 @@
         <v>41</v>
       </c>
       <c r="L549">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M549">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N549">
         <v>10</v>
@@ -27676,10 +27676,10 @@
         <v>41</v>
       </c>
       <c r="L550">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M550">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N550">
         <v>10</v>
@@ -27729,10 +27729,10 @@
         <v>41</v>
       </c>
       <c r="L551">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M551">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N551">
         <v>10</v>
@@ -27782,10 +27782,10 @@
         <v>41</v>
       </c>
       <c r="L552">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M552">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N552">
         <v>10</v>
@@ -27835,10 +27835,10 @@
         <v>41</v>
       </c>
       <c r="L553">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M553">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N553">
         <v>10</v>
@@ -27888,10 +27888,10 @@
         <v>41</v>
       </c>
       <c r="L554">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M554">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N554">
         <v>10</v>
@@ -27941,10 +27941,10 @@
         <v>41</v>
       </c>
       <c r="L555">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M555">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N555">
         <v>10</v>
@@ -27994,10 +27994,10 @@
         <v>41</v>
       </c>
       <c r="L556">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M556">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N556">
         <v>10</v>
@@ -28047,10 +28047,10 @@
         <v>41</v>
       </c>
       <c r="L557">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M557">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N557">
         <v>10</v>
@@ -28100,7 +28100,7 @@
         <v>41</v>
       </c>
       <c r="L558">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M558">
         <v>100</v>
@@ -28153,7 +28153,7 @@
         <v>41</v>
       </c>
       <c r="L559">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M559">
         <v>100</v>
@@ -28206,7 +28206,7 @@
         <v>41</v>
       </c>
       <c r="L560">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M560">
         <v>100</v>
@@ -28259,7 +28259,7 @@
         <v>41</v>
       </c>
       <c r="L561">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M561">
         <v>100</v>
@@ -28312,7 +28312,7 @@
         <v>41</v>
       </c>
       <c r="L562">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M562">
         <v>100</v>
@@ -28365,7 +28365,7 @@
         <v>41</v>
       </c>
       <c r="L563">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M563">
         <v>100</v>
@@ -28418,7 +28418,7 @@
         <v>41</v>
       </c>
       <c r="L564">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M564">
         <v>100</v>
@@ -28471,7 +28471,7 @@
         <v>41</v>
       </c>
       <c r="L565">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M565">
         <v>100</v>
@@ -28524,7 +28524,7 @@
         <v>41</v>
       </c>
       <c r="L566">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M566">
         <v>100</v>
@@ -28577,7 +28577,7 @@
         <v>41</v>
       </c>
       <c r="L567">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M567">
         <v>100</v>
@@ -28630,7 +28630,7 @@
         <v>41</v>
       </c>
       <c r="L568">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M568">
         <v>100</v>
@@ -28683,7 +28683,7 @@
         <v>41</v>
       </c>
       <c r="L569">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M569">
         <v>100</v>
@@ -28736,7 +28736,7 @@
         <v>41</v>
       </c>
       <c r="L570">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M570">
         <v>100</v>
@@ -28789,7 +28789,7 @@
         <v>41</v>
       </c>
       <c r="L571">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M571">
         <v>100</v>
@@ -28842,7 +28842,7 @@
         <v>41</v>
       </c>
       <c r="L572">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M572">
         <v>100</v>
@@ -28895,7 +28895,7 @@
         <v>41</v>
       </c>
       <c r="L573">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M573">
         <v>100</v>
@@ -28948,7 +28948,7 @@
         <v>41</v>
       </c>
       <c r="L574">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M574">
         <v>100</v>
@@ -29001,7 +29001,7 @@
         <v>41</v>
       </c>
       <c r="L575">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M575">
         <v>100</v>
@@ -29054,7 +29054,7 @@
         <v>41</v>
       </c>
       <c r="L576">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M576">
         <v>100</v>
@@ -29107,7 +29107,7 @@
         <v>41</v>
       </c>
       <c r="L577">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M577">
         <v>100</v>
@@ -29160,7 +29160,7 @@
         <v>41</v>
       </c>
       <c r="L578">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M578">
         <v>100</v>
@@ -29213,7 +29213,7 @@
         <v>41</v>
       </c>
       <c r="L579">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M579">
         <v>100</v>
@@ -29266,7 +29266,7 @@
         <v>41</v>
       </c>
       <c r="L580">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M580">
         <v>100</v>
@@ -29319,7 +29319,7 @@
         <v>41</v>
       </c>
       <c r="L581">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M581">
         <v>100</v>
@@ -29372,7 +29372,7 @@
         <v>41</v>
       </c>
       <c r="L582">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M582">
         <v>100</v>
@@ -29425,7 +29425,7 @@
         <v>41</v>
       </c>
       <c r="L583">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M583">
         <v>100</v>
@@ -29478,7 +29478,7 @@
         <v>41</v>
       </c>
       <c r="L584">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M584">
         <v>100</v>
@@ -29531,7 +29531,7 @@
         <v>41</v>
       </c>
       <c r="L585">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M585">
         <v>100</v>
@@ -29584,7 +29584,7 @@
         <v>41</v>
       </c>
       <c r="L586">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M586">
         <v>100</v>
@@ -29637,7 +29637,7 @@
         <v>41</v>
       </c>
       <c r="L587">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M587">
         <v>100</v>
@@ -29690,7 +29690,7 @@
         <v>41</v>
       </c>
       <c r="L588">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M588">
         <v>100</v>
@@ -29743,7 +29743,7 @@
         <v>41</v>
       </c>
       <c r="L589">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M589">
         <v>100</v>
@@ -29796,7 +29796,7 @@
         <v>41</v>
       </c>
       <c r="L590">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M590">
         <v>100</v>
@@ -29849,7 +29849,7 @@
         <v>41</v>
       </c>
       <c r="L591">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M591">
         <v>100</v>
@@ -29902,7 +29902,7 @@
         <v>41</v>
       </c>
       <c r="L592">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M592">
         <v>100</v>
@@ -29955,7 +29955,7 @@
         <v>41</v>
       </c>
       <c r="L593">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M593">
         <v>100</v>
@@ -30008,7 +30008,7 @@
         <v>41</v>
       </c>
       <c r="L594">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M594">
         <v>100</v>
@@ -30061,7 +30061,7 @@
         <v>41</v>
       </c>
       <c r="L595">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M595">
         <v>100</v>
@@ -30114,7 +30114,7 @@
         <v>41</v>
       </c>
       <c r="L596">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M596">
         <v>100</v>
@@ -30167,10 +30167,10 @@
         <v>41</v>
       </c>
       <c r="L597">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M597">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N597">
         <v>10</v>
@@ -30220,10 +30220,10 @@
         <v>41</v>
       </c>
       <c r="L598">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M598">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N598">
         <v>10</v>
@@ -30273,10 +30273,10 @@
         <v>41</v>
       </c>
       <c r="L599">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M599">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N599">
         <v>10</v>
@@ -30326,10 +30326,10 @@
         <v>41</v>
       </c>
       <c r="L600">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M600">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N600">
         <v>10</v>
@@ -30379,10 +30379,10 @@
         <v>41</v>
       </c>
       <c r="L601">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M601">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N601">
         <v>10</v>
@@ -30432,10 +30432,10 @@
         <v>41</v>
       </c>
       <c r="L602">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M602">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N602">
         <v>10</v>
@@ -30485,10 +30485,10 @@
         <v>41</v>
       </c>
       <c r="L603">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M603">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N603">
         <v>10</v>
@@ -30538,10 +30538,10 @@
         <v>41</v>
       </c>
       <c r="L604">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M604">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N604">
         <v>10</v>
@@ -30591,10 +30591,10 @@
         <v>41</v>
       </c>
       <c r="L605">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M605">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N605">
         <v>10</v>
@@ -30644,10 +30644,10 @@
         <v>41</v>
       </c>
       <c r="L606">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M606">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N606">
         <v>10</v>
@@ -30697,10 +30697,10 @@
         <v>41</v>
       </c>
       <c r="L607">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M607">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N607">
         <v>10</v>
@@ -30750,10 +30750,10 @@
         <v>41</v>
       </c>
       <c r="L608">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M608">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N608">
         <v>10</v>
@@ -30803,10 +30803,10 @@
         <v>41</v>
       </c>
       <c r="L609">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M609">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N609">
         <v>10</v>
@@ -30856,10 +30856,10 @@
         <v>41</v>
       </c>
       <c r="L610">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M610">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N610">
         <v>10</v>
@@ -30909,10 +30909,10 @@
         <v>41</v>
       </c>
       <c r="L611">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M611">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N611">
         <v>10</v>
@@ -30962,10 +30962,10 @@
         <v>41</v>
       </c>
       <c r="L612">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M612">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N612">
         <v>10</v>
@@ -31015,10 +31015,10 @@
         <v>41</v>
       </c>
       <c r="L613">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M613">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N613">
         <v>10</v>
@@ -31068,10 +31068,10 @@
         <v>41</v>
       </c>
       <c r="L614">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M614">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N614">
         <v>10</v>
@@ -31121,10 +31121,10 @@
         <v>41</v>
       </c>
       <c r="L615">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M615">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N615">
         <v>10</v>
@@ -31174,10 +31174,10 @@
         <v>41</v>
       </c>
       <c r="L616">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M616">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N616">
         <v>10</v>
@@ -31227,10 +31227,10 @@
         <v>41</v>
       </c>
       <c r="L617">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M617">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N617">
         <v>10</v>
@@ -31280,10 +31280,10 @@
         <v>41</v>
       </c>
       <c r="L618">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M618">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N618">
         <v>10</v>
@@ -31333,10 +31333,10 @@
         <v>41</v>
       </c>
       <c r="L619">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M619">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N619">
         <v>10</v>
@@ -31386,10 +31386,10 @@
         <v>41</v>
       </c>
       <c r="L620">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M620">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N620">
         <v>10</v>
@@ -31439,10 +31439,10 @@
         <v>41</v>
       </c>
       <c r="L621">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M621">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N621">
         <v>10</v>
@@ -31492,10 +31492,10 @@
         <v>41</v>
       </c>
       <c r="L622">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M622">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N622">
         <v>10</v>
@@ -31545,10 +31545,10 @@
         <v>41</v>
       </c>
       <c r="L623">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M623">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N623">
         <v>10</v>
@@ -31598,10 +31598,10 @@
         <v>41</v>
       </c>
       <c r="L624">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M624">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N624">
         <v>10</v>
@@ -31651,10 +31651,10 @@
         <v>41</v>
       </c>
       <c r="L625">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M625">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N625">
         <v>10</v>
@@ -31704,10 +31704,10 @@
         <v>41</v>
       </c>
       <c r="L626">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M626">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N626">
         <v>10</v>
@@ -31757,10 +31757,10 @@
         <v>41</v>
       </c>
       <c r="L627">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M627">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N627">
         <v>10</v>
@@ -31810,10 +31810,10 @@
         <v>41</v>
       </c>
       <c r="L628">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M628">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N628">
         <v>10</v>
@@ -31863,10 +31863,10 @@
         <v>41</v>
       </c>
       <c r="L629">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M629">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N629">
         <v>10</v>
@@ -31916,10 +31916,10 @@
         <v>41</v>
       </c>
       <c r="L630">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M630">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N630">
         <v>10</v>
@@ -31969,10 +31969,10 @@
         <v>41</v>
       </c>
       <c r="L631">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M631">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N631">
         <v>10</v>
@@ -32022,10 +32022,10 @@
         <v>41</v>
       </c>
       <c r="L632">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M632">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N632">
         <v>10</v>
@@ -32075,10 +32075,10 @@
         <v>41</v>
       </c>
       <c r="L633">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M633">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N633">
         <v>10</v>
@@ -32128,10 +32128,10 @@
         <v>41</v>
       </c>
       <c r="L634">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M634">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N634">
         <v>10</v>
@@ -32181,10 +32181,10 @@
         <v>41</v>
       </c>
       <c r="L635">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M635">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N635">
         <v>10</v>
@@ -32234,10 +32234,10 @@
         <v>41</v>
       </c>
       <c r="L636">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M636">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N636">
         <v>10</v>
@@ -32287,10 +32287,10 @@
         <v>41</v>
       </c>
       <c r="L637">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M637">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N637">
         <v>10</v>
@@ -32340,10 +32340,10 @@
         <v>41</v>
       </c>
       <c r="L638">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M638">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N638">
         <v>10</v>
@@ -32393,10 +32393,10 @@
         <v>41</v>
       </c>
       <c r="L639">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M639">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N639">
         <v>10</v>
@@ -32446,10 +32446,10 @@
         <v>41</v>
       </c>
       <c r="L640">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M640">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N640">
         <v>10</v>
@@ -32499,10 +32499,10 @@
         <v>41</v>
       </c>
       <c r="L641">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M641">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N641">
         <v>10</v>
@@ -32552,10 +32552,10 @@
         <v>41</v>
       </c>
       <c r="L642">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M642">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N642">
         <v>10</v>
@@ -32605,10 +32605,10 @@
         <v>41</v>
       </c>
       <c r="L643">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M643">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N643">
         <v>10</v>
@@ -32658,10 +32658,10 @@
         <v>41</v>
       </c>
       <c r="L644">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M644">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N644">
         <v>10</v>
@@ -32711,10 +32711,10 @@
         <v>41</v>
       </c>
       <c r="L645">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M645">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N645">
         <v>10</v>
@@ -32764,10 +32764,10 @@
         <v>41</v>
       </c>
       <c r="L646">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M646">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N646">
         <v>10</v>
@@ -32817,10 +32817,10 @@
         <v>41</v>
       </c>
       <c r="L647">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M647">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N647">
         <v>10</v>
@@ -32870,10 +32870,10 @@
         <v>41</v>
       </c>
       <c r="L648">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M648">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N648">
         <v>10</v>
@@ -32923,10 +32923,10 @@
         <v>41</v>
       </c>
       <c r="L649">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M649">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N649">
         <v>10</v>
@@ -32976,10 +32976,10 @@
         <v>41</v>
       </c>
       <c r="L650">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M650">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N650">
         <v>10</v>
@@ -33029,10 +33029,10 @@
         <v>41</v>
       </c>
       <c r="L651">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M651">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N651">
         <v>10</v>
@@ -33082,10 +33082,10 @@
         <v>41</v>
       </c>
       <c r="L652">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M652">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N652">
         <v>10</v>
@@ -33135,10 +33135,10 @@
         <v>41</v>
       </c>
       <c r="L653">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M653">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N653">
         <v>10</v>
@@ -33188,10 +33188,10 @@
         <v>41</v>
       </c>
       <c r="L654">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M654">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N654">
         <v>10</v>
@@ -33241,10 +33241,10 @@
         <v>41</v>
       </c>
       <c r="L655">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M655">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N655">
         <v>10</v>
@@ -33294,10 +33294,10 @@
         <v>41</v>
       </c>
       <c r="L656">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M656">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N656">
         <v>10</v>
@@ -33347,7 +33347,7 @@
         <v>41</v>
       </c>
       <c r="L657">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M657">
         <v>100</v>
@@ -33400,7 +33400,7 @@
         <v>41</v>
       </c>
       <c r="L658">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M658">
         <v>100</v>
@@ -33453,7 +33453,7 @@
         <v>41</v>
       </c>
       <c r="L659">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M659">
         <v>100</v>
@@ -33506,7 +33506,7 @@
         <v>41</v>
       </c>
       <c r="L660">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M660">
         <v>100</v>
@@ -33559,7 +33559,7 @@
         <v>41</v>
       </c>
       <c r="L661">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M661">
         <v>100</v>
@@ -33612,7 +33612,7 @@
         <v>41</v>
       </c>
       <c r="L662">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M662">
         <v>100</v>
@@ -33665,7 +33665,7 @@
         <v>41</v>
       </c>
       <c r="L663">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M663">
         <v>100</v>
@@ -33718,7 +33718,7 @@
         <v>41</v>
       </c>
       <c r="L664">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M664">
         <v>100</v>
@@ -33771,7 +33771,7 @@
         <v>41</v>
       </c>
       <c r="L665">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M665">
         <v>100</v>
@@ -33824,7 +33824,7 @@
         <v>41</v>
       </c>
       <c r="L666">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M666">
         <v>100</v>
@@ -33877,7 +33877,7 @@
         <v>41</v>
       </c>
       <c r="L667">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M667">
         <v>100</v>
@@ -33930,7 +33930,7 @@
         <v>41</v>
       </c>
       <c r="L668">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M668">
         <v>100</v>
@@ -33983,7 +33983,7 @@
         <v>41</v>
       </c>
       <c r="L669">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M669">
         <v>100</v>
@@ -34036,7 +34036,7 @@
         <v>41</v>
       </c>
       <c r="L670">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M670">
         <v>100</v>
@@ -34089,7 +34089,7 @@
         <v>41</v>
       </c>
       <c r="L671">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M671">
         <v>100</v>
@@ -34142,7 +34142,7 @@
         <v>41</v>
       </c>
       <c r="L672">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M672">
         <v>100</v>
@@ -34195,7 +34195,7 @@
         <v>41</v>
       </c>
       <c r="L673">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M673">
         <v>100</v>
@@ -34248,7 +34248,7 @@
         <v>41</v>
       </c>
       <c r="L674">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M674">
         <v>100</v>
@@ -34301,7 +34301,7 @@
         <v>41</v>
       </c>
       <c r="L675">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M675">
         <v>100</v>
@@ -34354,7 +34354,7 @@
         <v>41</v>
       </c>
       <c r="L676">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M676">
         <v>100</v>
@@ -34407,7 +34407,7 @@
         <v>41</v>
       </c>
       <c r="L677">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M677">
         <v>100</v>
@@ -34460,7 +34460,7 @@
         <v>41</v>
       </c>
       <c r="L678">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M678">
         <v>100</v>
@@ -34513,7 +34513,7 @@
         <v>41</v>
       </c>
       <c r="L679">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M679">
         <v>100</v>
@@ -34566,7 +34566,7 @@
         <v>41</v>
       </c>
       <c r="L680">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M680">
         <v>100</v>
@@ -34619,7 +34619,7 @@
         <v>41</v>
       </c>
       <c r="L681">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M681">
         <v>100</v>
@@ -34672,7 +34672,7 @@
         <v>41</v>
       </c>
       <c r="L682">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M682">
         <v>100</v>
@@ -34725,7 +34725,7 @@
         <v>41</v>
       </c>
       <c r="L683">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M683">
         <v>100</v>
@@ -34778,7 +34778,7 @@
         <v>41</v>
       </c>
       <c r="L684">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M684">
         <v>100</v>
@@ -34831,7 +34831,7 @@
         <v>41</v>
       </c>
       <c r="L685">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M685">
         <v>100</v>
@@ -34884,7 +34884,7 @@
         <v>41</v>
       </c>
       <c r="L686">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M686">
         <v>100</v>
@@ -34937,7 +34937,7 @@
         <v>41</v>
       </c>
       <c r="L687">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M687">
         <v>100</v>
@@ -34990,7 +34990,7 @@
         <v>41</v>
       </c>
       <c r="L688">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M688">
         <v>100</v>
@@ -35043,7 +35043,7 @@
         <v>41</v>
       </c>
       <c r="L689">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M689">
         <v>100</v>
@@ -35096,7 +35096,7 @@
         <v>41</v>
       </c>
       <c r="L690">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M690">
         <v>100</v>
@@ -35149,7 +35149,7 @@
         <v>41</v>
       </c>
       <c r="L691">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M691">
         <v>100</v>
@@ -35202,7 +35202,7 @@
         <v>41</v>
       </c>
       <c r="L692">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M692">
         <v>100</v>
@@ -35255,7 +35255,7 @@
         <v>41</v>
       </c>
       <c r="L693">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M693">
         <v>100</v>
@@ -35308,7 +35308,7 @@
         <v>41</v>
       </c>
       <c r="L694">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M694">
         <v>100</v>
@@ -35361,7 +35361,7 @@
         <v>41</v>
       </c>
       <c r="L695">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="M695">
         <v>100</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CFA5D4-69A6-4BA2-940D-A2D4F10656F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963C7F0-3605-48F6-A767-FFE4F19D7346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -935,10 +935,10 @@
   <dimension ref="A1:Q695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomRight" activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3942,10 +3942,10 @@
         <v>5</v>
       </c>
       <c r="N102">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P102">
         <v>2.2999999999999998</v>
@@ -3995,10 +3995,10 @@
         <v>5</v>
       </c>
       <c r="N103">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P103">
         <v>2.2999999999999998</v>
@@ -4048,10 +4048,10 @@
         <v>5</v>
       </c>
       <c r="N104">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P104">
         <v>2.2999999999999998</v>
@@ -4101,10 +4101,10 @@
         <v>5</v>
       </c>
       <c r="N105">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P105">
         <v>2.2999999999999998</v>
@@ -4154,10 +4154,10 @@
         <v>5</v>
       </c>
       <c r="N106">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P106">
         <v>2.2999999999999998</v>
@@ -4207,10 +4207,10 @@
         <v>5</v>
       </c>
       <c r="N107">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P107">
         <v>2.2999999999999998</v>
@@ -4260,10 +4260,10 @@
         <v>5</v>
       </c>
       <c r="N108">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P108">
         <v>2.2999999999999998</v>
@@ -4313,10 +4313,10 @@
         <v>5</v>
       </c>
       <c r="N109">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O109">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P109">
         <v>2.2999999999999998</v>
@@ -4366,10 +4366,10 @@
         <v>5</v>
       </c>
       <c r="N110">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P110">
         <v>2.2999999999999998</v>
@@ -4419,10 +4419,10 @@
         <v>5</v>
       </c>
       <c r="N111">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P111">
         <v>2.2999999999999998</v>
@@ -4472,10 +4472,10 @@
         <v>10</v>
       </c>
       <c r="N112">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P112">
         <v>2.2999999999999998</v>
@@ -4525,10 +4525,10 @@
         <v>10</v>
       </c>
       <c r="N113">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P113">
         <v>2.2999999999999998</v>
@@ -4578,10 +4578,10 @@
         <v>10</v>
       </c>
       <c r="N114">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O114">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P114">
         <v>2.2999999999999998</v>
@@ -4631,10 +4631,10 @@
         <v>10</v>
       </c>
       <c r="N115">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P115">
         <v>2.2999999999999998</v>
@@ -4684,10 +4684,10 @@
         <v>10</v>
       </c>
       <c r="N116">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O116">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P116">
         <v>2.2999999999999998</v>
@@ -4737,10 +4737,10 @@
         <v>10</v>
       </c>
       <c r="N117">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O117">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P117">
         <v>2.2999999999999998</v>
@@ -4790,10 +4790,10 @@
         <v>10</v>
       </c>
       <c r="N118">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P118">
         <v>2.2999999999999998</v>
@@ -4843,10 +4843,10 @@
         <v>10</v>
       </c>
       <c r="N119">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P119">
         <v>2.2999999999999998</v>
@@ -4896,10 +4896,10 @@
         <v>10</v>
       </c>
       <c r="N120">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O120">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P120">
         <v>2.2999999999999998</v>
@@ -4949,10 +4949,10 @@
         <v>20</v>
       </c>
       <c r="N121">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P121">
         <v>2.2999999999999998</v>
@@ -5002,10 +5002,10 @@
         <v>20</v>
       </c>
       <c r="N122">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O122">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P122">
         <v>2.2999999999999998</v>
@@ -5055,10 +5055,10 @@
         <v>20</v>
       </c>
       <c r="N123">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O123">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P123">
         <v>2.2999999999999998</v>
@@ -5108,10 +5108,10 @@
         <v>20</v>
       </c>
       <c r="N124">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P124">
         <v>2.2999999999999998</v>
@@ -5161,10 +5161,10 @@
         <v>20</v>
       </c>
       <c r="N125">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P125">
         <v>2.2999999999999998</v>
@@ -5214,10 +5214,10 @@
         <v>20</v>
       </c>
       <c r="N126">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P126">
         <v>2.2999999999999998</v>
@@ -5267,10 +5267,10 @@
         <v>20</v>
       </c>
       <c r="N127">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P127">
         <v>2.2999999999999998</v>
@@ -5320,10 +5320,10 @@
         <v>20</v>
       </c>
       <c r="N128">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P128">
         <v>2.2999999999999998</v>
@@ -5373,10 +5373,10 @@
         <v>20</v>
       </c>
       <c r="N129">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P129">
         <v>2.2999999999999998</v>
@@ -5426,10 +5426,10 @@
         <v>20</v>
       </c>
       <c r="N130">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O130">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P130">
         <v>2.2999999999999998</v>
@@ -5479,10 +5479,10 @@
         <v>20</v>
       </c>
       <c r="N131">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P131">
         <v>2.2999999999999998</v>
@@ -5532,10 +5532,10 @@
         <v>30</v>
       </c>
       <c r="N132">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O132">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P132">
         <v>2.2999999999999998</v>
@@ -5585,10 +5585,10 @@
         <v>30</v>
       </c>
       <c r="N133">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P133">
         <v>2.2999999999999998</v>
@@ -5638,10 +5638,10 @@
         <v>30</v>
       </c>
       <c r="N134">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O134">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P134">
         <v>2.2999999999999998</v>
@@ -5691,10 +5691,10 @@
         <v>30</v>
       </c>
       <c r="N135">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O135">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P135">
         <v>2.2999999999999998</v>
@@ -5744,10 +5744,10 @@
         <v>30</v>
       </c>
       <c r="N136">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O136">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P136">
         <v>2.2999999999999998</v>
@@ -5797,10 +5797,10 @@
         <v>30</v>
       </c>
       <c r="N137">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O137">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P137">
         <v>2.2999999999999998</v>
@@ -5850,10 +5850,10 @@
         <v>30</v>
       </c>
       <c r="N138">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O138">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P138">
         <v>2.2999999999999998</v>
@@ -5903,10 +5903,10 @@
         <v>30</v>
       </c>
       <c r="N139">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O139">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P139">
         <v>2.2999999999999998</v>
@@ -5956,10 +5956,10 @@
         <v>30</v>
       </c>
       <c r="N140">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O140">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P140">
         <v>2.2999999999999998</v>
@@ -6009,10 +6009,10 @@
         <v>30</v>
       </c>
       <c r="N141">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O141">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P141">
         <v>2.2999999999999998</v>
@@ -6062,10 +6062,10 @@
         <v>50</v>
       </c>
       <c r="N142">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P142">
         <v>2.2999999999999998</v>
@@ -6115,10 +6115,10 @@
         <v>50</v>
       </c>
       <c r="N143">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P143">
         <v>2.2999999999999998</v>
@@ -6168,10 +6168,10 @@
         <v>50</v>
       </c>
       <c r="N144">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P144">
         <v>2.2999999999999998</v>
@@ -6221,10 +6221,10 @@
         <v>50</v>
       </c>
       <c r="N145">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P145">
         <v>2.2999999999999998</v>
@@ -6274,10 +6274,10 @@
         <v>50</v>
       </c>
       <c r="N146">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O146">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P146">
         <v>2.2999999999999998</v>
@@ -6327,10 +6327,10 @@
         <v>50</v>
       </c>
       <c r="N147">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P147">
         <v>2.2999999999999998</v>
@@ -6380,10 +6380,10 @@
         <v>50</v>
       </c>
       <c r="N148">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O148">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P148">
         <v>2.2999999999999998</v>
@@ -6433,10 +6433,10 @@
         <v>50</v>
       </c>
       <c r="N149">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O149">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P149">
         <v>2.2999999999999998</v>
@@ -6486,10 +6486,10 @@
         <v>50</v>
       </c>
       <c r="N150">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O150">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P150">
         <v>2.2999999999999998</v>
@@ -6539,10 +6539,10 @@
         <v>50</v>
       </c>
       <c r="N151">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O151">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P151">
         <v>2.2999999999999998</v>
@@ -6592,10 +6592,10 @@
         <v>70</v>
       </c>
       <c r="N152">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P152">
         <v>2.2999999999999998</v>
@@ -6645,10 +6645,10 @@
         <v>70</v>
       </c>
       <c r="N153">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O153">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P153">
         <v>2.2999999999999998</v>
@@ -6698,10 +6698,10 @@
         <v>70</v>
       </c>
       <c r="N154">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P154">
         <v>2.2999999999999998</v>
@@ -6751,10 +6751,10 @@
         <v>70</v>
       </c>
       <c r="N155">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P155">
         <v>2.2999999999999998</v>
@@ -6804,10 +6804,10 @@
         <v>70</v>
       </c>
       <c r="N156">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O156">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P156">
         <v>2.2999999999999998</v>
@@ -6857,10 +6857,10 @@
         <v>70</v>
       </c>
       <c r="N157">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P157">
         <v>2.2999999999999998</v>
@@ -6910,10 +6910,10 @@
         <v>70</v>
       </c>
       <c r="N158">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P158">
         <v>2.2999999999999998</v>
@@ -6963,10 +6963,10 @@
         <v>70</v>
       </c>
       <c r="N159">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O159">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P159">
         <v>2.2999999999999998</v>
@@ -7016,10 +7016,10 @@
         <v>70</v>
       </c>
       <c r="N160">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O160">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P160">
         <v>2.2999999999999998</v>
@@ -7069,10 +7069,10 @@
         <v>70</v>
       </c>
       <c r="N161">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P161">
         <v>2.2999999999999998</v>
@@ -7122,10 +7122,10 @@
         <v>100</v>
       </c>
       <c r="N162">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P162">
         <v>2.2999999999999998</v>
@@ -7175,10 +7175,10 @@
         <v>100</v>
       </c>
       <c r="N163">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O163">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P163">
         <v>2.2999999999999998</v>
@@ -7228,10 +7228,10 @@
         <v>100</v>
       </c>
       <c r="N164">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O164">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P164">
         <v>2.2999999999999998</v>
@@ -7281,10 +7281,10 @@
         <v>100</v>
       </c>
       <c r="N165">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P165">
         <v>2.2999999999999998</v>
@@ -7334,10 +7334,10 @@
         <v>100</v>
       </c>
       <c r="N166">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P166">
         <v>2.2999999999999998</v>
@@ -7387,10 +7387,10 @@
         <v>100</v>
       </c>
       <c r="N167">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P167">
         <v>2.2999999999999998</v>
@@ -7440,10 +7440,10 @@
         <v>100</v>
       </c>
       <c r="N168">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O168">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P168">
         <v>2.2999999999999998</v>
@@ -7493,10 +7493,10 @@
         <v>100</v>
       </c>
       <c r="N169">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O169">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P169">
         <v>2.2999999999999998</v>
@@ -7546,10 +7546,10 @@
         <v>100</v>
       </c>
       <c r="N170">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O170">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P170">
         <v>2.2999999999999998</v>
@@ -7599,10 +7599,10 @@
         <v>100</v>
       </c>
       <c r="N171">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O171">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P171">
         <v>2.2999999999999998</v>
@@ -7652,10 +7652,10 @@
         <v>100</v>
       </c>
       <c r="N172">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O172">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P172">
         <v>2.2999999999999998</v>
@@ -7705,10 +7705,10 @@
         <v>100</v>
       </c>
       <c r="N173">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P173">
         <v>2.2999999999999998</v>
@@ -7758,10 +7758,10 @@
         <v>100</v>
       </c>
       <c r="N174">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O174">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P174">
         <v>2.2999999999999998</v>
@@ -7811,10 +7811,10 @@
         <v>100</v>
       </c>
       <c r="N175">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O175">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P175">
         <v>2.2999999999999998</v>
@@ -7864,10 +7864,10 @@
         <v>100</v>
       </c>
       <c r="N176">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P176">
         <v>2.2999999999999998</v>
@@ -7917,10 +7917,10 @@
         <v>100</v>
       </c>
       <c r="N177">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O177">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P177">
         <v>2.2999999999999998</v>
@@ -7970,10 +7970,10 @@
         <v>100</v>
       </c>
       <c r="N178">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P178">
         <v>2.2999999999999998</v>
@@ -8023,10 +8023,10 @@
         <v>100</v>
       </c>
       <c r="N179">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P179">
         <v>2.2999999999999998</v>
@@ -8076,10 +8076,10 @@
         <v>100</v>
       </c>
       <c r="N180">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P180">
         <v>2.2999999999999998</v>
@@ -8129,10 +8129,10 @@
         <v>100</v>
       </c>
       <c r="N181">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O181">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P181">
         <v>2.2999999999999998</v>
@@ -8182,10 +8182,10 @@
         <v>100</v>
       </c>
       <c r="N182">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O182">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P182">
         <v>2.2999999999999998</v>
@@ -8235,10 +8235,10 @@
         <v>100</v>
       </c>
       <c r="N183">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P183">
         <v>2.2999999999999998</v>
@@ -8288,10 +8288,10 @@
         <v>100</v>
       </c>
       <c r="N184">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O184">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P184">
         <v>2.2999999999999998</v>
@@ -8341,10 +8341,10 @@
         <v>100</v>
       </c>
       <c r="N185">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O185">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P185">
         <v>2.2999999999999998</v>
@@ -8394,10 +8394,10 @@
         <v>100</v>
       </c>
       <c r="N186">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O186">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P186">
         <v>2.2999999999999998</v>
@@ -8447,10 +8447,10 @@
         <v>100</v>
       </c>
       <c r="N187">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O187">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P187">
         <v>2.2999999999999998</v>
@@ -8500,10 +8500,10 @@
         <v>100</v>
       </c>
       <c r="N188">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P188">
         <v>2.2999999999999998</v>
@@ -8553,10 +8553,10 @@
         <v>100</v>
       </c>
       <c r="N189">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O189">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P189">
         <v>2.2999999999999998</v>
@@ -8606,10 +8606,10 @@
         <v>100</v>
       </c>
       <c r="N190">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O190">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P190">
         <v>2.2999999999999998</v>
@@ -8659,10 +8659,10 @@
         <v>100</v>
       </c>
       <c r="N191">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O191">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P191">
         <v>2.2999999999999998</v>
@@ -8712,10 +8712,10 @@
         <v>100</v>
       </c>
       <c r="N192">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O192">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P192">
         <v>2.2999999999999998</v>
@@ -8765,10 +8765,10 @@
         <v>100</v>
       </c>
       <c r="N193">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O193">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P193">
         <v>2.2999999999999998</v>
@@ -8818,10 +8818,10 @@
         <v>100</v>
       </c>
       <c r="N194">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O194">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P194">
         <v>2.2999999999999998</v>
@@ -8871,10 +8871,10 @@
         <v>100</v>
       </c>
       <c r="N195">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O195">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P195">
         <v>2.2999999999999998</v>
@@ -8924,10 +8924,10 @@
         <v>100</v>
       </c>
       <c r="N196">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O196">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P196">
         <v>2.2999999999999998</v>
@@ -8977,10 +8977,10 @@
         <v>100</v>
       </c>
       <c r="N197">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O197">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P197">
         <v>2.2999999999999998</v>
@@ -9030,10 +9030,10 @@
         <v>100</v>
       </c>
       <c r="N198">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O198">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P198">
         <v>2.2999999999999998</v>
@@ -9083,10 +9083,10 @@
         <v>100</v>
       </c>
       <c r="N199">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O199">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P199">
         <v>2.2999999999999998</v>
@@ -9136,10 +9136,10 @@
         <v>100</v>
       </c>
       <c r="N200">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O200">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P200">
         <v>2.2999999999999998</v>
@@ -9189,10 +9189,10 @@
         <v>5</v>
       </c>
       <c r="N201">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O201">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P201">
         <v>2.2999999999999998</v>
@@ -9242,10 +9242,10 @@
         <v>5</v>
       </c>
       <c r="N202">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O202">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P202">
         <v>2.2999999999999998</v>
@@ -9295,10 +9295,10 @@
         <v>5</v>
       </c>
       <c r="N203">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O203">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P203">
         <v>2.2999999999999998</v>
@@ -9348,10 +9348,10 @@
         <v>5</v>
       </c>
       <c r="N204">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O204">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P204">
         <v>2.2999999999999998</v>
@@ -9401,10 +9401,10 @@
         <v>5</v>
       </c>
       <c r="N205">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O205">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P205">
         <v>2.2999999999999998</v>
@@ -9454,10 +9454,10 @@
         <v>5</v>
       </c>
       <c r="N206">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P206">
         <v>2.2999999999999998</v>
@@ -9507,10 +9507,10 @@
         <v>5</v>
       </c>
       <c r="N207">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O207">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P207">
         <v>2.2999999999999998</v>
@@ -9560,10 +9560,10 @@
         <v>5</v>
       </c>
       <c r="N208">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P208">
         <v>2.2999999999999998</v>
@@ -9613,10 +9613,10 @@
         <v>5</v>
       </c>
       <c r="N209">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P209">
         <v>2.2999999999999998</v>
@@ -9666,10 +9666,10 @@
         <v>5</v>
       </c>
       <c r="N210">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O210">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P210">
         <v>2.2999999999999998</v>
@@ -9719,10 +9719,10 @@
         <v>10</v>
       </c>
       <c r="N211">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P211">
         <v>2.2999999999999998</v>
@@ -9772,10 +9772,10 @@
         <v>10</v>
       </c>
       <c r="N212">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O212">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P212">
         <v>2.2999999999999998</v>
@@ -9825,10 +9825,10 @@
         <v>10</v>
       </c>
       <c r="N213">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O213">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P213">
         <v>2.2999999999999998</v>
@@ -9878,10 +9878,10 @@
         <v>10</v>
       </c>
       <c r="N214">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O214">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P214">
         <v>2.2999999999999998</v>
@@ -9931,10 +9931,10 @@
         <v>10</v>
       </c>
       <c r="N215">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O215">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P215">
         <v>2.2999999999999998</v>
@@ -9984,10 +9984,10 @@
         <v>10</v>
       </c>
       <c r="N216">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O216">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P216">
         <v>2.2999999999999998</v>
@@ -10037,10 +10037,10 @@
         <v>10</v>
       </c>
       <c r="N217">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O217">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P217">
         <v>2.2999999999999998</v>
@@ -10090,10 +10090,10 @@
         <v>10</v>
       </c>
       <c r="N218">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O218">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P218">
         <v>2.2999999999999998</v>
@@ -10143,10 +10143,10 @@
         <v>10</v>
       </c>
       <c r="N219">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O219">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P219">
         <v>2.2999999999999998</v>
@@ -10196,10 +10196,10 @@
         <v>20</v>
       </c>
       <c r="N220">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O220">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P220">
         <v>2.2999999999999998</v>
@@ -10249,10 +10249,10 @@
         <v>20</v>
       </c>
       <c r="N221">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O221">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P221">
         <v>2.2999999999999998</v>
@@ -10302,10 +10302,10 @@
         <v>20</v>
       </c>
       <c r="N222">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O222">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P222">
         <v>2.2999999999999998</v>
@@ -10355,10 +10355,10 @@
         <v>20</v>
       </c>
       <c r="N223">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O223">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P223">
         <v>2.2999999999999998</v>
@@ -10408,10 +10408,10 @@
         <v>20</v>
       </c>
       <c r="N224">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O224">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P224">
         <v>2.2999999999999998</v>
@@ -10461,10 +10461,10 @@
         <v>20</v>
       </c>
       <c r="N225">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O225">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P225">
         <v>2.2999999999999998</v>
@@ -10514,10 +10514,10 @@
         <v>20</v>
       </c>
       <c r="N226">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O226">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P226">
         <v>2.2999999999999998</v>
@@ -10567,10 +10567,10 @@
         <v>20</v>
       </c>
       <c r="N227">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O227">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P227">
         <v>2.2999999999999998</v>
@@ -10620,10 +10620,10 @@
         <v>20</v>
       </c>
       <c r="N228">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O228">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P228">
         <v>2.2999999999999998</v>
@@ -10673,10 +10673,10 @@
         <v>20</v>
       </c>
       <c r="N229">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O229">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P229">
         <v>2.2999999999999998</v>
@@ -10726,10 +10726,10 @@
         <v>20</v>
       </c>
       <c r="N230">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O230">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P230">
         <v>2.2999999999999998</v>
@@ -10779,10 +10779,10 @@
         <v>30</v>
       </c>
       <c r="N231">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O231">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P231">
         <v>2.2999999999999998</v>
@@ -10832,10 +10832,10 @@
         <v>30</v>
       </c>
       <c r="N232">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O232">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P232">
         <v>2.2999999999999998</v>
@@ -10885,10 +10885,10 @@
         <v>30</v>
       </c>
       <c r="N233">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P233">
         <v>2.2999999999999998</v>
@@ -10938,10 +10938,10 @@
         <v>30</v>
       </c>
       <c r="N234">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O234">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P234">
         <v>2.2999999999999998</v>
@@ -10991,10 +10991,10 @@
         <v>30</v>
       </c>
       <c r="N235">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O235">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P235">
         <v>2.2999999999999998</v>
@@ -11044,10 +11044,10 @@
         <v>30</v>
       </c>
       <c r="N236">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O236">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P236">
         <v>2.2999999999999998</v>
@@ -11097,10 +11097,10 @@
         <v>30</v>
       </c>
       <c r="N237">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O237">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P237">
         <v>2.2999999999999998</v>
@@ -11150,10 +11150,10 @@
         <v>30</v>
       </c>
       <c r="N238">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P238">
         <v>2.2999999999999998</v>
@@ -11203,10 +11203,10 @@
         <v>30</v>
       </c>
       <c r="N239">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P239">
         <v>2.2999999999999998</v>
@@ -11256,10 +11256,10 @@
         <v>30</v>
       </c>
       <c r="N240">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O240">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P240">
         <v>2.2999999999999998</v>
@@ -11309,10 +11309,10 @@
         <v>50</v>
       </c>
       <c r="N241">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O241">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P241">
         <v>2.2999999999999998</v>
@@ -11362,10 +11362,10 @@
         <v>50</v>
       </c>
       <c r="N242">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O242">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P242">
         <v>2.2999999999999998</v>
@@ -11415,10 +11415,10 @@
         <v>50</v>
       </c>
       <c r="N243">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O243">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P243">
         <v>2.2999999999999998</v>
@@ -11468,10 +11468,10 @@
         <v>50</v>
       </c>
       <c r="N244">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O244">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P244">
         <v>2.2999999999999998</v>
@@ -11521,10 +11521,10 @@
         <v>50</v>
       </c>
       <c r="N245">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P245">
         <v>2.2999999999999998</v>
@@ -11574,10 +11574,10 @@
         <v>50</v>
       </c>
       <c r="N246">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O246">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P246">
         <v>2.2999999999999998</v>
@@ -11627,10 +11627,10 @@
         <v>50</v>
       </c>
       <c r="N247">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O247">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P247">
         <v>2.2999999999999998</v>
@@ -11680,10 +11680,10 @@
         <v>50</v>
       </c>
       <c r="N248">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O248">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P248">
         <v>2.2999999999999998</v>
@@ -11733,10 +11733,10 @@
         <v>50</v>
       </c>
       <c r="N249">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O249">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P249">
         <v>2.2999999999999998</v>
@@ -11786,10 +11786,10 @@
         <v>50</v>
       </c>
       <c r="N250">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O250">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P250">
         <v>2.2999999999999998</v>
@@ -11839,10 +11839,10 @@
         <v>70</v>
       </c>
       <c r="N251">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O251">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P251">
         <v>2.2999999999999998</v>
@@ -11892,10 +11892,10 @@
         <v>70</v>
       </c>
       <c r="N252">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O252">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P252">
         <v>2.2999999999999998</v>
@@ -11945,10 +11945,10 @@
         <v>70</v>
       </c>
       <c r="N253">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O253">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P253">
         <v>2.2999999999999998</v>
@@ -11998,10 +11998,10 @@
         <v>70</v>
       </c>
       <c r="N254">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O254">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P254">
         <v>2.2999999999999998</v>
@@ -12051,10 +12051,10 @@
         <v>70</v>
       </c>
       <c r="N255">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O255">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P255">
         <v>2.2999999999999998</v>
@@ -12104,10 +12104,10 @@
         <v>70</v>
       </c>
       <c r="N256">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O256">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P256">
         <v>2.2999999999999998</v>
@@ -12157,10 +12157,10 @@
         <v>70</v>
       </c>
       <c r="N257">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O257">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P257">
         <v>2.2999999999999998</v>
@@ -12210,10 +12210,10 @@
         <v>70</v>
       </c>
       <c r="N258">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O258">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P258">
         <v>2.2999999999999998</v>
@@ -12263,10 +12263,10 @@
         <v>70</v>
       </c>
       <c r="N259">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O259">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P259">
         <v>2.2999999999999998</v>
@@ -12316,10 +12316,10 @@
         <v>70</v>
       </c>
       <c r="N260">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O260">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P260">
         <v>2.2999999999999998</v>
@@ -12369,10 +12369,10 @@
         <v>100</v>
       </c>
       <c r="N261">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O261">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P261">
         <v>2.2999999999999998</v>
@@ -12422,10 +12422,10 @@
         <v>100</v>
       </c>
       <c r="N262">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O262">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P262">
         <v>2.2999999999999998</v>
@@ -12475,10 +12475,10 @@
         <v>100</v>
       </c>
       <c r="N263">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O263">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P263">
         <v>2.2999999999999998</v>
@@ -12528,10 +12528,10 @@
         <v>100</v>
       </c>
       <c r="N264">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O264">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P264">
         <v>2.2999999999999998</v>
@@ -12581,10 +12581,10 @@
         <v>100</v>
       </c>
       <c r="N265">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O265">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P265">
         <v>2.2999999999999998</v>
@@ -12634,10 +12634,10 @@
         <v>100</v>
       </c>
       <c r="N266">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O266">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P266">
         <v>2.2999999999999998</v>
@@ -12687,10 +12687,10 @@
         <v>100</v>
       </c>
       <c r="N267">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O267">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P267">
         <v>2.2999999999999998</v>
@@ -12740,10 +12740,10 @@
         <v>100</v>
       </c>
       <c r="N268">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O268">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P268">
         <v>2.2999999999999998</v>
@@ -12793,10 +12793,10 @@
         <v>100</v>
       </c>
       <c r="N269">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O269">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P269">
         <v>2.2999999999999998</v>
@@ -12846,10 +12846,10 @@
         <v>100</v>
       </c>
       <c r="N270">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O270">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P270">
         <v>2.2999999999999998</v>
@@ -12899,10 +12899,10 @@
         <v>100</v>
       </c>
       <c r="N271">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O271">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P271">
         <v>2.2999999999999998</v>
@@ -12952,10 +12952,10 @@
         <v>100</v>
       </c>
       <c r="N272">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O272">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P272">
         <v>2.2999999999999998</v>
@@ -13005,10 +13005,10 @@
         <v>100</v>
       </c>
       <c r="N273">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O273">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P273">
         <v>2.2999999999999998</v>
@@ -13058,10 +13058,10 @@
         <v>100</v>
       </c>
       <c r="N274">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O274">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P274">
         <v>2.2999999999999998</v>
@@ -13111,10 +13111,10 @@
         <v>100</v>
       </c>
       <c r="N275">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O275">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P275">
         <v>2.2999999999999998</v>
@@ -13164,10 +13164,10 @@
         <v>100</v>
       </c>
       <c r="N276">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O276">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P276">
         <v>2.2999999999999998</v>
@@ -13217,10 +13217,10 @@
         <v>100</v>
       </c>
       <c r="N277">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O277">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P277">
         <v>2.2999999999999998</v>
@@ -13270,10 +13270,10 @@
         <v>100</v>
       </c>
       <c r="N278">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O278">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P278">
         <v>2.2999999999999998</v>
@@ -13323,10 +13323,10 @@
         <v>100</v>
       </c>
       <c r="N279">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O279">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P279">
         <v>2.2999999999999998</v>
@@ -13376,10 +13376,10 @@
         <v>100</v>
       </c>
       <c r="N280">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O280">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P280">
         <v>2.2999999999999998</v>
@@ -13429,10 +13429,10 @@
         <v>100</v>
       </c>
       <c r="N281">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O281">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P281">
         <v>2.2999999999999998</v>
@@ -13482,10 +13482,10 @@
         <v>100</v>
       </c>
       <c r="N282">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O282">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P282">
         <v>2.2999999999999998</v>
@@ -13535,10 +13535,10 @@
         <v>100</v>
       </c>
       <c r="N283">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O283">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P283">
         <v>2.2999999999999998</v>
@@ -13588,10 +13588,10 @@
         <v>100</v>
       </c>
       <c r="N284">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O284">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P284">
         <v>2.2999999999999998</v>
@@ -13641,10 +13641,10 @@
         <v>100</v>
       </c>
       <c r="N285">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O285">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P285">
         <v>2.2999999999999998</v>
@@ -13694,10 +13694,10 @@
         <v>100</v>
       </c>
       <c r="N286">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O286">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P286">
         <v>2.2999999999999998</v>
@@ -13747,10 +13747,10 @@
         <v>100</v>
       </c>
       <c r="N287">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O287">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P287">
         <v>2.2999999999999998</v>
@@ -13800,10 +13800,10 @@
         <v>100</v>
       </c>
       <c r="N288">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O288">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P288">
         <v>2.2999999999999998</v>
@@ -13853,10 +13853,10 @@
         <v>100</v>
       </c>
       <c r="N289">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O289">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P289">
         <v>2.2999999999999998</v>
@@ -13906,10 +13906,10 @@
         <v>100</v>
       </c>
       <c r="N290">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O290">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P290">
         <v>2.2999999999999998</v>
@@ -13959,10 +13959,10 @@
         <v>100</v>
       </c>
       <c r="N291">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O291">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P291">
         <v>2.2999999999999998</v>
@@ -14012,10 +14012,10 @@
         <v>100</v>
       </c>
       <c r="N292">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O292">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P292">
         <v>2.2999999999999998</v>
@@ -14065,10 +14065,10 @@
         <v>100</v>
       </c>
       <c r="N293">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O293">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P293">
         <v>2.2999999999999998</v>
@@ -14118,10 +14118,10 @@
         <v>100</v>
       </c>
       <c r="N294">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O294">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P294">
         <v>2.2999999999999998</v>
@@ -14171,10 +14171,10 @@
         <v>100</v>
       </c>
       <c r="N295">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O295">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P295">
         <v>2.2999999999999998</v>
@@ -14224,10 +14224,10 @@
         <v>100</v>
       </c>
       <c r="N296">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O296">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P296">
         <v>2.2999999999999998</v>
@@ -14277,10 +14277,10 @@
         <v>100</v>
       </c>
       <c r="N297">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O297">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P297">
         <v>2.2999999999999998</v>
@@ -14330,10 +14330,10 @@
         <v>100</v>
       </c>
       <c r="N298">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O298">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P298">
         <v>2.2999999999999998</v>
@@ -14383,10 +14383,10 @@
         <v>100</v>
       </c>
       <c r="N299">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O299">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P299">
         <v>2.2999999999999998</v>
@@ -14436,10 +14436,10 @@
         <v>5</v>
       </c>
       <c r="N300">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O300">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P300">
         <v>2.2999999999999998</v>
@@ -14489,10 +14489,10 @@
         <v>5</v>
       </c>
       <c r="N301">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O301">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P301">
         <v>2.2999999999999998</v>
@@ -14542,10 +14542,10 @@
         <v>5</v>
       </c>
       <c r="N302">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O302">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P302">
         <v>2.2999999999999998</v>
@@ -14595,10 +14595,10 @@
         <v>5</v>
       </c>
       <c r="N303">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O303">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P303">
         <v>2.2999999999999998</v>
@@ -14648,10 +14648,10 @@
         <v>5</v>
       </c>
       <c r="N304">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O304">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P304">
         <v>2.2999999999999998</v>
@@ -14701,10 +14701,10 @@
         <v>5</v>
       </c>
       <c r="N305">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O305">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P305">
         <v>2.2999999999999998</v>
@@ -14754,10 +14754,10 @@
         <v>5</v>
       </c>
       <c r="N306">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O306">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P306">
         <v>2.2999999999999998</v>
@@ -14807,10 +14807,10 @@
         <v>5</v>
       </c>
       <c r="N307">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O307">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P307">
         <v>2.2999999999999998</v>
@@ -14860,10 +14860,10 @@
         <v>5</v>
       </c>
       <c r="N308">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O308">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P308">
         <v>2.2999999999999998</v>
@@ -14913,10 +14913,10 @@
         <v>5</v>
       </c>
       <c r="N309">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O309">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P309">
         <v>2.2999999999999998</v>
@@ -14966,10 +14966,10 @@
         <v>10</v>
       </c>
       <c r="N310">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O310">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P310">
         <v>2.2999999999999998</v>
@@ -15019,10 +15019,10 @@
         <v>10</v>
       </c>
       <c r="N311">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O311">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P311">
         <v>2.2999999999999998</v>
@@ -15072,10 +15072,10 @@
         <v>10</v>
       </c>
       <c r="N312">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O312">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P312">
         <v>2.2999999999999998</v>
@@ -15125,10 +15125,10 @@
         <v>10</v>
       </c>
       <c r="N313">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O313">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P313">
         <v>2.2999999999999998</v>
@@ -15178,10 +15178,10 @@
         <v>10</v>
       </c>
       <c r="N314">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O314">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P314">
         <v>2.2999999999999998</v>
@@ -15231,10 +15231,10 @@
         <v>10</v>
       </c>
       <c r="N315">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O315">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P315">
         <v>2.2999999999999998</v>
@@ -15284,10 +15284,10 @@
         <v>10</v>
       </c>
       <c r="N316">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O316">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P316">
         <v>2.2999999999999998</v>
@@ -15337,10 +15337,10 @@
         <v>10</v>
       </c>
       <c r="N317">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O317">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P317">
         <v>2.2999999999999998</v>
@@ -15390,10 +15390,10 @@
         <v>10</v>
       </c>
       <c r="N318">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O318">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P318">
         <v>2.2999999999999998</v>
@@ -15443,10 +15443,10 @@
         <v>20</v>
       </c>
       <c r="N319">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O319">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P319">
         <v>2.2999999999999998</v>
@@ -15496,10 +15496,10 @@
         <v>20</v>
       </c>
       <c r="N320">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O320">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P320">
         <v>2.2999999999999998</v>
@@ -15549,10 +15549,10 @@
         <v>20</v>
       </c>
       <c r="N321">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O321">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P321">
         <v>2.2999999999999998</v>
@@ -15602,10 +15602,10 @@
         <v>20</v>
       </c>
       <c r="N322">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O322">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P322">
         <v>2.2999999999999998</v>
@@ -15655,10 +15655,10 @@
         <v>20</v>
       </c>
       <c r="N323">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O323">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P323">
         <v>2.2999999999999998</v>
@@ -15708,10 +15708,10 @@
         <v>20</v>
       </c>
       <c r="N324">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O324">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P324">
         <v>2.2999999999999998</v>
@@ -15761,10 +15761,10 @@
         <v>20</v>
       </c>
       <c r="N325">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O325">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P325">
         <v>2.2999999999999998</v>
@@ -15814,10 +15814,10 @@
         <v>20</v>
       </c>
       <c r="N326">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O326">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P326">
         <v>2.2999999999999998</v>
@@ -15867,10 +15867,10 @@
         <v>20</v>
       </c>
       <c r="N327">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O327">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P327">
         <v>2.2999999999999998</v>
@@ -15920,10 +15920,10 @@
         <v>20</v>
       </c>
       <c r="N328">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O328">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P328">
         <v>2.2999999999999998</v>
@@ -15973,10 +15973,10 @@
         <v>20</v>
       </c>
       <c r="N329">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O329">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P329">
         <v>2.2999999999999998</v>
@@ -16026,10 +16026,10 @@
         <v>30</v>
       </c>
       <c r="N330">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O330">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P330">
         <v>2.2999999999999998</v>
@@ -16079,10 +16079,10 @@
         <v>30</v>
       </c>
       <c r="N331">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O331">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P331">
         <v>2.2999999999999998</v>
@@ -16132,10 +16132,10 @@
         <v>30</v>
       </c>
       <c r="N332">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O332">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P332">
         <v>2.2999999999999998</v>
@@ -16185,10 +16185,10 @@
         <v>30</v>
       </c>
       <c r="N333">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O333">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P333">
         <v>2.2999999999999998</v>
@@ -16238,10 +16238,10 @@
         <v>30</v>
       </c>
       <c r="N334">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O334">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P334">
         <v>2.2999999999999998</v>
@@ -16291,10 +16291,10 @@
         <v>30</v>
       </c>
       <c r="N335">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O335">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P335">
         <v>2.2999999999999998</v>
@@ -16344,10 +16344,10 @@
         <v>30</v>
       </c>
       <c r="N336">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O336">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P336">
         <v>2.2999999999999998</v>
@@ -16397,10 +16397,10 @@
         <v>30</v>
       </c>
       <c r="N337">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O337">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P337">
         <v>2.2999999999999998</v>
@@ -16450,10 +16450,10 @@
         <v>30</v>
       </c>
       <c r="N338">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O338">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P338">
         <v>2.2999999999999998</v>
@@ -16503,10 +16503,10 @@
         <v>30</v>
       </c>
       <c r="N339">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O339">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P339">
         <v>2.2999999999999998</v>
@@ -16556,10 +16556,10 @@
         <v>50</v>
       </c>
       <c r="N340">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O340">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P340">
         <v>2.2999999999999998</v>
@@ -16609,10 +16609,10 @@
         <v>50</v>
       </c>
       <c r="N341">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O341">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P341">
         <v>2.2999999999999998</v>
@@ -16662,10 +16662,10 @@
         <v>50</v>
       </c>
       <c r="N342">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O342">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P342">
         <v>2.2999999999999998</v>
@@ -16715,10 +16715,10 @@
         <v>50</v>
       </c>
       <c r="N343">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O343">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P343">
         <v>2.2999999999999998</v>
@@ -16768,10 +16768,10 @@
         <v>50</v>
       </c>
       <c r="N344">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O344">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P344">
         <v>2.2999999999999998</v>
@@ -16821,10 +16821,10 @@
         <v>50</v>
       </c>
       <c r="N345">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O345">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P345">
         <v>2.2999999999999998</v>
@@ -16874,10 +16874,10 @@
         <v>50</v>
       </c>
       <c r="N346">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O346">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P346">
         <v>2.2999999999999998</v>
@@ -16927,10 +16927,10 @@
         <v>50</v>
       </c>
       <c r="N347">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O347">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P347">
         <v>2.2999999999999998</v>
@@ -16980,10 +16980,10 @@
         <v>50</v>
       </c>
       <c r="N348">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O348">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P348">
         <v>2.2999999999999998</v>
@@ -17033,10 +17033,10 @@
         <v>50</v>
       </c>
       <c r="N349">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O349">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P349">
         <v>2.2999999999999998</v>
@@ -17086,10 +17086,10 @@
         <v>70</v>
       </c>
       <c r="N350">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O350">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P350">
         <v>2.2999999999999998</v>
@@ -17139,10 +17139,10 @@
         <v>70</v>
       </c>
       <c r="N351">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O351">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P351">
         <v>2.2999999999999998</v>
@@ -17192,10 +17192,10 @@
         <v>70</v>
       </c>
       <c r="N352">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O352">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P352">
         <v>2.2999999999999998</v>
@@ -17245,10 +17245,10 @@
         <v>70</v>
       </c>
       <c r="N353">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O353">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P353">
         <v>2.2999999999999998</v>
@@ -17298,10 +17298,10 @@
         <v>70</v>
       </c>
       <c r="N354">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O354">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P354">
         <v>2.2999999999999998</v>
@@ -17351,10 +17351,10 @@
         <v>70</v>
       </c>
       <c r="N355">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O355">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P355">
         <v>2.2999999999999998</v>
@@ -17404,10 +17404,10 @@
         <v>70</v>
       </c>
       <c r="N356">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O356">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P356">
         <v>2.2999999999999998</v>
@@ -17457,10 +17457,10 @@
         <v>70</v>
       </c>
       <c r="N357">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O357">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P357">
         <v>2.2999999999999998</v>
@@ -17510,10 +17510,10 @@
         <v>70</v>
       </c>
       <c r="N358">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O358">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P358">
         <v>2.2999999999999998</v>
@@ -17563,10 +17563,10 @@
         <v>70</v>
       </c>
       <c r="N359">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O359">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P359">
         <v>2.2999999999999998</v>
@@ -17616,10 +17616,10 @@
         <v>100</v>
       </c>
       <c r="N360">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O360">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P360">
         <v>2.2999999999999998</v>
@@ -17669,10 +17669,10 @@
         <v>100</v>
       </c>
       <c r="N361">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O361">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P361">
         <v>2.2999999999999998</v>
@@ -17722,10 +17722,10 @@
         <v>100</v>
       </c>
       <c r="N362">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O362">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P362">
         <v>2.2999999999999998</v>
@@ -17775,10 +17775,10 @@
         <v>100</v>
       </c>
       <c r="N363">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O363">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P363">
         <v>2.2999999999999998</v>
@@ -17828,10 +17828,10 @@
         <v>100</v>
       </c>
       <c r="N364">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O364">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P364">
         <v>2.2999999999999998</v>
@@ -17881,10 +17881,10 @@
         <v>100</v>
       </c>
       <c r="N365">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O365">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P365">
         <v>2.2999999999999998</v>
@@ -17934,10 +17934,10 @@
         <v>100</v>
       </c>
       <c r="N366">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O366">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P366">
         <v>2.2999999999999998</v>
@@ -17987,10 +17987,10 @@
         <v>100</v>
       </c>
       <c r="N367">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O367">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P367">
         <v>2.2999999999999998</v>
@@ -18040,10 +18040,10 @@
         <v>100</v>
       </c>
       <c r="N368">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O368">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P368">
         <v>2.2999999999999998</v>
@@ -18093,10 +18093,10 @@
         <v>100</v>
       </c>
       <c r="N369">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O369">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P369">
         <v>2.2999999999999998</v>
@@ -18146,10 +18146,10 @@
         <v>100</v>
       </c>
       <c r="N370">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O370">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P370">
         <v>2.2999999999999998</v>
@@ -18199,10 +18199,10 @@
         <v>100</v>
       </c>
       <c r="N371">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O371">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P371">
         <v>2.2999999999999998</v>
@@ -18252,10 +18252,10 @@
         <v>100</v>
       </c>
       <c r="N372">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O372">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P372">
         <v>2.2999999999999998</v>
@@ -18305,10 +18305,10 @@
         <v>100</v>
       </c>
       <c r="N373">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O373">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P373">
         <v>2.2999999999999998</v>
@@ -18358,10 +18358,10 @@
         <v>100</v>
       </c>
       <c r="N374">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O374">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P374">
         <v>2.2999999999999998</v>
@@ -18411,10 +18411,10 @@
         <v>100</v>
       </c>
       <c r="N375">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O375">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P375">
         <v>2.2999999999999998</v>
@@ -18464,10 +18464,10 @@
         <v>100</v>
       </c>
       <c r="N376">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O376">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P376">
         <v>2.2999999999999998</v>
@@ -18517,10 +18517,10 @@
         <v>100</v>
       </c>
       <c r="N377">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O377">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P377">
         <v>2.2999999999999998</v>
@@ -18570,10 +18570,10 @@
         <v>100</v>
       </c>
       <c r="N378">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O378">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P378">
         <v>2.2999999999999998</v>
@@ -18623,10 +18623,10 @@
         <v>100</v>
       </c>
       <c r="N379">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O379">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P379">
         <v>2.2999999999999998</v>
@@ -18676,10 +18676,10 @@
         <v>100</v>
       </c>
       <c r="N380">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O380">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P380">
         <v>2.2999999999999998</v>
@@ -18729,10 +18729,10 @@
         <v>100</v>
       </c>
       <c r="N381">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O381">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P381">
         <v>2.2999999999999998</v>
@@ -18782,10 +18782,10 @@
         <v>100</v>
       </c>
       <c r="N382">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O382">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P382">
         <v>2.2999999999999998</v>
@@ -18835,10 +18835,10 @@
         <v>100</v>
       </c>
       <c r="N383">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O383">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P383">
         <v>2.2999999999999998</v>
@@ -18888,10 +18888,10 @@
         <v>100</v>
       </c>
       <c r="N384">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O384">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P384">
         <v>2.2999999999999998</v>
@@ -18941,10 +18941,10 @@
         <v>100</v>
       </c>
       <c r="N385">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O385">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P385">
         <v>2.2999999999999998</v>
@@ -18994,10 +18994,10 @@
         <v>100</v>
       </c>
       <c r="N386">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O386">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P386">
         <v>2.2999999999999998</v>
@@ -19047,10 +19047,10 @@
         <v>100</v>
       </c>
       <c r="N387">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O387">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P387">
         <v>2.2999999999999998</v>
@@ -19100,10 +19100,10 @@
         <v>100</v>
       </c>
       <c r="N388">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O388">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P388">
         <v>2.2999999999999998</v>
@@ -19153,10 +19153,10 @@
         <v>100</v>
       </c>
       <c r="N389">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O389">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P389">
         <v>2.2999999999999998</v>
@@ -19206,10 +19206,10 @@
         <v>100</v>
       </c>
       <c r="N390">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O390">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P390">
         <v>2.2999999999999998</v>
@@ -19259,10 +19259,10 @@
         <v>100</v>
       </c>
       <c r="N391">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O391">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P391">
         <v>2.2999999999999998</v>
@@ -19312,10 +19312,10 @@
         <v>100</v>
       </c>
       <c r="N392">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O392">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P392">
         <v>2.2999999999999998</v>
@@ -19365,10 +19365,10 @@
         <v>100</v>
       </c>
       <c r="N393">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O393">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P393">
         <v>2.2999999999999998</v>
@@ -19418,10 +19418,10 @@
         <v>100</v>
       </c>
       <c r="N394">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O394">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P394">
         <v>2.2999999999999998</v>
@@ -19471,10 +19471,10 @@
         <v>100</v>
       </c>
       <c r="N395">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O395">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P395">
         <v>2.2999999999999998</v>
@@ -19524,10 +19524,10 @@
         <v>100</v>
       </c>
       <c r="N396">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O396">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P396">
         <v>2.2999999999999998</v>
@@ -19577,10 +19577,10 @@
         <v>100</v>
       </c>
       <c r="N397">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O397">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P397">
         <v>2.2999999999999998</v>
@@ -19630,10 +19630,10 @@
         <v>100</v>
       </c>
       <c r="N398">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O398">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P398">
         <v>2.2999999999999998</v>
@@ -19683,10 +19683,10 @@
         <v>5</v>
       </c>
       <c r="N399">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O399">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P399">
         <v>2.2999999999999998</v>
@@ -19736,10 +19736,10 @@
         <v>5</v>
       </c>
       <c r="N400">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O400">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P400">
         <v>2.2999999999999998</v>
@@ -19789,10 +19789,10 @@
         <v>5</v>
       </c>
       <c r="N401">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O401">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P401">
         <v>2.2999999999999998</v>
@@ -19842,10 +19842,10 @@
         <v>5</v>
       </c>
       <c r="N402">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O402">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P402">
         <v>2.2999999999999998</v>
@@ -19895,10 +19895,10 @@
         <v>5</v>
       </c>
       <c r="N403">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O403">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P403">
         <v>2.2999999999999998</v>
@@ -19948,10 +19948,10 @@
         <v>5</v>
       </c>
       <c r="N404">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O404">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P404">
         <v>2.2999999999999998</v>
@@ -20001,10 +20001,10 @@
         <v>5</v>
       </c>
       <c r="N405">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O405">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P405">
         <v>2.2999999999999998</v>
@@ -20054,10 +20054,10 @@
         <v>5</v>
       </c>
       <c r="N406">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O406">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P406">
         <v>2.2999999999999998</v>
@@ -20107,10 +20107,10 @@
         <v>5</v>
       </c>
       <c r="N407">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O407">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P407">
         <v>2.2999999999999998</v>
@@ -20160,10 +20160,10 @@
         <v>5</v>
       </c>
       <c r="N408">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O408">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P408">
         <v>2.2999999999999998</v>
@@ -20213,10 +20213,10 @@
         <v>10</v>
       </c>
       <c r="N409">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O409">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P409">
         <v>2.2999999999999998</v>
@@ -20266,10 +20266,10 @@
         <v>10</v>
       </c>
       <c r="N410">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O410">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P410">
         <v>2.2999999999999998</v>
@@ -20319,10 +20319,10 @@
         <v>10</v>
       </c>
       <c r="N411">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O411">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P411">
         <v>2.2999999999999998</v>
@@ -20372,10 +20372,10 @@
         <v>10</v>
       </c>
       <c r="N412">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O412">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P412">
         <v>2.2999999999999998</v>
@@ -20425,10 +20425,10 @@
         <v>10</v>
       </c>
       <c r="N413">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O413">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P413">
         <v>2.2999999999999998</v>
@@ -20478,10 +20478,10 @@
         <v>10</v>
       </c>
       <c r="N414">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O414">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P414">
         <v>2.2999999999999998</v>
@@ -20531,10 +20531,10 @@
         <v>10</v>
       </c>
       <c r="N415">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O415">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P415">
         <v>2.2999999999999998</v>
@@ -20584,10 +20584,10 @@
         <v>10</v>
       </c>
       <c r="N416">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O416">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P416">
         <v>2.2999999999999998</v>
@@ -20637,10 +20637,10 @@
         <v>10</v>
       </c>
       <c r="N417">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O417">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P417">
         <v>2.2999999999999998</v>
@@ -20690,10 +20690,10 @@
         <v>20</v>
       </c>
       <c r="N418">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O418">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P418">
         <v>2.2999999999999998</v>
@@ -20743,10 +20743,10 @@
         <v>20</v>
       </c>
       <c r="N419">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O419">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P419">
         <v>2.2999999999999998</v>
@@ -20796,10 +20796,10 @@
         <v>20</v>
       </c>
       <c r="N420">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O420">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P420">
         <v>2.2999999999999998</v>
@@ -20849,10 +20849,10 @@
         <v>20</v>
       </c>
       <c r="N421">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O421">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P421">
         <v>2.2999999999999998</v>
@@ -20902,10 +20902,10 @@
         <v>20</v>
       </c>
       <c r="N422">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O422">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P422">
         <v>2.2999999999999998</v>
@@ -20955,10 +20955,10 @@
         <v>20</v>
       </c>
       <c r="N423">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O423">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P423">
         <v>2.2999999999999998</v>
@@ -21008,10 +21008,10 @@
         <v>20</v>
       </c>
       <c r="N424">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O424">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P424">
         <v>2.2999999999999998</v>
@@ -21061,10 +21061,10 @@
         <v>20</v>
       </c>
       <c r="N425">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O425">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P425">
         <v>2.2999999999999998</v>
@@ -21114,10 +21114,10 @@
         <v>20</v>
       </c>
       <c r="N426">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O426">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P426">
         <v>2.2999999999999998</v>
@@ -21167,10 +21167,10 @@
         <v>20</v>
       </c>
       <c r="N427">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O427">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P427">
         <v>2.2999999999999998</v>
@@ -21220,10 +21220,10 @@
         <v>20</v>
       </c>
       <c r="N428">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O428">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P428">
         <v>2.2999999999999998</v>
@@ -21273,10 +21273,10 @@
         <v>30</v>
       </c>
       <c r="N429">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O429">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P429">
         <v>2.2999999999999998</v>
@@ -21326,10 +21326,10 @@
         <v>30</v>
       </c>
       <c r="N430">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O430">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P430">
         <v>2.2999999999999998</v>
@@ -21379,10 +21379,10 @@
         <v>30</v>
       </c>
       <c r="N431">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O431">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P431">
         <v>2.2999999999999998</v>
@@ -21432,10 +21432,10 @@
         <v>30</v>
       </c>
       <c r="N432">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O432">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P432">
         <v>2.2999999999999998</v>
@@ -21485,10 +21485,10 @@
         <v>30</v>
       </c>
       <c r="N433">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O433">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P433">
         <v>2.2999999999999998</v>
@@ -21538,10 +21538,10 @@
         <v>30</v>
       </c>
       <c r="N434">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O434">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P434">
         <v>2.2999999999999998</v>
@@ -21591,10 +21591,10 @@
         <v>30</v>
       </c>
       <c r="N435">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O435">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P435">
         <v>2.2999999999999998</v>
@@ -21644,10 +21644,10 @@
         <v>30</v>
       </c>
       <c r="N436">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O436">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P436">
         <v>2.2999999999999998</v>
@@ -21697,10 +21697,10 @@
         <v>30</v>
       </c>
       <c r="N437">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O437">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P437">
         <v>2.2999999999999998</v>
@@ -21750,10 +21750,10 @@
         <v>30</v>
       </c>
       <c r="N438">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O438">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P438">
         <v>2.2999999999999998</v>
@@ -21803,10 +21803,10 @@
         <v>50</v>
       </c>
       <c r="N439">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O439">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P439">
         <v>2.2999999999999998</v>
@@ -21856,10 +21856,10 @@
         <v>50</v>
       </c>
       <c r="N440">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O440">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P440">
         <v>2.2999999999999998</v>
@@ -21909,10 +21909,10 @@
         <v>50</v>
       </c>
       <c r="N441">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O441">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P441">
         <v>2.2999999999999998</v>
@@ -21962,10 +21962,10 @@
         <v>50</v>
       </c>
       <c r="N442">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O442">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P442">
         <v>2.2999999999999998</v>
@@ -22015,10 +22015,10 @@
         <v>50</v>
       </c>
       <c r="N443">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O443">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P443">
         <v>2.2999999999999998</v>
@@ -22068,10 +22068,10 @@
         <v>50</v>
       </c>
       <c r="N444">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O444">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P444">
         <v>2.2999999999999998</v>
@@ -22121,10 +22121,10 @@
         <v>50</v>
       </c>
       <c r="N445">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O445">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P445">
         <v>2.2999999999999998</v>
@@ -22174,10 +22174,10 @@
         <v>50</v>
       </c>
       <c r="N446">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O446">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P446">
         <v>2.2999999999999998</v>
@@ -22227,10 +22227,10 @@
         <v>50</v>
       </c>
       <c r="N447">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O447">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P447">
         <v>2.2999999999999998</v>
@@ -22280,10 +22280,10 @@
         <v>50</v>
       </c>
       <c r="N448">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O448">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P448">
         <v>2.2999999999999998</v>
@@ -22333,10 +22333,10 @@
         <v>70</v>
       </c>
       <c r="N449">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O449">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P449">
         <v>2.2999999999999998</v>
@@ -22386,10 +22386,10 @@
         <v>70</v>
       </c>
       <c r="N450">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O450">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P450">
         <v>2.2999999999999998</v>
@@ -22439,10 +22439,10 @@
         <v>70</v>
       </c>
       <c r="N451">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O451">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P451">
         <v>2.2999999999999998</v>
@@ -22492,10 +22492,10 @@
         <v>70</v>
       </c>
       <c r="N452">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O452">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P452">
         <v>2.2999999999999998</v>
@@ -22545,10 +22545,10 @@
         <v>70</v>
       </c>
       <c r="N453">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O453">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P453">
         <v>2.2999999999999998</v>
@@ -22598,10 +22598,10 @@
         <v>70</v>
       </c>
       <c r="N454">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O454">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P454">
         <v>2.2999999999999998</v>
@@ -22651,10 +22651,10 @@
         <v>70</v>
       </c>
       <c r="N455">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O455">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P455">
         <v>2.2999999999999998</v>
@@ -22704,10 +22704,10 @@
         <v>70</v>
       </c>
       <c r="N456">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O456">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P456">
         <v>2.2999999999999998</v>
@@ -22757,10 +22757,10 @@
         <v>70</v>
       </c>
       <c r="N457">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O457">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P457">
         <v>2.2999999999999998</v>
@@ -22810,10 +22810,10 @@
         <v>70</v>
       </c>
       <c r="N458">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O458">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P458">
         <v>2.2999999999999998</v>
@@ -22863,10 +22863,10 @@
         <v>100</v>
       </c>
       <c r="N459">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O459">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P459">
         <v>2.2999999999999998</v>
@@ -22916,10 +22916,10 @@
         <v>100</v>
       </c>
       <c r="N460">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O460">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P460">
         <v>2.2999999999999998</v>
@@ -22969,10 +22969,10 @@
         <v>100</v>
       </c>
       <c r="N461">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O461">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P461">
         <v>2.2999999999999998</v>
@@ -23022,10 +23022,10 @@
         <v>100</v>
       </c>
       <c r="N462">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O462">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P462">
         <v>2.2999999999999998</v>
@@ -23075,10 +23075,10 @@
         <v>100</v>
       </c>
       <c r="N463">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O463">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P463">
         <v>2.2999999999999998</v>
@@ -23128,10 +23128,10 @@
         <v>100</v>
       </c>
       <c r="N464">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O464">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P464">
         <v>2.2999999999999998</v>
@@ -23181,10 +23181,10 @@
         <v>100</v>
       </c>
       <c r="N465">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O465">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P465">
         <v>2.2999999999999998</v>
@@ -23234,10 +23234,10 @@
         <v>100</v>
       </c>
       <c r="N466">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O466">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P466">
         <v>2.2999999999999998</v>
@@ -23287,10 +23287,10 @@
         <v>100</v>
       </c>
       <c r="N467">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O467">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P467">
         <v>2.2999999999999998</v>
@@ -23340,10 +23340,10 @@
         <v>100</v>
       </c>
       <c r="N468">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O468">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P468">
         <v>2.2999999999999998</v>
@@ -23393,10 +23393,10 @@
         <v>100</v>
       </c>
       <c r="N469">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O469">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P469">
         <v>2.2999999999999998</v>
@@ -23446,10 +23446,10 @@
         <v>100</v>
       </c>
       <c r="N470">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O470">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P470">
         <v>2.2999999999999998</v>
@@ -23499,10 +23499,10 @@
         <v>100</v>
       </c>
       <c r="N471">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O471">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P471">
         <v>2.2999999999999998</v>
@@ -23552,10 +23552,10 @@
         <v>100</v>
       </c>
       <c r="N472">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O472">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P472">
         <v>2.2999999999999998</v>
@@ -23605,10 +23605,10 @@
         <v>100</v>
       </c>
       <c r="N473">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O473">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P473">
         <v>2.2999999999999998</v>
@@ -23658,10 +23658,10 @@
         <v>100</v>
       </c>
       <c r="N474">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O474">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P474">
         <v>2.2999999999999998</v>
@@ -23711,10 +23711,10 @@
         <v>100</v>
       </c>
       <c r="N475">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O475">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P475">
         <v>2.2999999999999998</v>
@@ -23764,10 +23764,10 @@
         <v>100</v>
       </c>
       <c r="N476">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O476">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P476">
         <v>2.2999999999999998</v>
@@ -23817,10 +23817,10 @@
         <v>100</v>
       </c>
       <c r="N477">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O477">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P477">
         <v>2.2999999999999998</v>
@@ -23870,10 +23870,10 @@
         <v>100</v>
       </c>
       <c r="N478">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O478">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P478">
         <v>2.2999999999999998</v>
@@ -23923,10 +23923,10 @@
         <v>100</v>
       </c>
       <c r="N479">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O479">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P479">
         <v>2.2999999999999998</v>
@@ -23976,10 +23976,10 @@
         <v>100</v>
       </c>
       <c r="N480">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O480">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P480">
         <v>2.2999999999999998</v>
@@ -24029,10 +24029,10 @@
         <v>100</v>
       </c>
       <c r="N481">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O481">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P481">
         <v>2.2999999999999998</v>
@@ -24082,10 +24082,10 @@
         <v>100</v>
       </c>
       <c r="N482">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O482">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P482">
         <v>2.2999999999999998</v>
@@ -24135,10 +24135,10 @@
         <v>100</v>
       </c>
       <c r="N483">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O483">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P483">
         <v>2.2999999999999998</v>
@@ -24188,10 +24188,10 @@
         <v>100</v>
       </c>
       <c r="N484">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O484">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P484">
         <v>2.2999999999999998</v>
@@ -24241,10 +24241,10 @@
         <v>100</v>
       </c>
       <c r="N485">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O485">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P485">
         <v>2.2999999999999998</v>
@@ -24294,10 +24294,10 @@
         <v>100</v>
       </c>
       <c r="N486">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O486">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P486">
         <v>2.2999999999999998</v>
@@ -24347,10 +24347,10 @@
         <v>100</v>
       </c>
       <c r="N487">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O487">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P487">
         <v>2.2999999999999998</v>
@@ -24400,10 +24400,10 @@
         <v>100</v>
       </c>
       <c r="N488">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O488">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P488">
         <v>2.2999999999999998</v>
@@ -24453,10 +24453,10 @@
         <v>100</v>
       </c>
       <c r="N489">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O489">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P489">
         <v>2.2999999999999998</v>
@@ -24506,10 +24506,10 @@
         <v>100</v>
       </c>
       <c r="N490">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O490">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P490">
         <v>2.2999999999999998</v>
@@ -24559,10 +24559,10 @@
         <v>100</v>
       </c>
       <c r="N491">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O491">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P491">
         <v>2.2999999999999998</v>
@@ -24612,10 +24612,10 @@
         <v>100</v>
       </c>
       <c r="N492">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O492">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P492">
         <v>2.2999999999999998</v>
@@ -24665,10 +24665,10 @@
         <v>100</v>
       </c>
       <c r="N493">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O493">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P493">
         <v>2.2999999999999998</v>
@@ -24718,10 +24718,10 @@
         <v>100</v>
       </c>
       <c r="N494">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O494">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P494">
         <v>2.2999999999999998</v>
@@ -24771,10 +24771,10 @@
         <v>100</v>
       </c>
       <c r="N495">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O495">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P495">
         <v>2.2999999999999998</v>
@@ -24824,10 +24824,10 @@
         <v>100</v>
       </c>
       <c r="N496">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O496">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P496">
         <v>2.2999999999999998</v>
@@ -24877,10 +24877,10 @@
         <v>100</v>
       </c>
       <c r="N497">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O497">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P497">
         <v>2.2999999999999998</v>
@@ -24930,10 +24930,10 @@
         <v>5</v>
       </c>
       <c r="N498">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O498">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P498">
         <v>2.2999999999999998</v>
@@ -24983,10 +24983,10 @@
         <v>5</v>
       </c>
       <c r="N499">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O499">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P499">
         <v>2.2999999999999998</v>
@@ -25036,10 +25036,10 @@
         <v>5</v>
       </c>
       <c r="N500">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O500">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P500">
         <v>2.2999999999999998</v>
@@ -25089,10 +25089,10 @@
         <v>5</v>
       </c>
       <c r="N501">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O501">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P501">
         <v>2.2999999999999998</v>
@@ -25142,10 +25142,10 @@
         <v>5</v>
       </c>
       <c r="N502">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O502">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P502">
         <v>2.2999999999999998</v>
@@ -25195,10 +25195,10 @@
         <v>5</v>
       </c>
       <c r="N503">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O503">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P503">
         <v>2.2999999999999998</v>
@@ -25248,10 +25248,10 @@
         <v>5</v>
       </c>
       <c r="N504">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O504">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P504">
         <v>2.2999999999999998</v>
@@ -25301,10 +25301,10 @@
         <v>5</v>
       </c>
       <c r="N505">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O505">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P505">
         <v>2.2999999999999998</v>
@@ -25354,10 +25354,10 @@
         <v>5</v>
       </c>
       <c r="N506">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O506">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P506">
         <v>2.2999999999999998</v>
@@ -25407,10 +25407,10 @@
         <v>5</v>
       </c>
       <c r="N507">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O507">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P507">
         <v>2.2999999999999998</v>
@@ -25460,10 +25460,10 @@
         <v>10</v>
       </c>
       <c r="N508">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O508">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P508">
         <v>2.2999999999999998</v>
@@ -25513,10 +25513,10 @@
         <v>10</v>
       </c>
       <c r="N509">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O509">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P509">
         <v>2.2999999999999998</v>
@@ -25566,10 +25566,10 @@
         <v>10</v>
       </c>
       <c r="N510">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O510">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P510">
         <v>2.2999999999999998</v>
@@ -25619,10 +25619,10 @@
         <v>10</v>
       </c>
       <c r="N511">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O511">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P511">
         <v>2.2999999999999998</v>
@@ -25672,10 +25672,10 @@
         <v>10</v>
       </c>
       <c r="N512">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O512">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P512">
         <v>2.2999999999999998</v>
@@ -25725,10 +25725,10 @@
         <v>10</v>
       </c>
       <c r="N513">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O513">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P513">
         <v>2.2999999999999998</v>
@@ -25778,10 +25778,10 @@
         <v>10</v>
       </c>
       <c r="N514">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O514">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P514">
         <v>2.2999999999999998</v>
@@ -25831,10 +25831,10 @@
         <v>10</v>
       </c>
       <c r="N515">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O515">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P515">
         <v>2.2999999999999998</v>
@@ -25884,10 +25884,10 @@
         <v>10</v>
       </c>
       <c r="N516">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O516">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P516">
         <v>2.2999999999999998</v>
@@ -25937,10 +25937,10 @@
         <v>20</v>
       </c>
       <c r="N517">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O517">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P517">
         <v>2.2999999999999998</v>
@@ -25990,10 +25990,10 @@
         <v>20</v>
       </c>
       <c r="N518">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O518">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P518">
         <v>2.2999999999999998</v>
@@ -26043,10 +26043,10 @@
         <v>20</v>
       </c>
       <c r="N519">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O519">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P519">
         <v>2.2999999999999998</v>
@@ -26096,10 +26096,10 @@
         <v>20</v>
       </c>
       <c r="N520">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O520">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P520">
         <v>2.2999999999999998</v>
@@ -26149,10 +26149,10 @@
         <v>20</v>
       </c>
       <c r="N521">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O521">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P521">
         <v>2.2999999999999998</v>
@@ -26202,10 +26202,10 @@
         <v>20</v>
       </c>
       <c r="N522">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O522">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P522">
         <v>2.2999999999999998</v>
@@ -26255,10 +26255,10 @@
         <v>20</v>
       </c>
       <c r="N523">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O523">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P523">
         <v>2.2999999999999998</v>
@@ -26308,10 +26308,10 @@
         <v>20</v>
       </c>
       <c r="N524">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O524">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P524">
         <v>2.2999999999999998</v>
@@ -26361,10 +26361,10 @@
         <v>20</v>
       </c>
       <c r="N525">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O525">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P525">
         <v>2.2999999999999998</v>
@@ -26414,10 +26414,10 @@
         <v>20</v>
       </c>
       <c r="N526">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O526">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P526">
         <v>2.2999999999999998</v>
@@ -26467,10 +26467,10 @@
         <v>20</v>
       </c>
       <c r="N527">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O527">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P527">
         <v>2.2999999999999998</v>
@@ -26520,10 +26520,10 @@
         <v>30</v>
       </c>
       <c r="N528">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O528">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P528">
         <v>2.2999999999999998</v>
@@ -26573,10 +26573,10 @@
         <v>30</v>
       </c>
       <c r="N529">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O529">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P529">
         <v>2.2999999999999998</v>
@@ -26626,10 +26626,10 @@
         <v>30</v>
       </c>
       <c r="N530">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O530">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P530">
         <v>2.2999999999999998</v>
@@ -26679,10 +26679,10 @@
         <v>30</v>
       </c>
       <c r="N531">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O531">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P531">
         <v>2.2999999999999998</v>
@@ -26732,10 +26732,10 @@
         <v>30</v>
       </c>
       <c r="N532">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O532">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P532">
         <v>2.2999999999999998</v>
@@ -26785,10 +26785,10 @@
         <v>30</v>
       </c>
       <c r="N533">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O533">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P533">
         <v>2.2999999999999998</v>
@@ -26838,10 +26838,10 @@
         <v>30</v>
       </c>
       <c r="N534">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O534">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P534">
         <v>2.2999999999999998</v>
@@ -26891,10 +26891,10 @@
         <v>30</v>
       </c>
       <c r="N535">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O535">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P535">
         <v>2.2999999999999998</v>
@@ -26944,10 +26944,10 @@
         <v>30</v>
       </c>
       <c r="N536">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O536">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P536">
         <v>2.2999999999999998</v>
@@ -26997,10 +26997,10 @@
         <v>30</v>
       </c>
       <c r="N537">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O537">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P537">
         <v>2.2999999999999998</v>
@@ -27050,10 +27050,10 @@
         <v>50</v>
       </c>
       <c r="N538">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O538">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P538">
         <v>2.2999999999999998</v>
@@ -27103,10 +27103,10 @@
         <v>50</v>
       </c>
       <c r="N539">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O539">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P539">
         <v>2.2999999999999998</v>
@@ -27156,10 +27156,10 @@
         <v>50</v>
       </c>
       <c r="N540">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O540">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P540">
         <v>2.2999999999999998</v>
@@ -27209,10 +27209,10 @@
         <v>50</v>
       </c>
       <c r="N541">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O541">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P541">
         <v>2.2999999999999998</v>
@@ -27262,10 +27262,10 @@
         <v>50</v>
       </c>
       <c r="N542">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O542">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P542">
         <v>2.2999999999999998</v>
@@ -27315,10 +27315,10 @@
         <v>50</v>
       </c>
       <c r="N543">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O543">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P543">
         <v>2.2999999999999998</v>
@@ -27368,10 +27368,10 @@
         <v>50</v>
       </c>
       <c r="N544">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O544">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P544">
         <v>2.2999999999999998</v>
@@ -27421,10 +27421,10 @@
         <v>50</v>
       </c>
       <c r="N545">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O545">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P545">
         <v>2.2999999999999998</v>
@@ -27474,10 +27474,10 @@
         <v>50</v>
       </c>
       <c r="N546">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O546">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P546">
         <v>2.2999999999999998</v>
@@ -27527,10 +27527,10 @@
         <v>50</v>
       </c>
       <c r="N547">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O547">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P547">
         <v>2.2999999999999998</v>
@@ -27580,10 +27580,10 @@
         <v>70</v>
       </c>
       <c r="N548">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O548">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P548">
         <v>2.2999999999999998</v>
@@ -27633,10 +27633,10 @@
         <v>70</v>
       </c>
       <c r="N549">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O549">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P549">
         <v>2.2999999999999998</v>
@@ -27686,10 +27686,10 @@
         <v>70</v>
       </c>
       <c r="N550">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O550">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P550">
         <v>2.2999999999999998</v>
@@ -27739,10 +27739,10 @@
         <v>70</v>
       </c>
       <c r="N551">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O551">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P551">
         <v>2.2999999999999998</v>
@@ -27792,10 +27792,10 @@
         <v>70</v>
       </c>
       <c r="N552">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O552">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P552">
         <v>2.2999999999999998</v>
@@ -27845,10 +27845,10 @@
         <v>70</v>
       </c>
       <c r="N553">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O553">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P553">
         <v>2.2999999999999998</v>
@@ -27898,10 +27898,10 @@
         <v>70</v>
       </c>
       <c r="N554">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O554">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P554">
         <v>2.2999999999999998</v>
@@ -27951,10 +27951,10 @@
         <v>70</v>
       </c>
       <c r="N555">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O555">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P555">
         <v>2.2999999999999998</v>
@@ -28004,10 +28004,10 @@
         <v>70</v>
       </c>
       <c r="N556">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O556">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P556">
         <v>2.2999999999999998</v>
@@ -28057,10 +28057,10 @@
         <v>70</v>
       </c>
       <c r="N557">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O557">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P557">
         <v>2.2999999999999998</v>
@@ -28110,10 +28110,10 @@
         <v>100</v>
       </c>
       <c r="N558">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O558">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P558">
         <v>2.2999999999999998</v>
@@ -28163,10 +28163,10 @@
         <v>100</v>
       </c>
       <c r="N559">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O559">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P559">
         <v>2.2999999999999998</v>
@@ -28216,10 +28216,10 @@
         <v>100</v>
       </c>
       <c r="N560">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O560">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P560">
         <v>2.2999999999999998</v>
@@ -28269,10 +28269,10 @@
         <v>100</v>
       </c>
       <c r="N561">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O561">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P561">
         <v>2.2999999999999998</v>
@@ -28322,10 +28322,10 @@
         <v>100</v>
       </c>
       <c r="N562">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O562">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P562">
         <v>2.2999999999999998</v>
@@ -28375,10 +28375,10 @@
         <v>100</v>
       </c>
       <c r="N563">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O563">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P563">
         <v>2.2999999999999998</v>
@@ -28428,10 +28428,10 @@
         <v>100</v>
       </c>
       <c r="N564">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O564">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P564">
         <v>2.2999999999999998</v>
@@ -28481,10 +28481,10 @@
         <v>100</v>
       </c>
       <c r="N565">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O565">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P565">
         <v>2.2999999999999998</v>
@@ -28534,10 +28534,10 @@
         <v>100</v>
       </c>
       <c r="N566">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O566">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P566">
         <v>2.2999999999999998</v>
@@ -28587,10 +28587,10 @@
         <v>100</v>
       </c>
       <c r="N567">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O567">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P567">
         <v>2.2999999999999998</v>
@@ -28640,10 +28640,10 @@
         <v>100</v>
       </c>
       <c r="N568">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O568">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P568">
         <v>2.2999999999999998</v>
@@ -28693,10 +28693,10 @@
         <v>100</v>
       </c>
       <c r="N569">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O569">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P569">
         <v>2.2999999999999998</v>
@@ -28746,10 +28746,10 @@
         <v>100</v>
       </c>
       <c r="N570">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O570">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P570">
         <v>2.2999999999999998</v>
@@ -28799,10 +28799,10 @@
         <v>100</v>
       </c>
       <c r="N571">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O571">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P571">
         <v>2.2999999999999998</v>
@@ -28852,10 +28852,10 @@
         <v>100</v>
       </c>
       <c r="N572">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O572">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P572">
         <v>2.2999999999999998</v>
@@ -28905,10 +28905,10 @@
         <v>100</v>
       </c>
       <c r="N573">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O573">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P573">
         <v>2.2999999999999998</v>
@@ -28958,10 +28958,10 @@
         <v>100</v>
       </c>
       <c r="N574">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O574">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P574">
         <v>2.2999999999999998</v>
@@ -29011,10 +29011,10 @@
         <v>100</v>
       </c>
       <c r="N575">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O575">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P575">
         <v>2.2999999999999998</v>
@@ -29064,10 +29064,10 @@
         <v>100</v>
       </c>
       <c r="N576">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O576">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P576">
         <v>2.2999999999999998</v>
@@ -29117,10 +29117,10 @@
         <v>100</v>
       </c>
       <c r="N577">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O577">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P577">
         <v>2.2999999999999998</v>
@@ -29170,10 +29170,10 @@
         <v>100</v>
       </c>
       <c r="N578">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O578">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P578">
         <v>2.2999999999999998</v>
@@ -29223,10 +29223,10 @@
         <v>100</v>
       </c>
       <c r="N579">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O579">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P579">
         <v>2.2999999999999998</v>
@@ -29276,10 +29276,10 @@
         <v>100</v>
       </c>
       <c r="N580">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O580">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P580">
         <v>2.2999999999999998</v>
@@ -29329,10 +29329,10 @@
         <v>100</v>
       </c>
       <c r="N581">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O581">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P581">
         <v>2.2999999999999998</v>
@@ -29382,10 +29382,10 @@
         <v>100</v>
       </c>
       <c r="N582">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O582">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P582">
         <v>2.2999999999999998</v>
@@ -29435,10 +29435,10 @@
         <v>100</v>
       </c>
       <c r="N583">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O583">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P583">
         <v>2.2999999999999998</v>
@@ -29488,10 +29488,10 @@
         <v>100</v>
       </c>
       <c r="N584">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O584">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P584">
         <v>2.2999999999999998</v>
@@ -29541,10 +29541,10 @@
         <v>100</v>
       </c>
       <c r="N585">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O585">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P585">
         <v>2.2999999999999998</v>
@@ -29594,10 +29594,10 @@
         <v>100</v>
       </c>
       <c r="N586">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O586">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P586">
         <v>2.2999999999999998</v>
@@ -29647,10 +29647,10 @@
         <v>100</v>
       </c>
       <c r="N587">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O587">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P587">
         <v>2.2999999999999998</v>
@@ -29700,10 +29700,10 @@
         <v>100</v>
       </c>
       <c r="N588">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O588">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P588">
         <v>2.2999999999999998</v>
@@ -29753,10 +29753,10 @@
         <v>100</v>
       </c>
       <c r="N589">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O589">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P589">
         <v>2.2999999999999998</v>
@@ -29806,10 +29806,10 @@
         <v>100</v>
       </c>
       <c r="N590">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O590">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P590">
         <v>2.2999999999999998</v>
@@ -29859,10 +29859,10 @@
         <v>100</v>
       </c>
       <c r="N591">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O591">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P591">
         <v>2.2999999999999998</v>
@@ -29912,10 +29912,10 @@
         <v>100</v>
       </c>
       <c r="N592">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O592">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P592">
         <v>2.2999999999999998</v>
@@ -29965,10 +29965,10 @@
         <v>100</v>
       </c>
       <c r="N593">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O593">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P593">
         <v>2.2999999999999998</v>
@@ -30018,10 +30018,10 @@
         <v>100</v>
       </c>
       <c r="N594">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O594">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P594">
         <v>2.2999999999999998</v>
@@ -30071,10 +30071,10 @@
         <v>100</v>
       </c>
       <c r="N595">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O595">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P595">
         <v>2.2999999999999998</v>
@@ -30124,10 +30124,10 @@
         <v>100</v>
       </c>
       <c r="N596">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O596">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P596">
         <v>2.2999999999999998</v>
@@ -30177,10 +30177,10 @@
         <v>5</v>
       </c>
       <c r="N597">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O597">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P597">
         <v>2.2999999999999998</v>
@@ -30230,10 +30230,10 @@
         <v>5</v>
       </c>
       <c r="N598">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O598">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P598">
         <v>2.2999999999999998</v>
@@ -30283,10 +30283,10 @@
         <v>5</v>
       </c>
       <c r="N599">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O599">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P599">
         <v>2.2999999999999998</v>
@@ -30336,10 +30336,10 @@
         <v>5</v>
       </c>
       <c r="N600">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O600">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P600">
         <v>2.2999999999999998</v>
@@ -30389,10 +30389,10 @@
         <v>5</v>
       </c>
       <c r="N601">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O601">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P601">
         <v>2.2999999999999998</v>
@@ -30442,10 +30442,10 @@
         <v>5</v>
       </c>
       <c r="N602">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O602">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P602">
         <v>2.2999999999999998</v>
@@ -30495,10 +30495,10 @@
         <v>5</v>
       </c>
       <c r="N603">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O603">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P603">
         <v>2.2999999999999998</v>
@@ -30548,10 +30548,10 @@
         <v>5</v>
       </c>
       <c r="N604">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O604">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P604">
         <v>2.2999999999999998</v>
@@ -30601,10 +30601,10 @@
         <v>5</v>
       </c>
       <c r="N605">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O605">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P605">
         <v>2.2999999999999998</v>
@@ -30654,10 +30654,10 @@
         <v>5</v>
       </c>
       <c r="N606">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O606">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P606">
         <v>2.2999999999999998</v>
@@ -30707,10 +30707,10 @@
         <v>10</v>
       </c>
       <c r="N607">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O607">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P607">
         <v>2.2999999999999998</v>
@@ -30760,10 +30760,10 @@
         <v>10</v>
       </c>
       <c r="N608">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O608">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P608">
         <v>2.2999999999999998</v>
@@ -30813,10 +30813,10 @@
         <v>10</v>
       </c>
       <c r="N609">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O609">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P609">
         <v>2.2999999999999998</v>
@@ -30866,10 +30866,10 @@
         <v>10</v>
       </c>
       <c r="N610">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O610">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P610">
         <v>2.2999999999999998</v>
@@ -30919,10 +30919,10 @@
         <v>10</v>
       </c>
       <c r="N611">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O611">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P611">
         <v>2.2999999999999998</v>
@@ -30972,10 +30972,10 @@
         <v>10</v>
       </c>
       <c r="N612">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O612">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P612">
         <v>2.2999999999999998</v>
@@ -31025,10 +31025,10 @@
         <v>10</v>
       </c>
       <c r="N613">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O613">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P613">
         <v>2.2999999999999998</v>
@@ -31078,10 +31078,10 @@
         <v>10</v>
       </c>
       <c r="N614">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O614">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P614">
         <v>2.2999999999999998</v>
@@ -31131,10 +31131,10 @@
         <v>10</v>
       </c>
       <c r="N615">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O615">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P615">
         <v>2.2999999999999998</v>
@@ -31184,10 +31184,10 @@
         <v>20</v>
       </c>
       <c r="N616">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O616">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P616">
         <v>2.2999999999999998</v>
@@ -31237,10 +31237,10 @@
         <v>20</v>
       </c>
       <c r="N617">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O617">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P617">
         <v>2.2999999999999998</v>
@@ -31290,10 +31290,10 @@
         <v>20</v>
       </c>
       <c r="N618">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O618">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P618">
         <v>2.2999999999999998</v>
@@ -31343,10 +31343,10 @@
         <v>20</v>
       </c>
       <c r="N619">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O619">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P619">
         <v>2.2999999999999998</v>
@@ -31396,10 +31396,10 @@
         <v>20</v>
       </c>
       <c r="N620">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O620">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P620">
         <v>2.2999999999999998</v>
@@ -31449,10 +31449,10 @@
         <v>20</v>
       </c>
       <c r="N621">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O621">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P621">
         <v>2.2999999999999998</v>
@@ -31502,10 +31502,10 @@
         <v>20</v>
       </c>
       <c r="N622">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O622">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P622">
         <v>2.2999999999999998</v>
@@ -31555,10 +31555,10 @@
         <v>20</v>
       </c>
       <c r="N623">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O623">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P623">
         <v>2.2999999999999998</v>
@@ -31608,10 +31608,10 @@
         <v>20</v>
       </c>
       <c r="N624">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O624">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P624">
         <v>2.2999999999999998</v>
@@ -31661,10 +31661,10 @@
         <v>20</v>
       </c>
       <c r="N625">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O625">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P625">
         <v>2.2999999999999998</v>
@@ -31714,10 +31714,10 @@
         <v>20</v>
       </c>
       <c r="N626">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O626">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P626">
         <v>2.2999999999999998</v>
@@ -31767,10 +31767,10 @@
         <v>30</v>
       </c>
       <c r="N627">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O627">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P627">
         <v>2.2999999999999998</v>
@@ -31820,10 +31820,10 @@
         <v>30</v>
       </c>
       <c r="N628">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O628">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P628">
         <v>2.2999999999999998</v>
@@ -31873,10 +31873,10 @@
         <v>30</v>
       </c>
       <c r="N629">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O629">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P629">
         <v>2.2999999999999998</v>
@@ -31926,10 +31926,10 @@
         <v>30</v>
       </c>
       <c r="N630">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O630">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P630">
         <v>2.2999999999999998</v>
@@ -31979,10 +31979,10 @@
         <v>30</v>
       </c>
       <c r="N631">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O631">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P631">
         <v>2.2999999999999998</v>
@@ -32032,10 +32032,10 @@
         <v>30</v>
       </c>
       <c r="N632">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O632">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P632">
         <v>2.2999999999999998</v>
@@ -32085,10 +32085,10 @@
         <v>30</v>
       </c>
       <c r="N633">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O633">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P633">
         <v>2.2999999999999998</v>
@@ -32138,10 +32138,10 @@
         <v>30</v>
       </c>
       <c r="N634">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O634">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P634">
         <v>2.2999999999999998</v>
@@ -32191,10 +32191,10 @@
         <v>30</v>
       </c>
       <c r="N635">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O635">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P635">
         <v>2.2999999999999998</v>
@@ -32244,10 +32244,10 @@
         <v>30</v>
       </c>
       <c r="N636">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O636">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P636">
         <v>2.2999999999999998</v>
@@ -32297,10 +32297,10 @@
         <v>50</v>
       </c>
       <c r="N637">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O637">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P637">
         <v>2.2999999999999998</v>
@@ -32350,10 +32350,10 @@
         <v>50</v>
       </c>
       <c r="N638">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O638">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P638">
         <v>2.2999999999999998</v>
@@ -32403,10 +32403,10 @@
         <v>50</v>
       </c>
       <c r="N639">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O639">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P639">
         <v>2.2999999999999998</v>
@@ -32456,10 +32456,10 @@
         <v>50</v>
       </c>
       <c r="N640">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O640">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P640">
         <v>2.2999999999999998</v>
@@ -32509,10 +32509,10 @@
         <v>50</v>
       </c>
       <c r="N641">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O641">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P641">
         <v>2.2999999999999998</v>
@@ -32562,10 +32562,10 @@
         <v>50</v>
       </c>
       <c r="N642">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O642">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P642">
         <v>2.2999999999999998</v>
@@ -32615,10 +32615,10 @@
         <v>50</v>
       </c>
       <c r="N643">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O643">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P643">
         <v>2.2999999999999998</v>
@@ -32668,10 +32668,10 @@
         <v>50</v>
       </c>
       <c r="N644">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O644">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P644">
         <v>2.2999999999999998</v>
@@ -32721,10 +32721,10 @@
         <v>50</v>
       </c>
       <c r="N645">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O645">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P645">
         <v>2.2999999999999998</v>
@@ -32774,10 +32774,10 @@
         <v>50</v>
       </c>
       <c r="N646">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O646">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P646">
         <v>2.2999999999999998</v>
@@ -32827,10 +32827,10 @@
         <v>70</v>
       </c>
       <c r="N647">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O647">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P647">
         <v>2.2999999999999998</v>
@@ -32880,10 +32880,10 @@
         <v>70</v>
       </c>
       <c r="N648">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O648">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P648">
         <v>2.2999999999999998</v>
@@ -32933,10 +32933,10 @@
         <v>70</v>
       </c>
       <c r="N649">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O649">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P649">
         <v>2.2999999999999998</v>
@@ -32986,10 +32986,10 @@
         <v>70</v>
       </c>
       <c r="N650">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O650">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P650">
         <v>2.2999999999999998</v>
@@ -33039,10 +33039,10 @@
         <v>70</v>
       </c>
       <c r="N651">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O651">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P651">
         <v>2.2999999999999998</v>
@@ -33092,10 +33092,10 @@
         <v>70</v>
       </c>
       <c r="N652">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O652">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P652">
         <v>2.2999999999999998</v>
@@ -33145,10 +33145,10 @@
         <v>70</v>
       </c>
       <c r="N653">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O653">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P653">
         <v>2.2999999999999998</v>
@@ -33198,10 +33198,10 @@
         <v>70</v>
       </c>
       <c r="N654">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O654">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P654">
         <v>2.2999999999999998</v>
@@ -33251,10 +33251,10 @@
         <v>70</v>
       </c>
       <c r="N655">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O655">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P655">
         <v>2.2999999999999998</v>
@@ -33304,10 +33304,10 @@
         <v>70</v>
       </c>
       <c r="N656">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O656">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P656">
         <v>2.2999999999999998</v>
@@ -33357,10 +33357,10 @@
         <v>100</v>
       </c>
       <c r="N657">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O657">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P657">
         <v>2.2999999999999998</v>
@@ -33410,10 +33410,10 @@
         <v>100</v>
       </c>
       <c r="N658">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O658">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P658">
         <v>2.2999999999999998</v>
@@ -33463,10 +33463,10 @@
         <v>100</v>
       </c>
       <c r="N659">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O659">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P659">
         <v>2.2999999999999998</v>
@@ -33516,10 +33516,10 @@
         <v>100</v>
       </c>
       <c r="N660">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O660">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P660">
         <v>2.2999999999999998</v>
@@ -33569,10 +33569,10 @@
         <v>100</v>
       </c>
       <c r="N661">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O661">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P661">
         <v>2.2999999999999998</v>
@@ -33622,10 +33622,10 @@
         <v>100</v>
       </c>
       <c r="N662">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O662">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P662">
         <v>2.2999999999999998</v>
@@ -33675,10 +33675,10 @@
         <v>100</v>
       </c>
       <c r="N663">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O663">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P663">
         <v>2.2999999999999998</v>
@@ -33728,10 +33728,10 @@
         <v>100</v>
       </c>
       <c r="N664">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O664">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P664">
         <v>2.2999999999999998</v>
@@ -33781,10 +33781,10 @@
         <v>100</v>
       </c>
       <c r="N665">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O665">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P665">
         <v>2.2999999999999998</v>
@@ -33834,10 +33834,10 @@
         <v>100</v>
       </c>
       <c r="N666">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O666">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P666">
         <v>2.2999999999999998</v>
@@ -33887,10 +33887,10 @@
         <v>100</v>
       </c>
       <c r="N667">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O667">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P667">
         <v>2.2999999999999998</v>
@@ -33940,10 +33940,10 @@
         <v>100</v>
       </c>
       <c r="N668">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O668">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P668">
         <v>2.2999999999999998</v>
@@ -33993,10 +33993,10 @@
         <v>100</v>
       </c>
       <c r="N669">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O669">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P669">
         <v>2.2999999999999998</v>
@@ -34046,10 +34046,10 @@
         <v>100</v>
       </c>
       <c r="N670">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O670">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P670">
         <v>2.2999999999999998</v>
@@ -34099,10 +34099,10 @@
         <v>100</v>
       </c>
       <c r="N671">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O671">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P671">
         <v>2.2999999999999998</v>
@@ -34152,10 +34152,10 @@
         <v>100</v>
       </c>
       <c r="N672">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O672">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P672">
         <v>2.2999999999999998</v>
@@ -34205,10 +34205,10 @@
         <v>100</v>
       </c>
       <c r="N673">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O673">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P673">
         <v>2.2999999999999998</v>
@@ -34258,10 +34258,10 @@
         <v>100</v>
       </c>
       <c r="N674">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O674">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P674">
         <v>2.2999999999999998</v>
@@ -34311,10 +34311,10 @@
         <v>100</v>
       </c>
       <c r="N675">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O675">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P675">
         <v>2.2999999999999998</v>
@@ -34364,10 +34364,10 @@
         <v>100</v>
       </c>
       <c r="N676">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O676">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P676">
         <v>2.2999999999999998</v>
@@ -34417,10 +34417,10 @@
         <v>100</v>
       </c>
       <c r="N677">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O677">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P677">
         <v>2.2999999999999998</v>
@@ -34470,10 +34470,10 @@
         <v>100</v>
       </c>
       <c r="N678">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O678">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P678">
         <v>2.2999999999999998</v>
@@ -34523,10 +34523,10 @@
         <v>100</v>
       </c>
       <c r="N679">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O679">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P679">
         <v>2.2999999999999998</v>
@@ -34576,10 +34576,10 @@
         <v>100</v>
       </c>
       <c r="N680">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O680">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P680">
         <v>2.2999999999999998</v>
@@ -34629,10 +34629,10 @@
         <v>100</v>
       </c>
       <c r="N681">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O681">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P681">
         <v>2.2999999999999998</v>
@@ -34682,10 +34682,10 @@
         <v>100</v>
       </c>
       <c r="N682">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O682">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P682">
         <v>2.2999999999999998</v>
@@ -34735,10 +34735,10 @@
         <v>100</v>
       </c>
       <c r="N683">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O683">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P683">
         <v>2.2999999999999998</v>
@@ -34788,10 +34788,10 @@
         <v>100</v>
       </c>
       <c r="N684">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O684">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P684">
         <v>2.2999999999999998</v>
@@ -34841,10 +34841,10 @@
         <v>100</v>
       </c>
       <c r="N685">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O685">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P685">
         <v>2.2999999999999998</v>
@@ -34894,10 +34894,10 @@
         <v>100</v>
       </c>
       <c r="N686">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O686">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P686">
         <v>2.2999999999999998</v>
@@ -34947,10 +34947,10 @@
         <v>100</v>
       </c>
       <c r="N687">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O687">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P687">
         <v>2.2999999999999998</v>
@@ -35000,10 +35000,10 @@
         <v>100</v>
       </c>
       <c r="N688">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O688">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P688">
         <v>2.2999999999999998</v>
@@ -35053,10 +35053,10 @@
         <v>100</v>
       </c>
       <c r="N689">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O689">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P689">
         <v>2.2999999999999998</v>
@@ -35106,10 +35106,10 @@
         <v>100</v>
       </c>
       <c r="N690">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O690">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P690">
         <v>2.2999999999999998</v>
@@ -35159,10 +35159,10 @@
         <v>100</v>
       </c>
       <c r="N691">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O691">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P691">
         <v>2.2999999999999998</v>
@@ -35212,10 +35212,10 @@
         <v>100</v>
       </c>
       <c r="N692">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O692">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P692">
         <v>2.2999999999999998</v>
@@ -35265,10 +35265,10 @@
         <v>100</v>
       </c>
       <c r="N693">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O693">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P693">
         <v>2.2999999999999998</v>
@@ -35318,10 +35318,10 @@
         <v>100</v>
       </c>
       <c r="N694">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O694">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P694">
         <v>2.2999999999999998</v>
@@ -35371,10 +35371,10 @@
         <v>100</v>
       </c>
       <c r="N695">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O695">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="P695">
         <v>2.2999999999999998</v>
@@ -35397,7 +35397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6281B96-95F5-4EAF-8BEE-7EC22AAC6AAC}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963C7F0-3605-48F6-A767-FFE4F19D7346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E31A2D-2D55-420B-9C06-626CCE385C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -935,10 +935,10 @@
   <dimension ref="A1:Q695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N91" sqref="N91"/>
+      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1025,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" s="8">
         <v>20</v>
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J3" s="8">
         <v>60</v>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="8">
         <v>120</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J5" s="8">
         <v>200</v>
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J6" s="8">
         <v>300</v>
@@ -1170,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J7" s="8">
         <v>420</v>
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J8" s="8">
         <v>560</v>
@@ -1228,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J9" s="8">
         <v>720</v>
@@ -1257,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J10" s="8">
         <v>900</v>
@@ -1286,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J11" s="8">
         <v>1100</v>
@@ -1315,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12" s="8">
         <v>1320</v>
@@ -1344,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13" s="8">
         <v>1560</v>
@@ -1373,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J14" s="8">
         <v>1820</v>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J15" s="8">
         <v>2100</v>
@@ -1431,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J16" s="8">
         <v>2400</v>
@@ -1460,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J17" s="8">
         <v>2720</v>
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J18" s="8">
         <v>3060</v>
@@ -1518,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J19" s="8">
         <v>3420</v>
@@ -1547,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J20" s="8">
         <v>3800</v>
@@ -1576,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J21" s="8">
         <v>4200</v>
@@ -1605,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J22" s="8">
         <v>4620</v>
@@ -1634,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J23" s="8">
         <v>5060</v>
@@ -1663,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J24" s="8">
         <v>5520</v>
@@ -1692,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J25" s="8">
         <v>6000</v>
@@ -1721,7 +1721,7 @@
         <v>17</v>
       </c>
       <c r="I26" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J26" s="8">
         <v>6500</v>
@@ -1750,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="I27" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J27" s="8">
         <v>7020</v>
@@ -1779,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J28" s="8">
         <v>7560</v>
@@ -1808,7 +1808,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J29" s="8">
         <v>8120</v>
@@ -1837,7 +1837,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="9">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J30" s="8">
         <v>10614</v>
@@ -1866,7 +1866,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J31" s="8">
         <v>11340</v>
@@ -1895,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J32" s="8">
         <v>12090</v>
@@ -1924,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J33" s="8">
         <v>12864</v>
@@ -1953,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J34" s="8">
         <v>13662</v>
@@ -1982,7 +1982,7 @@
         <v>21</v>
       </c>
       <c r="I35" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J35" s="8">
         <v>14484</v>
@@ -2011,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J36" s="8">
         <v>15330</v>
@@ -2040,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J37" s="8">
         <v>16200</v>
@@ -2069,7 +2069,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J38" s="8">
         <v>17094</v>
@@ -2098,7 +2098,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J39" s="8">
         <v>18012</v>
@@ -2127,7 +2127,7 @@
         <v>24</v>
       </c>
       <c r="I40" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J40" s="8">
         <v>18954</v>
@@ -2156,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="I41" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J41" s="8">
         <v>19920</v>
@@ -2185,7 +2185,7 @@
         <v>25</v>
       </c>
       <c r="I42" s="9">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J42" s="8">
         <v>20910</v>
@@ -2214,7 +2214,7 @@
         <v>25</v>
       </c>
       <c r="I43" s="9">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J43" s="8">
         <v>21924</v>
@@ -2243,7 +2243,7 @@
         <v>26</v>
       </c>
       <c r="I44" s="9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J44" s="8">
         <v>22962</v>
@@ -2272,7 +2272,7 @@
         <v>27</v>
       </c>
       <c r="I45" s="9">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J45" s="8">
         <v>24024</v>
@@ -2301,7 +2301,7 @@
         <v>27</v>
       </c>
       <c r="I46" s="9">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J46" s="8">
         <v>25110</v>
@@ -2330,7 +2330,7 @@
         <v>28</v>
       </c>
       <c r="I47" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J47" s="8">
         <v>26220</v>
@@ -2359,7 +2359,7 @@
         <v>28</v>
       </c>
       <c r="I48" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J48" s="8">
         <v>27354</v>
@@ -2388,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="I49" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J49" s="8">
         <v>28512</v>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="I50" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J50" s="8">
         <v>29694</v>
@@ -2446,7 +2446,7 @@
         <v>30</v>
       </c>
       <c r="I51" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J51" s="8">
         <v>30900</v>
@@ -2475,7 +2475,7 @@
         <v>31</v>
       </c>
       <c r="I52" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J52" s="8">
         <v>32130</v>
@@ -2504,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="I53" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J53" s="8">
         <v>33384</v>
@@ -2533,7 +2533,7 @@
         <v>33</v>
       </c>
       <c r="I54" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J54" s="8">
         <v>34662</v>
@@ -2562,7 +2562,7 @@
         <v>33</v>
       </c>
       <c r="I55" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J55" s="8">
         <v>45630</v>
@@ -2591,7 +2591,7 @@
         <v>34</v>
       </c>
       <c r="I56" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J56" s="8">
         <v>47300</v>
@@ -2620,7 +2620,7 @@
         <v>35</v>
       </c>
       <c r="I57" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J57" s="8">
         <v>49000</v>
@@ -2649,7 +2649,7 @@
         <v>36</v>
       </c>
       <c r="I58" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J58" s="8">
         <v>50730</v>
@@ -2678,7 +2678,7 @@
         <v>37</v>
       </c>
       <c r="I59" s="9">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J59" s="8">
         <v>52490</v>
@@ -2707,7 +2707,7 @@
         <v>37</v>
       </c>
       <c r="I60" s="9">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J60" s="8">
         <v>54280</v>
@@ -2736,7 +2736,7 @@
         <v>38</v>
       </c>
       <c r="I61" s="9">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J61" s="8">
         <v>56100</v>
@@ -2765,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="I62" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J62" s="8">
         <v>57950</v>
@@ -2794,7 +2794,7 @@
         <v>40</v>
       </c>
       <c r="I63" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J63" s="8">
         <v>59830</v>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
       <c r="I64" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J64" s="8">
         <v>61740</v>
@@ -2852,7 +2852,7 @@
         <v>42</v>
       </c>
       <c r="I65" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J65" s="8">
         <v>63680</v>
@@ -2881,7 +2881,7 @@
         <v>43</v>
       </c>
       <c r="I66" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J66" s="8">
         <v>65650</v>
@@ -2910,7 +2910,7 @@
         <v>44</v>
       </c>
       <c r="I67" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J67" s="8">
         <v>67650</v>
@@ -2939,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="I68" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J68" s="8">
         <v>69680</v>
@@ -2968,7 +2968,7 @@
         <v>46</v>
       </c>
       <c r="I69" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J69" s="8">
         <v>71740</v>
@@ -2997,7 +2997,7 @@
         <v>47</v>
       </c>
       <c r="I70" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J70" s="8">
         <v>73830</v>
@@ -3026,7 +3026,7 @@
         <v>48</v>
       </c>
       <c r="I71" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J71" s="8">
         <v>75950</v>
@@ -3055,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="I72" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J72" s="8">
         <v>78100</v>
@@ -3084,7 +3084,7 @@
         <v>50</v>
       </c>
       <c r="I73" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J73" s="8">
         <v>80280</v>
@@ -3113,7 +3113,7 @@
         <v>51</v>
       </c>
       <c r="I74" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J74" s="8">
         <v>82490</v>
@@ -3142,7 +3142,7 @@
         <v>53</v>
       </c>
       <c r="I75" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J75" s="8">
         <v>84730</v>
@@ -3171,7 +3171,7 @@
         <v>54</v>
       </c>
       <c r="I76" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J76" s="8">
         <v>87000</v>
@@ -3200,7 +3200,7 @@
         <v>55</v>
       </c>
       <c r="I77" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J77" s="8">
         <v>89300</v>
@@ -3229,7 +3229,7 @@
         <v>56</v>
       </c>
       <c r="I78" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J78" s="8">
         <v>91630</v>
@@ -3258,7 +3258,7 @@
         <v>58</v>
       </c>
       <c r="I79" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J79" s="8">
         <v>93990</v>
@@ -3287,7 +3287,7 @@
         <v>59</v>
       </c>
       <c r="I80" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J80" s="8">
         <v>96380</v>
@@ -3316,7 +3316,7 @@
         <v>60</v>
       </c>
       <c r="I81" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J81" s="8">
         <v>98800</v>
@@ -3345,7 +3345,7 @@
         <v>62</v>
       </c>
       <c r="I82" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J82" s="8">
         <v>101250</v>
@@ -3374,7 +3374,7 @@
         <v>63</v>
       </c>
       <c r="I83" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J83" s="8">
         <v>103730</v>
@@ -3403,7 +3403,7 @@
         <v>65</v>
       </c>
       <c r="I84" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="J84" s="8">
         <v>106240</v>
@@ -3432,7 +3432,7 @@
         <v>66</v>
       </c>
       <c r="I85" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J85" s="8">
         <v>108780</v>
@@ -3461,7 +3461,7 @@
         <v>68</v>
       </c>
       <c r="I86" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J86" s="8">
         <v>111350</v>
@@ -3490,7 +3490,7 @@
         <v>69</v>
       </c>
       <c r="I87" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="J87" s="8">
         <v>113950</v>
@@ -3519,7 +3519,7 @@
         <v>71</v>
       </c>
       <c r="I88" s="9">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J88" s="8">
         <v>116580</v>
@@ -3548,7 +3548,7 @@
         <v>72</v>
       </c>
       <c r="I89" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J89" s="8">
         <v>119240</v>
@@ -3577,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="I90" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J90" s="8">
         <v>121930</v>
@@ -3606,7 +3606,7 @@
         <v>76</v>
       </c>
       <c r="I91" s="9">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J91" s="8">
         <v>245700</v>
@@ -3635,7 +3635,7 @@
         <v>77</v>
       </c>
       <c r="I92" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J92" s="8">
         <v>252980</v>
@@ -3664,7 +3664,7 @@
         <v>79</v>
       </c>
       <c r="I93" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="J93" s="8">
         <v>301300</v>
@@ -3693,7 +3693,7 @@
         <v>81</v>
       </c>
       <c r="I94" s="9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J94" s="8">
         <v>351075</v>
@@ -3722,7 +3722,7 @@
         <v>83</v>
       </c>
       <c r="I95" s="9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="J95" s="8">
         <v>446500</v>
@@ -3751,7 +3751,7 @@
         <v>85</v>
       </c>
       <c r="I96" s="9">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J96" s="8">
         <v>546250</v>
@@ -3780,7 +3780,7 @@
         <v>87</v>
       </c>
       <c r="I97" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="J97" s="8">
         <v>649920</v>
@@ -3809,7 +3809,7 @@
         <v>89</v>
       </c>
       <c r="I98" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="J98" s="8">
         <v>757570</v>
@@ -3838,7 +3838,7 @@
         <v>91</v>
       </c>
       <c r="I99" s="9">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J99" s="8">
         <v>965300</v>
@@ -3867,7 +3867,7 @@
         <v>93</v>
       </c>
       <c r="I100" s="9">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J100" s="8">
         <v>1473120</v>
@@ -3897,7 +3897,7 @@
         <v>95</v>
       </c>
       <c r="I101" s="9">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J101" s="10"/>
     </row>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E31A2D-2D55-420B-9C06-626CCE385C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88D30D-8483-41D3-8F74-F31343DD340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -935,10 +935,10 @@
   <dimension ref="A1:Q695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -946,7 +946,6 @@
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="26" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="19" max="19" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
@@ -1025,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2" s="8">
         <v>20</v>
@@ -1054,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="8">
         <v>60</v>
@@ -1083,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="8">
         <v>120</v>
@@ -1112,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="8">
         <v>200</v>
@@ -1141,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="8">
         <v>300</v>
@@ -1170,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="8">
         <v>420</v>
@@ -1199,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="8">
         <v>560</v>
@@ -1228,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="8">
         <v>720</v>
@@ -1257,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="8">
         <v>900</v>
@@ -1286,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="8">
         <v>1100</v>
@@ -1315,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="8">
         <v>1320</v>
@@ -1344,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" s="8">
         <v>1560</v>
@@ -1373,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J14" s="8">
         <v>1820</v>
@@ -1402,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J15" s="8">
         <v>2100</v>
@@ -1431,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16" s="8">
         <v>2400</v>
@@ -1460,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J17" s="8">
         <v>2720</v>
@@ -1489,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J18" s="8">
         <v>3060</v>
@@ -1518,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" s="8">
         <v>3420</v>
@@ -1547,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" s="8">
         <v>3800</v>
@@ -1576,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="8">
         <v>4200</v>
@@ -1605,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22" s="8">
         <v>4620</v>
@@ -1634,7 +1633,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="8">
         <v>5060</v>
@@ -1663,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" s="8">
         <v>5520</v>
@@ -1692,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J25" s="8">
         <v>6000</v>
@@ -1721,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="I26" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J26" s="8">
         <v>6500</v>
@@ -1750,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="I27" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J27" s="8">
         <v>7020</v>
@@ -1779,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="I28" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J28" s="8">
         <v>7560</v>
@@ -1808,7 +1807,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J29" s="8">
         <v>8120</v>
@@ -1837,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J30" s="8">
         <v>10614</v>
@@ -1866,7 +1865,7 @@
         <v>19</v>
       </c>
       <c r="I31" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31" s="8">
         <v>11340</v>
@@ -1895,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" s="8">
         <v>12090</v>
@@ -1924,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J33" s="8">
         <v>12864</v>
@@ -1953,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J34" s="8">
         <v>13662</v>
@@ -1982,7 +1981,7 @@
         <v>21</v>
       </c>
       <c r="I35" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J35" s="8">
         <v>14484</v>
@@ -2011,7 +2010,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J36" s="8">
         <v>15330</v>
@@ -2040,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J37" s="8">
         <v>16200</v>
@@ -2069,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="I38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J38" s="8">
         <v>17094</v>
@@ -2098,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J39" s="8">
         <v>18012</v>
@@ -2127,7 +2126,7 @@
         <v>24</v>
       </c>
       <c r="I40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J40" s="8">
         <v>18954</v>
@@ -2156,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="I41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J41" s="8">
         <v>19920</v>
@@ -2185,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="I42" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J42" s="8">
         <v>20910</v>
@@ -2214,7 +2213,7 @@
         <v>25</v>
       </c>
       <c r="I43" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J43" s="8">
         <v>21924</v>
@@ -2243,7 +2242,7 @@
         <v>26</v>
       </c>
       <c r="I44" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J44" s="8">
         <v>22962</v>
@@ -2272,7 +2271,7 @@
         <v>27</v>
       </c>
       <c r="I45" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J45" s="8">
         <v>24024</v>
@@ -2301,7 +2300,7 @@
         <v>27</v>
       </c>
       <c r="I46" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J46" s="8">
         <v>25110</v>
@@ -2330,7 +2329,7 @@
         <v>28</v>
       </c>
       <c r="I47" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J47" s="8">
         <v>26220</v>
@@ -2359,7 +2358,7 @@
         <v>28</v>
       </c>
       <c r="I48" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J48" s="8">
         <v>27354</v>
@@ -2388,7 +2387,7 @@
         <v>29</v>
       </c>
       <c r="I49" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J49" s="8">
         <v>28512</v>
@@ -2417,7 +2416,7 @@
         <v>30</v>
       </c>
       <c r="I50" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J50" s="8">
         <v>29694</v>
@@ -2446,7 +2445,7 @@
         <v>30</v>
       </c>
       <c r="I51" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J51" s="8">
         <v>30900</v>
@@ -2475,7 +2474,7 @@
         <v>31</v>
       </c>
       <c r="I52" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J52" s="8">
         <v>32130</v>
@@ -2504,7 +2503,7 @@
         <v>32</v>
       </c>
       <c r="I53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J53" s="8">
         <v>33384</v>
@@ -2533,7 +2532,7 @@
         <v>33</v>
       </c>
       <c r="I54" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J54" s="8">
         <v>34662</v>
@@ -2562,7 +2561,7 @@
         <v>33</v>
       </c>
       <c r="I55" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J55" s="8">
         <v>45630</v>
@@ -2591,7 +2590,7 @@
         <v>34</v>
       </c>
       <c r="I56" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J56" s="8">
         <v>47300</v>
@@ -2620,7 +2619,7 @@
         <v>35</v>
       </c>
       <c r="I57" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J57" s="8">
         <v>49000</v>
@@ -2649,7 +2648,7 @@
         <v>36</v>
       </c>
       <c r="I58" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J58" s="8">
         <v>50730</v>
@@ -2678,7 +2677,7 @@
         <v>37</v>
       </c>
       <c r="I59" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J59" s="8">
         <v>52490</v>
@@ -2707,7 +2706,7 @@
         <v>37</v>
       </c>
       <c r="I60" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J60" s="8">
         <v>54280</v>
@@ -2736,7 +2735,7 @@
         <v>38</v>
       </c>
       <c r="I61" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J61" s="8">
         <v>56100</v>
@@ -2765,7 +2764,7 @@
         <v>39</v>
       </c>
       <c r="I62" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J62" s="8">
         <v>57950</v>
@@ -2794,7 +2793,7 @@
         <v>40</v>
       </c>
       <c r="I63" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J63" s="8">
         <v>59830</v>
@@ -2823,7 +2822,7 @@
         <v>41</v>
       </c>
       <c r="I64" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J64" s="8">
         <v>61740</v>
@@ -2852,7 +2851,7 @@
         <v>42</v>
       </c>
       <c r="I65" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J65" s="8">
         <v>63680</v>
@@ -2881,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="I66" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J66" s="8">
         <v>65650</v>
@@ -2910,7 +2909,7 @@
         <v>44</v>
       </c>
       <c r="I67" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J67" s="8">
         <v>67650</v>
@@ -2939,7 +2938,7 @@
         <v>45</v>
       </c>
       <c r="I68" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J68" s="8">
         <v>69680</v>
@@ -2968,7 +2967,7 @@
         <v>46</v>
       </c>
       <c r="I69" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J69" s="8">
         <v>71740</v>
@@ -2997,7 +2996,7 @@
         <v>47</v>
       </c>
       <c r="I70" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J70" s="8">
         <v>73830</v>
@@ -3026,7 +3025,7 @@
         <v>48</v>
       </c>
       <c r="I71" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J71" s="8">
         <v>75950</v>
@@ -3055,7 +3054,7 @@
         <v>49</v>
       </c>
       <c r="I72" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J72" s="8">
         <v>78100</v>
@@ -3084,7 +3083,7 @@
         <v>50</v>
       </c>
       <c r="I73" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J73" s="8">
         <v>80280</v>
@@ -3113,7 +3112,7 @@
         <v>51</v>
       </c>
       <c r="I74" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J74" s="8">
         <v>82490</v>
@@ -3142,7 +3141,7 @@
         <v>53</v>
       </c>
       <c r="I75" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J75" s="8">
         <v>84730</v>
@@ -3171,7 +3170,7 @@
         <v>54</v>
       </c>
       <c r="I76" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J76" s="8">
         <v>87000</v>
@@ -3200,7 +3199,7 @@
         <v>55</v>
       </c>
       <c r="I77" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J77" s="8">
         <v>89300</v>
@@ -3229,7 +3228,7 @@
         <v>56</v>
       </c>
       <c r="I78" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J78" s="8">
         <v>91630</v>
@@ -3258,7 +3257,7 @@
         <v>58</v>
       </c>
       <c r="I79" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J79" s="8">
         <v>93990</v>
@@ -3287,7 +3286,7 @@
         <v>59</v>
       </c>
       <c r="I80" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J80" s="8">
         <v>96380</v>
@@ -3316,7 +3315,7 @@
         <v>60</v>
       </c>
       <c r="I81" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J81" s="8">
         <v>98800</v>
@@ -3345,7 +3344,7 @@
         <v>62</v>
       </c>
       <c r="I82" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J82" s="8">
         <v>101250</v>
@@ -3374,7 +3373,7 @@
         <v>63</v>
       </c>
       <c r="I83" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J83" s="8">
         <v>103730</v>
@@ -3403,7 +3402,7 @@
         <v>65</v>
       </c>
       <c r="I84" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J84" s="8">
         <v>106240</v>
@@ -3432,7 +3431,7 @@
         <v>66</v>
       </c>
       <c r="I85" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J85" s="8">
         <v>108780</v>
@@ -3461,7 +3460,7 @@
         <v>68</v>
       </c>
       <c r="I86" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J86" s="8">
         <v>111350</v>
@@ -3490,7 +3489,7 @@
         <v>69</v>
       </c>
       <c r="I87" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J87" s="8">
         <v>113950</v>
@@ -3519,7 +3518,7 @@
         <v>71</v>
       </c>
       <c r="I88" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J88" s="8">
         <v>116580</v>
@@ -3548,7 +3547,7 @@
         <v>72</v>
       </c>
       <c r="I89" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J89" s="8">
         <v>119240</v>
@@ -3577,7 +3576,7 @@
         <v>74</v>
       </c>
       <c r="I90" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J90" s="8">
         <v>121930</v>
@@ -3606,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="I91" s="9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J91" s="8">
         <v>245700</v>
@@ -3635,7 +3634,7 @@
         <v>77</v>
       </c>
       <c r="I92" s="9">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J92" s="8">
         <v>252980</v>
@@ -3664,7 +3663,7 @@
         <v>79</v>
       </c>
       <c r="I93" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J93" s="8">
         <v>301300</v>
@@ -3693,7 +3692,7 @@
         <v>81</v>
       </c>
       <c r="I94" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J94" s="8">
         <v>351075</v>
@@ -3722,7 +3721,7 @@
         <v>83</v>
       </c>
       <c r="I95" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J95" s="8">
         <v>446500</v>
@@ -3751,7 +3750,7 @@
         <v>85</v>
       </c>
       <c r="I96" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J96" s="8">
         <v>546250</v>
@@ -3780,7 +3779,7 @@
         <v>87</v>
       </c>
       <c r="I97" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J97" s="8">
         <v>649920</v>
@@ -3809,7 +3808,7 @@
         <v>89</v>
       </c>
       <c r="I98" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J98" s="8">
         <v>757570</v>
@@ -3838,7 +3837,7 @@
         <v>91</v>
       </c>
       <c r="I99" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J99" s="8">
         <v>965300</v>
@@ -3867,7 +3866,7 @@
         <v>93</v>
       </c>
       <c r="I100" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J100" s="8">
         <v>1473120</v>
@@ -3897,7 +3896,7 @@
         <v>95</v>
       </c>
       <c r="I101" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J101" s="10"/>
     </row>
@@ -24939,7 +24938,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q498">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.45">
@@ -24992,7 +24991,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q499">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:17" x14ac:dyDescent="0.45">
@@ -25045,7 +25044,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q500">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:17" x14ac:dyDescent="0.45">
@@ -25098,7 +25097,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q501">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:17" x14ac:dyDescent="0.45">
@@ -25151,7 +25150,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q502">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.45">
@@ -25204,7 +25203,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q503">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:17" x14ac:dyDescent="0.45">
@@ -25257,7 +25256,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q504">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.45">
@@ -25310,7 +25309,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q505">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.45">
@@ -25363,7 +25362,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q506">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.45">
@@ -25416,7 +25415,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q507">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.45">
@@ -25469,7 +25468,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q508">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:17" x14ac:dyDescent="0.45">
@@ -25522,7 +25521,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:17" x14ac:dyDescent="0.45">
@@ -25575,7 +25574,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:17" x14ac:dyDescent="0.45">
@@ -25628,7 +25627,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q511">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:17" x14ac:dyDescent="0.45">
@@ -25681,7 +25680,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q512">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.45">
@@ -25734,7 +25733,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q513">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.45">
@@ -25787,7 +25786,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q514">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.45">
@@ -25840,7 +25839,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q515">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.45">
@@ -25893,7 +25892,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q516">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:17" x14ac:dyDescent="0.45">
@@ -25946,7 +25945,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q517">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:17" x14ac:dyDescent="0.45">
@@ -25999,7 +25998,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q518">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:17" x14ac:dyDescent="0.45">
@@ -26052,7 +26051,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q519">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.45">
@@ -26105,7 +26104,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q520">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:17" x14ac:dyDescent="0.45">
@@ -26158,7 +26157,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q521">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:17" x14ac:dyDescent="0.45">
@@ -26211,7 +26210,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q522">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:17" x14ac:dyDescent="0.45">
@@ -26264,7 +26263,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q523">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:17" x14ac:dyDescent="0.45">
@@ -26317,7 +26316,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q524">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:17" x14ac:dyDescent="0.45">
@@ -26370,7 +26369,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q525">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:17" x14ac:dyDescent="0.45">
@@ -26423,7 +26422,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q526">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.45">
@@ -26476,7 +26475,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q527">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:17" x14ac:dyDescent="0.45">
@@ -26529,7 +26528,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q528">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:17" x14ac:dyDescent="0.45">
@@ -26582,7 +26581,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q529">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:17" x14ac:dyDescent="0.45">
@@ -26635,7 +26634,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q530">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:17" x14ac:dyDescent="0.45">
@@ -26688,7 +26687,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q531">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:17" x14ac:dyDescent="0.45">
@@ -26741,7 +26740,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q532">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:17" x14ac:dyDescent="0.45">
@@ -26794,7 +26793,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q533">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:17" x14ac:dyDescent="0.45">
@@ -26847,7 +26846,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q534">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:17" x14ac:dyDescent="0.45">
@@ -26900,7 +26899,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q535">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:17" x14ac:dyDescent="0.45">
@@ -26953,7 +26952,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q536">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:17" x14ac:dyDescent="0.45">
@@ -27006,7 +27005,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q537">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:17" x14ac:dyDescent="0.45">
@@ -27059,7 +27058,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q538">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:17" x14ac:dyDescent="0.45">
@@ -27112,7 +27111,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q539">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:17" x14ac:dyDescent="0.45">
@@ -27165,7 +27164,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q540">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:17" x14ac:dyDescent="0.45">
@@ -27218,7 +27217,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q541">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:17" x14ac:dyDescent="0.45">
@@ -27271,7 +27270,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q542">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:17" x14ac:dyDescent="0.45">
@@ -27324,7 +27323,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q543">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:17" x14ac:dyDescent="0.45">
@@ -27377,7 +27376,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q544">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:17" x14ac:dyDescent="0.45">
@@ -27430,7 +27429,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q545">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:17" x14ac:dyDescent="0.45">
@@ -27483,7 +27482,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q546">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.45">
@@ -27536,7 +27535,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q547">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.45">
@@ -27589,7 +27588,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q548">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.45">
@@ -27642,7 +27641,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q549">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:17" x14ac:dyDescent="0.45">
@@ -27695,7 +27694,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q550">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:17" x14ac:dyDescent="0.45">
@@ -27748,7 +27747,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q551">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:17" x14ac:dyDescent="0.45">
@@ -27801,7 +27800,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q552">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.45">
@@ -27854,7 +27853,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q553">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.45">
@@ -27907,7 +27906,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q554">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.45">
@@ -27960,7 +27959,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q555">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.45">
@@ -28013,7 +28012,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q556">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:17" x14ac:dyDescent="0.45">
@@ -28066,7 +28065,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q557">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.45">
@@ -28119,7 +28118,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q558">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.45">
@@ -28172,7 +28171,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q559">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.45">
@@ -28225,7 +28224,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q560">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:17" x14ac:dyDescent="0.45">
@@ -28278,7 +28277,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q561">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:17" x14ac:dyDescent="0.45">
@@ -28331,7 +28330,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q562">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:17" x14ac:dyDescent="0.45">
@@ -28384,7 +28383,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q563">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:17" x14ac:dyDescent="0.45">
@@ -28437,7 +28436,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q564">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:17" x14ac:dyDescent="0.45">
@@ -28490,7 +28489,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q565">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:17" x14ac:dyDescent="0.45">
@@ -28543,7 +28542,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q566">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:17" x14ac:dyDescent="0.45">
@@ -28596,7 +28595,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q567">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:17" x14ac:dyDescent="0.45">
@@ -28649,7 +28648,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q568">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.45">
@@ -28702,7 +28701,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q569">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.45">
@@ -28755,7 +28754,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.45">
@@ -28808,7 +28807,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q571">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.45">
@@ -28861,7 +28860,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q572">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.45">
@@ -28914,7 +28913,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q573">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:17" x14ac:dyDescent="0.45">
@@ -28967,7 +28966,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q574">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.45">
@@ -29020,7 +29019,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q575">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:17" x14ac:dyDescent="0.45">
@@ -29073,7 +29072,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q576">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:17" x14ac:dyDescent="0.45">
@@ -29126,7 +29125,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q577">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:17" x14ac:dyDescent="0.45">
@@ -29179,7 +29178,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q578">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:17" x14ac:dyDescent="0.45">
@@ -29232,7 +29231,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q579">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:17" x14ac:dyDescent="0.45">
@@ -29285,7 +29284,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q580">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:17" x14ac:dyDescent="0.45">
@@ -29338,7 +29337,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q581">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:17" x14ac:dyDescent="0.45">
@@ -29391,7 +29390,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q582">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:17" x14ac:dyDescent="0.45">
@@ -29444,7 +29443,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q583">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:17" x14ac:dyDescent="0.45">
@@ -29497,7 +29496,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q584">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:17" x14ac:dyDescent="0.45">
@@ -29550,7 +29549,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q585">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:17" x14ac:dyDescent="0.45">
@@ -29603,7 +29602,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q586">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.45">
@@ -29656,7 +29655,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q587">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.45">
@@ -29709,7 +29708,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q588">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.45">
@@ -29762,7 +29761,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q589">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.45">
@@ -29815,7 +29814,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:17" x14ac:dyDescent="0.45">
@@ -29868,7 +29867,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q591">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:17" x14ac:dyDescent="0.45">
@@ -29921,7 +29920,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q592">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.45">
@@ -29974,7 +29973,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q593">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:17" x14ac:dyDescent="0.45">
@@ -30027,7 +30026,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q594">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:17" x14ac:dyDescent="0.45">
@@ -30080,7 +30079,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q595">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:17" x14ac:dyDescent="0.45">
@@ -30133,7 +30132,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q596">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:17" x14ac:dyDescent="0.45">

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88D30D-8483-41D3-8F74-F31343DD340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0EDE5E-CCE8-4D57-8145-79B894C3CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -935,10 +935,10 @@
   <dimension ref="A1:Q695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24911,7 +24911,7 @@
         <v>70</v>
       </c>
       <c r="H498">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -24964,7 +24964,7 @@
         <v>77</v>
       </c>
       <c r="H499">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -25017,7 +25017,7 @@
         <v>85</v>
       </c>
       <c r="H500">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I500">
         <v>1</v>
@@ -25070,7 +25070,7 @@
         <v>93</v>
       </c>
       <c r="H501">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I501">
         <v>1</v>
@@ -25123,7 +25123,7 @@
         <v>102</v>
       </c>
       <c r="H502">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I502">
         <v>1</v>
@@ -25176,7 +25176,7 @@
         <v>113</v>
       </c>
       <c r="H503">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I503">
         <v>1</v>
@@ -25229,7 +25229,7 @@
         <v>124</v>
       </c>
       <c r="H504">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I504">
         <v>1</v>
@@ -25282,7 +25282,7 @@
         <v>136</v>
       </c>
       <c r="H505">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I505">
         <v>1</v>
@@ -25335,7 +25335,7 @@
         <v>150</v>
       </c>
       <c r="H506">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I506">
         <v>1</v>
@@ -25388,7 +25388,7 @@
         <v>165</v>
       </c>
       <c r="H507">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I507">
         <v>1</v>
@@ -25441,7 +25441,7 @@
         <v>182</v>
       </c>
       <c r="H508">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -25494,7 +25494,7 @@
         <v>200</v>
       </c>
       <c r="H509">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I509">
         <v>1</v>
@@ -25547,7 +25547,7 @@
         <v>220</v>
       </c>
       <c r="H510">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I510">
         <v>1</v>
@@ -25600,7 +25600,7 @@
         <v>242</v>
       </c>
       <c r="H511">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I511">
         <v>1</v>
@@ -25653,7 +25653,7 @@
         <v>266</v>
       </c>
       <c r="H512">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -25706,7 +25706,7 @@
         <v>292</v>
       </c>
       <c r="H513">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I513">
         <v>1</v>
@@ -25759,7 +25759,7 @@
         <v>322</v>
       </c>
       <c r="H514">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I514">
         <v>1</v>
@@ -25812,7 +25812,7 @@
         <v>354</v>
       </c>
       <c r="H515">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I515">
         <v>1</v>
@@ -25865,7 +25865,7 @@
         <v>389</v>
       </c>
       <c r="H516">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -25918,7 +25918,7 @@
         <v>428</v>
       </c>
       <c r="H517">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I517">
         <v>1</v>
@@ -25971,7 +25971,7 @@
         <v>471</v>
       </c>
       <c r="H518">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I518">
         <v>1</v>
@@ -26024,7 +26024,7 @@
         <v>518</v>
       </c>
       <c r="H519">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I519">
         <v>1</v>
@@ -26077,7 +26077,7 @@
         <v>570</v>
       </c>
       <c r="H520">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -26130,7 +26130,7 @@
         <v>627</v>
       </c>
       <c r="H521">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I521">
         <v>2</v>
@@ -26183,7 +26183,7 @@
         <v>689</v>
       </c>
       <c r="H522">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="I522">
         <v>2</v>
@@ -26236,7 +26236,7 @@
         <v>758</v>
       </c>
       <c r="H523">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -26289,7 +26289,7 @@
         <v>834</v>
       </c>
       <c r="H524">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -26342,7 +26342,7 @@
         <v>918</v>
       </c>
       <c r="H525">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I525">
         <v>2</v>
@@ -26395,7 +26395,7 @@
         <v>1009</v>
       </c>
       <c r="H526">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="I526">
         <v>2</v>
@@ -26448,7 +26448,7 @@
         <v>1110</v>
       </c>
       <c r="H527">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -26501,7 +26501,7 @@
         <v>1221</v>
       </c>
       <c r="H528">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="I528">
         <v>2</v>
@@ -26554,7 +26554,7 @@
         <v>1344</v>
       </c>
       <c r="H529">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -26607,7 +26607,7 @@
         <v>1478</v>
       </c>
       <c r="H530">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="I530">
         <v>2</v>
@@ -26660,7 +26660,7 @@
         <v>1626</v>
       </c>
       <c r="H531">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I531">
         <v>3</v>
@@ -26713,7 +26713,7 @@
         <v>1788</v>
       </c>
       <c r="H532">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="I532">
         <v>3</v>
@@ -26766,7 +26766,7 @@
         <v>1967</v>
       </c>
       <c r="H533">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="I533">
         <v>3</v>
@@ -26819,7 +26819,7 @@
         <v>2164</v>
       </c>
       <c r="H534">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="I534">
         <v>3</v>
@@ -26872,7 +26872,7 @@
         <v>2380</v>
       </c>
       <c r="H535">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="I535">
         <v>3</v>
@@ -26925,7 +26925,7 @@
         <v>2618</v>
       </c>
       <c r="H536">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="I536">
         <v>3</v>
@@ -26978,7 +26978,7 @@
         <v>2880</v>
       </c>
       <c r="H537">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="I537">
         <v>3</v>
@@ -27031,7 +27031,7 @@
         <v>3168</v>
       </c>
       <c r="H538">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="I538">
         <v>4</v>
@@ -27084,7 +27084,7 @@
         <v>3485</v>
       </c>
       <c r="H539">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="I539">
         <v>4</v>
@@ -27137,7 +27137,7 @@
         <v>3833</v>
       </c>
       <c r="H540">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="I540">
         <v>4</v>
@@ -27190,7 +27190,7 @@
         <v>4217</v>
       </c>
       <c r="H541">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -27243,7 +27243,7 @@
         <v>4638</v>
       </c>
       <c r="H542">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -27296,7 +27296,7 @@
         <v>5102</v>
       </c>
       <c r="H543">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="I543">
         <v>5</v>
@@ -27349,7 +27349,7 @@
         <v>5613</v>
       </c>
       <c r="H544">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="I544">
         <v>5</v>
@@ -27402,7 +27402,7 @@
         <v>6174</v>
       </c>
       <c r="H545">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="I545">
         <v>5</v>
@@ -27455,7 +27455,7 @@
         <v>6791</v>
       </c>
       <c r="H546">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="I546">
         <v>5</v>
@@ -27508,7 +27508,7 @@
         <v>7470</v>
       </c>
       <c r="H547">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="I547">
         <v>6</v>
@@ -27561,7 +27561,7 @@
         <v>8217</v>
       </c>
       <c r="H548">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="I548">
         <v>6</v>
@@ -27614,7 +27614,7 @@
         <v>9039</v>
       </c>
       <c r="H549">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="I549">
         <v>6</v>
@@ -27667,7 +27667,7 @@
         <v>9943</v>
       </c>
       <c r="H550">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="I550">
         <v>6</v>
@@ -27720,7 +27720,7 @@
         <v>10937</v>
       </c>
       <c r="H551">
-        <v>398</v>
+        <v>318</v>
       </c>
       <c r="I551">
         <v>7</v>
@@ -27773,7 +27773,7 @@
         <v>12031</v>
       </c>
       <c r="H552">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="I552">
         <v>7</v>
@@ -27826,7 +27826,7 @@
         <v>13234</v>
       </c>
       <c r="H553">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="I553">
         <v>7</v>
@@ -27879,7 +27879,7 @@
         <v>14558</v>
       </c>
       <c r="H554">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="I554">
         <v>8</v>
@@ -27932,7 +27932,7 @@
         <v>16013</v>
       </c>
       <c r="H555">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -27985,7 +27985,7 @@
         <v>17615</v>
       </c>
       <c r="H556">
-        <v>508</v>
+        <v>406</v>
       </c>
       <c r="I556">
         <v>9</v>
@@ -28038,7 +28038,7 @@
         <v>19376</v>
       </c>
       <c r="H557">
-        <v>534</v>
+        <v>427</v>
       </c>
       <c r="I557">
         <v>9</v>
@@ -28091,7 +28091,7 @@
         <v>21314</v>
       </c>
       <c r="H558">
-        <v>560</v>
+        <v>448</v>
       </c>
       <c r="I558">
         <v>9</v>
@@ -28144,7 +28144,7 @@
         <v>23445</v>
       </c>
       <c r="H559">
-        <v>588</v>
+        <v>470</v>
       </c>
       <c r="I559">
         <v>10</v>
@@ -28197,7 +28197,7 @@
         <v>25790</v>
       </c>
       <c r="H560">
-        <v>618</v>
+        <v>494</v>
       </c>
       <c r="I560">
         <v>10</v>
@@ -28250,7 +28250,7 @@
         <v>28369</v>
       </c>
       <c r="H561">
-        <v>649</v>
+        <v>519</v>
       </c>
       <c r="I561">
         <v>11</v>
@@ -28303,7 +28303,7 @@
         <v>31205</v>
       </c>
       <c r="H562">
-        <v>681</v>
+        <v>545</v>
       </c>
       <c r="I562">
         <v>11</v>
@@ -28356,7 +28356,7 @@
         <v>34326</v>
       </c>
       <c r="H563">
-        <v>715</v>
+        <v>572</v>
       </c>
       <c r="I563">
         <v>12</v>
@@ -28409,7 +28409,7 @@
         <v>37759</v>
       </c>
       <c r="H564">
-        <v>751</v>
+        <v>601</v>
       </c>
       <c r="I564">
         <v>13</v>
@@ -28462,7 +28462,7 @@
         <v>41534</v>
       </c>
       <c r="H565">
-        <v>789</v>
+        <v>631</v>
       </c>
       <c r="I565">
         <v>13</v>
@@ -28515,7 +28515,7 @@
         <v>45688</v>
       </c>
       <c r="H566">
-        <v>828</v>
+        <v>662</v>
       </c>
       <c r="I566">
         <v>14</v>
@@ -28568,7 +28568,7 @@
         <v>50257</v>
       </c>
       <c r="H567">
-        <v>869</v>
+        <v>695</v>
       </c>
       <c r="I567">
         <v>15</v>
@@ -28621,7 +28621,7 @@
         <v>55282</v>
       </c>
       <c r="H568">
-        <v>913</v>
+        <v>730</v>
       </c>
       <c r="I568">
         <v>15</v>
@@ -28674,7 +28674,7 @@
         <v>60811</v>
       </c>
       <c r="H569">
-        <v>958</v>
+        <v>766</v>
       </c>
       <c r="I569">
         <v>16</v>
@@ -28727,7 +28727,7 @@
         <v>66892</v>
       </c>
       <c r="H570">
-        <v>1006</v>
+        <v>805</v>
       </c>
       <c r="I570">
         <v>17</v>
@@ -28780,7 +28780,7 @@
         <v>73581</v>
       </c>
       <c r="H571">
-        <v>1057</v>
+        <v>846</v>
       </c>
       <c r="I571">
         <v>18</v>
@@ -28833,7 +28833,7 @@
         <v>80939</v>
       </c>
       <c r="H572">
-        <v>1110</v>
+        <v>888</v>
       </c>
       <c r="I572">
         <v>19</v>
@@ -28886,7 +28886,7 @@
         <v>89033</v>
       </c>
       <c r="H573">
-        <v>1165</v>
+        <v>932</v>
       </c>
       <c r="I573">
         <v>19</v>
@@ -28939,7 +28939,7 @@
         <v>97936</v>
       </c>
       <c r="H574">
-        <v>1223</v>
+        <v>978</v>
       </c>
       <c r="I574">
         <v>20</v>
@@ -28992,7 +28992,7 @@
         <v>107730</v>
       </c>
       <c r="H575">
-        <v>1284</v>
+        <v>1027</v>
       </c>
       <c r="I575">
         <v>21</v>
@@ -29045,7 +29045,7 @@
         <v>118502</v>
       </c>
       <c r="H576">
-        <v>1349</v>
+        <v>1079</v>
       </c>
       <c r="I576">
         <v>23</v>
@@ -29098,7 +29098,7 @@
         <v>130353</v>
       </c>
       <c r="H577">
-        <v>1416</v>
+        <v>1133</v>
       </c>
       <c r="I577">
         <v>24</v>
@@ -29151,7 +29151,7 @@
         <v>143388</v>
       </c>
       <c r="H578">
-        <v>1487</v>
+        <v>1190</v>
       </c>
       <c r="I578">
         <v>25</v>
@@ -29204,7 +29204,7 @@
         <v>157727</v>
       </c>
       <c r="H579">
-        <v>1561</v>
+        <v>1249</v>
       </c>
       <c r="I579">
         <v>26</v>
@@ -29257,7 +29257,7 @@
         <v>173499</v>
       </c>
       <c r="H580">
-        <v>1639</v>
+        <v>1311</v>
       </c>
       <c r="I580">
         <v>27</v>
@@ -29310,7 +29310,7 @@
         <v>190849</v>
       </c>
       <c r="H581">
-        <v>1721</v>
+        <v>1377</v>
       </c>
       <c r="I581">
         <v>29</v>
@@ -29363,7 +29363,7 @@
         <v>209934</v>
       </c>
       <c r="H582">
-        <v>1807</v>
+        <v>1446</v>
       </c>
       <c r="I582">
         <v>30</v>
@@ -29416,7 +29416,7 @@
         <v>230928</v>
       </c>
       <c r="H583">
-        <v>1898</v>
+        <v>1518</v>
       </c>
       <c r="I583">
         <v>32</v>
@@ -29469,7 +29469,7 @@
         <v>254021</v>
       </c>
       <c r="H584">
-        <v>1993</v>
+        <v>1594</v>
       </c>
       <c r="I584">
         <v>33</v>
@@ -29522,7 +29522,7 @@
         <v>279423</v>
       </c>
       <c r="H585">
-        <v>2092</v>
+        <v>1674</v>
       </c>
       <c r="I585">
         <v>35</v>
@@ -29575,7 +29575,7 @@
         <v>307365</v>
       </c>
       <c r="H586">
-        <v>2197</v>
+        <v>1758</v>
       </c>
       <c r="I586">
         <v>37</v>
@@ -29628,7 +29628,7 @@
         <v>338101</v>
       </c>
       <c r="H587">
-        <v>2307</v>
+        <v>1846</v>
       </c>
       <c r="I587">
         <v>39</v>
@@ -29681,7 +29681,7 @@
         <v>371912</v>
       </c>
       <c r="H588">
-        <v>2422</v>
+        <v>1938</v>
       </c>
       <c r="I588">
         <v>40</v>
@@ -29734,7 +29734,7 @@
         <v>409103</v>
       </c>
       <c r="H589">
-        <v>2543</v>
+        <v>2034</v>
       </c>
       <c r="I589">
         <v>42</v>
@@ -29787,7 +29787,7 @@
         <v>450013</v>
       </c>
       <c r="H590">
-        <v>2670</v>
+        <v>2136</v>
       </c>
       <c r="I590">
         <v>45</v>
@@ -29840,7 +29840,7 @@
         <v>495014</v>
       </c>
       <c r="H591">
-        <v>2804</v>
+        <v>2243</v>
       </c>
       <c r="I591">
         <v>47</v>
@@ -29893,7 +29893,7 @@
         <v>544516</v>
       </c>
       <c r="H592">
-        <v>2944</v>
+        <v>2355</v>
       </c>
       <c r="I592">
         <v>49</v>
@@ -29946,7 +29946,7 @@
         <v>598967</v>
       </c>
       <c r="H593">
-        <v>3091</v>
+        <v>2473</v>
       </c>
       <c r="I593">
         <v>52</v>
@@ -29999,7 +29999,7 @@
         <v>658864</v>
       </c>
       <c r="H594">
-        <v>3246</v>
+        <v>2597</v>
       </c>
       <c r="I594">
         <v>54</v>
@@ -30052,7 +30052,7 @@
         <v>724750</v>
       </c>
       <c r="H595">
-        <v>3408</v>
+        <v>2726</v>
       </c>
       <c r="I595">
         <v>57</v>
@@ -30105,7 +30105,7 @@
         <v>797226</v>
       </c>
       <c r="H596">
-        <v>3578</v>
+        <v>2862</v>
       </c>
       <c r="I596">
         <v>60</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0EDE5E-CCE8-4D57-8145-79B894C3CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C4BFC-FCAD-4374-BC86-618E7540B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -337,6 +337,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -610,8 +614,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:Q695" totalsRowShown="0">
-  <autoFilter ref="A1:Q695" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:Q696" totalsRowShown="0">
+  <autoFilter ref="A1:Q696" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{D1EF384A-425E-4487-AE5A-7D618D4858AA}" name="ID"/>
     <tableColumn id="2" xr3:uid="{880AC199-8029-4F09-82BC-EB19B7F216CC}" name="Name"/>
@@ -932,23 +936,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
-  <dimension ref="A1:Q695"/>
+  <dimension ref="A1:Q696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D298" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G305" sqref="G305"/>
+      <selection pane="bottomRight" activeCell="J698" sqref="J698"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="26" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>12864</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>13662</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>17094</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>18012</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>18954</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>19920</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>20910</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>21924</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>22962</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>24024</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>26220</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>27354</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>28512</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>29694</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>33384</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>50730</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>52490</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>54280</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>56100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>57950</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>59830</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>61740</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>63680</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>65650</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>67650</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>69680</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>71740</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>73830</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>75950</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>78100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>80280</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>82490</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>84730</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>89300</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>91630</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>93990</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>96380</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>103730</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>106240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>111350</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>113950</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>116580</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>119240</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>121930</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>245700</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>252980</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>301300</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>351075</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>446500</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>546250</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>649920</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3814,7 +3818,7 @@
         <v>757570</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>965300</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>1473120</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4430,7 +4434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4695,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5278,7 +5282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5437,7 +5441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5967,7 +5971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6444,7 +6448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7027,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7716,7 +7720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7769,7 +7773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8193,7 +8197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8352,7 +8356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8458,7 +8462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8511,7 +8515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8617,7 +8621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8670,7 +8674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8776,7 +8780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8882,7 +8886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9200,7 +9204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9359,7 +9363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9412,7 +9416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9465,7 +9469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9677,7 +9681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9783,7 +9787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9889,7 +9893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9942,7 +9946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9995,7 +9999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10048,7 +10052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10154,7 +10158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10207,7 +10211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10313,7 +10317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10419,7 +10423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10578,7 +10582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10684,7 +10688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10790,7 +10794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10843,7 +10847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10896,7 +10900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10949,7 +10953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11002,7 +11006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11161,7 +11165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11214,7 +11218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11267,7 +11271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11479,7 +11483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11532,7 +11536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11585,7 +11589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11691,7 +11695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11744,7 +11748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11797,7 +11801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11850,7 +11854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11903,7 +11907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11956,7 +11960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12009,7 +12013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12062,7 +12066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12115,7 +12119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12168,7 +12172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12274,7 +12278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12327,7 +12331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12433,7 +12437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12539,7 +12543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12592,7 +12596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12645,7 +12649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12804,7 +12808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12857,7 +12861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12910,7 +12914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12963,7 +12967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13016,7 +13020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13175,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13228,7 +13232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13281,7 +13285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13334,7 +13338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13387,7 +13391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13493,7 +13497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13546,7 +13550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13599,7 +13603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13652,7 +13656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13705,7 +13709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13811,7 +13815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13864,7 +13868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13917,7 +13921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14023,7 +14027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14076,7 +14080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14129,7 +14133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14182,7 +14186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14235,7 +14239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14288,7 +14292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14341,7 +14345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14394,7 +14398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14447,7 +14451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14500,7 +14504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14553,7 +14557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14606,7 +14610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14659,7 +14663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14712,7 +14716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14765,7 +14769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14818,7 +14822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14871,7 +14875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14924,7 +14928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14977,7 +14981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15030,7 +15034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15083,7 +15087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15189,7 +15193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15295,7 +15299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15348,7 +15352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15401,7 +15405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15454,7 +15458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15507,7 +15511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15560,7 +15564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15666,7 +15670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15719,7 +15723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15772,7 +15776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15825,7 +15829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15878,7 +15882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15931,7 +15935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15984,7 +15988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16037,7 +16041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16090,7 +16094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16143,7 +16147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16249,7 +16253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16302,7 +16306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16355,7 +16359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16408,7 +16412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16461,7 +16465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16514,7 +16518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16567,7 +16571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16726,7 +16730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16779,7 +16783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16885,7 +16889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16938,7 +16942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16991,7 +16995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17044,7 +17048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17097,7 +17101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17150,7 +17154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17203,7 +17207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17256,7 +17260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17309,7 +17313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17362,7 +17366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17415,7 +17419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17468,7 +17472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17521,7 +17525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17574,7 +17578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17627,7 +17631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17680,7 +17684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17733,7 +17737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17786,7 +17790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17892,7 +17896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17945,7 +17949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17998,7 +18002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>367</v>
       </c>
@@ -18051,7 +18055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>368</v>
       </c>
@@ -18104,7 +18108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>369</v>
       </c>
@@ -18157,7 +18161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>370</v>
       </c>
@@ -18210,7 +18214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>371</v>
       </c>
@@ -18263,7 +18267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>372</v>
       </c>
@@ -18316,7 +18320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>373</v>
       </c>
@@ -18369,7 +18373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>374</v>
       </c>
@@ -18422,7 +18426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>375</v>
       </c>
@@ -18475,7 +18479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>376</v>
       </c>
@@ -18528,7 +18532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>377</v>
       </c>
@@ -18581,7 +18585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>378</v>
       </c>
@@ -18634,7 +18638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>379</v>
       </c>
@@ -18687,7 +18691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18740,7 +18744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18793,7 +18797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18846,7 +18850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18899,7 +18903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18952,7 +18956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19005,7 +19009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19058,7 +19062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19111,7 +19115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>388</v>
       </c>
@@ -19164,7 +19168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>389</v>
       </c>
@@ -19217,7 +19221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>390</v>
       </c>
@@ -19270,7 +19274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>391</v>
       </c>
@@ -19323,7 +19327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>392</v>
       </c>
@@ -19376,7 +19380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>393</v>
       </c>
@@ -19429,7 +19433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>394</v>
       </c>
@@ -19482,7 +19486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>395</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>396</v>
       </c>
@@ -19588,7 +19592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>397</v>
       </c>
@@ -19641,7 +19645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>398</v>
       </c>
@@ -19694,7 +19698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>399</v>
       </c>
@@ -19747,7 +19751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>400</v>
       </c>
@@ -19800,7 +19804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>401</v>
       </c>
@@ -19853,7 +19857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>402</v>
       </c>
@@ -19906,7 +19910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>403</v>
       </c>
@@ -19959,7 +19963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20012,7 +20016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20065,7 +20069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20118,7 +20122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20171,7 +20175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20224,7 +20228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20277,7 +20281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>410</v>
       </c>
@@ -20330,7 +20334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>411</v>
       </c>
@@ -20383,7 +20387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>412</v>
       </c>
@@ -20436,7 +20440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>413</v>
       </c>
@@ -20489,7 +20493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>414</v>
       </c>
@@ -20542,7 +20546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>415</v>
       </c>
@@ -20595,7 +20599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>416</v>
       </c>
@@ -20648,7 +20652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>417</v>
       </c>
@@ -20701,7 +20705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>418</v>
       </c>
@@ -20754,7 +20758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>419</v>
       </c>
@@ -20807,7 +20811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>420</v>
       </c>
@@ -20860,7 +20864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>421</v>
       </c>
@@ -20913,7 +20917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20966,7 +20970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21019,7 +21023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>424</v>
       </c>
@@ -21072,7 +21076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>425</v>
       </c>
@@ -21125,7 +21129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>426</v>
       </c>
@@ -21178,7 +21182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>427</v>
       </c>
@@ -21231,7 +21235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21284,7 +21288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21337,7 +21341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>430</v>
       </c>
@@ -21390,7 +21394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>431</v>
       </c>
@@ -21443,7 +21447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>432</v>
       </c>
@@ -21496,7 +21500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>433</v>
       </c>
@@ -21549,7 +21553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>434</v>
       </c>
@@ -21602,7 +21606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>435</v>
       </c>
@@ -21655,7 +21659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>436</v>
       </c>
@@ -21708,7 +21712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>437</v>
       </c>
@@ -21761,7 +21765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>438</v>
       </c>
@@ -21814,7 +21818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>439</v>
       </c>
@@ -21867,7 +21871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>440</v>
       </c>
@@ -21920,7 +21924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>441</v>
       </c>
@@ -21973,7 +21977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>442</v>
       </c>
@@ -22026,7 +22030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>443</v>
       </c>
@@ -22079,7 +22083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>444</v>
       </c>
@@ -22132,7 +22136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>445</v>
       </c>
@@ -22185,7 +22189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>446</v>
       </c>
@@ -22238,7 +22242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>447</v>
       </c>
@@ -22291,7 +22295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>448</v>
       </c>
@@ -22344,7 +22348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>449</v>
       </c>
@@ -22397,7 +22401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>450</v>
       </c>
@@ -22450,7 +22454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>451</v>
       </c>
@@ -22503,7 +22507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>452</v>
       </c>
@@ -22556,7 +22560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>453</v>
       </c>
@@ -22609,7 +22613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>454</v>
       </c>
@@ -22662,7 +22666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>455</v>
       </c>
@@ -22715,7 +22719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>456</v>
       </c>
@@ -22768,7 +22772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>457</v>
       </c>
@@ -22821,7 +22825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>458</v>
       </c>
@@ -22874,7 +22878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>459</v>
       </c>
@@ -22927,7 +22931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>460</v>
       </c>
@@ -22980,7 +22984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>461</v>
       </c>
@@ -23033,7 +23037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>462</v>
       </c>
@@ -23086,7 +23090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>463</v>
       </c>
@@ -23139,7 +23143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>464</v>
       </c>
@@ -23192,7 +23196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>465</v>
       </c>
@@ -23245,7 +23249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>466</v>
       </c>
@@ -23298,7 +23302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>467</v>
       </c>
@@ -23351,7 +23355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>468</v>
       </c>
@@ -23404,7 +23408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>469</v>
       </c>
@@ -23457,7 +23461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>470</v>
       </c>
@@ -23510,7 +23514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>471</v>
       </c>
@@ -23563,7 +23567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>472</v>
       </c>
@@ -23616,7 +23620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>473</v>
       </c>
@@ -23669,7 +23673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>474</v>
       </c>
@@ -23722,7 +23726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>475</v>
       </c>
@@ -23775,7 +23779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>476</v>
       </c>
@@ -23828,7 +23832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>477</v>
       </c>
@@ -23881,7 +23885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>478</v>
       </c>
@@ -23934,7 +23938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>479</v>
       </c>
@@ -23987,7 +23991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>480</v>
       </c>
@@ -24040,7 +24044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>481</v>
       </c>
@@ -24093,7 +24097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>482</v>
       </c>
@@ -24146,7 +24150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>483</v>
       </c>
@@ -24199,7 +24203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>484</v>
       </c>
@@ -24252,7 +24256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>485</v>
       </c>
@@ -24305,7 +24309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>486</v>
       </c>
@@ -24358,7 +24362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>487</v>
       </c>
@@ -24411,7 +24415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>488</v>
       </c>
@@ -24464,7 +24468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>489</v>
       </c>
@@ -24517,7 +24521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>490</v>
       </c>
@@ -24570,7 +24574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>491</v>
       </c>
@@ -24623,7 +24627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>492</v>
       </c>
@@ -24676,7 +24680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>493</v>
       </c>
@@ -24729,7 +24733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>494</v>
       </c>
@@ -24782,7 +24786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>495</v>
       </c>
@@ -24835,7 +24839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>496</v>
       </c>
@@ -24888,7 +24892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
@@ -24941,7 +24945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
@@ -24994,7 +24998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
@@ -25047,7 +25051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
@@ -25100,7 +25104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
@@ -25153,7 +25157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
@@ -25206,7 +25210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
@@ -25259,7 +25263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
@@ -25312,7 +25316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
@@ -25365,7 +25369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
@@ -25418,7 +25422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
@@ -25471,7 +25475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
@@ -25524,7 +25528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
@@ -25577,7 +25581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
@@ -25630,7 +25634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
@@ -25683,7 +25687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
@@ -25736,7 +25740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
@@ -25789,7 +25793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
@@ -25842,7 +25846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
@@ -25895,7 +25899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
@@ -25948,7 +25952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
@@ -26001,7 +26005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
@@ -26054,7 +26058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
@@ -26107,7 +26111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
@@ -26160,7 +26164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
@@ -26213,7 +26217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
@@ -26266,7 +26270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
@@ -26319,7 +26323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
@@ -26372,7 +26376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
@@ -26425,7 +26429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
@@ -26478,7 +26482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
@@ -26531,7 +26535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
@@ -26584,7 +26588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
@@ -26637,7 +26641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
@@ -26690,7 +26694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
@@ -26743,7 +26747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
@@ -26796,7 +26800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
@@ -26849,7 +26853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
@@ -26902,7 +26906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
@@ -26955,7 +26959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
@@ -27008,7 +27012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
@@ -27061,7 +27065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
@@ -27114,7 +27118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
@@ -27167,7 +27171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
@@ -27220,7 +27224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
@@ -27273,7 +27277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
@@ -27326,7 +27330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
@@ -27379,7 +27383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
@@ -27432,7 +27436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
@@ -27485,7 +27489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
@@ -27538,7 +27542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
@@ -27591,7 +27595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
@@ -27644,7 +27648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
@@ -27697,7 +27701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
@@ -27750,7 +27754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
@@ -27803,7 +27807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
@@ -27856,7 +27860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
@@ -27909,7 +27913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
@@ -27962,7 +27966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
@@ -28015,7 +28019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
@@ -28068,7 +28072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
@@ -28121,7 +28125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
@@ -28174,7 +28178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
@@ -28227,7 +28231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
@@ -28280,7 +28284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
@@ -28333,7 +28337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
@@ -28386,7 +28390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
@@ -28439,7 +28443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
@@ -28492,7 +28496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
@@ -28545,7 +28549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
@@ -28598,7 +28602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
@@ -28651,7 +28655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
@@ -28704,7 +28708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
@@ -28757,7 +28761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
@@ -28810,7 +28814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
@@ -28863,7 +28867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
@@ -28916,7 +28920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
@@ -28969,7 +28973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
@@ -29022,7 +29026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
@@ -29075,7 +29079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
@@ -29128,7 +29132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
@@ -29181,7 +29185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
@@ -29234,7 +29238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
@@ -29287,7 +29291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
@@ -29340,7 +29344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
@@ -29393,7 +29397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
@@ -29446,7 +29450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
@@ -29499,7 +29503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
@@ -29552,7 +29556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
@@ -29605,7 +29609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
@@ -29658,7 +29662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
@@ -29711,7 +29715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
@@ -29764,7 +29768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
@@ -29817,7 +29821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
@@ -29870,7 +29874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
@@ -29923,7 +29927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -29976,7 +29980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -30029,7 +30033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -30082,7 +30086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
@@ -30135,7 +30139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>596</v>
       </c>
@@ -30188,7 +30192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>597</v>
       </c>
@@ -30241,7 +30245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>598</v>
       </c>
@@ -30294,7 +30298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>599</v>
       </c>
@@ -30347,7 +30351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>600</v>
       </c>
@@ -30400,7 +30404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>601</v>
       </c>
@@ -30453,7 +30457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>602</v>
       </c>
@@ -30506,7 +30510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>603</v>
       </c>
@@ -30559,7 +30563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>604</v>
       </c>
@@ -30612,7 +30616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>605</v>
       </c>
@@ -30665,7 +30669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>606</v>
       </c>
@@ -30718,7 +30722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>607</v>
       </c>
@@ -30771,7 +30775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>608</v>
       </c>
@@ -30824,7 +30828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>609</v>
       </c>
@@ -30877,7 +30881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>610</v>
       </c>
@@ -30930,7 +30934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>611</v>
       </c>
@@ -30983,7 +30987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>612</v>
       </c>
@@ -31036,7 +31040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>613</v>
       </c>
@@ -31089,7 +31093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>614</v>
       </c>
@@ -31142,7 +31146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>615</v>
       </c>
@@ -31195,7 +31199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>616</v>
       </c>
@@ -31248,7 +31252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>617</v>
       </c>
@@ -31301,7 +31305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>618</v>
       </c>
@@ -31354,7 +31358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>619</v>
       </c>
@@ -31407,7 +31411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>620</v>
       </c>
@@ -31460,7 +31464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>621</v>
       </c>
@@ -31513,7 +31517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>622</v>
       </c>
@@ -31566,7 +31570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>623</v>
       </c>
@@ -31619,7 +31623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>624</v>
       </c>
@@ -31672,7 +31676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>625</v>
       </c>
@@ -31725,7 +31729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>626</v>
       </c>
@@ -31778,7 +31782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>627</v>
       </c>
@@ -31831,7 +31835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>628</v>
       </c>
@@ -31884,7 +31888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>629</v>
       </c>
@@ -31937,7 +31941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>630</v>
       </c>
@@ -31990,7 +31994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>631</v>
       </c>
@@ -32043,7 +32047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>632</v>
       </c>
@@ -32096,7 +32100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>633</v>
       </c>
@@ -32149,7 +32153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>634</v>
       </c>
@@ -32202,7 +32206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>635</v>
       </c>
@@ -32255,7 +32259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>636</v>
       </c>
@@ -32308,7 +32312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>637</v>
       </c>
@@ -32361,7 +32365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>638</v>
       </c>
@@ -32414,7 +32418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>639</v>
       </c>
@@ -32467,7 +32471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>640</v>
       </c>
@@ -32520,7 +32524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>641</v>
       </c>
@@ -32573,7 +32577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>642</v>
       </c>
@@ -32626,7 +32630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>643</v>
       </c>
@@ -32679,7 +32683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>644</v>
       </c>
@@ -32732,7 +32736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>645</v>
       </c>
@@ -32785,7 +32789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>646</v>
       </c>
@@ -32838,7 +32842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>647</v>
       </c>
@@ -32891,7 +32895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>648</v>
       </c>
@@ -32944,7 +32948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>649</v>
       </c>
@@ -32997,7 +33001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>650</v>
       </c>
@@ -33050,7 +33054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>651</v>
       </c>
@@ -33103,7 +33107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>652</v>
       </c>
@@ -33156,7 +33160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>653</v>
       </c>
@@ -33209,7 +33213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>654</v>
       </c>
@@ -33262,7 +33266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>655</v>
       </c>
@@ -33315,7 +33319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>656</v>
       </c>
@@ -33368,7 +33372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>657</v>
       </c>
@@ -33421,7 +33425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>658</v>
       </c>
@@ -33474,7 +33478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>659</v>
       </c>
@@ -33527,7 +33531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>660</v>
       </c>
@@ -33580,7 +33584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>661</v>
       </c>
@@ -33633,7 +33637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>662</v>
       </c>
@@ -33686,7 +33690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>663</v>
       </c>
@@ -33739,7 +33743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>664</v>
       </c>
@@ -33792,7 +33796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>665</v>
       </c>
@@ -33845,7 +33849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>666</v>
       </c>
@@ -33898,7 +33902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>667</v>
       </c>
@@ -33951,7 +33955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>668</v>
       </c>
@@ -34004,7 +34008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>669</v>
       </c>
@@ -34057,7 +34061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>670</v>
       </c>
@@ -34110,7 +34114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="672" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>671</v>
       </c>
@@ -34163,7 +34167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>672</v>
       </c>
@@ -34216,7 +34220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="674" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>673</v>
       </c>
@@ -34269,7 +34273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="675" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>674</v>
       </c>
@@ -34322,7 +34326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>675</v>
       </c>
@@ -34375,7 +34379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="677" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>676</v>
       </c>
@@ -34428,7 +34432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="678" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>677</v>
       </c>
@@ -34481,7 +34485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="679" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>678</v>
       </c>
@@ -34534,7 +34538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>679</v>
       </c>
@@ -34587,7 +34591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>680</v>
       </c>
@@ -34640,7 +34644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="682" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>681</v>
       </c>
@@ -34693,7 +34697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>682</v>
       </c>
@@ -34746,7 +34750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>683</v>
       </c>
@@ -34799,7 +34803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="685" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>684</v>
       </c>
@@ -34852,7 +34856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>685</v>
       </c>
@@ -34905,7 +34909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>686</v>
       </c>
@@ -34958,7 +34962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="688" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>687</v>
       </c>
@@ -35011,7 +35015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
@@ -35064,7 +35068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
@@ -35117,7 +35121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
@@ -35170,7 +35174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
@@ -35223,7 +35227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
@@ -35276,7 +35280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
@@ -35329,7 +35333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>694</v>
       </c>
@@ -35380,6 +35384,59 @@
       </c>
       <c r="Q695">
         <v>4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A696">
+        <v>10000</v>
+      </c>
+      <c r="B696" t="s">
+        <v>58</v>
+      </c>
+      <c r="C696" t="s">
+        <v>49</v>
+      </c>
+      <c r="D696">
+        <v>10</v>
+      </c>
+      <c r="E696">
+        <v>2</v>
+      </c>
+      <c r="F696">
+        <v>99</v>
+      </c>
+      <c r="G696" s="26">
+        <v>911115</v>
+      </c>
+      <c r="H696">
+        <v>10</v>
+      </c>
+      <c r="I696">
+        <v>0</v>
+      </c>
+      <c r="J696">
+        <v>100</v>
+      </c>
+      <c r="K696" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L696">
+        <v>20000</v>
+      </c>
+      <c r="M696">
+        <v>100</v>
+      </c>
+      <c r="N696">
+        <v>100</v>
+      </c>
+      <c r="O696">
+        <v>90</v>
+      </c>
+      <c r="P696">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q696">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35400,182 +35457,182 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -35595,9 +35652,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35605,7 +35662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -35627,9 +35684,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35637,7 +35694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C4BFC-FCAD-4374-BC86-618E7540B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30DD72-13DD-4F80-A55A-A615F8D82BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -939,10 +939,10 @@
   <dimension ref="A1:Q696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D687" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J698" sqref="J698"/>
+      <selection pane="bottomRight" activeCell="K698" sqref="K698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35409,7 +35409,7 @@
         <v>911115</v>
       </c>
       <c r="H696">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="I696">
         <v>0</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30DD72-13DD-4F80-A55A-A615F8D82BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD7B695-0445-4918-89C8-7F86D5135296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,10 +939,10 @@
   <dimension ref="A1:Q696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C687" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C680" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K698" sqref="K698"/>
+      <selection pane="bottomRight" activeCell="H696" sqref="H696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35406,7 +35406,7 @@
         <v>99</v>
       </c>
       <c r="G696" s="26">
-        <v>911115</v>
+        <v>3500</v>
       </c>
       <c r="H696">
         <v>3000</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD7B695-0445-4918-89C8-7F86D5135296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7C3C0A-C4FF-4EB5-9037-B81CF6E2BFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -939,10 +939,10 @@
   <dimension ref="A1:Q696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C680" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C684" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H696" sqref="H696"/>
+      <selection pane="bottomRight" activeCell="M698" sqref="M698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35406,10 +35406,10 @@
         <v>99</v>
       </c>
       <c r="G696" s="26">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="H696">
-        <v>3000</v>
+        <v>20</v>
       </c>
       <c r="I696">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>20000</v>
       </c>
       <c r="M696">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N696">
         <v>100</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F4CE10-B844-4D6D-8054-AB38650CD070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BC1D6-6617-4869-A07D-EADA9146004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="説明" sheetId="2" r:id="rId2"/>
     <sheet name="Type" sheetId="3" r:id="rId3"/>
     <sheet name="Race" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -939,10 +940,10 @@
   <dimension ref="A1:Q696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C561" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="I636" sqref="I636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1022,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="12">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H2" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="8">
         <v>7</v>
@@ -1051,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="12">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H3" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="8">
         <v>60</v>
@@ -1080,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="H4" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="8">
         <v>120</v>
@@ -1109,13 +1110,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="12">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="H5" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="8">
         <v>200</v>
@@ -1138,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="12">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="H6" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="8">
         <v>300</v>
@@ -1167,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="12">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="H7" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="8">
         <v>420</v>
@@ -1196,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="12">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="H8" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I8" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" s="8">
         <v>560</v>
@@ -1225,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="G9" s="12">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="8">
         <v>720</v>
@@ -1254,13 +1255,13 @@
         <v>9</v>
       </c>
       <c r="G10" s="12">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="H10" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="8">
         <v>900</v>
@@ -1283,13 +1284,13 @@
         <v>10</v>
       </c>
       <c r="G11" s="12">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="H11" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J11" s="8">
         <v>1100</v>
@@ -1312,13 +1313,13 @@
         <v>11</v>
       </c>
       <c r="G12" s="12">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="H12" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J12" s="8">
         <v>1320</v>
@@ -1341,13 +1342,13 @@
         <v>12</v>
       </c>
       <c r="G13" s="12">
-        <v>248</v>
+        <v>402</v>
       </c>
       <c r="H13" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J13" s="8">
         <v>1560</v>
@@ -1370,13 +1371,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="12">
-        <v>254</v>
+        <v>427</v>
       </c>
       <c r="H14" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J14" s="8">
         <v>1820</v>
@@ -1399,13 +1400,13 @@
         <v>14</v>
       </c>
       <c r="G15" s="12">
-        <v>258</v>
+        <v>452</v>
       </c>
       <c r="H15" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J15" s="8">
         <v>2100</v>
@@ -1428,13 +1429,13 @@
         <v>15</v>
       </c>
       <c r="G16" s="12">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="H16" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J16" s="8">
         <v>2400</v>
@@ -1457,13 +1458,13 @@
         <v>16</v>
       </c>
       <c r="G17" s="12">
-        <v>270</v>
+        <v>508</v>
       </c>
       <c r="H17" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J17" s="8">
         <v>2720</v>
@@ -1486,13 +1487,13 @@
         <v>17</v>
       </c>
       <c r="G18" s="12">
-        <v>274</v>
+        <v>539</v>
       </c>
       <c r="H18" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J18" s="8">
         <v>3060</v>
@@ -1515,13 +1516,13 @@
         <v>18</v>
       </c>
       <c r="G19" s="12">
-        <v>280</v>
+        <v>571</v>
       </c>
       <c r="H19" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19" s="8">
         <v>3420</v>
@@ -1544,13 +1545,13 @@
         <v>19</v>
       </c>
       <c r="G20" s="12">
-        <v>286</v>
+        <v>605</v>
       </c>
       <c r="H20" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J20" s="8">
         <v>3800</v>
@@ -1573,13 +1574,13 @@
         <v>20</v>
       </c>
       <c r="G21" s="12">
-        <v>292</v>
+        <v>641</v>
       </c>
       <c r="H21" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J21" s="8">
         <v>4200</v>
@@ -1602,13 +1603,13 @@
         <v>21</v>
       </c>
       <c r="G22" s="12">
-        <v>298</v>
+        <v>680</v>
       </c>
       <c r="H22" s="9">
+        <v>42</v>
+      </c>
+      <c r="I22" s="9">
         <v>24</v>
-      </c>
-      <c r="I22" s="9">
-        <v>10</v>
       </c>
       <c r="J22" s="8">
         <v>4620</v>
@@ -1631,13 +1632,13 @@
         <v>22</v>
       </c>
       <c r="G23" s="12">
-        <v>304</v>
+        <v>721</v>
       </c>
       <c r="H23" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J23" s="8">
         <v>5060</v>
@@ -1660,13 +1661,13 @@
         <v>23</v>
       </c>
       <c r="G24" s="12">
-        <v>310</v>
+        <v>764</v>
       </c>
       <c r="H24" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J24" s="8">
         <v>5520</v>
@@ -1689,13 +1690,13 @@
         <v>24</v>
       </c>
       <c r="G25" s="12">
-        <v>316</v>
+        <v>810</v>
       </c>
       <c r="H25" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J25" s="8">
         <v>6000</v>
@@ -1718,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="G26" s="12">
-        <v>322</v>
+        <v>858</v>
       </c>
       <c r="H26" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J26" s="8">
         <v>6500</v>
@@ -1747,13 +1748,13 @@
         <v>26</v>
       </c>
       <c r="G27" s="12">
-        <v>328</v>
+        <v>910</v>
       </c>
       <c r="H27" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J27" s="8">
         <v>7020</v>
@@ -1776,13 +1777,13 @@
         <v>27</v>
       </c>
       <c r="G28" s="12">
-        <v>334</v>
+        <v>964</v>
       </c>
       <c r="H28" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J28" s="8">
         <v>7560</v>
@@ -1805,13 +1806,13 @@
         <v>28</v>
       </c>
       <c r="G29" s="12">
-        <v>342</v>
+        <v>1022</v>
       </c>
       <c r="H29" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J29" s="8">
         <v>8120</v>
@@ -1834,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="G30" s="12">
-        <v>348</v>
+        <v>1084</v>
       </c>
       <c r="H30" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J30" s="8">
         <v>10614</v>
@@ -1863,13 +1864,13 @@
         <v>30</v>
       </c>
       <c r="G31" s="12">
-        <v>356</v>
+        <v>1149</v>
       </c>
       <c r="H31" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J31" s="8">
         <v>11340</v>
@@ -1892,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="G32" s="12">
-        <v>362</v>
+        <v>1218</v>
       </c>
       <c r="H32" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J32" s="8">
         <v>12090</v>
@@ -1921,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="G33" s="12">
-        <v>370</v>
+        <v>1291</v>
       </c>
       <c r="H33" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J33" s="8">
         <v>12864</v>
@@ -1950,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="G34" s="12">
-        <v>376</v>
+        <v>1368</v>
       </c>
       <c r="H34" s="9">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J34" s="8">
         <v>13662</v>
@@ -1979,13 +1980,13 @@
         <v>34</v>
       </c>
       <c r="G35" s="12">
-        <v>384</v>
+        <v>1450</v>
       </c>
       <c r="H35" s="9">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I35" s="9">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J35" s="8">
         <v>14484</v>
@@ -2008,13 +2009,13 @@
         <v>35</v>
       </c>
       <c r="G36" s="12">
-        <v>392</v>
+        <v>1537</v>
       </c>
       <c r="H36" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I36" s="9">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J36" s="8">
         <v>15330</v>
@@ -2037,13 +2038,13 @@
         <v>36</v>
       </c>
       <c r="G37" s="12">
-        <v>400</v>
+        <v>1629</v>
       </c>
       <c r="H37" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J37" s="8">
         <v>16200</v>
@@ -2066,13 +2067,13 @@
         <v>37</v>
       </c>
       <c r="G38" s="12">
-        <v>408</v>
+        <v>1727</v>
       </c>
       <c r="H38" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I38" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="J38" s="8">
         <v>17094</v>
@@ -2095,13 +2096,13 @@
         <v>38</v>
       </c>
       <c r="G39" s="12">
-        <v>416</v>
+        <v>1831</v>
       </c>
       <c r="H39" s="9">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I39" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J39" s="8">
         <v>18012</v>
@@ -2124,13 +2125,13 @@
         <v>39</v>
       </c>
       <c r="G40" s="12">
-        <v>424</v>
+        <v>1941</v>
       </c>
       <c r="H40" s="9">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I40" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="J40" s="8">
         <v>18954</v>
@@ -2153,13 +2154,13 @@
         <v>40</v>
       </c>
       <c r="G41" s="12">
-        <v>432</v>
+        <v>2057</v>
       </c>
       <c r="H41" s="9">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J41" s="8">
         <v>19920</v>
@@ -2182,13 +2183,13 @@
         <v>41</v>
       </c>
       <c r="G42" s="12">
-        <v>442</v>
+        <v>2181</v>
       </c>
       <c r="H42" s="9">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="I42" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J42" s="8">
         <v>20910</v>
@@ -2211,13 +2212,13 @@
         <v>42</v>
       </c>
       <c r="G43" s="12">
-        <v>450</v>
+        <v>2311</v>
       </c>
       <c r="H43" s="9">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="J43" s="8">
         <v>21924</v>
@@ -2240,13 +2241,13 @@
         <v>43</v>
       </c>
       <c r="G44" s="12">
-        <v>460</v>
+        <v>2450</v>
       </c>
       <c r="H44" s="9">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I44" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="J44" s="8">
         <v>22962</v>
@@ -2269,13 +2270,13 @@
         <v>44</v>
       </c>
       <c r="G45" s="12">
-        <v>468</v>
+        <v>2597</v>
       </c>
       <c r="H45" s="9">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J45" s="8">
         <v>24024</v>
@@ -2298,13 +2299,13 @@
         <v>45</v>
       </c>
       <c r="G46" s="12">
-        <v>478</v>
+        <v>2753</v>
       </c>
       <c r="H46" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="J46" s="8">
         <v>25110</v>
@@ -2327,13 +2328,13 @@
         <v>46</v>
       </c>
       <c r="G47" s="12">
-        <v>488</v>
+        <v>2918</v>
       </c>
       <c r="H47" s="9">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="J47" s="8">
         <v>26220</v>
@@ -2356,13 +2357,13 @@
         <v>47</v>
       </c>
       <c r="G48" s="12">
-        <v>498</v>
+        <v>3093</v>
       </c>
       <c r="H48" s="9">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="J48" s="8">
         <v>27354</v>
@@ -2385,13 +2386,13 @@
         <v>48</v>
       </c>
       <c r="G49" s="12">
-        <v>508</v>
+        <v>3279</v>
       </c>
       <c r="H49" s="9">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="J49" s="8">
         <v>28512</v>
@@ -2414,13 +2415,13 @@
         <v>49</v>
       </c>
       <c r="G50" s="12">
-        <v>518</v>
+        <v>3476</v>
       </c>
       <c r="H50" s="9">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="I50" s="9">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="J50" s="8">
         <v>29694</v>
@@ -2443,13 +2444,13 @@
         <v>50</v>
       </c>
       <c r="G51" s="12">
-        <v>528</v>
+        <v>3684</v>
       </c>
       <c r="H51" s="9">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I51" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="J51" s="8">
         <v>30900</v>
@@ -2472,13 +2473,13 @@
         <v>51</v>
       </c>
       <c r="G52" s="12">
-        <v>538</v>
+        <v>3905</v>
       </c>
       <c r="H52" s="9">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="I52" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="J52" s="8">
         <v>32130</v>
@@ -2501,13 +2502,13 @@
         <v>52</v>
       </c>
       <c r="G53" s="12">
-        <v>550</v>
+        <v>4139</v>
       </c>
       <c r="H53" s="9">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="I53" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="J53" s="8">
         <v>33384</v>
@@ -2530,13 +2531,13 @@
         <v>53</v>
       </c>
       <c r="G54" s="12">
-        <v>560</v>
+        <v>4388</v>
       </c>
       <c r="H54" s="9">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="I54" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="J54" s="8">
         <v>34662</v>
@@ -2559,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="G55" s="12">
-        <v>572</v>
+        <v>4651</v>
       </c>
       <c r="H55" s="9">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="I55" s="9">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="J55" s="8">
         <v>45630</v>
@@ -2588,13 +2589,13 @@
         <v>55</v>
       </c>
       <c r="G56" s="12">
-        <v>582</v>
+        <v>4930</v>
       </c>
       <c r="H56" s="9">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="I56" s="9">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="J56" s="8">
         <v>47300</v>
@@ -2617,13 +2618,13 @@
         <v>56</v>
       </c>
       <c r="G57" s="12">
-        <v>594</v>
+        <v>5226</v>
       </c>
       <c r="H57" s="9">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="I57" s="9">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="J57" s="8">
         <v>49000</v>
@@ -2646,13 +2647,13 @@
         <v>57</v>
       </c>
       <c r="G58" s="12">
-        <v>606</v>
+        <v>5539</v>
       </c>
       <c r="H58" s="9">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="I58" s="9">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="J58" s="8">
         <v>50730</v>
@@ -2675,13 +2676,13 @@
         <v>58</v>
       </c>
       <c r="G59" s="12">
-        <v>618</v>
+        <v>5872</v>
       </c>
       <c r="H59" s="9">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="I59" s="9">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="J59" s="8">
         <v>52490</v>
@@ -2704,13 +2705,13 @@
         <v>59</v>
       </c>
       <c r="G60" s="12">
-        <v>630</v>
+        <v>6224</v>
       </c>
       <c r="H60" s="9">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="I60" s="9">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="J60" s="8">
         <v>54280</v>
@@ -2733,13 +2734,13 @@
         <v>60</v>
       </c>
       <c r="G61" s="12">
-        <v>644</v>
+        <v>6598</v>
       </c>
       <c r="H61" s="9">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="I61" s="9">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="J61" s="8">
         <v>56100</v>
@@ -2762,13 +2763,13 @@
         <v>61</v>
       </c>
       <c r="G62" s="12">
-        <v>656</v>
+        <v>6993</v>
       </c>
       <c r="H62" s="9">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="I62" s="9">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="J62" s="8">
         <v>57950</v>
@@ -2791,13 +2792,13 @@
         <v>62</v>
       </c>
       <c r="G63" s="12">
-        <v>670</v>
+        <v>7413</v>
       </c>
       <c r="H63" s="9">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="I63" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="J63" s="8">
         <v>59830</v>
@@ -2820,13 +2821,13 @@
         <v>63</v>
       </c>
       <c r="G64" s="12">
-        <v>682</v>
+        <v>7858</v>
       </c>
       <c r="H64" s="9">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="I64" s="9">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="J64" s="8">
         <v>61740</v>
@@ -2849,13 +2850,13 @@
         <v>64</v>
       </c>
       <c r="G65" s="12">
-        <v>696</v>
+        <v>8329</v>
       </c>
       <c r="H65" s="9">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="I65" s="9">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="J65" s="8">
         <v>63680</v>
@@ -2878,13 +2879,13 @@
         <v>65</v>
       </c>
       <c r="G66" s="12">
-        <v>710</v>
+        <v>8829</v>
       </c>
       <c r="H66" s="9">
-        <v>65</v>
+        <v>358</v>
       </c>
       <c r="I66" s="9">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="J66" s="8">
         <v>65650</v>
@@ -2907,13 +2908,13 @@
         <v>66</v>
       </c>
       <c r="G67" s="12">
-        <v>724</v>
+        <v>9359</v>
       </c>
       <c r="H67" s="9">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="I67" s="9">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="J67" s="8">
         <v>67650</v>
@@ -2936,13 +2937,13 @@
         <v>67</v>
       </c>
       <c r="G68" s="12">
-        <v>738</v>
+        <v>9920</v>
       </c>
       <c r="H68" s="9">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="I68" s="9">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="J68" s="8">
         <v>69680</v>
@@ -2965,13 +2966,13 @@
         <v>68</v>
       </c>
       <c r="G69" s="12">
-        <v>754</v>
+        <v>10515</v>
       </c>
       <c r="H69" s="9">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="I69" s="9">
-        <v>30</v>
+        <v>368</v>
       </c>
       <c r="J69" s="8">
         <v>71740</v>
@@ -2994,13 +2995,13 @@
         <v>69</v>
       </c>
       <c r="G70" s="12">
-        <v>768</v>
+        <v>11146</v>
       </c>
       <c r="H70" s="9">
-        <v>71</v>
+        <v>435</v>
       </c>
       <c r="I70" s="9">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="J70" s="8">
         <v>73830</v>
@@ -3023,13 +3024,13 @@
         <v>70</v>
       </c>
       <c r="G71" s="12">
-        <v>784</v>
+        <v>11815</v>
       </c>
       <c r="H71" s="9">
-        <v>72</v>
+        <v>456</v>
       </c>
       <c r="I71" s="9">
-        <v>31</v>
+        <v>414</v>
       </c>
       <c r="J71" s="8">
         <v>75950</v>
@@ -3052,13 +3053,13 @@
         <v>71</v>
       </c>
       <c r="G72" s="12">
-        <v>800</v>
+        <v>12524</v>
       </c>
       <c r="H72" s="9">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="I72" s="9">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="J72" s="8">
         <v>78100</v>
@@ -3081,13 +3082,13 @@
         <v>72</v>
       </c>
       <c r="G73" s="12">
-        <v>816</v>
+        <v>13276</v>
       </c>
       <c r="H73" s="9">
-        <v>75</v>
+        <v>503</v>
       </c>
       <c r="I73" s="9">
-        <v>33</v>
+        <v>465</v>
       </c>
       <c r="J73" s="8">
         <v>80280</v>
@@ -3110,13 +3111,13 @@
         <v>73</v>
       </c>
       <c r="G74" s="12">
-        <v>832</v>
+        <v>14072</v>
       </c>
       <c r="H74" s="9">
-        <v>77</v>
+        <v>528</v>
       </c>
       <c r="I74" s="9">
-        <v>34</v>
+        <v>493</v>
       </c>
       <c r="J74" s="8">
         <v>82490</v>
@@ -3139,13 +3140,13 @@
         <v>74</v>
       </c>
       <c r="G75" s="12">
-        <v>848</v>
+        <v>14916</v>
       </c>
       <c r="H75" s="9">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="I75" s="9">
-        <v>35</v>
+        <v>522</v>
       </c>
       <c r="J75" s="8">
         <v>84730</v>
@@ -3168,13 +3169,13 @@
         <v>75</v>
       </c>
       <c r="G76" s="12">
-        <v>866</v>
+        <v>15811</v>
       </c>
       <c r="H76" s="9">
-        <v>81</v>
+        <v>582</v>
       </c>
       <c r="I76" s="9">
-        <v>35</v>
+        <v>553</v>
       </c>
       <c r="J76" s="8">
         <v>87000</v>
@@ -3197,13 +3198,13 @@
         <v>76</v>
       </c>
       <c r="G77" s="12">
-        <v>884</v>
+        <v>16760</v>
       </c>
       <c r="H77" s="9">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="I77" s="9">
-        <v>36</v>
+        <v>587</v>
       </c>
       <c r="J77" s="8">
         <v>89300</v>
@@ -3226,13 +3227,13 @@
         <v>77</v>
       </c>
       <c r="G78" s="12">
-        <v>900</v>
+        <v>17766</v>
       </c>
       <c r="H78" s="9">
-        <v>84</v>
+        <v>642</v>
       </c>
       <c r="I78" s="9">
-        <v>36</v>
+        <v>622</v>
       </c>
       <c r="J78" s="8">
         <v>91630</v>
@@ -3255,13 +3256,13 @@
         <v>78</v>
       </c>
       <c r="G79" s="12">
-        <v>918</v>
+        <v>18832</v>
       </c>
       <c r="H79" s="9">
-        <v>87</v>
+        <v>674</v>
       </c>
       <c r="I79" s="9">
-        <v>38</v>
+        <v>659</v>
       </c>
       <c r="J79" s="8">
         <v>93990</v>
@@ -3284,13 +3285,13 @@
         <v>79</v>
       </c>
       <c r="G80" s="12">
-        <v>938</v>
+        <v>19962</v>
       </c>
       <c r="H80" s="9">
-        <v>89</v>
+        <v>708</v>
       </c>
       <c r="I80" s="9">
-        <v>39</v>
+        <v>699</v>
       </c>
       <c r="J80" s="8">
         <v>96380</v>
@@ -3313,13 +3314,13 @@
         <v>80</v>
       </c>
       <c r="G81" s="12">
-        <v>956</v>
+        <v>21159</v>
       </c>
       <c r="H81" s="9">
-        <v>90</v>
+        <v>743</v>
       </c>
       <c r="I81" s="9">
-        <v>39</v>
+        <v>741</v>
       </c>
       <c r="J81" s="8">
         <v>98800</v>
@@ -3342,13 +3343,13 @@
         <v>81</v>
       </c>
       <c r="G82" s="12">
-        <v>976</v>
+        <v>22429</v>
       </c>
       <c r="H82" s="9">
-        <v>93</v>
+        <v>781</v>
       </c>
       <c r="I82" s="9">
-        <v>40</v>
+        <v>785</v>
       </c>
       <c r="J82" s="8">
         <v>101250</v>
@@ -3371,13 +3372,13 @@
         <v>82</v>
       </c>
       <c r="G83" s="12">
-        <v>994</v>
+        <v>23774</v>
       </c>
       <c r="H83" s="9">
-        <v>95</v>
+        <v>820</v>
       </c>
       <c r="I83" s="9">
-        <v>42</v>
+        <v>832</v>
       </c>
       <c r="J83" s="8">
         <v>103730</v>
@@ -3400,13 +3401,13 @@
         <v>83</v>
       </c>
       <c r="G84" s="12">
-        <v>1014</v>
+        <v>25201</v>
       </c>
       <c r="H84" s="9">
-        <v>98</v>
+        <v>861</v>
       </c>
       <c r="I84" s="9">
-        <v>42</v>
+        <v>882</v>
       </c>
       <c r="J84" s="8">
         <v>106240</v>
@@ -3429,13 +3430,13 @@
         <v>84</v>
       </c>
       <c r="G85" s="12">
-        <v>1034</v>
+        <v>26713</v>
       </c>
       <c r="H85" s="9">
-        <v>99</v>
+        <v>904</v>
       </c>
       <c r="I85" s="9">
-        <v>43</v>
+        <v>935</v>
       </c>
       <c r="J85" s="8">
         <v>108780</v>
@@ -3458,13 +3459,13 @@
         <v>85</v>
       </c>
       <c r="G86" s="12">
-        <v>1056</v>
+        <v>28316</v>
       </c>
       <c r="H86" s="9">
-        <v>102</v>
+        <v>949</v>
       </c>
       <c r="I86" s="9">
-        <v>44</v>
+        <v>991</v>
       </c>
       <c r="J86" s="8">
         <v>111350</v>
@@ -3487,13 +3488,13 @@
         <v>86</v>
       </c>
       <c r="G87" s="12">
-        <v>1076</v>
+        <v>30015</v>
       </c>
       <c r="H87" s="9">
-        <v>104</v>
+        <v>996</v>
       </c>
       <c r="I87" s="9">
-        <v>46</v>
+        <v>1051</v>
       </c>
       <c r="J87" s="8">
         <v>113950</v>
@@ -3516,13 +3517,13 @@
         <v>87</v>
       </c>
       <c r="G88" s="12">
-        <v>1098</v>
+        <v>31816</v>
       </c>
       <c r="H88" s="9">
-        <v>107</v>
+        <v>1046</v>
       </c>
       <c r="I88" s="9">
-        <v>47</v>
+        <v>1114</v>
       </c>
       <c r="J88" s="8">
         <v>116580</v>
@@ -3545,13 +3546,13 @@
         <v>88</v>
       </c>
       <c r="G89" s="12">
-        <v>1120</v>
+        <v>33725</v>
       </c>
       <c r="H89" s="9">
-        <v>108</v>
+        <v>1098</v>
       </c>
       <c r="I89" s="9">
-        <v>47</v>
+        <v>1180</v>
       </c>
       <c r="J89" s="8">
         <v>119240</v>
@@ -3574,13 +3575,13 @@
         <v>89</v>
       </c>
       <c r="G90" s="12">
-        <v>1142</v>
+        <v>35748</v>
       </c>
       <c r="H90" s="9">
-        <v>111</v>
+        <v>1153</v>
       </c>
       <c r="I90" s="9">
-        <v>48</v>
+        <v>1251</v>
       </c>
       <c r="J90" s="8">
         <v>121930</v>
@@ -3603,13 +3604,13 @@
         <v>90</v>
       </c>
       <c r="G91" s="12">
-        <v>1166</v>
+        <v>37893</v>
       </c>
       <c r="H91" s="9">
-        <v>114</v>
+        <v>1211</v>
       </c>
       <c r="I91" s="9">
-        <v>49</v>
+        <v>1326</v>
       </c>
       <c r="J91" s="8">
         <v>245700</v>
@@ -3632,13 +3633,13 @@
         <v>91</v>
       </c>
       <c r="G92" s="12">
-        <v>1188</v>
+        <v>40166</v>
       </c>
       <c r="H92" s="9">
-        <v>116</v>
+        <v>1272</v>
       </c>
       <c r="I92" s="9">
-        <v>49</v>
+        <v>1406</v>
       </c>
       <c r="J92" s="8">
         <v>252980</v>
@@ -3661,13 +3662,13 @@
         <v>92</v>
       </c>
       <c r="G93" s="12">
-        <v>1212</v>
+        <v>42576</v>
       </c>
       <c r="H93" s="9">
-        <v>119</v>
+        <v>1335</v>
       </c>
       <c r="I93" s="9">
-        <v>52</v>
+        <v>1490</v>
       </c>
       <c r="J93" s="8">
         <v>301300</v>
@@ -3690,13 +3691,13 @@
         <v>93</v>
       </c>
       <c r="G94" s="12">
-        <v>1236</v>
+        <v>45131</v>
       </c>
       <c r="H94" s="9">
-        <v>122</v>
+        <v>1402</v>
       </c>
       <c r="I94" s="9">
-        <v>52</v>
+        <v>1580</v>
       </c>
       <c r="J94" s="8">
         <v>351075</v>
@@ -3719,13 +3720,13 @@
         <v>94</v>
       </c>
       <c r="G95" s="12">
-        <v>1262</v>
+        <v>47839</v>
       </c>
       <c r="H95" s="9">
-        <v>125</v>
+        <v>1472</v>
       </c>
       <c r="I95" s="9">
-        <v>55</v>
+        <v>1674</v>
       </c>
       <c r="J95" s="8">
         <v>446500</v>
@@ -3748,13 +3749,13 @@
         <v>95</v>
       </c>
       <c r="G96" s="12">
-        <v>1286</v>
+        <v>50709</v>
       </c>
       <c r="H96" s="9">
-        <v>128</v>
+        <v>1546</v>
       </c>
       <c r="I96" s="9">
-        <v>55</v>
+        <v>1775</v>
       </c>
       <c r="J96" s="8">
         <v>546250</v>
@@ -3777,13 +3778,13 @@
         <v>96</v>
       </c>
       <c r="G97" s="12">
-        <v>1312</v>
+        <v>53752</v>
       </c>
       <c r="H97" s="9">
-        <v>131</v>
+        <v>1623</v>
       </c>
       <c r="I97" s="9">
-        <v>57</v>
+        <v>1881</v>
       </c>
       <c r="J97" s="8">
         <v>649920</v>
@@ -3806,13 +3807,13 @@
         <v>97</v>
       </c>
       <c r="G98" s="12">
-        <v>1338</v>
+        <v>56977</v>
       </c>
       <c r="H98" s="9">
-        <v>134</v>
+        <v>1704</v>
       </c>
       <c r="I98" s="9">
-        <v>57</v>
+        <v>1994</v>
       </c>
       <c r="J98" s="8">
         <v>757570</v>
@@ -3835,13 +3836,13 @@
         <v>98</v>
       </c>
       <c r="G99" s="12">
-        <v>1366</v>
+        <v>60396</v>
       </c>
       <c r="H99" s="9">
-        <v>137</v>
+        <v>1789</v>
       </c>
       <c r="I99" s="9">
-        <v>60</v>
+        <v>2114</v>
       </c>
       <c r="J99" s="8">
         <v>965300</v>
@@ -3864,13 +3865,13 @@
         <v>99</v>
       </c>
       <c r="G100" s="12">
-        <v>1392</v>
+        <v>64019</v>
       </c>
       <c r="H100" s="9">
-        <v>140</v>
+        <v>1879</v>
       </c>
       <c r="I100" s="9">
-        <v>60</v>
+        <v>2241</v>
       </c>
       <c r="J100" s="8">
         <v>1473120</v>
@@ -3894,13 +3895,13 @@
         <v>100</v>
       </c>
       <c r="G101" s="13">
-        <v>1420</v>
+        <v>67860</v>
       </c>
       <c r="H101" s="9">
-        <v>143</v>
+        <v>1973</v>
       </c>
       <c r="I101" s="9">
-        <v>65</v>
+        <v>2375</v>
       </c>
       <c r="J101" s="10"/>
     </row>
@@ -3980,7 +3981,7 @@
         <v>44</v>
       </c>
       <c r="H103" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I103" s="15">
         <v>1</v>
@@ -4139,7 +4140,7 @@
         <v>59</v>
       </c>
       <c r="H106" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I106" s="15">
         <v>1</v>
@@ -4192,7 +4193,7 @@
         <v>64</v>
       </c>
       <c r="H107" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I107" s="15">
         <v>1</v>
@@ -4245,7 +4246,7 @@
         <v>71</v>
       </c>
       <c r="H108" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I108" s="15">
         <v>1</v>
@@ -4298,7 +4299,7 @@
         <v>78</v>
       </c>
       <c r="H109" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I109" s="15">
         <v>1</v>
@@ -4351,7 +4352,7 @@
         <v>86</v>
       </c>
       <c r="H110" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I110" s="15">
         <v>2</v>
@@ -4404,7 +4405,7 @@
         <v>94</v>
       </c>
       <c r="H111" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I111" s="15">
         <v>2</v>
@@ -4457,7 +4458,7 @@
         <v>104</v>
       </c>
       <c r="H112" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I112" s="16">
         <v>2</v>
@@ -4510,7 +4511,7 @@
         <v>114</v>
       </c>
       <c r="H113" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I113" s="15">
         <v>2</v>
@@ -4563,7 +4564,7 @@
         <v>126</v>
       </c>
       <c r="H114" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I114" s="15">
         <v>2</v>
@@ -4616,7 +4617,7 @@
         <v>138</v>
       </c>
       <c r="H115" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I115" s="15">
         <v>2</v>
@@ -4669,7 +4670,7 @@
         <v>152</v>
       </c>
       <c r="H116" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I116" s="15">
         <v>2</v>
@@ -4722,7 +4723,7 @@
         <v>167</v>
       </c>
       <c r="H117" s="15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I117" s="15">
         <v>2</v>
@@ -4775,7 +4776,7 @@
         <v>184</v>
       </c>
       <c r="H118" s="15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I118" s="15">
         <v>2</v>
@@ -4828,7 +4829,7 @@
         <v>202</v>
       </c>
       <c r="H119" s="15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I119" s="15">
         <v>2</v>
@@ -4881,7 +4882,7 @@
         <v>222</v>
       </c>
       <c r="H120" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I120" s="15">
         <v>2</v>
@@ -4934,7 +4935,7 @@
         <v>245</v>
       </c>
       <c r="H121" s="15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I121" s="15">
         <v>3</v>
@@ -4987,7 +4988,7 @@
         <v>269</v>
       </c>
       <c r="H122" s="15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I122" s="15">
         <v>3</v>
@@ -5040,7 +5041,7 @@
         <v>296</v>
       </c>
       <c r="H123" s="15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I123" s="15">
         <v>3</v>
@@ -5093,7 +5094,7 @@
         <v>326</v>
       </c>
       <c r="H124" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I124" s="15">
         <v>3</v>
@@ -5146,7 +5147,7 @@
         <v>358</v>
       </c>
       <c r="H125" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I125" s="15">
         <v>3</v>
@@ -5199,7 +5200,7 @@
         <v>394</v>
       </c>
       <c r="H126" s="15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I126" s="15">
         <v>3</v>
@@ -5252,7 +5253,7 @@
         <v>433</v>
       </c>
       <c r="H127" s="15">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I127" s="15">
         <v>3</v>
@@ -5305,7 +5306,7 @@
         <v>477</v>
       </c>
       <c r="H128" s="15">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I128" s="15">
         <v>4</v>
@@ -5358,7 +5359,7 @@
         <v>524</v>
       </c>
       <c r="H129" s="15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I129" s="15">
         <v>4</v>
@@ -5411,7 +5412,7 @@
         <v>577</v>
       </c>
       <c r="H130" s="15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I130" s="15">
         <v>4</v>
@@ -5464,7 +5465,7 @@
         <v>635</v>
       </c>
       <c r="H131" s="15">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I131" s="15">
         <v>4</v>
@@ -5517,7 +5518,7 @@
         <v>698</v>
       </c>
       <c r="H132" s="15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I132" s="15">
         <v>4</v>
@@ -5570,7 +5571,7 @@
         <v>768</v>
       </c>
       <c r="H133" s="15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I133" s="15">
         <v>5</v>
@@ -5623,7 +5624,7 @@
         <v>845</v>
       </c>
       <c r="H134" s="15">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I134" s="15">
         <v>5</v>
@@ -5676,7 +5677,7 @@
         <v>929</v>
       </c>
       <c r="H135" s="15">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I135" s="15">
         <v>5</v>
@@ -5729,7 +5730,7 @@
         <v>1022</v>
       </c>
       <c r="H136" s="15">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I136" s="15">
         <v>5</v>
@@ -5782,7 +5783,7 @@
         <v>1124</v>
       </c>
       <c r="H137" s="15">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I137" s="15">
         <v>6</v>
@@ -5835,7 +5836,7 @@
         <v>1237</v>
       </c>
       <c r="H138" s="15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I138" s="15">
         <v>6</v>
@@ -5888,7 +5889,7 @@
         <v>1360</v>
       </c>
       <c r="H139" s="15">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I139" s="15">
         <v>6</v>
@@ -5941,7 +5942,7 @@
         <v>1496</v>
       </c>
       <c r="H140" s="15">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I140" s="15">
         <v>6</v>
@@ -5994,7 +5995,7 @@
         <v>1646</v>
       </c>
       <c r="H141" s="15">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I141" s="15">
         <v>7</v>
@@ -6047,7 +6048,7 @@
         <v>1810</v>
       </c>
       <c r="H142" s="15">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I142" s="15">
         <v>7</v>
@@ -6100,7 +6101,7 @@
         <v>1991</v>
       </c>
       <c r="H143" s="15">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I143" s="15">
         <v>7</v>
@@ -6153,7 +6154,7 @@
         <v>2191</v>
       </c>
       <c r="H144" s="15">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I144" s="15">
         <v>8</v>
@@ -6206,7 +6207,7 @@
         <v>2410</v>
       </c>
       <c r="H145" s="15">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I145" s="15">
         <v>8</v>
@@ -6259,7 +6260,7 @@
         <v>2651</v>
       </c>
       <c r="H146" s="15">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I146" s="15">
         <v>9</v>
@@ -6312,7 +6313,7 @@
         <v>2916</v>
       </c>
       <c r="H147" s="15">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I147" s="15">
         <v>9</v>
@@ -6365,7 +6366,7 @@
         <v>3207</v>
       </c>
       <c r="H148" s="15">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I148" s="15">
         <v>9</v>
@@ -6418,7 +6419,7 @@
         <v>3528</v>
       </c>
       <c r="H149" s="15">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I149" s="15">
         <v>10</v>
@@ -6471,7 +6472,7 @@
         <v>3881</v>
       </c>
       <c r="H150" s="15">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I150" s="15">
         <v>10</v>
@@ -6524,7 +6525,7 @@
         <v>4269</v>
       </c>
       <c r="H151" s="15">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I151" s="15">
         <v>11</v>
@@ -6577,7 +6578,7 @@
         <v>4696</v>
       </c>
       <c r="H152" s="15">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I152" s="15">
         <v>12</v>
@@ -6630,7 +6631,7 @@
         <v>5165</v>
       </c>
       <c r="H153" s="15">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I153" s="15">
         <v>12</v>
@@ -6683,7 +6684,7 @@
         <v>5682</v>
       </c>
       <c r="H154" s="15">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="I154" s="15">
         <v>13</v>
@@ -6736,7 +6737,7 @@
         <v>6250</v>
       </c>
       <c r="H155" s="15">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="I155" s="15">
         <v>13</v>
@@ -6789,7 +6790,7 @@
         <v>6875</v>
       </c>
       <c r="H156" s="15">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="I156" s="15">
         <v>14</v>
@@ -6842,7 +6843,7 @@
         <v>7562</v>
       </c>
       <c r="H157" s="15">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="I157" s="15">
         <v>15</v>
@@ -6895,7 +6896,7 @@
         <v>8319</v>
       </c>
       <c r="H158" s="15">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="I158" s="15">
         <v>15</v>
@@ -6948,7 +6949,7 @@
         <v>9150</v>
       </c>
       <c r="H159" s="15">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="I159" s="15">
         <v>16</v>
@@ -7001,7 +7002,7 @@
         <v>10066</v>
       </c>
       <c r="H160" s="15">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I160" s="15">
         <v>17</v>
@@ -7054,7 +7055,7 @@
         <v>11072</v>
       </c>
       <c r="H161" s="15">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="I161" s="15">
         <v>18</v>
@@ -7107,7 +7108,7 @@
         <v>12179</v>
       </c>
       <c r="H162" s="15">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="I162" s="15">
         <v>19</v>
@@ -7160,7 +7161,7 @@
         <v>13397</v>
       </c>
       <c r="H163" s="15">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="I163" s="15">
         <v>20</v>
@@ -7213,7 +7214,7 @@
         <v>14737</v>
       </c>
       <c r="H164" s="15">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="I164" s="15">
         <v>21</v>
@@ -7266,7 +7267,7 @@
         <v>16211</v>
       </c>
       <c r="H165" s="15">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="I165" s="15">
         <v>22</v>
@@ -7319,7 +7320,7 @@
         <v>17832</v>
       </c>
       <c r="H166" s="15">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="I166" s="15">
         <v>23</v>
@@ -7372,7 +7373,7 @@
         <v>19615</v>
       </c>
       <c r="H167" s="15">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="I167" s="15">
         <v>24</v>
@@ -7425,7 +7426,7 @@
         <v>21576</v>
       </c>
       <c r="H168" s="15">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I168" s="15">
         <v>25</v>
@@ -7478,7 +7479,7 @@
         <v>23734</v>
       </c>
       <c r="H169" s="15">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="I169" s="15">
         <v>26</v>
@@ -7531,7 +7532,7 @@
         <v>26107</v>
       </c>
       <c r="H170" s="15">
-        <v>138</v>
+        <v>279</v>
       </c>
       <c r="I170" s="15">
         <v>28</v>
@@ -7584,7 +7585,7 @@
         <v>28718</v>
       </c>
       <c r="H171" s="15">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="I171" s="15">
         <v>29</v>
@@ -7637,7 +7638,7 @@
         <v>31590</v>
       </c>
       <c r="H172" s="15">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="I172" s="15">
         <v>30</v>
@@ -7690,7 +7691,7 @@
         <v>34749</v>
       </c>
       <c r="H173" s="15">
-        <v>160</v>
+        <v>332</v>
       </c>
       <c r="I173" s="15">
         <v>32</v>
@@ -7743,7 +7744,7 @@
         <v>38224</v>
       </c>
       <c r="H174" s="15">
-        <v>168</v>
+        <v>352</v>
       </c>
       <c r="I174" s="15">
         <v>34</v>
@@ -7796,7 +7797,7 @@
         <v>42046</v>
       </c>
       <c r="H175" s="15">
-        <v>176</v>
+        <v>373</v>
       </c>
       <c r="I175" s="15">
         <v>35</v>
@@ -7849,7 +7850,7 @@
         <v>46251</v>
       </c>
       <c r="H176" s="15">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="I176" s="15">
         <v>37</v>
@@ -7902,7 +7903,7 @@
         <v>50876</v>
       </c>
       <c r="H177" s="15">
-        <v>194</v>
+        <v>419</v>
       </c>
       <c r="I177" s="15">
         <v>39</v>
@@ -7955,7 +7956,7 @@
         <v>55963</v>
       </c>
       <c r="H178" s="15">
-        <v>204</v>
+        <v>444</v>
       </c>
       <c r="I178" s="15">
         <v>41</v>
@@ -8008,7 +8009,7 @@
         <v>61560</v>
       </c>
       <c r="H179" s="15">
-        <v>214</v>
+        <v>471</v>
       </c>
       <c r="I179" s="15">
         <v>43</v>
@@ -8061,7 +8062,7 @@
         <v>67716</v>
       </c>
       <c r="H180" s="15">
-        <v>225</v>
+        <v>499</v>
       </c>
       <c r="I180" s="15">
         <v>45</v>
@@ -8114,7 +8115,7 @@
         <v>74487</v>
       </c>
       <c r="H181" s="15">
-        <v>236</v>
+        <v>529</v>
       </c>
       <c r="I181" s="15">
         <v>47</v>
@@ -8167,7 +8168,7 @@
         <v>81936</v>
       </c>
       <c r="H182" s="15">
-        <v>248</v>
+        <v>561</v>
       </c>
       <c r="I182" s="15">
         <v>50</v>
@@ -8220,7 +8221,7 @@
         <v>90130</v>
       </c>
       <c r="H183" s="15">
-        <v>260</v>
+        <v>594</v>
       </c>
       <c r="I183" s="15">
         <v>52</v>
@@ -8273,7 +8274,7 @@
         <v>99143</v>
       </c>
       <c r="H184" s="15">
-        <v>273</v>
+        <v>630</v>
       </c>
       <c r="I184" s="15">
         <v>55</v>
@@ -8326,7 +8327,7 @@
         <v>109057</v>
       </c>
       <c r="H185" s="15">
-        <v>287</v>
+        <v>668</v>
       </c>
       <c r="I185" s="15">
         <v>57</v>
@@ -8379,7 +8380,7 @@
         <v>119963</v>
       </c>
       <c r="H186" s="15">
-        <v>301</v>
+        <v>708</v>
       </c>
       <c r="I186" s="15">
         <v>60</v>
@@ -8432,7 +8433,7 @@
         <v>131959</v>
       </c>
       <c r="H187" s="15">
-        <v>316</v>
+        <v>750</v>
       </c>
       <c r="I187" s="15">
         <v>63</v>
@@ -8485,7 +8486,7 @@
         <v>145155</v>
       </c>
       <c r="H188" s="15">
-        <v>332</v>
+        <v>795</v>
       </c>
       <c r="I188" s="15">
         <v>66</v>
@@ -8538,7 +8539,7 @@
         <v>159670</v>
       </c>
       <c r="H189" s="15">
-        <v>349</v>
+        <v>843</v>
       </c>
       <c r="I189" s="15">
         <v>70</v>
@@ -8591,7 +8592,7 @@
         <v>175637</v>
       </c>
       <c r="H190" s="15">
-        <v>366</v>
+        <v>894</v>
       </c>
       <c r="I190" s="15">
         <v>73</v>
@@ -8644,7 +8645,7 @@
         <v>193201</v>
       </c>
       <c r="H191" s="15">
-        <v>384</v>
+        <v>947</v>
       </c>
       <c r="I191" s="15">
         <v>77</v>
@@ -8697,7 +8698,7 @@
         <v>212521</v>
       </c>
       <c r="H192" s="15">
-        <v>404</v>
+        <v>1004</v>
       </c>
       <c r="I192" s="15">
         <v>81</v>
@@ -8750,7 +8751,7 @@
         <v>233773</v>
       </c>
       <c r="H193" s="15">
-        <v>424</v>
+        <v>1064</v>
       </c>
       <c r="I193" s="15">
         <v>85</v>
@@ -8803,7 +8804,7 @@
         <v>257150</v>
       </c>
       <c r="H194" s="15">
-        <v>445</v>
+        <v>1128</v>
       </c>
       <c r="I194" s="15">
         <v>89</v>
@@ -8856,7 +8857,7 @@
         <v>282865</v>
       </c>
       <c r="H195" s="15">
-        <v>467</v>
+        <v>1196</v>
       </c>
       <c r="I195" s="15">
         <v>94</v>
@@ -8909,7 +8910,7 @@
         <v>311152</v>
       </c>
       <c r="H196" s="15">
-        <v>491</v>
+        <v>1268</v>
       </c>
       <c r="I196" s="15">
         <v>98</v>
@@ -8962,7 +8963,7 @@
         <v>342267</v>
       </c>
       <c r="H197" s="15">
-        <v>515</v>
+        <v>1344</v>
       </c>
       <c r="I197" s="15">
         <v>103</v>
@@ -9015,7 +9016,7 @@
         <v>376494</v>
       </c>
       <c r="H198" s="15">
-        <v>541</v>
+        <v>1424</v>
       </c>
       <c r="I198" s="15">
         <v>108</v>
@@ -9068,7 +9069,7 @@
         <v>414143</v>
       </c>
       <c r="H199" s="15">
-        <v>568</v>
+        <v>1510</v>
       </c>
       <c r="I199" s="15">
         <v>114</v>
@@ -9121,7 +9122,7 @@
         <v>455557</v>
       </c>
       <c r="H200" s="18">
-        <v>596</v>
+        <v>1600</v>
       </c>
       <c r="I200" s="18">
         <v>119</v>
@@ -9174,7 +9175,7 @@
         <v>10</v>
       </c>
       <c r="H201" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I201" s="19">
         <v>1</v>
@@ -9227,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="H202" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I202" s="20">
         <v>1</v>
@@ -9280,7 +9281,7 @@
         <v>12</v>
       </c>
       <c r="H203" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I203" s="20">
         <v>1</v>
@@ -9333,7 +9334,7 @@
         <v>13</v>
       </c>
       <c r="H204" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I204" s="20">
         <v>1</v>
@@ -9386,7 +9387,7 @@
         <v>15</v>
       </c>
       <c r="H205" s="20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I205" s="20">
         <v>1</v>
@@ -9439,7 +9440,7 @@
         <v>16</v>
       </c>
       <c r="H206" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I206" s="20">
         <v>1</v>
@@ -9492,7 +9493,7 @@
         <v>18</v>
       </c>
       <c r="H207" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I207" s="20">
         <v>1</v>
@@ -9545,7 +9546,7 @@
         <v>19</v>
       </c>
       <c r="H208" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I208" s="20">
         <v>1</v>
@@ -9598,7 +9599,7 @@
         <v>21</v>
       </c>
       <c r="H209" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I209" s="20">
         <v>2</v>
@@ -9651,7 +9652,7 @@
         <v>24</v>
       </c>
       <c r="H210" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I210" s="20">
         <v>2</v>
@@ -9704,7 +9705,7 @@
         <v>26</v>
       </c>
       <c r="H211" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I211" s="21">
         <v>2</v>
@@ -9757,7 +9758,7 @@
         <v>29</v>
       </c>
       <c r="H212" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I212" s="20">
         <v>2</v>
@@ -9810,7 +9811,7 @@
         <v>31</v>
       </c>
       <c r="H213" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I213" s="20">
         <v>2</v>
@@ -9863,7 +9864,7 @@
         <v>35</v>
       </c>
       <c r="H214" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I214" s="20">
         <v>2</v>
@@ -9916,7 +9917,7 @@
         <v>38</v>
       </c>
       <c r="H215" s="20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I215" s="20">
         <v>2</v>
@@ -9969,7 +9970,7 @@
         <v>42</v>
       </c>
       <c r="H216" s="20">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I216" s="20">
         <v>2</v>
@@ -10022,7 +10023,7 @@
         <v>46</v>
       </c>
       <c r="H217" s="20">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I217" s="20">
         <v>2</v>
@@ -10075,7 +10076,7 @@
         <v>51</v>
       </c>
       <c r="H218" s="20">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I218" s="20">
         <v>2</v>
@@ -10128,7 +10129,7 @@
         <v>56</v>
       </c>
       <c r="H219" s="20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I219" s="20">
         <v>2</v>
@@ -10181,7 +10182,7 @@
         <v>61</v>
       </c>
       <c r="H220" s="20">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I220" s="20">
         <v>3</v>
@@ -10234,7 +10235,7 @@
         <v>67</v>
       </c>
       <c r="H221" s="20">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I221" s="20">
         <v>3</v>
@@ -10287,7 +10288,7 @@
         <v>74</v>
       </c>
       <c r="H222" s="20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I222" s="20">
         <v>3</v>
@@ -10340,7 +10341,7 @@
         <v>81</v>
       </c>
       <c r="H223" s="20">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I223" s="20">
         <v>3</v>
@@ -10393,7 +10394,7 @@
         <v>90</v>
       </c>
       <c r="H224" s="20">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I224" s="20">
         <v>3</v>
@@ -10446,7 +10447,7 @@
         <v>98</v>
       </c>
       <c r="H225" s="20">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I225" s="20">
         <v>3</v>
@@ -10499,7 +10500,7 @@
         <v>108</v>
       </c>
       <c r="H226" s="20">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I226" s="20">
         <v>3</v>
@@ -10552,7 +10553,7 @@
         <v>119</v>
       </c>
       <c r="H227" s="20">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I227" s="20">
         <v>4</v>
@@ -10605,7 +10606,7 @@
         <v>131</v>
       </c>
       <c r="H228" s="20">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I228" s="20">
         <v>4</v>
@@ -10658,7 +10659,7 @@
         <v>144</v>
       </c>
       <c r="H229" s="20">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I229" s="20">
         <v>4</v>
@@ -10711,7 +10712,7 @@
         <v>159</v>
       </c>
       <c r="H230" s="20">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I230" s="20">
         <v>4</v>
@@ -10764,7 +10765,7 @@
         <v>174</v>
       </c>
       <c r="H231" s="20">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I231" s="20">
         <v>4</v>
@@ -10817,7 +10818,7 @@
         <v>192</v>
       </c>
       <c r="H232" s="20">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I232" s="20">
         <v>5</v>
@@ -10870,7 +10871,7 @@
         <v>211</v>
       </c>
       <c r="H233" s="20">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I233" s="20">
         <v>5</v>
@@ -10923,7 +10924,7 @@
         <v>232</v>
       </c>
       <c r="H234" s="20">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I234" s="20">
         <v>5</v>
@@ -10976,7 +10977,7 @@
         <v>255</v>
       </c>
       <c r="H235" s="20">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I235" s="20">
         <v>5</v>
@@ -11029,7 +11030,7 @@
         <v>281</v>
       </c>
       <c r="H236" s="20">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I236" s="20">
         <v>6</v>
@@ -11082,7 +11083,7 @@
         <v>309</v>
       </c>
       <c r="H237" s="20">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I237" s="20">
         <v>6</v>
@@ -11135,7 +11136,7 @@
         <v>340</v>
       </c>
       <c r="H238" s="20">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I238" s="20">
         <v>6</v>
@@ -11188,7 +11189,7 @@
         <v>374</v>
       </c>
       <c r="H239" s="20">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I239" s="20">
         <v>6</v>
@@ -11241,7 +11242,7 @@
         <v>411</v>
       </c>
       <c r="H240" s="20">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I240" s="20">
         <v>7</v>
@@ -11294,7 +11295,7 @@
         <v>453</v>
       </c>
       <c r="H241" s="20">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I241" s="20">
         <v>7</v>
@@ -11347,7 +11348,7 @@
         <v>498</v>
       </c>
       <c r="H242" s="20">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I242" s="20">
         <v>7</v>
@@ -11400,7 +11401,7 @@
         <v>548</v>
       </c>
       <c r="H243" s="20">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I243" s="20">
         <v>8</v>
@@ -11453,7 +11454,7 @@
         <v>602</v>
       </c>
       <c r="H244" s="20">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I244" s="20">
         <v>8</v>
@@ -11506,7 +11507,7 @@
         <v>663</v>
       </c>
       <c r="H245" s="20">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I245" s="20">
         <v>9</v>
@@ -11559,7 +11560,7 @@
         <v>729</v>
       </c>
       <c r="H246" s="20">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I246" s="20">
         <v>9</v>
@@ -11612,7 +11613,7 @@
         <v>802</v>
       </c>
       <c r="H247" s="20">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I247" s="20">
         <v>9</v>
@@ -11665,7 +11666,7 @@
         <v>882</v>
       </c>
       <c r="H248" s="20">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I248" s="20">
         <v>10</v>
@@ -11718,7 +11719,7 @@
         <v>970</v>
       </c>
       <c r="H249" s="20">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I249" s="20">
         <v>10</v>
@@ -11771,7 +11772,7 @@
         <v>1067</v>
       </c>
       <c r="H250" s="20">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I250" s="20">
         <v>11</v>
@@ -11824,7 +11825,7 @@
         <v>1174</v>
       </c>
       <c r="H251" s="20">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I251" s="20">
         <v>12</v>
@@ -11877,7 +11878,7 @@
         <v>1291</v>
       </c>
       <c r="H252" s="20">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="I252" s="20">
         <v>12</v>
@@ -11930,7 +11931,7 @@
         <v>1420</v>
       </c>
       <c r="H253" s="20">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I253" s="20">
         <v>13</v>
@@ -11983,7 +11984,7 @@
         <v>1562</v>
       </c>
       <c r="H254" s="20">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I254" s="20">
         <v>13</v>
@@ -12036,7 +12037,7 @@
         <v>1719</v>
       </c>
       <c r="H255" s="20">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I255" s="20">
         <v>14</v>
@@ -12089,7 +12090,7 @@
         <v>1891</v>
       </c>
       <c r="H256" s="20">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="I256" s="20">
         <v>15</v>
@@ -12142,7 +12143,7 @@
         <v>2080</v>
       </c>
       <c r="H257" s="20">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="I257" s="20">
         <v>15</v>
@@ -12195,7 +12196,7 @@
         <v>2288</v>
       </c>
       <c r="H258" s="20">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="I258" s="20">
         <v>16</v>
@@ -12248,7 +12249,7 @@
         <v>2516</v>
       </c>
       <c r="H259" s="20">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="I259" s="20">
         <v>17</v>
@@ -12301,7 +12302,7 @@
         <v>2768</v>
       </c>
       <c r="H260" s="20">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="I260" s="20">
         <v>18</v>
@@ -12354,7 +12355,7 @@
         <v>3045</v>
       </c>
       <c r="H261" s="20">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="I261" s="20">
         <v>19</v>
@@ -12407,7 +12408,7 @@
         <v>3349</v>
       </c>
       <c r="H262" s="20">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="I262" s="20">
         <v>20</v>
@@ -12460,7 +12461,7 @@
         <v>3684</v>
       </c>
       <c r="H263" s="20">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I263" s="20">
         <v>21</v>
@@ -12513,7 +12514,7 @@
         <v>4053</v>
       </c>
       <c r="H264" s="20">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="I264" s="20">
         <v>22</v>
@@ -12566,7 +12567,7 @@
         <v>4458</v>
       </c>
       <c r="H265" s="20">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="I265" s="20">
         <v>23</v>
@@ -12619,7 +12620,7 @@
         <v>4904</v>
       </c>
       <c r="H266" s="20">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="I266" s="20">
         <v>24</v>
@@ -12672,7 +12673,7 @@
         <v>5394</v>
       </c>
       <c r="H267" s="20">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="I267" s="20">
         <v>25</v>
@@ -12725,7 +12726,7 @@
         <v>5933</v>
       </c>
       <c r="H268" s="20">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="I268" s="20">
         <v>26</v>
@@ -12778,7 +12779,7 @@
         <v>6527</v>
       </c>
       <c r="H269" s="20">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="I269" s="20">
         <v>28</v>
@@ -12831,7 +12832,7 @@
         <v>7180</v>
       </c>
       <c r="H270" s="20">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="I270" s="20">
         <v>29</v>
@@ -12884,7 +12885,7 @@
         <v>7897</v>
       </c>
       <c r="H271" s="20">
-        <v>61</v>
+        <v>313</v>
       </c>
       <c r="I271" s="20">
         <v>30</v>
@@ -12937,7 +12938,7 @@
         <v>8687</v>
       </c>
       <c r="H272" s="20">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="I272" s="20">
         <v>32</v>
@@ -12990,7 +12991,7 @@
         <v>9556</v>
       </c>
       <c r="H273" s="20">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="I273" s="20">
         <v>34</v>
@@ -13043,7 +13044,7 @@
         <v>10512</v>
       </c>
       <c r="H274" s="20">
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="I274" s="20">
         <v>35</v>
@@ -13096,7 +13097,7 @@
         <v>11563</v>
       </c>
       <c r="H275" s="20">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="I275" s="20">
         <v>37</v>
@@ -13149,7 +13150,7 @@
         <v>12719</v>
       </c>
       <c r="H276" s="20">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="I276" s="20">
         <v>39</v>
@@ -13202,7 +13203,7 @@
         <v>13991</v>
       </c>
       <c r="H277" s="20">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="I277" s="20">
         <v>41</v>
@@ -13255,7 +13256,7 @@
         <v>15390</v>
       </c>
       <c r="H278" s="20">
-        <v>86</v>
+        <v>471</v>
       </c>
       <c r="I278" s="20">
         <v>43</v>
@@ -13308,7 +13309,7 @@
         <v>16929</v>
       </c>
       <c r="H279" s="20">
-        <v>90</v>
+        <v>499</v>
       </c>
       <c r="I279" s="20">
         <v>45</v>
@@ -13361,7 +13362,7 @@
         <v>18622</v>
       </c>
       <c r="H280" s="20">
-        <v>94</v>
+        <v>529</v>
       </c>
       <c r="I280" s="20">
         <v>47</v>
@@ -13414,7 +13415,7 @@
         <v>20484</v>
       </c>
       <c r="H281" s="20">
-        <v>99</v>
+        <v>561</v>
       </c>
       <c r="I281" s="20">
         <v>50</v>
@@ -13467,7 +13468,7 @@
         <v>22532</v>
       </c>
       <c r="H282" s="20">
-        <v>104</v>
+        <v>594</v>
       </c>
       <c r="I282" s="20">
         <v>52</v>
@@ -13520,7 +13521,7 @@
         <v>24786</v>
       </c>
       <c r="H283" s="20">
-        <v>109</v>
+        <v>630</v>
       </c>
       <c r="I283" s="20">
         <v>55</v>
@@ -13573,7 +13574,7 @@
         <v>27264</v>
       </c>
       <c r="H284" s="20">
-        <v>115</v>
+        <v>668</v>
       </c>
       <c r="I284" s="20">
         <v>57</v>
@@ -13626,7 +13627,7 @@
         <v>29991</v>
       </c>
       <c r="H285" s="20">
-        <v>120</v>
+        <v>708</v>
       </c>
       <c r="I285" s="20">
         <v>60</v>
@@ -13679,7 +13680,7 @@
         <v>32990</v>
       </c>
       <c r="H286" s="20">
-        <v>127</v>
+        <v>750</v>
       </c>
       <c r="I286" s="20">
         <v>63</v>
@@ -13732,7 +13733,7 @@
         <v>36289</v>
       </c>
       <c r="H287" s="20">
-        <v>133</v>
+        <v>795</v>
       </c>
       <c r="I287" s="20">
         <v>66</v>
@@ -13785,7 +13786,7 @@
         <v>39918</v>
       </c>
       <c r="H288" s="20">
-        <v>139</v>
+        <v>843</v>
       </c>
       <c r="I288" s="20">
         <v>70</v>
@@ -13838,7 +13839,7 @@
         <v>43909</v>
       </c>
       <c r="H289" s="20">
-        <v>146</v>
+        <v>894</v>
       </c>
       <c r="I289" s="20">
         <v>73</v>
@@ -13891,7 +13892,7 @@
         <v>48300</v>
       </c>
       <c r="H290" s="20">
-        <v>154</v>
+        <v>947</v>
       </c>
       <c r="I290" s="20">
         <v>77</v>
@@ -13944,7 +13945,7 @@
         <v>53130</v>
       </c>
       <c r="H291" s="20">
-        <v>161</v>
+        <v>1004</v>
       </c>
       <c r="I291" s="20">
         <v>81</v>
@@ -13997,7 +13998,7 @@
         <v>58443</v>
       </c>
       <c r="H292" s="20">
-        <v>170</v>
+        <v>1064</v>
       </c>
       <c r="I292" s="20">
         <v>85</v>
@@ -14050,7 +14051,7 @@
         <v>64288</v>
       </c>
       <c r="H293" s="20">
-        <v>178</v>
+        <v>1128</v>
       </c>
       <c r="I293" s="20">
         <v>89</v>
@@ -14103,7 +14104,7 @@
         <v>70716</v>
       </c>
       <c r="H294" s="20">
-        <v>187</v>
+        <v>1196</v>
       </c>
       <c r="I294" s="20">
         <v>94</v>
@@ -14156,7 +14157,7 @@
         <v>77788</v>
       </c>
       <c r="H295" s="20">
-        <v>196</v>
+        <v>1268</v>
       </c>
       <c r="I295" s="20">
         <v>98</v>
@@ -14209,7 +14210,7 @@
         <v>85567</v>
       </c>
       <c r="H296" s="20">
-        <v>206</v>
+        <v>1344</v>
       </c>
       <c r="I296" s="20">
         <v>103</v>
@@ -14262,7 +14263,7 @@
         <v>94123</v>
       </c>
       <c r="H297" s="20">
-        <v>216</v>
+        <v>1424</v>
       </c>
       <c r="I297" s="20">
         <v>108</v>
@@ -14315,7 +14316,7 @@
         <v>103536</v>
       </c>
       <c r="H298" s="20">
-        <v>227</v>
+        <v>1510</v>
       </c>
       <c r="I298" s="20">
         <v>114</v>
@@ -14368,7 +14369,7 @@
         <v>113889</v>
       </c>
       <c r="H299" s="24">
-        <v>239</v>
+        <v>1600</v>
       </c>
       <c r="I299" s="24">
         <v>119</v>
@@ -14474,7 +14475,7 @@
         <v>22</v>
       </c>
       <c r="H301" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I301" s="20">
         <v>1</v>
@@ -14580,7 +14581,7 @@
         <v>27</v>
       </c>
       <c r="H303" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I303" s="20">
         <v>1</v>
@@ -14686,7 +14687,7 @@
         <v>32</v>
       </c>
       <c r="H305" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I305" s="20">
         <v>1</v>
@@ -14739,7 +14740,7 @@
         <v>35</v>
       </c>
       <c r="H306" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I306" s="20">
         <v>1</v>
@@ -14792,7 +14793,7 @@
         <v>39</v>
       </c>
       <c r="H307" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I307" s="20">
         <v>1</v>
@@ -14845,7 +14846,7 @@
         <v>43</v>
       </c>
       <c r="H308" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I308" s="20">
         <v>1</v>
@@ -14898,7 +14899,7 @@
         <v>47</v>
       </c>
       <c r="H309" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I309" s="20">
         <v>1</v>
@@ -14951,7 +14952,7 @@
         <v>52</v>
       </c>
       <c r="H310" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I310" s="21">
         <v>1</v>
@@ -15004,7 +15005,7 @@
         <v>57</v>
       </c>
       <c r="H311" s="20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I311" s="20">
         <v>2</v>
@@ -15057,7 +15058,7 @@
         <v>63</v>
       </c>
       <c r="H312" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I312" s="20">
         <v>2</v>
@@ -15110,7 +15111,7 @@
         <v>69</v>
       </c>
       <c r="H313" s="20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I313" s="20">
         <v>2</v>
@@ -15163,7 +15164,7 @@
         <v>76</v>
       </c>
       <c r="H314" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I314" s="20">
         <v>2</v>
@@ -15216,7 +15217,7 @@
         <v>84</v>
       </c>
       <c r="H315" s="20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I315" s="20">
         <v>2</v>
@@ -15269,7 +15270,7 @@
         <v>92</v>
       </c>
       <c r="H316" s="20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I316" s="20">
         <v>2</v>
@@ -15322,7 +15323,7 @@
         <v>101</v>
       </c>
       <c r="H317" s="20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I317" s="20">
         <v>2</v>
@@ -15375,7 +15376,7 @@
         <v>111</v>
       </c>
       <c r="H318" s="20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I318" s="20">
         <v>2</v>
@@ -15428,7 +15429,7 @@
         <v>122</v>
       </c>
       <c r="H319" s="20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I319" s="20">
         <v>2</v>
@@ -15481,7 +15482,7 @@
         <v>135</v>
       </c>
       <c r="H320" s="20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I320" s="20">
         <v>2</v>
@@ -15534,7 +15535,7 @@
         <v>148</v>
       </c>
       <c r="H321" s="20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I321" s="20">
         <v>3</v>
@@ -15587,7 +15588,7 @@
         <v>163</v>
       </c>
       <c r="H322" s="20">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I322" s="20">
         <v>3</v>
@@ -15640,7 +15641,7 @@
         <v>179</v>
       </c>
       <c r="H323" s="20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I323" s="20">
         <v>3</v>
@@ -15693,7 +15694,7 @@
         <v>197</v>
       </c>
       <c r="H324" s="20">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I324" s="20">
         <v>3</v>
@@ -15746,7 +15747,7 @@
         <v>217</v>
       </c>
       <c r="H325" s="20">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I325" s="20">
         <v>3</v>
@@ -15799,7 +15800,7 @@
         <v>238</v>
       </c>
       <c r="H326" s="20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I326" s="20">
         <v>3</v>
@@ -15852,7 +15853,7 @@
         <v>262</v>
       </c>
       <c r="H327" s="20">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I327" s="20">
         <v>3</v>
@@ -15905,7 +15906,7 @@
         <v>288</v>
       </c>
       <c r="H328" s="20">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I328" s="20">
         <v>3</v>
@@ -15958,7 +15959,7 @@
         <v>317</v>
       </c>
       <c r="H329" s="20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I329" s="20">
         <v>4</v>
@@ -16011,7 +16012,7 @@
         <v>349</v>
       </c>
       <c r="H330" s="20">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I330" s="20">
         <v>4</v>
@@ -16064,7 +16065,7 @@
         <v>384</v>
       </c>
       <c r="H331" s="20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I331" s="20">
         <v>4</v>
@@ -16117,7 +16118,7 @@
         <v>422</v>
       </c>
       <c r="H332" s="20">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I332" s="20">
         <v>4</v>
@@ -16170,7 +16171,7 @@
         <v>465</v>
       </c>
       <c r="H333" s="20">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I333" s="20">
         <v>4</v>
@@ -16223,7 +16224,7 @@
         <v>511</v>
       </c>
       <c r="H334" s="20">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I334" s="20">
         <v>5</v>
@@ -16276,7 +16277,7 @@
         <v>562</v>
       </c>
       <c r="H335" s="20">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I335" s="20">
         <v>5</v>
@@ -16329,7 +16330,7 @@
         <v>618</v>
       </c>
       <c r="H336" s="20">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I336" s="20">
         <v>5</v>
@@ -16382,7 +16383,7 @@
         <v>680</v>
       </c>
       <c r="H337" s="20">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I337" s="20">
         <v>5</v>
@@ -16435,7 +16436,7 @@
         <v>748</v>
       </c>
       <c r="H338" s="20">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I338" s="20">
         <v>6</v>
@@ -16488,7 +16489,7 @@
         <v>823</v>
       </c>
       <c r="H339" s="20">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I339" s="20">
         <v>6</v>
@@ -16541,7 +16542,7 @@
         <v>905</v>
       </c>
       <c r="H340" s="20">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I340" s="20">
         <v>6</v>
@@ -16594,7 +16595,7 @@
         <v>996</v>
       </c>
       <c r="H341" s="20">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I341" s="20">
         <v>7</v>
@@ -16647,7 +16648,7 @@
         <v>1095</v>
       </c>
       <c r="H342" s="20">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I342" s="20">
         <v>7</v>
@@ -16700,7 +16701,7 @@
         <v>1205</v>
       </c>
       <c r="H343" s="20">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="I343" s="20">
         <v>7</v>
@@ -16753,7 +16754,7 @@
         <v>1325</v>
       </c>
       <c r="H344" s="20">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I344" s="20">
         <v>8</v>
@@ -16806,7 +16807,7 @@
         <v>1458</v>
       </c>
       <c r="H345" s="20">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I345" s="20">
         <v>8</v>
@@ -16859,7 +16860,7 @@
         <v>1604</v>
       </c>
       <c r="H346" s="20">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="I346" s="20">
         <v>8</v>
@@ -16912,7 +16913,7 @@
         <v>1764</v>
       </c>
       <c r="H347" s="20">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="I347" s="20">
         <v>9</v>
@@ -16965,7 +16966,7 @@
         <v>1940</v>
       </c>
       <c r="H348" s="20">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="I348" s="20">
         <v>9</v>
@@ -17018,7 +17019,7 @@
         <v>2134</v>
       </c>
       <c r="H349" s="20">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="I349" s="20">
         <v>10</v>
@@ -17071,7 +17072,7 @@
         <v>2348</v>
       </c>
       <c r="H350" s="20">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="I350" s="20">
         <v>10</v>
@@ -17124,7 +17125,7 @@
         <v>2583</v>
       </c>
       <c r="H351" s="20">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I351" s="20">
         <v>11</v>
@@ -17177,7 +17178,7 @@
         <v>2841</v>
       </c>
       <c r="H352" s="20">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="I352" s="20">
         <v>11</v>
@@ -17230,7 +17231,7 @@
         <v>3125</v>
       </c>
       <c r="H353" s="20">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="I353" s="20">
         <v>12</v>
@@ -17283,7 +17284,7 @@
         <v>3437</v>
       </c>
       <c r="H354" s="20">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="I354" s="20">
         <v>12</v>
@@ -17336,7 +17337,7 @@
         <v>3781</v>
       </c>
       <c r="H355" s="20">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="I355" s="20">
         <v>13</v>
@@ -17389,7 +17390,7 @@
         <v>4159</v>
       </c>
       <c r="H356" s="20">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="I356" s="20">
         <v>14</v>
@@ -17442,7 +17443,7 @@
         <v>4575</v>
       </c>
       <c r="H357" s="20">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="I357" s="20">
         <v>14</v>
@@ -17495,7 +17496,7 @@
         <v>5033</v>
       </c>
       <c r="H358" s="20">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="I358" s="20">
         <v>15</v>
@@ -17548,7 +17549,7 @@
         <v>5536</v>
       </c>
       <c r="H359" s="20">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="I359" s="20">
         <v>16</v>
@@ -17601,7 +17602,7 @@
         <v>6090</v>
       </c>
       <c r="H360" s="20">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="I360" s="20">
         <v>16</v>
@@ -17654,7 +17655,7 @@
         <v>6699</v>
       </c>
       <c r="H361" s="20">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="I361" s="20">
         <v>17</v>
@@ -17707,7 +17708,7 @@
         <v>7368</v>
       </c>
       <c r="H362" s="20">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="I362" s="20">
         <v>18</v>
@@ -17760,7 +17761,7 @@
         <v>8105</v>
       </c>
       <c r="H363" s="20">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="I363" s="20">
         <v>19</v>
@@ -17813,7 +17814,7 @@
         <v>8916</v>
       </c>
       <c r="H364" s="20">
-        <v>159</v>
+        <v>309</v>
       </c>
       <c r="I364" s="20">
         <v>20</v>
@@ -17866,7 +17867,7 @@
         <v>9807</v>
       </c>
       <c r="H365" s="20">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="I365" s="20">
         <v>21</v>
@@ -17919,7 +17920,7 @@
         <v>10788</v>
       </c>
       <c r="H366" s="20">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="I366" s="20">
         <v>22</v>
@@ -17972,7 +17973,7 @@
         <v>11867</v>
       </c>
       <c r="H367" s="20">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="I367" s="20">
         <v>23</v>
@@ -18025,7 +18026,7 @@
         <v>13054</v>
       </c>
       <c r="H368" s="20">
-        <v>193</v>
+        <v>390</v>
       </c>
       <c r="I368" s="20">
         <v>24</v>
@@ -18078,7 +18079,7 @@
         <v>14359</v>
       </c>
       <c r="H369" s="20">
-        <v>203</v>
+        <v>414</v>
       </c>
       <c r="I369" s="20">
         <v>25</v>
@@ -18131,7 +18132,7 @@
         <v>15795</v>
       </c>
       <c r="H370" s="20">
-        <v>213</v>
+        <v>438</v>
       </c>
       <c r="I370" s="20">
         <v>27</v>
@@ -18184,7 +18185,7 @@
         <v>17374</v>
       </c>
       <c r="H371" s="20">
-        <v>224</v>
+        <v>465</v>
       </c>
       <c r="I371" s="20">
         <v>28</v>
@@ -18237,7 +18238,7 @@
         <v>19112</v>
       </c>
       <c r="H372" s="20">
-        <v>235</v>
+        <v>493</v>
       </c>
       <c r="I372" s="20">
         <v>29</v>
@@ -18290,7 +18291,7 @@
         <v>21023</v>
       </c>
       <c r="H373" s="20">
-        <v>247</v>
+        <v>522</v>
       </c>
       <c r="I373" s="20">
         <v>31</v>
@@ -18343,7 +18344,7 @@
         <v>23125</v>
       </c>
       <c r="H374" s="20">
-        <v>259</v>
+        <v>553</v>
       </c>
       <c r="I374" s="20">
         <v>32</v>
@@ -18396,7 +18397,7 @@
         <v>25438</v>
       </c>
       <c r="H375" s="20">
-        <v>272</v>
+        <v>587</v>
       </c>
       <c r="I375" s="20">
         <v>34</v>
@@ -18449,7 +18450,7 @@
         <v>27982</v>
       </c>
       <c r="H376" s="20">
-        <v>285</v>
+        <v>622</v>
       </c>
       <c r="I376" s="20">
         <v>36</v>
@@ -18502,7 +18503,7 @@
         <v>30780</v>
       </c>
       <c r="H377" s="20">
-        <v>300</v>
+        <v>659</v>
       </c>
       <c r="I377" s="20">
         <v>38</v>
@@ -18555,7 +18556,7 @@
         <v>33858</v>
       </c>
       <c r="H378" s="20">
-        <v>315</v>
+        <v>699</v>
       </c>
       <c r="I378" s="20">
         <v>39</v>
@@ -18608,7 +18609,7 @@
         <v>37244</v>
       </c>
       <c r="H379" s="20">
-        <v>330</v>
+        <v>741</v>
       </c>
       <c r="I379" s="20">
         <v>41</v>
@@ -18661,7 +18662,7 @@
         <v>40968</v>
       </c>
       <c r="H380" s="20">
-        <v>347</v>
+        <v>785</v>
       </c>
       <c r="I380" s="20">
         <v>43</v>
@@ -18714,7 +18715,7 @@
         <v>45065</v>
       </c>
       <c r="H381" s="20">
-        <v>364</v>
+        <v>832</v>
       </c>
       <c r="I381" s="20">
         <v>46</v>
@@ -18767,7 +18768,7 @@
         <v>49571</v>
       </c>
       <c r="H382" s="20">
-        <v>382</v>
+        <v>882</v>
       </c>
       <c r="I382" s="20">
         <v>48</v>
@@ -18820,7 +18821,7 @@
         <v>54528</v>
       </c>
       <c r="H383" s="20">
-        <v>402</v>
+        <v>935</v>
       </c>
       <c r="I383" s="20">
         <v>50</v>
@@ -18873,7 +18874,7 @@
         <v>59981</v>
       </c>
       <c r="H384" s="20">
-        <v>422</v>
+        <v>991</v>
       </c>
       <c r="I384" s="20">
         <v>53</v>
@@ -18926,7 +18927,7 @@
         <v>65979</v>
       </c>
       <c r="H385" s="20">
-        <v>443</v>
+        <v>1051</v>
       </c>
       <c r="I385" s="20">
         <v>55</v>
@@ -18979,7 +18980,7 @@
         <v>72577</v>
       </c>
       <c r="H386" s="20">
-        <v>465</v>
+        <v>1114</v>
       </c>
       <c r="I386" s="20">
         <v>58</v>
@@ -19032,7 +19033,7 @@
         <v>79835</v>
       </c>
       <c r="H387" s="20">
-        <v>488</v>
+        <v>1180</v>
       </c>
       <c r="I387" s="20">
         <v>61</v>
@@ -19085,7 +19086,7 @@
         <v>87819</v>
       </c>
       <c r="H388" s="20">
-        <v>513</v>
+        <v>1251</v>
       </c>
       <c r="I388" s="20">
         <v>64</v>
@@ -19138,7 +19139,7 @@
         <v>96600</v>
       </c>
       <c r="H389" s="20">
-        <v>538</v>
+        <v>1326</v>
       </c>
       <c r="I389" s="20">
         <v>67</v>
@@ -19191,7 +19192,7 @@
         <v>106260</v>
       </c>
       <c r="H390" s="20">
-        <v>565</v>
+        <v>1406</v>
       </c>
       <c r="I390" s="20">
         <v>71</v>
@@ -19244,7 +19245,7 @@
         <v>116886</v>
       </c>
       <c r="H391" s="20">
-        <v>593</v>
+        <v>1490</v>
       </c>
       <c r="I391" s="20">
         <v>74</v>
@@ -19297,7 +19298,7 @@
         <v>128575</v>
       </c>
       <c r="H392" s="20">
-        <v>623</v>
+        <v>1580</v>
       </c>
       <c r="I392" s="20">
         <v>78</v>
@@ -19350,7 +19351,7 @@
         <v>141433</v>
       </c>
       <c r="H393" s="20">
-        <v>654</v>
+        <v>1674</v>
       </c>
       <c r="I393" s="20">
         <v>82</v>
@@ -19403,7 +19404,7 @@
         <v>155576</v>
       </c>
       <c r="H394" s="20">
-        <v>687</v>
+        <v>1775</v>
       </c>
       <c r="I394" s="20">
         <v>86</v>
@@ -19456,7 +19457,7 @@
         <v>171134</v>
       </c>
       <c r="H395" s="20">
-        <v>721</v>
+        <v>1881</v>
       </c>
       <c r="I395" s="20">
         <v>90</v>
@@ -19509,7 +19510,7 @@
         <v>188247</v>
       </c>
       <c r="H396" s="20">
-        <v>757</v>
+        <v>1994</v>
       </c>
       <c r="I396" s="20">
         <v>95</v>
@@ -19562,7 +19563,7 @@
         <v>207072</v>
       </c>
       <c r="H397" s="20">
-        <v>795</v>
+        <v>2114</v>
       </c>
       <c r="I397" s="20">
         <v>99</v>
@@ -19615,7 +19616,7 @@
         <v>227779</v>
       </c>
       <c r="H398" s="24">
-        <v>835</v>
+        <v>2241</v>
       </c>
       <c r="I398" s="24">
         <v>104</v>
@@ -19668,7 +19669,7 @@
         <v>100</v>
       </c>
       <c r="H399" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I399" s="19">
         <v>2</v>
@@ -19774,7 +19775,7 @@
         <v>121</v>
       </c>
       <c r="H401" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I401" s="20">
         <v>2</v>
@@ -19827,7 +19828,7 @@
         <v>133</v>
       </c>
       <c r="H402" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I402" s="20">
         <v>2</v>
@@ -19880,7 +19881,7 @@
         <v>146</v>
       </c>
       <c r="H403" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I403" s="20">
         <v>2</v>
@@ -19933,7 +19934,7 @@
         <v>161</v>
       </c>
       <c r="H404" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I404" s="20">
         <v>2</v>
@@ -19986,7 +19987,7 @@
         <v>177</v>
       </c>
       <c r="H405" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I405" s="20">
         <v>2</v>
@@ -20039,7 +20040,7 @@
         <v>195</v>
       </c>
       <c r="H406" s="20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I406" s="20">
         <v>2</v>
@@ -20092,7 +20093,7 @@
         <v>214</v>
       </c>
       <c r="H407" s="20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I407" s="20">
         <v>2</v>
@@ -20145,7 +20146,7 @@
         <v>236</v>
       </c>
       <c r="H408" s="20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I408" s="20">
         <v>2</v>
@@ -20198,7 +20199,7 @@
         <v>259</v>
       </c>
       <c r="H409" s="20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I409" s="21">
         <v>3</v>
@@ -20251,7 +20252,7 @@
         <v>285</v>
       </c>
       <c r="H410" s="20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I410" s="20">
         <v>3</v>
@@ -20304,7 +20305,7 @@
         <v>314</v>
       </c>
       <c r="H411" s="20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I411" s="20">
         <v>3</v>
@@ -20357,7 +20358,7 @@
         <v>345</v>
       </c>
       <c r="H412" s="20">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I412" s="20">
         <v>3</v>
@@ -20410,7 +20411,7 @@
         <v>380</v>
       </c>
       <c r="H413" s="20">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I413" s="20">
         <v>3</v>
@@ -20463,7 +20464,7 @@
         <v>418</v>
       </c>
       <c r="H414" s="20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I414" s="20">
         <v>3</v>
@@ -20516,7 +20517,7 @@
         <v>459</v>
       </c>
       <c r="H415" s="20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I415" s="20">
         <v>3</v>
@@ -20569,7 +20570,7 @@
         <v>505</v>
       </c>
       <c r="H416" s="20">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I416" s="20">
         <v>4</v>
@@ -20622,7 +20623,7 @@
         <v>556</v>
       </c>
       <c r="H417" s="20">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I417" s="20">
         <v>4</v>
@@ -20675,7 +20676,7 @@
         <v>612</v>
       </c>
       <c r="H418" s="20">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I418" s="20">
         <v>4</v>
@@ -20728,7 +20729,7 @@
         <v>673</v>
       </c>
       <c r="H419" s="20">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I419" s="20">
         <v>4</v>
@@ -20781,7 +20782,7 @@
         <v>740</v>
       </c>
       <c r="H420" s="20">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I420" s="20">
         <v>4</v>
@@ -20834,7 +20835,7 @@
         <v>814</v>
       </c>
       <c r="H421" s="20">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I421" s="20">
         <v>4</v>
@@ -20887,7 +20888,7 @@
         <v>895</v>
       </c>
       <c r="H422" s="20">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I422" s="20">
         <v>5</v>
@@ -20940,7 +20941,7 @@
         <v>985</v>
       </c>
       <c r="H423" s="20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I423" s="20">
         <v>5</v>
@@ -20993,7 +20994,7 @@
         <v>1083</v>
       </c>
       <c r="H424" s="20">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I424" s="20">
         <v>5</v>
@@ -21046,7 +21047,7 @@
         <v>1192</v>
       </c>
       <c r="H425" s="20">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I425" s="20">
         <v>5</v>
@@ -21099,7 +21100,7 @@
         <v>1311</v>
       </c>
       <c r="H426" s="20">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I426" s="20">
         <v>6</v>
@@ -21152,7 +21153,7 @@
         <v>1442</v>
       </c>
       <c r="H427" s="20">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I427" s="20">
         <v>6</v>
@@ -21205,7 +21206,7 @@
         <v>1586</v>
       </c>
       <c r="H428" s="20">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I428" s="20">
         <v>6</v>
@@ -21258,7 +21259,7 @@
         <v>1745</v>
       </c>
       <c r="H429" s="20">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I429" s="20">
         <v>7</v>
@@ -21311,7 +21312,7 @@
         <v>1919</v>
       </c>
       <c r="H430" s="20">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I430" s="20">
         <v>7</v>
@@ -21364,7 +21365,7 @@
         <v>2111</v>
       </c>
       <c r="H431" s="20">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I431" s="20">
         <v>7</v>
@@ -21417,7 +21418,7 @@
         <v>2323</v>
       </c>
       <c r="H432" s="20">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I432" s="20">
         <v>8</v>
@@ -21470,7 +21471,7 @@
         <v>2555</v>
       </c>
       <c r="H433" s="20">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="I433" s="20">
         <v>8</v>
@@ -21523,7 +21524,7 @@
         <v>2810</v>
       </c>
       <c r="H434" s="20">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="I434" s="20">
         <v>8</v>
@@ -21576,7 +21577,7 @@
         <v>3091</v>
       </c>
       <c r="H435" s="20">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I435" s="20">
         <v>9</v>
@@ -21629,7 +21630,7 @@
         <v>3400</v>
       </c>
       <c r="H436" s="20">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I436" s="20">
         <v>9</v>
@@ -21682,7 +21683,7 @@
         <v>3740</v>
       </c>
       <c r="H437" s="20">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I437" s="20">
         <v>10</v>
@@ -21735,7 +21736,7 @@
         <v>4114</v>
       </c>
       <c r="H438" s="20">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I438" s="20">
         <v>10</v>
@@ -21788,7 +21789,7 @@
         <v>4526</v>
       </c>
       <c r="H439" s="20">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="I439" s="20">
         <v>11</v>
@@ -21841,7 +21842,7 @@
         <v>4979</v>
       </c>
       <c r="H440" s="20">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="I440" s="20">
         <v>11</v>
@@ -21894,7 +21895,7 @@
         <v>5476</v>
       </c>
       <c r="H441" s="20">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="I441" s="20">
         <v>12</v>
@@ -21947,7 +21948,7 @@
         <v>6024</v>
       </c>
       <c r="H442" s="20">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="I442" s="20">
         <v>12</v>
@@ -22000,7 +22001,7 @@
         <v>6626</v>
       </c>
       <c r="H443" s="20">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="I443" s="20">
         <v>13</v>
@@ -22053,7 +22054,7 @@
         <v>7289</v>
       </c>
       <c r="H444" s="20">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="I444" s="20">
         <v>14</v>
@@ -22106,7 +22107,7 @@
         <v>8018</v>
       </c>
       <c r="H445" s="20">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="I445" s="20">
         <v>14</v>
@@ -22159,7 +22160,7 @@
         <v>8820</v>
       </c>
       <c r="H446" s="20">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="I446" s="20">
         <v>15</v>
@@ -22212,7 +22213,7 @@
         <v>9702</v>
       </c>
       <c r="H447" s="20">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="I447" s="20">
         <v>16</v>
@@ -22265,7 +22266,7 @@
         <v>10672</v>
       </c>
       <c r="H448" s="20">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="I448" s="20">
         <v>16</v>
@@ -22318,7 +22319,7 @@
         <v>11739</v>
       </c>
       <c r="H449" s="20">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="I449" s="20">
         <v>17</v>
@@ -22371,7 +22372,7 @@
         <v>12913</v>
       </c>
       <c r="H450" s="20">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="I450" s="20">
         <v>18</v>
@@ -22424,7 +22425,7 @@
         <v>14204</v>
       </c>
       <c r="H451" s="20">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="I451" s="20">
         <v>19</v>
@@ -22477,7 +22478,7 @@
         <v>15625</v>
       </c>
       <c r="H452" s="20">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="I452" s="20">
         <v>20</v>
@@ -22530,7 +22531,7 @@
         <v>17187</v>
       </c>
       <c r="H453" s="20">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="I453" s="20">
         <v>21</v>
@@ -22583,7 +22584,7 @@
         <v>18906</v>
       </c>
       <c r="H454" s="20">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="I454" s="20">
         <v>22</v>
@@ -22636,7 +22637,7 @@
         <v>20797</v>
       </c>
       <c r="H455" s="20">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="I455" s="20">
         <v>23</v>
@@ -22689,7 +22690,7 @@
         <v>22876</v>
       </c>
       <c r="H456" s="20">
-        <v>194</v>
+        <v>352</v>
       </c>
       <c r="I456" s="20">
         <v>24</v>
@@ -22742,7 +22743,7 @@
         <v>25164</v>
       </c>
       <c r="H457" s="20">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="I457" s="20">
         <v>25</v>
@@ -22795,7 +22796,7 @@
         <v>27680</v>
       </c>
       <c r="H458" s="20">
-        <v>213</v>
+        <v>396</v>
       </c>
       <c r="I458" s="20">
         <v>27</v>
@@ -22848,7 +22849,7 @@
         <v>30448</v>
       </c>
       <c r="H459" s="20">
-        <v>224</v>
+        <v>420</v>
       </c>
       <c r="I459" s="20">
         <v>28</v>
@@ -22901,7 +22902,7 @@
         <v>33493</v>
       </c>
       <c r="H460" s="20">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="I460" s="20">
         <v>29</v>
@@ -22954,7 +22955,7 @@
         <v>36842</v>
       </c>
       <c r="H461" s="20">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="I461" s="20">
         <v>31</v>
@@ -23007,7 +23008,7 @@
         <v>40527</v>
       </c>
       <c r="H462" s="20">
-        <v>259</v>
+        <v>500</v>
       </c>
       <c r="I462" s="20">
         <v>32</v>
@@ -23060,7 +23061,7 @@
         <v>44579</v>
       </c>
       <c r="H463" s="20">
-        <v>272</v>
+        <v>530</v>
       </c>
       <c r="I463" s="20">
         <v>34</v>
@@ -23113,7 +23114,7 @@
         <v>49037</v>
       </c>
       <c r="H464" s="20">
-        <v>286</v>
+        <v>562</v>
       </c>
       <c r="I464" s="20">
         <v>36</v>
@@ -23166,7 +23167,7 @@
         <v>53941</v>
       </c>
       <c r="H465" s="20">
-        <v>300</v>
+        <v>595</v>
       </c>
       <c r="I465" s="20">
         <v>38</v>
@@ -23219,7 +23220,7 @@
         <v>59335</v>
       </c>
       <c r="H466" s="20">
-        <v>315</v>
+        <v>631</v>
       </c>
       <c r="I466" s="20">
         <v>39</v>
@@ -23272,7 +23273,7 @@
         <v>65268</v>
       </c>
       <c r="H467" s="20">
-        <v>331</v>
+        <v>669</v>
       </c>
       <c r="I467" s="20">
         <v>41</v>
@@ -23325,7 +23326,7 @@
         <v>71795</v>
       </c>
       <c r="H468" s="20">
-        <v>348</v>
+        <v>709</v>
       </c>
       <c r="I468" s="20">
         <v>44</v>
@@ -23378,7 +23379,7 @@
         <v>78975</v>
       </c>
       <c r="H469" s="20">
-        <v>365</v>
+        <v>751</v>
       </c>
       <c r="I469" s="20">
         <v>46</v>
@@ -23431,7 +23432,7 @@
         <v>86872</v>
       </c>
       <c r="H470" s="20">
-        <v>383</v>
+        <v>797</v>
       </c>
       <c r="I470" s="20">
         <v>48</v>
@@ -23484,7 +23485,7 @@
         <v>95559</v>
       </c>
       <c r="H471" s="20">
-        <v>403</v>
+        <v>844</v>
       </c>
       <c r="I471" s="20">
         <v>50</v>
@@ -23537,7 +23538,7 @@
         <v>105115</v>
       </c>
       <c r="H472" s="20">
-        <v>423</v>
+        <v>895</v>
       </c>
       <c r="I472" s="20">
         <v>53</v>
@@ -23590,7 +23591,7 @@
         <v>115627</v>
       </c>
       <c r="H473" s="20">
-        <v>444</v>
+        <v>949</v>
       </c>
       <c r="I473" s="20">
         <v>56</v>
@@ -23643,7 +23644,7 @@
         <v>127190</v>
       </c>
       <c r="H474" s="20">
-        <v>466</v>
+        <v>1006</v>
       </c>
       <c r="I474" s="20">
         <v>58</v>
@@ -23696,7 +23697,7 @@
         <v>139908</v>
       </c>
       <c r="H475" s="20">
-        <v>489</v>
+        <v>1066</v>
       </c>
       <c r="I475" s="20">
         <v>61</v>
@@ -23749,7 +23750,7 @@
         <v>153899</v>
       </c>
       <c r="H476" s="20">
-        <v>514</v>
+        <v>1130</v>
       </c>
       <c r="I476" s="20">
         <v>64</v>
@@ -23802,7 +23803,7 @@
         <v>169289</v>
       </c>
       <c r="H477" s="20">
-        <v>539</v>
+        <v>1198</v>
       </c>
       <c r="I477" s="20">
         <v>67</v>
@@ -23855,7 +23856,7 @@
         <v>186218</v>
       </c>
       <c r="H478" s="20">
-        <v>566</v>
+        <v>1270</v>
       </c>
       <c r="I478" s="20">
         <v>71</v>
@@ -23908,7 +23909,7 @@
         <v>204840</v>
       </c>
       <c r="H479" s="20">
-        <v>595</v>
+        <v>1346</v>
       </c>
       <c r="I479" s="20">
         <v>74</v>
@@ -23961,7 +23962,7 @@
         <v>225324</v>
       </c>
       <c r="H480" s="20">
-        <v>624</v>
+        <v>1426</v>
       </c>
       <c r="I480" s="20">
         <v>78</v>
@@ -24014,7 +24015,7 @@
         <v>247856</v>
       </c>
       <c r="H481" s="20">
-        <v>656</v>
+        <v>1512</v>
       </c>
       <c r="I481" s="20">
         <v>82</v>
@@ -24067,7 +24068,7 @@
         <v>272642</v>
       </c>
       <c r="H482" s="20">
-        <v>688</v>
+        <v>1603</v>
       </c>
       <c r="I482" s="20">
         <v>86</v>
@@ -24120,7 +24121,7 @@
         <v>299906</v>
       </c>
       <c r="H483" s="20">
-        <v>723</v>
+        <v>1699</v>
       </c>
       <c r="I483" s="20">
         <v>90</v>
@@ -24173,7 +24174,7 @@
         <v>329897</v>
       </c>
       <c r="H484" s="20">
-        <v>759</v>
+        <v>1801</v>
       </c>
       <c r="I484" s="20">
         <v>95</v>
@@ -24226,7 +24227,7 @@
         <v>362887</v>
       </c>
       <c r="H485" s="20">
-        <v>797</v>
+        <v>1909</v>
       </c>
       <c r="I485" s="20">
         <v>100</v>
@@ -24279,7 +24280,7 @@
         <v>399175</v>
       </c>
       <c r="H486" s="20">
-        <v>837</v>
+        <v>2023</v>
       </c>
       <c r="I486" s="20">
         <v>105</v>
@@ -24332,7 +24333,7 @@
         <v>439093</v>
       </c>
       <c r="H487" s="20">
-        <v>879</v>
+        <v>2145</v>
       </c>
       <c r="I487" s="20">
         <v>110</v>
@@ -24385,7 +24386,7 @@
         <v>483002</v>
       </c>
       <c r="H488" s="20">
-        <v>923</v>
+        <v>2274</v>
       </c>
       <c r="I488" s="20">
         <v>115</v>
@@ -24438,7 +24439,7 @@
         <v>531302</v>
       </c>
       <c r="H489" s="20">
-        <v>969</v>
+        <v>2410</v>
       </c>
       <c r="I489" s="20">
         <v>121</v>
@@ -24491,7 +24492,7 @@
         <v>584432</v>
       </c>
       <c r="H490" s="20">
-        <v>1017</v>
+        <v>2555</v>
       </c>
       <c r="I490" s="20">
         <v>127</v>
@@ -24544,7 +24545,7 @@
         <v>642876</v>
       </c>
       <c r="H491" s="20">
-        <v>1068</v>
+        <v>2708</v>
       </c>
       <c r="I491" s="20">
         <v>134</v>
@@ -24597,7 +24598,7 @@
         <v>707163</v>
       </c>
       <c r="H492" s="20">
-        <v>1121</v>
+        <v>2870</v>
       </c>
       <c r="I492" s="20">
         <v>140</v>
@@ -24650,7 +24651,7 @@
         <v>777880</v>
       </c>
       <c r="H493" s="20">
-        <v>1178</v>
+        <v>3043</v>
       </c>
       <c r="I493" s="20">
         <v>147</v>
@@ -24703,7 +24704,7 @@
         <v>855668</v>
       </c>
       <c r="H494" s="20">
-        <v>1236</v>
+        <v>3225</v>
       </c>
       <c r="I494" s="20">
         <v>155</v>
@@ -24756,7 +24757,7 @@
         <v>941234</v>
       </c>
       <c r="H495" s="20">
-        <v>1298</v>
+        <v>3419</v>
       </c>
       <c r="I495" s="20">
         <v>162</v>
@@ -24809,7 +24810,7 @@
         <v>1035358</v>
       </c>
       <c r="H496" s="20">
-        <v>1363</v>
+        <v>3624</v>
       </c>
       <c r="I496" s="20">
         <v>170</v>
@@ -24862,7 +24863,7 @@
         <v>1138894</v>
       </c>
       <c r="H497" s="24">
-        <v>1431</v>
+        <v>3841</v>
       </c>
       <c r="I497" s="24">
         <v>179</v>
@@ -24915,7 +24916,7 @@
         <v>70</v>
       </c>
       <c r="H498">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -24968,7 +24969,7 @@
         <v>77</v>
       </c>
       <c r="H499">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -25021,7 +25022,7 @@
         <v>85</v>
       </c>
       <c r="H500">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I500">
         <v>1</v>
@@ -25074,7 +25075,7 @@
         <v>93</v>
       </c>
       <c r="H501">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I501">
         <v>1</v>
@@ -25127,7 +25128,7 @@
         <v>102</v>
       </c>
       <c r="H502">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I502">
         <v>1</v>
@@ -25180,7 +25181,7 @@
         <v>113</v>
       </c>
       <c r="H503">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I503">
         <v>1</v>
@@ -25233,7 +25234,7 @@
         <v>124</v>
       </c>
       <c r="H504">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I504">
         <v>1</v>
@@ -25286,7 +25287,7 @@
         <v>136</v>
       </c>
       <c r="H505">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I505">
         <v>1</v>
@@ -25339,7 +25340,7 @@
         <v>150</v>
       </c>
       <c r="H506">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I506">
         <v>1</v>
@@ -25392,7 +25393,7 @@
         <v>165</v>
       </c>
       <c r="H507">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I507">
         <v>1</v>
@@ -25445,7 +25446,7 @@
         <v>182</v>
       </c>
       <c r="H508">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -25498,7 +25499,7 @@
         <v>200</v>
       </c>
       <c r="H509">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I509">
         <v>1</v>
@@ -25551,7 +25552,7 @@
         <v>220</v>
       </c>
       <c r="H510">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I510">
         <v>1</v>
@@ -25604,7 +25605,7 @@
         <v>242</v>
       </c>
       <c r="H511">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I511">
         <v>1</v>
@@ -25657,7 +25658,7 @@
         <v>266</v>
       </c>
       <c r="H512">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -25710,7 +25711,7 @@
         <v>292</v>
       </c>
       <c r="H513">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I513">
         <v>1</v>
@@ -25763,7 +25764,7 @@
         <v>322</v>
       </c>
       <c r="H514">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I514">
         <v>1</v>
@@ -25816,7 +25817,7 @@
         <v>354</v>
       </c>
       <c r="H515">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I515">
         <v>1</v>
@@ -25869,7 +25870,7 @@
         <v>389</v>
       </c>
       <c r="H516">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -25922,7 +25923,7 @@
         <v>428</v>
       </c>
       <c r="H517">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I517">
         <v>1</v>
@@ -25975,7 +25976,7 @@
         <v>471</v>
       </c>
       <c r="H518">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I518">
         <v>1</v>
@@ -26028,7 +26029,7 @@
         <v>518</v>
       </c>
       <c r="H519">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="I519">
         <v>1</v>
@@ -26081,7 +26082,7 @@
         <v>570</v>
       </c>
       <c r="H520">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -26134,7 +26135,7 @@
         <v>627</v>
       </c>
       <c r="H521">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I521">
         <v>2</v>
@@ -26187,7 +26188,7 @@
         <v>689</v>
       </c>
       <c r="H522">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="I522">
         <v>2</v>
@@ -26240,7 +26241,7 @@
         <v>758</v>
       </c>
       <c r="H523">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -26293,7 +26294,7 @@
         <v>834</v>
       </c>
       <c r="H524">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -26346,7 +26347,7 @@
         <v>918</v>
       </c>
       <c r="H525">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="I525">
         <v>2</v>
@@ -26399,7 +26400,7 @@
         <v>1009</v>
       </c>
       <c r="H526">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="I526">
         <v>2</v>
@@ -26452,7 +26453,7 @@
         <v>1110</v>
       </c>
       <c r="H527">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -26505,7 +26506,7 @@
         <v>1221</v>
       </c>
       <c r="H528">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="I528">
         <v>2</v>
@@ -26558,7 +26559,7 @@
         <v>1344</v>
       </c>
       <c r="H529">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -26611,7 +26612,7 @@
         <v>1478</v>
       </c>
       <c r="H530">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="I530">
         <v>2</v>
@@ -26664,7 +26665,7 @@
         <v>1626</v>
       </c>
       <c r="H531">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="I531">
         <v>3</v>
@@ -26717,7 +26718,7 @@
         <v>1788</v>
       </c>
       <c r="H532">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="I532">
         <v>3</v>
@@ -26770,7 +26771,7 @@
         <v>1967</v>
       </c>
       <c r="H533">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="I533">
         <v>3</v>
@@ -26823,7 +26824,7 @@
         <v>2164</v>
       </c>
       <c r="H534">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="I534">
         <v>3</v>
@@ -26876,7 +26877,7 @@
         <v>2380</v>
       </c>
       <c r="H535">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="I535">
         <v>3</v>
@@ -26929,7 +26930,7 @@
         <v>2618</v>
       </c>
       <c r="H536">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="I536">
         <v>3</v>
@@ -26982,7 +26983,7 @@
         <v>2880</v>
       </c>
       <c r="H537">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="I537">
         <v>3</v>
@@ -27035,7 +27036,7 @@
         <v>3168</v>
       </c>
       <c r="H538">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="I538">
         <v>4</v>
@@ -27088,7 +27089,7 @@
         <v>3485</v>
       </c>
       <c r="H539">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="I539">
         <v>4</v>
@@ -27141,7 +27142,7 @@
         <v>3833</v>
       </c>
       <c r="H540">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="I540">
         <v>4</v>
@@ -27194,7 +27195,7 @@
         <v>4217</v>
       </c>
       <c r="H541">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -27247,7 +27248,7 @@
         <v>4638</v>
       </c>
       <c r="H542">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -27300,7 +27301,7 @@
         <v>5102</v>
       </c>
       <c r="H543">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="I543">
         <v>5</v>
@@ -27353,7 +27354,7 @@
         <v>5613</v>
       </c>
       <c r="H544">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="I544">
         <v>5</v>
@@ -27406,7 +27407,7 @@
         <v>6174</v>
       </c>
       <c r="H545">
-        <v>238</v>
+        <v>393</v>
       </c>
       <c r="I545">
         <v>5</v>
@@ -27459,7 +27460,7 @@
         <v>6791</v>
       </c>
       <c r="H546">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="I546">
         <v>5</v>
@@ -27512,7 +27513,7 @@
         <v>7470</v>
       </c>
       <c r="H547">
-        <v>262</v>
+        <v>442</v>
       </c>
       <c r="I547">
         <v>6</v>
@@ -27565,7 +27566,7 @@
         <v>8217</v>
       </c>
       <c r="H548">
-        <v>275</v>
+        <v>469</v>
       </c>
       <c r="I548">
         <v>6</v>
@@ -27618,7 +27619,7 @@
         <v>9039</v>
       </c>
       <c r="H549">
-        <v>289</v>
+        <v>497</v>
       </c>
       <c r="I549">
         <v>6</v>
@@ -27671,7 +27672,7 @@
         <v>9943</v>
       </c>
       <c r="H550">
-        <v>303</v>
+        <v>527</v>
       </c>
       <c r="I550">
         <v>6</v>
@@ -27724,7 +27725,7 @@
         <v>10937</v>
       </c>
       <c r="H551">
-        <v>318</v>
+        <v>558</v>
       </c>
       <c r="I551">
         <v>7</v>
@@ -27777,7 +27778,7 @@
         <v>12031</v>
       </c>
       <c r="H552">
-        <v>334</v>
+        <v>592</v>
       </c>
       <c r="I552">
         <v>7</v>
@@ -27830,7 +27831,7 @@
         <v>13234</v>
       </c>
       <c r="H553">
-        <v>351</v>
+        <v>627</v>
       </c>
       <c r="I553">
         <v>7</v>
@@ -27883,7 +27884,7 @@
         <v>14558</v>
       </c>
       <c r="H554">
-        <v>369</v>
+        <v>665</v>
       </c>
       <c r="I554">
         <v>8</v>
@@ -27936,7 +27937,7 @@
         <v>16013</v>
       </c>
       <c r="H555">
-        <v>387</v>
+        <v>705</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -27989,7 +27990,7 @@
         <v>17615</v>
       </c>
       <c r="H556">
-        <v>406</v>
+        <v>747</v>
       </c>
       <c r="I556">
         <v>9</v>
@@ -28042,7 +28043,7 @@
         <v>19376</v>
       </c>
       <c r="H557">
-        <v>427</v>
+        <v>792</v>
       </c>
       <c r="I557">
         <v>9</v>
@@ -28095,7 +28096,7 @@
         <v>21314</v>
       </c>
       <c r="H558">
-        <v>448</v>
+        <v>839</v>
       </c>
       <c r="I558">
         <v>9</v>
@@ -28148,7 +28149,7 @@
         <v>23445</v>
       </c>
       <c r="H559">
-        <v>470</v>
+        <v>890</v>
       </c>
       <c r="I559">
         <v>10</v>
@@ -28201,7 +28202,7 @@
         <v>25790</v>
       </c>
       <c r="H560">
-        <v>494</v>
+        <v>943</v>
       </c>
       <c r="I560">
         <v>10</v>
@@ -28254,7 +28255,7 @@
         <v>28369</v>
       </c>
       <c r="H561">
-        <v>519</v>
+        <v>1000</v>
       </c>
       <c r="I561">
         <v>11</v>
@@ -28307,7 +28308,7 @@
         <v>31205</v>
       </c>
       <c r="H562">
-        <v>545</v>
+        <v>1059</v>
       </c>
       <c r="I562">
         <v>11</v>
@@ -28360,7 +28361,7 @@
         <v>34326</v>
       </c>
       <c r="H563">
-        <v>572</v>
+        <v>1123</v>
       </c>
       <c r="I563">
         <v>12</v>
@@ -28413,7 +28414,7 @@
         <v>37759</v>
       </c>
       <c r="H564">
-        <v>601</v>
+        <v>1190</v>
       </c>
       <c r="I564">
         <v>13</v>
@@ -28466,7 +28467,7 @@
         <v>41534</v>
       </c>
       <c r="H565">
-        <v>631</v>
+        <v>1262</v>
       </c>
       <c r="I565">
         <v>13</v>
@@ -28519,7 +28520,7 @@
         <v>45688</v>
       </c>
       <c r="H566">
-        <v>662</v>
+        <v>1338</v>
       </c>
       <c r="I566">
         <v>14</v>
@@ -28572,7 +28573,7 @@
         <v>50257</v>
       </c>
       <c r="H567">
-        <v>695</v>
+        <v>1418</v>
       </c>
       <c r="I567">
         <v>15</v>
@@ -28625,7 +28626,7 @@
         <v>55282</v>
       </c>
       <c r="H568">
-        <v>730</v>
+        <v>1503</v>
       </c>
       <c r="I568">
         <v>15</v>
@@ -28678,7 +28679,7 @@
         <v>60811</v>
       </c>
       <c r="H569">
-        <v>766</v>
+        <v>1593</v>
       </c>
       <c r="I569">
         <v>16</v>
@@ -28731,7 +28732,7 @@
         <v>66892</v>
       </c>
       <c r="H570">
-        <v>805</v>
+        <v>1689</v>
       </c>
       <c r="I570">
         <v>17</v>
@@ -28784,7 +28785,7 @@
         <v>73581</v>
       </c>
       <c r="H571">
-        <v>846</v>
+        <v>1790</v>
       </c>
       <c r="I571">
         <v>18</v>
@@ -28837,7 +28838,7 @@
         <v>80939</v>
       </c>
       <c r="H572">
-        <v>888</v>
+        <v>1897</v>
       </c>
       <c r="I572">
         <v>19</v>
@@ -28890,7 +28891,7 @@
         <v>89033</v>
       </c>
       <c r="H573">
-        <v>932</v>
+        <v>2011</v>
       </c>
       <c r="I573">
         <v>19</v>
@@ -28943,7 +28944,7 @@
         <v>97936</v>
       </c>
       <c r="H574">
-        <v>978</v>
+        <v>2132</v>
       </c>
       <c r="I574">
         <v>20</v>
@@ -28996,7 +28997,7 @@
         <v>107730</v>
       </c>
       <c r="H575">
-        <v>1027</v>
+        <v>2260</v>
       </c>
       <c r="I575">
         <v>21</v>
@@ -29049,7 +29050,7 @@
         <v>118502</v>
       </c>
       <c r="H576">
-        <v>1079</v>
+        <v>2395</v>
       </c>
       <c r="I576">
         <v>23</v>
@@ -29102,7 +29103,7 @@
         <v>130353</v>
       </c>
       <c r="H577">
-        <v>1133</v>
+        <v>2539</v>
       </c>
       <c r="I577">
         <v>24</v>
@@ -29155,7 +29156,7 @@
         <v>143388</v>
       </c>
       <c r="H578">
-        <v>1190</v>
+        <v>2691</v>
       </c>
       <c r="I578">
         <v>25</v>
@@ -29208,7 +29209,7 @@
         <v>157727</v>
       </c>
       <c r="H579">
-        <v>1249</v>
+        <v>2853</v>
       </c>
       <c r="I579">
         <v>26</v>
@@ -29261,7 +29262,7 @@
         <v>173499</v>
       </c>
       <c r="H580">
-        <v>1311</v>
+        <v>3024</v>
       </c>
       <c r="I580">
         <v>27</v>
@@ -29314,7 +29315,7 @@
         <v>190849</v>
       </c>
       <c r="H581">
-        <v>1377</v>
+        <v>3206</v>
       </c>
       <c r="I581">
         <v>29</v>
@@ -29367,7 +29368,7 @@
         <v>209934</v>
       </c>
       <c r="H582">
-        <v>1446</v>
+        <v>3398</v>
       </c>
       <c r="I582">
         <v>30</v>
@@ -29420,7 +29421,7 @@
         <v>230928</v>
       </c>
       <c r="H583">
-        <v>1518</v>
+        <v>3602</v>
       </c>
       <c r="I583">
         <v>32</v>
@@ -29473,7 +29474,7 @@
         <v>254021</v>
       </c>
       <c r="H584">
-        <v>1594</v>
+        <v>3818</v>
       </c>
       <c r="I584">
         <v>33</v>
@@ -29526,7 +29527,7 @@
         <v>279423</v>
       </c>
       <c r="H585">
-        <v>1674</v>
+        <v>4047</v>
       </c>
       <c r="I585">
         <v>35</v>
@@ -29579,7 +29580,7 @@
         <v>307365</v>
       </c>
       <c r="H586">
-        <v>1758</v>
+        <v>4290</v>
       </c>
       <c r="I586">
         <v>37</v>
@@ -29632,7 +29633,7 @@
         <v>338101</v>
       </c>
       <c r="H587">
-        <v>1846</v>
+        <v>4547</v>
       </c>
       <c r="I587">
         <v>39</v>
@@ -29685,7 +29686,7 @@
         <v>371912</v>
       </c>
       <c r="H588">
-        <v>1938</v>
+        <v>4820</v>
       </c>
       <c r="I588">
         <v>40</v>
@@ -29738,7 +29739,7 @@
         <v>409103</v>
       </c>
       <c r="H589">
-        <v>2034</v>
+        <v>5109</v>
       </c>
       <c r="I589">
         <v>42</v>
@@ -29791,7 +29792,7 @@
         <v>450013</v>
       </c>
       <c r="H590">
-        <v>2136</v>
+        <v>5416</v>
       </c>
       <c r="I590">
         <v>45</v>
@@ -29844,7 +29845,7 @@
         <v>495014</v>
       </c>
       <c r="H591">
-        <v>2243</v>
+        <v>5741</v>
       </c>
       <c r="I591">
         <v>47</v>
@@ -29897,7 +29898,7 @@
         <v>544516</v>
       </c>
       <c r="H592">
-        <v>2355</v>
+        <v>6085</v>
       </c>
       <c r="I592">
         <v>49</v>
@@ -29950,7 +29951,7 @@
         <v>598967</v>
       </c>
       <c r="H593">
-        <v>2473</v>
+        <v>6450</v>
       </c>
       <c r="I593">
         <v>52</v>
@@ -30003,7 +30004,7 @@
         <v>658864</v>
       </c>
       <c r="H594">
-        <v>2597</v>
+        <v>6837</v>
       </c>
       <c r="I594">
         <v>54</v>
@@ -30056,7 +30057,7 @@
         <v>724750</v>
       </c>
       <c r="H595">
-        <v>2726</v>
+        <v>7247</v>
       </c>
       <c r="I595">
         <v>57</v>
@@ -30109,7 +30110,7 @@
         <v>797226</v>
       </c>
       <c r="H596">
-        <v>2862</v>
+        <v>7682</v>
       </c>
       <c r="I596">
         <v>60</v>
@@ -30162,7 +30163,7 @@
         <v>80</v>
       </c>
       <c r="H597">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I597">
         <v>3</v>
@@ -30215,7 +30216,7 @@
         <v>88</v>
       </c>
       <c r="H598">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I598">
         <v>3</v>
@@ -30268,7 +30269,7 @@
         <v>97</v>
       </c>
       <c r="H599">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I599">
         <v>3</v>
@@ -30321,7 +30322,7 @@
         <v>106</v>
       </c>
       <c r="H600">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I600">
         <v>3</v>
@@ -30374,7 +30375,7 @@
         <v>117</v>
       </c>
       <c r="H601">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I601">
         <v>3</v>
@@ -30427,7 +30428,7 @@
         <v>129</v>
       </c>
       <c r="H602">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I602">
         <v>3</v>
@@ -30480,7 +30481,7 @@
         <v>142</v>
       </c>
       <c r="H603">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I603">
         <v>3</v>
@@ -30533,7 +30534,7 @@
         <v>156</v>
       </c>
       <c r="H604">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I604">
         <v>4</v>
@@ -30586,7 +30587,7 @@
         <v>171</v>
       </c>
       <c r="H605">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I605">
         <v>4</v>
@@ -30639,7 +30640,7 @@
         <v>189</v>
       </c>
       <c r="H606">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I606">
         <v>4</v>
@@ -30692,7 +30693,7 @@
         <v>207</v>
       </c>
       <c r="H607">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I607">
         <v>4</v>
@@ -30745,7 +30746,7 @@
         <v>228</v>
       </c>
       <c r="H608">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I608">
         <v>4</v>
@@ -30798,7 +30799,7 @@
         <v>251</v>
       </c>
       <c r="H609">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I609">
         <v>5</v>
@@ -30851,7 +30852,7 @@
         <v>276</v>
       </c>
       <c r="H610">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I610">
         <v>5</v>
@@ -30904,7 +30905,7 @@
         <v>304</v>
       </c>
       <c r="H611">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I611">
         <v>5</v>
@@ -30957,7 +30958,7 @@
         <v>334</v>
       </c>
       <c r="H612">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I612">
         <v>5</v>
@@ -31010,7 +31011,7 @@
         <v>368</v>
       </c>
       <c r="H613">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I613">
         <v>6</v>
@@ -31063,7 +31064,7 @@
         <v>404</v>
       </c>
       <c r="H614">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I614">
         <v>6</v>
@@ -31116,7 +31117,7 @@
         <v>445</v>
       </c>
       <c r="H615">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I615">
         <v>6</v>
@@ -31169,7 +31170,7 @@
         <v>489</v>
       </c>
       <c r="H616">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I616">
         <v>6</v>
@@ -31222,7 +31223,7 @@
         <v>538</v>
       </c>
       <c r="H617">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I617">
         <v>7</v>
@@ -31275,7 +31276,7 @@
         <v>592</v>
       </c>
       <c r="H618">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I618">
         <v>7</v>
@@ -31328,7 +31329,7 @@
         <v>651</v>
       </c>
       <c r="H619">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I619">
         <v>7</v>
@@ -31381,7 +31382,7 @@
         <v>716</v>
       </c>
       <c r="H620">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I620">
         <v>8</v>
@@ -31434,7 +31435,7 @@
         <v>788</v>
       </c>
       <c r="H621">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I621">
         <v>8</v>
@@ -31487,7 +31488,7 @@
         <v>867</v>
       </c>
       <c r="H622">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="I622">
         <v>9</v>
@@ -31540,7 +31541,7 @@
         <v>953</v>
       </c>
       <c r="H623">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="I623">
         <v>9</v>
@@ -31593,7 +31594,7 @@
         <v>1049</v>
       </c>
       <c r="H624">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="I624">
         <v>9</v>
@@ -31646,7 +31647,7 @@
         <v>1154</v>
       </c>
       <c r="H625">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="I625">
         <v>10</v>
@@ -31699,7 +31700,7 @@
         <v>1269</v>
       </c>
       <c r="H626">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I626">
         <v>10</v>
@@ -31752,7 +31753,7 @@
         <v>1396</v>
       </c>
       <c r="H627">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="I627">
         <v>11</v>
@@ -31805,7 +31806,7 @@
         <v>1536</v>
       </c>
       <c r="H628">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="I628">
         <v>11</v>
@@ -31858,7 +31859,7 @@
         <v>1689</v>
       </c>
       <c r="H629">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="I629">
         <v>12</v>
@@ -31911,7 +31912,7 @@
         <v>1858</v>
       </c>
       <c r="H630">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="I630">
         <v>13</v>
@@ -31964,7 +31965,7 @@
         <v>2044</v>
       </c>
       <c r="H631">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="I631">
         <v>13</v>
@@ -32017,7 +32018,7 @@
         <v>2248</v>
       </c>
       <c r="H632">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="I632">
         <v>14</v>
@@ -32070,7 +32071,7 @@
         <v>2473</v>
       </c>
       <c r="H633">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="I633">
         <v>15</v>
@@ -32123,7 +32124,7 @@
         <v>2720</v>
       </c>
       <c r="H634">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="I634">
         <v>15</v>
@@ -32176,7 +32177,7 @@
         <v>2992</v>
       </c>
       <c r="H635">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="I635">
         <v>16</v>
@@ -32229,7 +32230,7 @@
         <v>3292</v>
       </c>
       <c r="H636">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="I636">
         <v>17</v>
@@ -32282,7 +32283,7 @@
         <v>3621</v>
       </c>
       <c r="H637">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="I637">
         <v>18</v>
@@ -32335,7 +32336,7 @@
         <v>3983</v>
       </c>
       <c r="H638">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="I638">
         <v>19</v>
@@ -32388,7 +32389,7 @@
         <v>4381</v>
       </c>
       <c r="H639">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="I639">
         <v>19</v>
@@ -32441,7 +32442,7 @@
         <v>4819</v>
       </c>
       <c r="H640">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="I640">
         <v>20</v>
@@ -32494,7 +32495,7 @@
         <v>5301</v>
       </c>
       <c r="H641">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="I641">
         <v>21</v>
@@ -32547,7 +32548,7 @@
         <v>5831</v>
       </c>
       <c r="H642">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="I642">
         <v>23</v>
@@ -32600,7 +32601,7 @@
         <v>6414</v>
       </c>
       <c r="H643">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="I643">
         <v>24</v>
@@ -32653,7 +32654,7 @@
         <v>7056</v>
       </c>
       <c r="H644">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="I644">
         <v>25</v>
@@ -32706,7 +32707,7 @@
         <v>7761</v>
       </c>
       <c r="H645">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="I645">
         <v>26</v>
@@ -32759,7 +32760,7 @@
         <v>8538</v>
       </c>
       <c r="H646">
-        <v>273</v>
+        <v>461</v>
       </c>
       <c r="I646">
         <v>27</v>
@@ -32812,7 +32813,7 @@
         <v>9391</v>
       </c>
       <c r="H647">
-        <v>287</v>
+        <v>488</v>
       </c>
       <c r="I647">
         <v>29</v>
@@ -32865,7 +32866,7 @@
         <v>10330</v>
       </c>
       <c r="H648">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="I648">
         <v>30</v>
@@ -32918,7 +32919,7 @@
         <v>11363</v>
       </c>
       <c r="H649">
-        <v>316</v>
+        <v>548</v>
       </c>
       <c r="I649">
         <v>32</v>
@@ -32971,7 +32972,7 @@
         <v>12500</v>
       </c>
       <c r="H650">
-        <v>332</v>
+        <v>581</v>
       </c>
       <c r="I650">
         <v>33</v>
@@ -33024,7 +33025,7 @@
         <v>13750</v>
       </c>
       <c r="H651">
-        <v>348</v>
+        <v>616</v>
       </c>
       <c r="I651">
         <v>35</v>
@@ -33077,7 +33078,7 @@
         <v>15125</v>
       </c>
       <c r="H652">
-        <v>366</v>
+        <v>653</v>
       </c>
       <c r="I652">
         <v>37</v>
@@ -33130,7 +33131,7 @@
         <v>16637</v>
       </c>
       <c r="H653">
-        <v>384</v>
+        <v>692</v>
       </c>
       <c r="I653">
         <v>38</v>
@@ -33183,7 +33184,7 @@
         <v>18301</v>
       </c>
       <c r="H654">
-        <v>403</v>
+        <v>734</v>
       </c>
       <c r="I654">
         <v>40</v>
@@ -33236,7 +33237,7 @@
         <v>20131</v>
       </c>
       <c r="H655">
-        <v>424</v>
+        <v>778</v>
       </c>
       <c r="I655">
         <v>42</v>
@@ -33289,7 +33290,7 @@
         <v>22144</v>
       </c>
       <c r="H656">
-        <v>445</v>
+        <v>825</v>
       </c>
       <c r="I656">
         <v>45</v>
@@ -33342,7 +33343,7 @@
         <v>24359</v>
       </c>
       <c r="H657">
-        <v>467</v>
+        <v>874</v>
       </c>
       <c r="I657">
         <v>47</v>
@@ -33395,7 +33396,7 @@
         <v>26794</v>
       </c>
       <c r="H658">
-        <v>490</v>
+        <v>927</v>
       </c>
       <c r="I658">
         <v>49</v>
@@ -33448,7 +33449,7 @@
         <v>29474</v>
       </c>
       <c r="H659">
-        <v>515</v>
+        <v>982</v>
       </c>
       <c r="I659">
         <v>52</v>
@@ -33501,7 +33502,7 @@
         <v>32421</v>
       </c>
       <c r="H660">
-        <v>541</v>
+        <v>1041</v>
       </c>
       <c r="I660">
         <v>54</v>
@@ -33554,7 +33555,7 @@
         <v>35663</v>
       </c>
       <c r="H661">
-        <v>568</v>
+        <v>1104</v>
       </c>
       <c r="I661">
         <v>57</v>
@@ -33607,7 +33608,7 @@
         <v>39230</v>
       </c>
       <c r="H662">
-        <v>596</v>
+        <v>1170</v>
       </c>
       <c r="I662">
         <v>60</v>
@@ -33660,7 +33661,7 @@
         <v>43153</v>
       </c>
       <c r="H663">
-        <v>626</v>
+        <v>1240</v>
       </c>
       <c r="I663">
         <v>63</v>
@@ -33713,7 +33714,7 @@
         <v>47468</v>
       </c>
       <c r="H664">
-        <v>657</v>
+        <v>1314</v>
       </c>
       <c r="I664">
         <v>66</v>
@@ -33766,7 +33767,7 @@
         <v>52215</v>
       </c>
       <c r="H665">
-        <v>690</v>
+        <v>1393</v>
       </c>
       <c r="I665">
         <v>69</v>
@@ -33819,7 +33820,7 @@
         <v>57436</v>
       </c>
       <c r="H666">
-        <v>724</v>
+        <v>1477</v>
       </c>
       <c r="I666">
         <v>73</v>
@@ -33872,7 +33873,7 @@
         <v>63180</v>
       </c>
       <c r="H667">
-        <v>761</v>
+        <v>1566</v>
       </c>
       <c r="I667">
         <v>76</v>
@@ -33925,7 +33926,7 @@
         <v>69498</v>
       </c>
       <c r="H668">
-        <v>799</v>
+        <v>1659</v>
       </c>
       <c r="I668">
         <v>80</v>
@@ -33978,7 +33979,7 @@
         <v>76448</v>
       </c>
       <c r="H669">
-        <v>839</v>
+        <v>1759</v>
       </c>
       <c r="I669">
         <v>84</v>
@@ -34031,7 +34032,7 @@
         <v>84092</v>
       </c>
       <c r="H670">
-        <v>881</v>
+        <v>1865</v>
       </c>
       <c r="I670">
         <v>88</v>
@@ -34084,7 +34085,7 @@
         <v>92501</v>
       </c>
       <c r="H671">
-        <v>925</v>
+        <v>1976</v>
       </c>
       <c r="I671">
         <v>93</v>
@@ -34137,7 +34138,7 @@
         <v>101752</v>
       </c>
       <c r="H672">
-        <v>971</v>
+        <v>2095</v>
       </c>
       <c r="I672">
         <v>97</v>
@@ -34190,7 +34191,7 @@
         <v>111927</v>
       </c>
       <c r="H673">
-        <v>1019</v>
+        <v>2221</v>
       </c>
       <c r="I673">
         <v>102</v>
@@ -34243,7 +34244,7 @@
         <v>123119</v>
       </c>
       <c r="H674">
-        <v>1070</v>
+        <v>2354</v>
       </c>
       <c r="I674">
         <v>107</v>
@@ -34296,7 +34297,7 @@
         <v>135431</v>
       </c>
       <c r="H675">
-        <v>1124</v>
+        <v>2495</v>
       </c>
       <c r="I675">
         <v>112</v>
@@ -34349,7 +34350,7 @@
         <v>148975</v>
       </c>
       <c r="H676">
-        <v>1180</v>
+        <v>2645</v>
       </c>
       <c r="I676">
         <v>118</v>
@@ -34402,7 +34403,7 @@
         <v>163872</v>
       </c>
       <c r="H677">
-        <v>1239</v>
+        <v>2804</v>
       </c>
       <c r="I677">
         <v>124</v>
@@ -34455,7 +34456,7 @@
         <v>180259</v>
       </c>
       <c r="H678">
-        <v>1301</v>
+        <v>2972</v>
       </c>
       <c r="I678">
         <v>130</v>
@@ -34508,7 +34509,7 @@
         <v>198285</v>
       </c>
       <c r="H679">
-        <v>1366</v>
+        <v>3150</v>
       </c>
       <c r="I679">
         <v>137</v>
@@ -34561,7 +34562,7 @@
         <v>218114</v>
       </c>
       <c r="H680">
-        <v>1434</v>
+        <v>3339</v>
       </c>
       <c r="I680">
         <v>143</v>
@@ -34614,7 +34615,7 @@
         <v>239925</v>
       </c>
       <c r="H681">
-        <v>1506</v>
+        <v>3539</v>
       </c>
       <c r="I681">
         <v>151</v>
@@ -34667,7 +34668,7 @@
         <v>263918</v>
       </c>
       <c r="H682">
-        <v>1581</v>
+        <v>3752</v>
       </c>
       <c r="I682">
         <v>158</v>
@@ -34720,7 +34721,7 @@
         <v>290309</v>
       </c>
       <c r="H683">
-        <v>1660</v>
+        <v>3977</v>
       </c>
       <c r="I683">
         <v>166</v>
@@ -34773,7 +34774,7 @@
         <v>319340</v>
       </c>
       <c r="H684">
-        <v>1743</v>
+        <v>4216</v>
       </c>
       <c r="I684">
         <v>174</v>
@@ -34826,7 +34827,7 @@
         <v>351274</v>
       </c>
       <c r="H685">
-        <v>1831</v>
+        <v>4469</v>
       </c>
       <c r="I685">
         <v>183</v>
@@ -34879,7 +34880,7 @@
         <v>386402</v>
       </c>
       <c r="H686">
-        <v>1922</v>
+        <v>4737</v>
       </c>
       <c r="I686">
         <v>192</v>
@@ -34932,7 +34933,7 @@
         <v>425042</v>
       </c>
       <c r="H687">
-        <v>2018</v>
+        <v>5021</v>
       </c>
       <c r="I687">
         <v>202</v>
@@ -34985,7 +34986,7 @@
         <v>467546</v>
       </c>
       <c r="H688">
-        <v>2119</v>
+        <v>5322</v>
       </c>
       <c r="I688">
         <v>212</v>
@@ -35038,7 +35039,7 @@
         <v>514301</v>
       </c>
       <c r="H689">
-        <v>2225</v>
+        <v>5641</v>
       </c>
       <c r="I689">
         <v>223</v>
@@ -35091,7 +35092,7 @@
         <v>565731</v>
       </c>
       <c r="H690">
-        <v>2336</v>
+        <v>5980</v>
       </c>
       <c r="I690">
         <v>234</v>
@@ -35144,7 +35145,7 @@
         <v>622304</v>
       </c>
       <c r="H691">
-        <v>2453</v>
+        <v>6339</v>
       </c>
       <c r="I691">
         <v>245</v>
@@ -35197,7 +35198,7 @@
         <v>684534</v>
       </c>
       <c r="H692">
-        <v>2576</v>
+        <v>6719</v>
       </c>
       <c r="I692">
         <v>258</v>
@@ -35250,7 +35251,7 @@
         <v>752987</v>
       </c>
       <c r="H693">
-        <v>2705</v>
+        <v>7122</v>
       </c>
       <c r="I693">
         <v>271</v>
@@ -35303,7 +35304,7 @@
         <v>828286</v>
       </c>
       <c r="H694">
-        <v>2840</v>
+        <v>7549</v>
       </c>
       <c r="I694">
         <v>284</v>
@@ -35356,7 +35357,7 @@
         <v>911115</v>
       </c>
       <c r="H695">
-        <v>2982</v>
+        <v>8002</v>
       </c>
       <c r="I695">
         <v>298</v>
@@ -35706,4 +35707,926 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6B7289-61FE-416C-9724-AB3C812A6C72}">
+  <dimension ref="F1:G101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="G1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="26">
+        <f>F2*G1</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>204</v>
+      </c>
+      <c r="G3" s="26">
+        <f>G2*$G$1</f>
+        <v>224.72</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>208</v>
+      </c>
+      <c r="G4" s="26">
+        <f t="shared" ref="G4:G67" si="0">G3*$G$1</f>
+        <v>238.20320000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <v>212</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>252.49539200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <v>216</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" si="0"/>
+        <v>267.64511552000005</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <v>220</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
+        <v>283.70382245120004</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <v>226</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>300.72605179827207</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <v>230</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>318.76961490616839</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <v>234</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>337.89579180053852</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F11">
+        <v>240</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="0"/>
+        <v>358.16953930857085</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <v>244</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="0"/>
+        <v>379.65971166708511</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <v>248</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="0"/>
+        <v>402.43929436711022</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F14">
+        <v>254</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="0"/>
+        <v>426.58565202913684</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F15">
+        <v>258</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="0"/>
+        <v>452.18079115088506</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <v>264</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="0"/>
+        <v>479.31163861993821</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <v>270</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>508.07033693713453</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <v>274</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="0"/>
+        <v>538.55455715336268</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F19">
+        <v>280</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="0"/>
+        <v>570.86783058256447</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <v>286</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" si="0"/>
+        <v>605.11990041751835</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F21">
+        <v>292</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="0"/>
+        <v>641.42709444256946</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F22">
+        <v>298</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="0"/>
+        <v>679.91272010912371</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F23">
+        <v>304</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="0"/>
+        <v>720.7074833156712</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F24">
+        <v>310</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="0"/>
+        <v>763.94993231461149</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F25">
+        <v>316</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="0"/>
+        <v>809.78692825348821</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F26">
+        <v>322</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="0"/>
+        <v>858.37414394869757</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F27">
+        <v>328</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" si="0"/>
+        <v>909.87659258561951</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F28">
+        <v>334</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="0"/>
+        <v>964.46918814075673</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F29">
+        <v>342</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="0"/>
+        <v>1022.3373394292022</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F30">
+        <v>348</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" si="0"/>
+        <v>1083.6775797949545</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F31">
+        <v>356</v>
+      </c>
+      <c r="G31" s="26">
+        <f t="shared" si="0"/>
+        <v>1148.6982345826518</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F32">
+        <v>362</v>
+      </c>
+      <c r="G32" s="26">
+        <f t="shared" si="0"/>
+        <v>1217.6201286576111</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F33">
+        <v>370</v>
+      </c>
+      <c r="G33" s="26">
+        <f t="shared" si="0"/>
+        <v>1290.6773363770678</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F34">
+        <v>376</v>
+      </c>
+      <c r="G34" s="26">
+        <f t="shared" si="0"/>
+        <v>1368.1179765596919</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F35">
+        <v>384</v>
+      </c>
+      <c r="G35" s="26">
+        <f t="shared" si="0"/>
+        <v>1450.2050551532734</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <v>392</v>
+      </c>
+      <c r="G36" s="26">
+        <f t="shared" si="0"/>
+        <v>1537.21735846247</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F37">
+        <v>400</v>
+      </c>
+      <c r="G37" s="26">
+        <f t="shared" si="0"/>
+        <v>1629.4503999702183</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F38">
+        <v>408</v>
+      </c>
+      <c r="G38" s="26">
+        <f t="shared" si="0"/>
+        <v>1727.2174239684316</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F39">
+        <v>416</v>
+      </c>
+      <c r="G39" s="26">
+        <f t="shared" si="0"/>
+        <v>1830.8504694065375</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F40">
+        <v>424</v>
+      </c>
+      <c r="G40" s="26">
+        <f t="shared" si="0"/>
+        <v>1940.7014975709299</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F41">
+        <v>432</v>
+      </c>
+      <c r="G41" s="26">
+        <f t="shared" si="0"/>
+        <v>2057.1435874251856</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F42">
+        <v>442</v>
+      </c>
+      <c r="G42" s="26">
+        <f t="shared" si="0"/>
+        <v>2180.5722026706967</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F43">
+        <v>450</v>
+      </c>
+      <c r="G43" s="26">
+        <f t="shared" si="0"/>
+        <v>2311.4065348309387</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F44">
+        <v>460</v>
+      </c>
+      <c r="G44" s="26">
+        <f t="shared" si="0"/>
+        <v>2450.090926920795</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F45">
+        <v>468</v>
+      </c>
+      <c r="G45" s="26">
+        <f t="shared" si="0"/>
+        <v>2597.0963825360427</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F46">
+        <v>478</v>
+      </c>
+      <c r="G46" s="26">
+        <f t="shared" si="0"/>
+        <v>2752.9221654882053</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F47">
+        <v>488</v>
+      </c>
+      <c r="G47" s="26">
+        <f t="shared" si="0"/>
+        <v>2918.0974954174976</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F48">
+        <v>498</v>
+      </c>
+      <c r="G48" s="26">
+        <f t="shared" si="0"/>
+        <v>3093.1833451425478</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F49">
+        <v>508</v>
+      </c>
+      <c r="G49" s="26">
+        <f t="shared" si="0"/>
+        <v>3278.7743458511009</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F50">
+        <v>518</v>
+      </c>
+      <c r="G50" s="26">
+        <f t="shared" si="0"/>
+        <v>3475.5008066021669</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F51">
+        <v>528</v>
+      </c>
+      <c r="G51" s="26">
+        <f t="shared" si="0"/>
+        <v>3684.0308549982969</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F52">
+        <v>538</v>
+      </c>
+      <c r="G52" s="26">
+        <f t="shared" si="0"/>
+        <v>3905.072706298195</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F53">
+        <v>550</v>
+      </c>
+      <c r="G53" s="26">
+        <f t="shared" si="0"/>
+        <v>4139.3770686760872</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F54">
+        <v>560</v>
+      </c>
+      <c r="G54" s="26">
+        <f t="shared" si="0"/>
+        <v>4387.7396927966529</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F55">
+        <v>572</v>
+      </c>
+      <c r="G55" s="26">
+        <f t="shared" si="0"/>
+        <v>4651.0040743644522</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F56">
+        <v>582</v>
+      </c>
+      <c r="G56" s="26">
+        <f t="shared" si="0"/>
+        <v>4930.0643188263193</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F57">
+        <v>594</v>
+      </c>
+      <c r="G57" s="26">
+        <f t="shared" si="0"/>
+        <v>5225.8681779558983</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F58">
+        <v>606</v>
+      </c>
+      <c r="G58" s="26">
+        <f t="shared" si="0"/>
+        <v>5539.4202686332528</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F59">
+        <v>618</v>
+      </c>
+      <c r="G59" s="26">
+        <f t="shared" si="0"/>
+        <v>5871.7854847512481</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F60">
+        <v>630</v>
+      </c>
+      <c r="G60" s="26">
+        <f t="shared" si="0"/>
+        <v>6224.0926138363229</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F61">
+        <v>644</v>
+      </c>
+      <c r="G61" s="26">
+        <f t="shared" si="0"/>
+        <v>6597.538170666503</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F62">
+        <v>656</v>
+      </c>
+      <c r="G62" s="26">
+        <f t="shared" si="0"/>
+        <v>6993.3904609064939</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F63">
+        <v>670</v>
+      </c>
+      <c r="G63" s="26">
+        <f t="shared" si="0"/>
+        <v>7412.9938885608835</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F64">
+        <v>682</v>
+      </c>
+      <c r="G64" s="26">
+        <f t="shared" si="0"/>
+        <v>7857.7735218745365</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F65">
+        <v>696</v>
+      </c>
+      <c r="G65" s="26">
+        <f t="shared" si="0"/>
+        <v>8329.2399331870092</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F66">
+        <v>710</v>
+      </c>
+      <c r="G66" s="26">
+        <f t="shared" si="0"/>
+        <v>8828.9943291782311</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F67">
+        <v>724</v>
+      </c>
+      <c r="G67" s="26">
+        <f t="shared" si="0"/>
+        <v>9358.7339889289251</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F68">
+        <v>738</v>
+      </c>
+      <c r="G68" s="26">
+        <f t="shared" ref="G68:G101" si="1">G67*$G$1</f>
+        <v>9920.2580282646613</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F69">
+        <v>754</v>
+      </c>
+      <c r="G69" s="26">
+        <f t="shared" si="1"/>
+        <v>10515.473509960542</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F70">
+        <v>768</v>
+      </c>
+      <c r="G70" s="26">
+        <f t="shared" si="1"/>
+        <v>11146.401920558175</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F71">
+        <v>784</v>
+      </c>
+      <c r="G71" s="26">
+        <f t="shared" si="1"/>
+        <v>11815.186035791667</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F72">
+        <v>800</v>
+      </c>
+      <c r="G72" s="26">
+        <f t="shared" si="1"/>
+        <v>12524.097197939167</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F73">
+        <v>816</v>
+      </c>
+      <c r="G73" s="26">
+        <f t="shared" si="1"/>
+        <v>13275.543029815517</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F74">
+        <v>832</v>
+      </c>
+      <c r="G74" s="26">
+        <f t="shared" si="1"/>
+        <v>14072.075611604449</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F75">
+        <v>848</v>
+      </c>
+      <c r="G75" s="26">
+        <f t="shared" si="1"/>
+        <v>14916.400148300716</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F76">
+        <v>866</v>
+      </c>
+      <c r="G76" s="26">
+        <f t="shared" si="1"/>
+        <v>15811.38415719876</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F77">
+        <v>884</v>
+      </c>
+      <c r="G77" s="26">
+        <f t="shared" si="1"/>
+        <v>16760.067206630687</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F78">
+        <v>900</v>
+      </c>
+      <c r="G78" s="26">
+        <f t="shared" si="1"/>
+        <v>17765.671239028528</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F79">
+        <v>918</v>
+      </c>
+      <c r="G79" s="26">
+        <f t="shared" si="1"/>
+        <v>18831.611513370241</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F80">
+        <v>938</v>
+      </c>
+      <c r="G80" s="26">
+        <f t="shared" si="1"/>
+        <v>19961.508204172456</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F81">
+        <v>956</v>
+      </c>
+      <c r="G81" s="26">
+        <f t="shared" si="1"/>
+        <v>21159.198696422805</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F82">
+        <v>976</v>
+      </c>
+      <c r="G82" s="26">
+        <f t="shared" si="1"/>
+        <v>22428.750618208174</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F83">
+        <v>994</v>
+      </c>
+      <c r="G83" s="26">
+        <f t="shared" si="1"/>
+        <v>23774.475655300666</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F84">
+        <v>1014</v>
+      </c>
+      <c r="G84" s="26">
+        <f t="shared" si="1"/>
+        <v>25200.944194618707</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F85">
+        <v>1034</v>
+      </c>
+      <c r="G85" s="26">
+        <f t="shared" si="1"/>
+        <v>26713.000846295832</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F86">
+        <v>1056</v>
+      </c>
+      <c r="G86" s="26">
+        <f t="shared" si="1"/>
+        <v>28315.780897073582</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F87">
+        <v>1076</v>
+      </c>
+      <c r="G87" s="26">
+        <f t="shared" si="1"/>
+        <v>30014.727750898001</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F88">
+        <v>1098</v>
+      </c>
+      <c r="G88" s="26">
+        <f t="shared" si="1"/>
+        <v>31815.611415951884</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F89">
+        <v>1120</v>
+      </c>
+      <c r="G89" s="26">
+        <f t="shared" si="1"/>
+        <v>33724.548100909</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F90">
+        <v>1142</v>
+      </c>
+      <c r="G90" s="26">
+        <f t="shared" si="1"/>
+        <v>35748.020986963544</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F91">
+        <v>1166</v>
+      </c>
+      <c r="G91" s="26">
+        <f t="shared" si="1"/>
+        <v>37892.902246181358</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F92">
+        <v>1188</v>
+      </c>
+      <c r="G92" s="26">
+        <f t="shared" si="1"/>
+        <v>40166.476380952241</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F93">
+        <v>1212</v>
+      </c>
+      <c r="G93" s="26">
+        <f t="shared" si="1"/>
+        <v>42576.464963809376</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F94">
+        <v>1236</v>
+      </c>
+      <c r="G94" s="26">
+        <f t="shared" si="1"/>
+        <v>45131.052861637938</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F95">
+        <v>1262</v>
+      </c>
+      <c r="G95" s="26">
+        <f t="shared" si="1"/>
+        <v>47838.916033336216</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F96">
+        <v>1286</v>
+      </c>
+      <c r="G96" s="26">
+        <f t="shared" si="1"/>
+        <v>50709.250995336391</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F97">
+        <v>1312</v>
+      </c>
+      <c r="G97" s="26">
+        <f t="shared" si="1"/>
+        <v>53751.806055056579</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F98">
+        <v>1338</v>
+      </c>
+      <c r="G98" s="26">
+        <f t="shared" si="1"/>
+        <v>56976.914418359978</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F99">
+        <v>1366</v>
+      </c>
+      <c r="G99" s="26">
+        <f t="shared" si="1"/>
+        <v>60395.529283461583</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <v>1392</v>
+      </c>
+      <c r="G100" s="26">
+        <f t="shared" si="1"/>
+        <v>64019.261040469282</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F101">
+        <v>1420</v>
+      </c>
+      <c r="G101" s="26">
+        <f t="shared" si="1"/>
+        <v>67860.416702897448</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BC1D6-6617-4869-A07D-EADA9146004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC6F4E7-D62C-4499-9B53-456522F2C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -342,6 +344,17 @@
     <t>Test</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>妖精</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Character/FollowEntity</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -615,8 +628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:Q696" totalsRowShown="0">
-  <autoFilter ref="A1:Q696" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}" name="テーブル1" displayName="テーブル1" ref="A1:Q697" totalsRowShown="0">
+  <autoFilter ref="A1:Q697" xr:uid="{AAD12852-E6EA-41B8-A9A7-A5FFCD1FB23B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{D1EF384A-425E-4487-AE5A-7D618D4858AA}" name="ID"/>
     <tableColumn id="2" xr3:uid="{880AC199-8029-4F09-82BC-EB19B7F216CC}" name="Name"/>
@@ -937,23 +950,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D7F5C-83DC-4D69-B507-B6CDFD30046F}">
-  <dimension ref="A1:Q696"/>
+  <dimension ref="A1:Q697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C561" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C681" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I636" sqref="I636"/>
+      <selection pane="bottomRight" activeCell="S690" sqref="S690"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="26" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1093,7 +1106,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1122,7 +1135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1151,7 +1164,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1209,7 +1222,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1325,7 +1338,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1354,7 +1367,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1383,7 +1396,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1470,7 +1483,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1528,7 +1541,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1557,7 +1570,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1586,7 +1599,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1615,7 +1628,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1702,7 +1715,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1731,7 +1744,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1760,7 +1773,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1789,7 +1802,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1818,7 +1831,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1847,7 +1860,7 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1876,7 +1889,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1934,7 +1947,7 @@
         <v>12864</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1963,7 +1976,7 @@
         <v>13662</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1992,7 +2005,7 @@
         <v>14484</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2021,7 +2034,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2050,7 +2063,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2079,7 +2092,7 @@
         <v>17094</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>18012</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2137,7 +2150,7 @@
         <v>18954</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2166,7 +2179,7 @@
         <v>19920</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2195,7 +2208,7 @@
         <v>20910</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2224,7 +2237,7 @@
         <v>21924</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>22962</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>24024</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2311,7 +2324,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>26220</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>27354</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2398,7 +2411,7 @@
         <v>28512</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>29694</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2456,7 +2469,7 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2485,7 +2498,7 @@
         <v>32130</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>33384</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2543,7 +2556,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2601,7 +2614,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2659,7 +2672,7 @@
         <v>50730</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2688,7 +2701,7 @@
         <v>52490</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2717,7 +2730,7 @@
         <v>54280</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>56100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2775,7 +2788,7 @@
         <v>57950</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2804,7 +2817,7 @@
         <v>59830</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2833,7 +2846,7 @@
         <v>61740</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2862,7 +2875,7 @@
         <v>63680</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2891,7 +2904,7 @@
         <v>65650</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2920,7 +2933,7 @@
         <v>67650</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2949,7 +2962,7 @@
         <v>69680</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2978,7 +2991,7 @@
         <v>71740</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>73830</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3036,7 +3049,7 @@
         <v>75950</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3065,7 +3078,7 @@
         <v>78100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3094,7 +3107,7 @@
         <v>80280</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3123,7 +3136,7 @@
         <v>82490</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3152,7 +3165,7 @@
         <v>84730</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3181,7 +3194,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3210,7 +3223,7 @@
         <v>89300</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>91630</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>93990</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3297,7 +3310,7 @@
         <v>96380</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>103730</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3413,7 +3426,7 @@
         <v>106240</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3442,7 +3455,7 @@
         <v>108780</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>111350</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3500,7 +3513,7 @@
         <v>113950</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3529,7 +3542,7 @@
         <v>116580</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3558,7 +3571,7 @@
         <v>119240</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3587,7 +3600,7 @@
         <v>121930</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3616,7 +3629,7 @@
         <v>245700</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>252980</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>301300</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3703,7 +3716,7 @@
         <v>351075</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>446500</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3761,7 +3774,7 @@
         <v>546250</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3790,7 +3803,7 @@
         <v>649920</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3819,7 +3832,7 @@
         <v>757570</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3848,7 +3861,7 @@
         <v>965300</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3877,7 +3890,7 @@
         <v>1473120</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3905,7 +3918,7 @@
       </c>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3958,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4064,7 +4077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4117,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4170,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4382,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4435,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4488,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4541,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4594,7 +4607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4700,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4753,7 +4766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4859,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4912,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4965,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5018,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5071,7 +5084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5124,7 +5137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5177,7 +5190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5230,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5283,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5336,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5389,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5442,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5495,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5548,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5601,7 +5614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5654,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5707,7 +5720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5760,7 +5773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5813,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5866,7 +5879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5919,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5972,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6025,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6131,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6184,7 +6197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6237,7 +6250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6290,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6343,7 +6356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6396,7 +6409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6449,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6502,7 +6515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6555,7 +6568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6608,7 +6621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6661,7 +6674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6767,7 +6780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6820,7 +6833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6873,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6926,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6979,7 +6992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7032,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7085,7 +7098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7138,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7191,7 +7204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7244,7 +7257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7297,7 +7310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7350,7 +7363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7403,7 +7416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7456,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7509,7 +7522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7562,7 +7575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7615,7 +7628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7668,7 +7681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7721,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7774,7 +7787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7827,7 +7840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7880,7 +7893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7933,7 +7946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7986,7 +7999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8039,7 +8052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8092,7 +8105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8145,7 +8158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8198,7 +8211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8251,7 +8264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8304,7 +8317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8357,7 +8370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8410,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8463,7 +8476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8516,7 +8529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8569,7 +8582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8622,7 +8635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8675,7 +8688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8728,7 +8741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8834,7 +8847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8887,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8940,7 +8953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8993,7 +9006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9046,7 +9059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9099,7 +9112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9152,7 +9165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9205,7 +9218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9258,7 +9271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9311,7 +9324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9364,7 +9377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9417,7 +9430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9470,7 +9483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9523,7 +9536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9576,7 +9589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9629,7 +9642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9682,7 +9695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9735,7 +9748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9788,7 +9801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9841,7 +9854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9894,7 +9907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9947,7 +9960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10000,7 +10013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10053,7 +10066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10106,7 +10119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10159,7 +10172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10212,7 +10225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10265,7 +10278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10318,7 +10331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10371,7 +10384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10424,7 +10437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10477,7 +10490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10530,7 +10543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10583,7 +10596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10636,7 +10649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10689,7 +10702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10742,7 +10755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10795,7 +10808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10848,7 +10861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10901,7 +10914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10954,7 +10967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11007,7 +11020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11060,7 +11073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11113,7 +11126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11166,7 +11179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11219,7 +11232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11272,7 +11285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11325,7 +11338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11378,7 +11391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11431,7 +11444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11484,7 +11497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11537,7 +11550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11590,7 +11603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11643,7 +11656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11696,7 +11709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11749,7 +11762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11802,7 +11815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11855,7 +11868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11908,7 +11921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11961,7 +11974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12014,7 +12027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12067,7 +12080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12120,7 +12133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12173,7 +12186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12226,7 +12239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12279,7 +12292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12332,7 +12345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12385,7 +12398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12438,7 +12451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12491,7 +12504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12544,7 +12557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12597,7 +12610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12650,7 +12663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12703,7 +12716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12756,7 +12769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12809,7 +12822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12862,7 +12875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12915,7 +12928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12968,7 +12981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13021,7 +13034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13074,7 +13087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13127,7 +13140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13180,7 +13193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13233,7 +13246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13286,7 +13299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13339,7 +13352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13392,7 +13405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13445,7 +13458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13498,7 +13511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13551,7 +13564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13604,7 +13617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13657,7 +13670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13710,7 +13723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13763,7 +13776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13816,7 +13829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13869,7 +13882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13922,7 +13935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13975,7 +13988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14028,7 +14041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14081,7 +14094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14134,7 +14147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14187,7 +14200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14240,7 +14253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14293,7 +14306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14346,7 +14359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14399,7 +14412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14452,7 +14465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14505,7 +14518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14558,7 +14571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14611,7 +14624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14664,7 +14677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14717,7 +14730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14770,7 +14783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14823,7 +14836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14876,7 +14889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14929,7 +14942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14982,7 +14995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15035,7 +15048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15088,7 +15101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15141,7 +15154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15194,7 +15207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15247,7 +15260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15300,7 +15313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15353,7 +15366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15406,7 +15419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15459,7 +15472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15512,7 +15525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15565,7 +15578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15618,7 +15631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15671,7 +15684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15724,7 +15737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15777,7 +15790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15830,7 +15843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15883,7 +15896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15936,7 +15949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15989,7 +16002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16042,7 +16055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16095,7 +16108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16148,7 +16161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16201,7 +16214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16254,7 +16267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16307,7 +16320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16360,7 +16373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16413,7 +16426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16466,7 +16479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16519,7 +16532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16572,7 +16585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16625,7 +16638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16678,7 +16691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16731,7 +16744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16784,7 +16797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16837,7 +16850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16890,7 +16903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16943,7 +16956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16996,7 +17009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17049,7 +17062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17102,7 +17115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17155,7 +17168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17208,7 +17221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17261,7 +17274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17314,7 +17327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17367,7 +17380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17420,7 +17433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17473,7 +17486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17526,7 +17539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17579,7 +17592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17632,7 +17645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17685,7 +17698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17738,7 +17751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17791,7 +17804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17844,7 +17857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17897,7 +17910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17950,7 +17963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>366</v>
       </c>
@@ -18003,7 +18016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>367</v>
       </c>
@@ -18056,7 +18069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>368</v>
       </c>
@@ -18109,7 +18122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>369</v>
       </c>
@@ -18162,7 +18175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>370</v>
       </c>
@@ -18215,7 +18228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>371</v>
       </c>
@@ -18268,7 +18281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>372</v>
       </c>
@@ -18321,7 +18334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>373</v>
       </c>
@@ -18374,7 +18387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>374</v>
       </c>
@@ -18427,7 +18440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>375</v>
       </c>
@@ -18480,7 +18493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>376</v>
       </c>
@@ -18533,7 +18546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>377</v>
       </c>
@@ -18586,7 +18599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>378</v>
       </c>
@@ -18639,7 +18652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>379</v>
       </c>
@@ -18692,7 +18705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18745,7 +18758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18798,7 +18811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18851,7 +18864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18904,7 +18917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18957,7 +18970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19010,7 +19023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19063,7 +19076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19116,7 +19129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>388</v>
       </c>
@@ -19169,7 +19182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>389</v>
       </c>
@@ -19222,7 +19235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>390</v>
       </c>
@@ -19275,7 +19288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>391</v>
       </c>
@@ -19328,7 +19341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>392</v>
       </c>
@@ -19381,7 +19394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>393</v>
       </c>
@@ -19434,7 +19447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>394</v>
       </c>
@@ -19487,7 +19500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>395</v>
       </c>
@@ -19540,7 +19553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>396</v>
       </c>
@@ -19593,7 +19606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>397</v>
       </c>
@@ -19646,7 +19659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>398</v>
       </c>
@@ -19699,7 +19712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>399</v>
       </c>
@@ -19752,7 +19765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>400</v>
       </c>
@@ -19805,7 +19818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>401</v>
       </c>
@@ -19858,7 +19871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>402</v>
       </c>
@@ -19911,7 +19924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>403</v>
       </c>
@@ -19964,7 +19977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20017,7 +20030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20070,7 +20083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20123,7 +20136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20176,7 +20189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20229,7 +20242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20282,7 +20295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>410</v>
       </c>
@@ -20335,7 +20348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>411</v>
       </c>
@@ -20388,7 +20401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>412</v>
       </c>
@@ -20441,7 +20454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>413</v>
       </c>
@@ -20494,7 +20507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>414</v>
       </c>
@@ -20547,7 +20560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>415</v>
       </c>
@@ -20600,7 +20613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>416</v>
       </c>
@@ -20653,7 +20666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>417</v>
       </c>
@@ -20706,7 +20719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>418</v>
       </c>
@@ -20759,7 +20772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>419</v>
       </c>
@@ -20812,7 +20825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>420</v>
       </c>
@@ -20865,7 +20878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>421</v>
       </c>
@@ -20918,7 +20931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20971,7 +20984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21024,7 +21037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>424</v>
       </c>
@@ -21077,7 +21090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>425</v>
       </c>
@@ -21130,7 +21143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>426</v>
       </c>
@@ -21183,7 +21196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>427</v>
       </c>
@@ -21236,7 +21249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21289,7 +21302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21342,7 +21355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>430</v>
       </c>
@@ -21395,7 +21408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>431</v>
       </c>
@@ -21448,7 +21461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>432</v>
       </c>
@@ -21501,7 +21514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>433</v>
       </c>
@@ -21554,7 +21567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>434</v>
       </c>
@@ -21607,7 +21620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>435</v>
       </c>
@@ -21660,7 +21673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>436</v>
       </c>
@@ -21713,7 +21726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>437</v>
       </c>
@@ -21766,7 +21779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>438</v>
       </c>
@@ -21819,7 +21832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>439</v>
       </c>
@@ -21872,7 +21885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>440</v>
       </c>
@@ -21925,7 +21938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>441</v>
       </c>
@@ -21978,7 +21991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>442</v>
       </c>
@@ -22031,7 +22044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>443</v>
       </c>
@@ -22084,7 +22097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>444</v>
       </c>
@@ -22137,7 +22150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>445</v>
       </c>
@@ -22190,7 +22203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>446</v>
       </c>
@@ -22243,7 +22256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>447</v>
       </c>
@@ -22296,7 +22309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>448</v>
       </c>
@@ -22349,7 +22362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>449</v>
       </c>
@@ -22402,7 +22415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>450</v>
       </c>
@@ -22455,7 +22468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>451</v>
       </c>
@@ -22508,7 +22521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>452</v>
       </c>
@@ -22561,7 +22574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>453</v>
       </c>
@@ -22614,7 +22627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>454</v>
       </c>
@@ -22667,7 +22680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>455</v>
       </c>
@@ -22720,7 +22733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>456</v>
       </c>
@@ -22773,7 +22786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>457</v>
       </c>
@@ -22826,7 +22839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>458</v>
       </c>
@@ -22879,7 +22892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>459</v>
       </c>
@@ -22932,7 +22945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>460</v>
       </c>
@@ -22985,7 +22998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>461</v>
       </c>
@@ -23038,7 +23051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>462</v>
       </c>
@@ -23091,7 +23104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>463</v>
       </c>
@@ -23144,7 +23157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>464</v>
       </c>
@@ -23197,7 +23210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>465</v>
       </c>
@@ -23250,7 +23263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>466</v>
       </c>
@@ -23303,7 +23316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>467</v>
       </c>
@@ -23356,7 +23369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>468</v>
       </c>
@@ -23409,7 +23422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>469</v>
       </c>
@@ -23462,7 +23475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>470</v>
       </c>
@@ -23515,7 +23528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>471</v>
       </c>
@@ -23568,7 +23581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>472</v>
       </c>
@@ -23621,7 +23634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>473</v>
       </c>
@@ -23674,7 +23687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>474</v>
       </c>
@@ -23727,7 +23740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>475</v>
       </c>
@@ -23780,7 +23793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>476</v>
       </c>
@@ -23833,7 +23846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>477</v>
       </c>
@@ -23886,7 +23899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>478</v>
       </c>
@@ -23939,7 +23952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>479</v>
       </c>
@@ -23992,7 +24005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>480</v>
       </c>
@@ -24045,7 +24058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>481</v>
       </c>
@@ -24098,7 +24111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>482</v>
       </c>
@@ -24151,7 +24164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>483</v>
       </c>
@@ -24204,7 +24217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>484</v>
       </c>
@@ -24257,7 +24270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>485</v>
       </c>
@@ -24310,7 +24323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>486</v>
       </c>
@@ -24363,7 +24376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>487</v>
       </c>
@@ -24416,7 +24429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>488</v>
       </c>
@@ -24469,7 +24482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>489</v>
       </c>
@@ -24522,7 +24535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>490</v>
       </c>
@@ -24575,7 +24588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>491</v>
       </c>
@@ -24628,7 +24641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>492</v>
       </c>
@@ -24681,7 +24694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>493</v>
       </c>
@@ -24734,7 +24747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>494</v>
       </c>
@@ -24787,7 +24800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>495</v>
       </c>
@@ -24840,7 +24853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>496</v>
       </c>
@@ -24893,7 +24906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
@@ -24946,7 +24959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
@@ -24999,7 +25012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
@@ -25052,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
@@ -25105,7 +25118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
@@ -25158,7 +25171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
@@ -25211,7 +25224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
@@ -25264,7 +25277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
@@ -25317,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
@@ -25370,7 +25383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
@@ -25423,7 +25436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
@@ -25476,7 +25489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
@@ -25529,7 +25542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
@@ -25582,7 +25595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
@@ -25635,7 +25648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
@@ -25688,7 +25701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
@@ -25741,7 +25754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
@@ -25794,7 +25807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
@@ -25847,7 +25860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
@@ -25900,7 +25913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
@@ -25953,7 +25966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
@@ -26006,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
@@ -26059,7 +26072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
@@ -26112,7 +26125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
@@ -26165,7 +26178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
@@ -26218,7 +26231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
@@ -26271,7 +26284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
@@ -26324,7 +26337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
@@ -26377,7 +26390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
@@ -26430,7 +26443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
@@ -26483,7 +26496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
@@ -26536,7 +26549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
@@ -26589,7 +26602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
@@ -26642,7 +26655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
@@ -26695,7 +26708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
@@ -26748,7 +26761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
@@ -26801,7 +26814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
@@ -26854,7 +26867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
@@ -26907,7 +26920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
@@ -26960,7 +26973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
@@ -27013,7 +27026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
@@ -27066,7 +27079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
@@ -27119,7 +27132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
@@ -27172,7 +27185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
@@ -27225,7 +27238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
@@ -27278,7 +27291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
@@ -27331,7 +27344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
@@ -27384,7 +27397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
@@ -27437,7 +27450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
@@ -27490,7 +27503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
@@ -27543,7 +27556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
@@ -27596,7 +27609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
@@ -27649,7 +27662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
@@ -27702,7 +27715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
@@ -27755,7 +27768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
@@ -27808,7 +27821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
@@ -27861,7 +27874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
@@ -27914,7 +27927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
@@ -27967,7 +27980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
@@ -28020,7 +28033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
@@ -28073,7 +28086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
@@ -28126,7 +28139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
@@ -28179,7 +28192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
@@ -28232,7 +28245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
@@ -28285,7 +28298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
@@ -28338,7 +28351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
@@ -28391,7 +28404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
@@ -28444,7 +28457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
@@ -28497,7 +28510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
@@ -28550,7 +28563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
@@ -28603,7 +28616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
@@ -28656,7 +28669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
@@ -28709,7 +28722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
@@ -28762,7 +28775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
@@ -28815,7 +28828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
@@ -28868,7 +28881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
@@ -28921,7 +28934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
@@ -28974,7 +28987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
@@ -29027,7 +29040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
@@ -29080,7 +29093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
@@ -29133,7 +29146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
@@ -29186,7 +29199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
@@ -29239,7 +29252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
@@ -29292,7 +29305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
@@ -29345,7 +29358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
@@ -29398,7 +29411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
@@ -29451,7 +29464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
@@ -29504,7 +29517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
@@ -29557,7 +29570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
@@ -29610,7 +29623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
@@ -29663,7 +29676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
@@ -29716,7 +29729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
@@ -29769,7 +29782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
@@ -29822,7 +29835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
@@ -29875,7 +29888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
@@ -29928,7 +29941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -29981,7 +29994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -30034,7 +30047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -30087,7 +30100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
@@ -30140,7 +30153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>596</v>
       </c>
@@ -30193,7 +30206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>597</v>
       </c>
@@ -30246,7 +30259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>598</v>
       </c>
@@ -30299,7 +30312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>599</v>
       </c>
@@ -30352,7 +30365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>600</v>
       </c>
@@ -30405,7 +30418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>601</v>
       </c>
@@ -30458,7 +30471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>602</v>
       </c>
@@ -30511,7 +30524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>603</v>
       </c>
@@ -30564,7 +30577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>604</v>
       </c>
@@ -30617,7 +30630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>605</v>
       </c>
@@ -30670,7 +30683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>606</v>
       </c>
@@ -30723,7 +30736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>607</v>
       </c>
@@ -30776,7 +30789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>608</v>
       </c>
@@ -30829,7 +30842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>609</v>
       </c>
@@ -30882,7 +30895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>610</v>
       </c>
@@ -30935,7 +30948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>611</v>
       </c>
@@ -30988,7 +31001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>612</v>
       </c>
@@ -31041,7 +31054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>613</v>
       </c>
@@ -31094,7 +31107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>614</v>
       </c>
@@ -31147,7 +31160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>615</v>
       </c>
@@ -31200,7 +31213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>616</v>
       </c>
@@ -31253,7 +31266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>617</v>
       </c>
@@ -31306,7 +31319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>618</v>
       </c>
@@ -31359,7 +31372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>619</v>
       </c>
@@ -31412,7 +31425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>620</v>
       </c>
@@ -31465,7 +31478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>621</v>
       </c>
@@ -31518,7 +31531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>622</v>
       </c>
@@ -31571,7 +31584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>623</v>
       </c>
@@ -31624,7 +31637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>624</v>
       </c>
@@ -31677,7 +31690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>625</v>
       </c>
@@ -31730,7 +31743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>626</v>
       </c>
@@ -31783,7 +31796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>627</v>
       </c>
@@ -31836,7 +31849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>628</v>
       </c>
@@ -31889,7 +31902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>629</v>
       </c>
@@ -31942,7 +31955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>630</v>
       </c>
@@ -31995,7 +32008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>631</v>
       </c>
@@ -32048,7 +32061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>632</v>
       </c>
@@ -32101,7 +32114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>633</v>
       </c>
@@ -32154,7 +32167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>634</v>
       </c>
@@ -32207,7 +32220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>635</v>
       </c>
@@ -32260,7 +32273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>636</v>
       </c>
@@ -32313,7 +32326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>637</v>
       </c>
@@ -32366,7 +32379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>638</v>
       </c>
@@ -32419,7 +32432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>639</v>
       </c>
@@ -32472,7 +32485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>640</v>
       </c>
@@ -32525,7 +32538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>641</v>
       </c>
@@ -32578,7 +32591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>642</v>
       </c>
@@ -32631,7 +32644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>643</v>
       </c>
@@ -32684,7 +32697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>644</v>
       </c>
@@ -32737,7 +32750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>645</v>
       </c>
@@ -32790,7 +32803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>646</v>
       </c>
@@ -32843,7 +32856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>647</v>
       </c>
@@ -32896,7 +32909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>648</v>
       </c>
@@ -32949,7 +32962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>649</v>
       </c>
@@ -33002,7 +33015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>650</v>
       </c>
@@ -33055,7 +33068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>651</v>
       </c>
@@ -33108,7 +33121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>652</v>
       </c>
@@ -33161,7 +33174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>653</v>
       </c>
@@ -33214,7 +33227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>654</v>
       </c>
@@ -33267,7 +33280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>655</v>
       </c>
@@ -33320,7 +33333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>656</v>
       </c>
@@ -33373,7 +33386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>657</v>
       </c>
@@ -33426,7 +33439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>658</v>
       </c>
@@ -33479,7 +33492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>659</v>
       </c>
@@ -33532,7 +33545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>660</v>
       </c>
@@ -33585,7 +33598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>661</v>
       </c>
@@ -33638,7 +33651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>662</v>
       </c>
@@ -33691,7 +33704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>663</v>
       </c>
@@ -33744,7 +33757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>664</v>
       </c>
@@ -33797,7 +33810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>665</v>
       </c>
@@ -33850,7 +33863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>666</v>
       </c>
@@ -33903,7 +33916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>667</v>
       </c>
@@ -33956,7 +33969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>668</v>
       </c>
@@ -34009,7 +34022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>669</v>
       </c>
@@ -34062,7 +34075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>670</v>
       </c>
@@ -34115,7 +34128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>671</v>
       </c>
@@ -34168,7 +34181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>672</v>
       </c>
@@ -34221,7 +34234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>673</v>
       </c>
@@ -34274,7 +34287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>674</v>
       </c>
@@ -34327,7 +34340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>675</v>
       </c>
@@ -34380,7 +34393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>676</v>
       </c>
@@ -34433,7 +34446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>677</v>
       </c>
@@ -34486,7 +34499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>678</v>
       </c>
@@ -34539,7 +34552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>679</v>
       </c>
@@ -34592,7 +34605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>680</v>
       </c>
@@ -34645,7 +34658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>681</v>
       </c>
@@ -34698,7 +34711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>682</v>
       </c>
@@ -34751,7 +34764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>683</v>
       </c>
@@ -34804,7 +34817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>684</v>
       </c>
@@ -34857,7 +34870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>685</v>
       </c>
@@ -34910,7 +34923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>686</v>
       </c>
@@ -34963,7 +34976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>687</v>
       </c>
@@ -35016,7 +35029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
@@ -35069,7 +35082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
@@ -35122,7 +35135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
@@ -35175,7 +35188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
@@ -35228,7 +35241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
@@ -35281,7 +35294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
@@ -35334,7 +35347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>694</v>
       </c>
@@ -35387,7 +35400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>10000</v>
       </c>
@@ -35395,7 +35408,7 @@
         <v>58</v>
       </c>
       <c r="C696" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D696">
         <v>10</v>
@@ -35438,6 +35451,38 @@
       </c>
       <c r="Q696">
         <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A697">
+        <v>10001</v>
+      </c>
+      <c r="B697" t="s">
+        <v>59</v>
+      </c>
+      <c r="C697" t="s">
+        <v>60</v>
+      </c>
+      <c r="D697">
+        <v>9</v>
+      </c>
+      <c r="E697">
+        <v>3</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+      <c r="G697" s="26">
+        <v>10</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+      <c r="I697">
+        <v>0</v>
+      </c>
+      <c r="J697">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -35458,182 +35503,182 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -35647,15 +35692,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B53F1D-42D9-4C27-BBCF-181683425C17}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35663,11 +35708,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -35685,9 +35738,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -35695,7 +35748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35717,14 +35770,14 @@
       <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="6:7" x14ac:dyDescent="0.4">
       <c r="G1">
         <v>1.06</v>
       </c>
     </row>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F2">
         <v>200</v>
       </c>
@@ -35733,7 +35786,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F3">
         <v>204</v>
       </c>
@@ -35742,7 +35795,7 @@
         <v>224.72</v>
       </c>
     </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F4">
         <v>208</v>
       </c>
@@ -35751,7 +35804,7 @@
         <v>238.20320000000001</v>
       </c>
     </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F5">
         <v>212</v>
       </c>
@@ -35760,7 +35813,7 @@
         <v>252.49539200000001</v>
       </c>
     </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F6">
         <v>216</v>
       </c>
@@ -35769,7 +35822,7 @@
         <v>267.64511552000005</v>
       </c>
     </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F7">
         <v>220</v>
       </c>
@@ -35778,7 +35831,7 @@
         <v>283.70382245120004</v>
       </c>
     </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F8">
         <v>226</v>
       </c>
@@ -35787,7 +35840,7 @@
         <v>300.72605179827207</v>
       </c>
     </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F9">
         <v>230</v>
       </c>
@@ -35796,7 +35849,7 @@
         <v>318.76961490616839</v>
       </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F10">
         <v>234</v>
       </c>
@@ -35805,7 +35858,7 @@
         <v>337.89579180053852</v>
       </c>
     </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F11">
         <v>240</v>
       </c>
@@ -35814,7 +35867,7 @@
         <v>358.16953930857085</v>
       </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F12">
         <v>244</v>
       </c>
@@ -35823,7 +35876,7 @@
         <v>379.65971166708511</v>
       </c>
     </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F13">
         <v>248</v>
       </c>
@@ -35832,7 +35885,7 @@
         <v>402.43929436711022</v>
       </c>
     </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F14">
         <v>254</v>
       </c>
@@ -35841,7 +35894,7 @@
         <v>426.58565202913684</v>
       </c>
     </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F15">
         <v>258</v>
       </c>
@@ -35850,7 +35903,7 @@
         <v>452.18079115088506</v>
       </c>
     </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F16">
         <v>264</v>
       </c>
@@ -35859,7 +35912,7 @@
         <v>479.31163861993821</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F17">
         <v>270</v>
       </c>
@@ -35868,7 +35921,7 @@
         <v>508.07033693713453</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F18">
         <v>274</v>
       </c>
@@ -35877,7 +35930,7 @@
         <v>538.55455715336268</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F19">
         <v>280</v>
       </c>
@@ -35886,7 +35939,7 @@
         <v>570.86783058256447</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F20">
         <v>286</v>
       </c>
@@ -35895,7 +35948,7 @@
         <v>605.11990041751835</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>292</v>
       </c>
@@ -35904,7 +35957,7 @@
         <v>641.42709444256946</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F22">
         <v>298</v>
       </c>
@@ -35913,7 +35966,7 @@
         <v>679.91272010912371</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F23">
         <v>304</v>
       </c>
@@ -35922,7 +35975,7 @@
         <v>720.7074833156712</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>310</v>
       </c>
@@ -35931,7 +35984,7 @@
         <v>763.94993231461149</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>316</v>
       </c>
@@ -35940,7 +35993,7 @@
         <v>809.78692825348821</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F26">
         <v>322</v>
       </c>
@@ -35949,7 +36002,7 @@
         <v>858.37414394869757</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F27">
         <v>328</v>
       </c>
@@ -35958,7 +36011,7 @@
         <v>909.87659258561951</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F28">
         <v>334</v>
       </c>
@@ -35967,7 +36020,7 @@
         <v>964.46918814075673</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F29">
         <v>342</v>
       </c>
@@ -35976,7 +36029,7 @@
         <v>1022.3373394292022</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F30">
         <v>348</v>
       </c>
@@ -35985,7 +36038,7 @@
         <v>1083.6775797949545</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F31">
         <v>356</v>
       </c>
@@ -35994,7 +36047,7 @@
         <v>1148.6982345826518</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F32">
         <v>362</v>
       </c>
@@ -36003,7 +36056,7 @@
         <v>1217.6201286576111</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F33">
         <v>370</v>
       </c>
@@ -36012,7 +36065,7 @@
         <v>1290.6773363770678</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F34">
         <v>376</v>
       </c>
@@ -36021,7 +36074,7 @@
         <v>1368.1179765596919</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F35">
         <v>384</v>
       </c>
@@ -36030,7 +36083,7 @@
         <v>1450.2050551532734</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F36">
         <v>392</v>
       </c>
@@ -36039,7 +36092,7 @@
         <v>1537.21735846247</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F37">
         <v>400</v>
       </c>
@@ -36048,7 +36101,7 @@
         <v>1629.4503999702183</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F38">
         <v>408</v>
       </c>
@@ -36057,7 +36110,7 @@
         <v>1727.2174239684316</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F39">
         <v>416</v>
       </c>
@@ -36066,7 +36119,7 @@
         <v>1830.8504694065375</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F40">
         <v>424</v>
       </c>
@@ -36075,7 +36128,7 @@
         <v>1940.7014975709299</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F41">
         <v>432</v>
       </c>
@@ -36084,7 +36137,7 @@
         <v>2057.1435874251856</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F42">
         <v>442</v>
       </c>
@@ -36093,7 +36146,7 @@
         <v>2180.5722026706967</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F43">
         <v>450</v>
       </c>
@@ -36102,7 +36155,7 @@
         <v>2311.4065348309387</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F44">
         <v>460</v>
       </c>
@@ -36111,7 +36164,7 @@
         <v>2450.090926920795</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F45">
         <v>468</v>
       </c>
@@ -36120,7 +36173,7 @@
         <v>2597.0963825360427</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F46">
         <v>478</v>
       </c>
@@ -36129,7 +36182,7 @@
         <v>2752.9221654882053</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F47">
         <v>488</v>
       </c>
@@ -36138,7 +36191,7 @@
         <v>2918.0974954174976</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F48">
         <v>498</v>
       </c>
@@ -36147,7 +36200,7 @@
         <v>3093.1833451425478</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F49">
         <v>508</v>
       </c>
@@ -36156,7 +36209,7 @@
         <v>3278.7743458511009</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F50">
         <v>518</v>
       </c>
@@ -36165,7 +36218,7 @@
         <v>3475.5008066021669</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F51">
         <v>528</v>
       </c>
@@ -36174,7 +36227,7 @@
         <v>3684.0308549982969</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F52">
         <v>538</v>
       </c>
@@ -36183,7 +36236,7 @@
         <v>3905.072706298195</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F53">
         <v>550</v>
       </c>
@@ -36192,7 +36245,7 @@
         <v>4139.3770686760872</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F54">
         <v>560</v>
       </c>
@@ -36201,7 +36254,7 @@
         <v>4387.7396927966529</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F55">
         <v>572</v>
       </c>
@@ -36210,7 +36263,7 @@
         <v>4651.0040743644522</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F56">
         <v>582</v>
       </c>
@@ -36219,7 +36272,7 @@
         <v>4930.0643188263193</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F57">
         <v>594</v>
       </c>
@@ -36228,7 +36281,7 @@
         <v>5225.8681779558983</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F58">
         <v>606</v>
       </c>
@@ -36237,7 +36290,7 @@
         <v>5539.4202686332528</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F59">
         <v>618</v>
       </c>
@@ -36246,7 +36299,7 @@
         <v>5871.7854847512481</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F60">
         <v>630</v>
       </c>
@@ -36255,7 +36308,7 @@
         <v>6224.0926138363229</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F61">
         <v>644</v>
       </c>
@@ -36264,7 +36317,7 @@
         <v>6597.538170666503</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F62">
         <v>656</v>
       </c>
@@ -36273,7 +36326,7 @@
         <v>6993.3904609064939</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F63">
         <v>670</v>
       </c>
@@ -36282,7 +36335,7 @@
         <v>7412.9938885608835</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F64">
         <v>682</v>
       </c>
@@ -36291,7 +36344,7 @@
         <v>7857.7735218745365</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F65">
         <v>696</v>
       </c>
@@ -36300,7 +36353,7 @@
         <v>8329.2399331870092</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F66">
         <v>710</v>
       </c>
@@ -36309,7 +36362,7 @@
         <v>8828.9943291782311</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F67">
         <v>724</v>
       </c>
@@ -36318,7 +36371,7 @@
         <v>9358.7339889289251</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F68">
         <v>738</v>
       </c>
@@ -36327,7 +36380,7 @@
         <v>9920.2580282646613</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F69">
         <v>754</v>
       </c>
@@ -36336,7 +36389,7 @@
         <v>10515.473509960542</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F70">
         <v>768</v>
       </c>
@@ -36345,7 +36398,7 @@
         <v>11146.401920558175</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F71">
         <v>784</v>
       </c>
@@ -36354,7 +36407,7 @@
         <v>11815.186035791667</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F72">
         <v>800</v>
       </c>
@@ -36363,7 +36416,7 @@
         <v>12524.097197939167</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F73">
         <v>816</v>
       </c>
@@ -36372,7 +36425,7 @@
         <v>13275.543029815517</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F74">
         <v>832</v>
       </c>
@@ -36381,7 +36434,7 @@
         <v>14072.075611604449</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F75">
         <v>848</v>
       </c>
@@ -36390,7 +36443,7 @@
         <v>14916.400148300716</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F76">
         <v>866</v>
       </c>
@@ -36399,7 +36452,7 @@
         <v>15811.38415719876</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F77">
         <v>884</v>
       </c>
@@ -36408,7 +36461,7 @@
         <v>16760.067206630687</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F78">
         <v>900</v>
       </c>
@@ -36417,7 +36470,7 @@
         <v>17765.671239028528</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F79">
         <v>918</v>
       </c>
@@ -36426,7 +36479,7 @@
         <v>18831.611513370241</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F80">
         <v>938</v>
       </c>
@@ -36435,7 +36488,7 @@
         <v>19961.508204172456</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F81">
         <v>956</v>
       </c>
@@ -36444,7 +36497,7 @@
         <v>21159.198696422805</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F82">
         <v>976</v>
       </c>
@@ -36453,7 +36506,7 @@
         <v>22428.750618208174</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F83">
         <v>994</v>
       </c>
@@ -36462,7 +36515,7 @@
         <v>23774.475655300666</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F84">
         <v>1014</v>
       </c>
@@ -36471,7 +36524,7 @@
         <v>25200.944194618707</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F85">
         <v>1034</v>
       </c>
@@ -36480,7 +36533,7 @@
         <v>26713.000846295832</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F86">
         <v>1056</v>
       </c>
@@ -36489,7 +36542,7 @@
         <v>28315.780897073582</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F87">
         <v>1076</v>
       </c>
@@ -36498,7 +36551,7 @@
         <v>30014.727750898001</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F88">
         <v>1098</v>
       </c>
@@ -36507,7 +36560,7 @@
         <v>31815.611415951884</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F89">
         <v>1120</v>
       </c>
@@ -36516,7 +36569,7 @@
         <v>33724.548100909</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F90">
         <v>1142</v>
       </c>
@@ -36525,7 +36578,7 @@
         <v>35748.020986963544</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F91">
         <v>1166</v>
       </c>
@@ -36534,7 +36587,7 @@
         <v>37892.902246181358</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F92">
         <v>1188</v>
       </c>
@@ -36543,7 +36596,7 @@
         <v>40166.476380952241</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F93">
         <v>1212</v>
       </c>
@@ -36552,7 +36605,7 @@
         <v>42576.464963809376</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F94">
         <v>1236</v>
       </c>
@@ -36561,7 +36614,7 @@
         <v>45131.052861637938</v>
       </c>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F95">
         <v>1262</v>
       </c>
@@ -36570,7 +36623,7 @@
         <v>47838.916033336216</v>
       </c>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F96">
         <v>1286</v>
       </c>
@@ -36579,7 +36632,7 @@
         <v>50709.250995336391</v>
       </c>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F97">
         <v>1312</v>
       </c>
@@ -36588,7 +36641,7 @@
         <v>53751.806055056579</v>
       </c>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F98">
         <v>1338</v>
       </c>
@@ -36597,7 +36650,7 @@
         <v>56976.914418359978</v>
       </c>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F99">
         <v>1366</v>
       </c>
@@ -36606,7 +36659,7 @@
         <v>60395.529283461583</v>
       </c>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F100">
         <v>1392</v>
       </c>
@@ -36615,7 +36668,7 @@
         <v>64019.261040469282</v>
       </c>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F101">
         <v>1420</v>
       </c>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC6F4E7-D62C-4499-9B53-456522F2C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D826413-5030-4E98-8A42-00FAB45D34CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -956,7 +956,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C681" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S690" sqref="S690"/>
+      <selection pane="bottomRight" activeCell="K698" sqref="K698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35420,7 +35420,7 @@
         <v>99</v>
       </c>
       <c r="G696" s="26">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="H696">
         <v>20</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B9B04F-2FD8-4764-B7A0-7CFAC26C1E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4071AD1-7D71-4396-B8FB-E1573DB9D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="510" windowWidth="21705" windowHeight="13155" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30000,31001,31002,31003,31004</t>
+    <t>30000,31001,31002,31003,31004,31005,31006</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1078,10 +1078,10 @@
   <dimension ref="A1:S994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C789" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D987" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B795" sqref="B795"/>
+      <selection pane="bottomRight" activeCell="L796" sqref="L796:L992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4071AD1-7D71-4396-B8FB-E1573DB9D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B4388-6869-4FDF-9AA1-1BEE483A9833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="516" windowWidth="19356" windowHeight="10200" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
+    <workbookView xWindow="1284" yWindow="372" windowWidth="20316" windowHeight="11352" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30000,31001,31002,31003,31004,31005,31006</t>
+    <t>30000,31001,31002,31003,31004,31005,31006,31007,31008</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1078,10 +1078,10 @@
   <dimension ref="A1:S994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D987" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D792" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L796" sqref="L796:L992"/>
+      <selection pane="bottomRight" activeCell="B795" sqref="B795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6066811-D0F0-431A-A37E-083EE143776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA9D69-4E72-4A4D-AE3A-73B5186001A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="82">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -463,6 +463,10 @@
   </si>
   <si>
     <t>31001,31002,31003,31004,31005,31006,31007,31008</t>
+  </si>
+  <si>
+    <t>20000,20001</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1431,10 +1435,10 @@
   <dimension ref="A1:T994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C734" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L792" sqref="L792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -41274,8 +41278,8 @@
       <c r="K696" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L696" s="9">
-        <v>20000</v>
+      <c r="L696" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M696" s="7">
         <v>5</v>
@@ -41336,8 +41340,8 @@
       <c r="K697" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L697" s="9">
-        <v>20000</v>
+      <c r="L697" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M697" s="7">
         <v>5</v>
@@ -41398,8 +41402,8 @@
       <c r="K698" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L698" s="9">
-        <v>20000</v>
+      <c r="L698" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M698" s="7">
         <v>5</v>
@@ -41460,8 +41464,8 @@
       <c r="K699" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L699" s="9">
-        <v>20000</v>
+      <c r="L699" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M699" s="7">
         <v>5</v>
@@ -41522,8 +41526,8 @@
       <c r="K700" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L700" s="9">
-        <v>20000</v>
+      <c r="L700" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M700" s="7">
         <v>5</v>
@@ -41584,8 +41588,8 @@
       <c r="K701" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L701" s="9">
-        <v>20000</v>
+      <c r="L701" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M701" s="7">
         <v>5</v>
@@ -41646,8 +41650,8 @@
       <c r="K702" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L702" s="9">
-        <v>20000</v>
+      <c r="L702" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M702" s="7">
         <v>5</v>
@@ -41708,8 +41712,8 @@
       <c r="K703" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L703" s="9">
-        <v>20000</v>
+      <c r="L703" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M703" s="7">
         <v>5</v>
@@ -41770,8 +41774,8 @@
       <c r="K704" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L704" s="9">
-        <v>20000</v>
+      <c r="L704" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M704" s="7">
         <v>5</v>
@@ -41832,8 +41836,8 @@
       <c r="K705" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L705" s="9">
-        <v>20000</v>
+      <c r="L705" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M705" s="7">
         <v>5</v>
@@ -41894,8 +41898,8 @@
       <c r="K706" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L706" s="9">
-        <v>20000</v>
+      <c r="L706" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M706" s="7">
         <v>10</v>
@@ -41956,8 +41960,8 @@
       <c r="K707" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L707" s="9">
-        <v>20000</v>
+      <c r="L707" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M707" s="7">
         <v>10</v>
@@ -42018,8 +42022,8 @@
       <c r="K708" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L708" s="9">
-        <v>20000</v>
+      <c r="L708" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M708" s="7">
         <v>10</v>
@@ -42080,8 +42084,8 @@
       <c r="K709" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L709" s="9">
-        <v>20000</v>
+      <c r="L709" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M709" s="7">
         <v>10</v>
@@ -42142,8 +42146,8 @@
       <c r="K710" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L710" s="9">
-        <v>20000</v>
+      <c r="L710" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M710" s="7">
         <v>10</v>
@@ -42204,8 +42208,8 @@
       <c r="K711" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L711" s="9">
-        <v>20000</v>
+      <c r="L711" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M711" s="7">
         <v>10</v>
@@ -42266,8 +42270,8 @@
       <c r="K712" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L712" s="9">
-        <v>20000</v>
+      <c r="L712" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M712" s="7">
         <v>10</v>
@@ -42328,8 +42332,8 @@
       <c r="K713" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L713" s="9">
-        <v>20000</v>
+      <c r="L713" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M713" s="7">
         <v>10</v>
@@ -42390,8 +42394,8 @@
       <c r="K714" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L714" s="9">
-        <v>20000</v>
+      <c r="L714" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M714" s="7">
         <v>10</v>
@@ -42452,8 +42456,8 @@
       <c r="K715" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L715" s="9">
-        <v>20000</v>
+      <c r="L715" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M715" s="7">
         <v>20</v>
@@ -42514,8 +42518,8 @@
       <c r="K716" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L716" s="9">
-        <v>20000</v>
+      <c r="L716" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M716" s="7">
         <v>20</v>
@@ -42576,8 +42580,8 @@
       <c r="K717" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L717" s="9">
-        <v>20000</v>
+      <c r="L717" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M717" s="7">
         <v>20</v>
@@ -42638,8 +42642,8 @@
       <c r="K718" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L718" s="9">
-        <v>20000</v>
+      <c r="L718" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M718" s="7">
         <v>20</v>
@@ -42700,8 +42704,8 @@
       <c r="K719" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L719" s="9">
-        <v>20000</v>
+      <c r="L719" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M719" s="7">
         <v>20</v>
@@ -42762,8 +42766,8 @@
       <c r="K720" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L720" s="9">
-        <v>20000</v>
+      <c r="L720" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M720" s="7">
         <v>20</v>
@@ -42824,8 +42828,8 @@
       <c r="K721" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L721" s="9">
-        <v>20000</v>
+      <c r="L721" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M721" s="7">
         <v>20</v>
@@ -42886,8 +42890,8 @@
       <c r="K722" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L722" s="9">
-        <v>20000</v>
+      <c r="L722" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M722" s="7">
         <v>20</v>
@@ -42948,8 +42952,8 @@
       <c r="K723" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L723" s="9">
-        <v>20000</v>
+      <c r="L723" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M723" s="7">
         <v>20</v>
@@ -43010,8 +43014,8 @@
       <c r="K724" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L724" s="9">
-        <v>20000</v>
+      <c r="L724" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M724" s="7">
         <v>20</v>
@@ -43072,8 +43076,8 @@
       <c r="K725" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L725" s="9">
-        <v>20000</v>
+      <c r="L725" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M725" s="7">
         <v>20</v>
@@ -43134,8 +43138,8 @@
       <c r="K726" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L726" s="9">
-        <v>20000</v>
+      <c r="L726" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M726" s="7">
         <v>30</v>
@@ -43196,8 +43200,8 @@
       <c r="K727" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L727" s="9">
-        <v>20000</v>
+      <c r="L727" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M727" s="7">
         <v>30</v>
@@ -43258,8 +43262,8 @@
       <c r="K728" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L728" s="9">
-        <v>20000</v>
+      <c r="L728" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M728" s="7">
         <v>30</v>
@@ -43320,8 +43324,8 @@
       <c r="K729" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L729" s="9">
-        <v>20000</v>
+      <c r="L729" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M729" s="7">
         <v>30</v>
@@ -43382,8 +43386,8 @@
       <c r="K730" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L730" s="9">
-        <v>20000</v>
+      <c r="L730" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M730" s="7">
         <v>30</v>
@@ -43444,8 +43448,8 @@
       <c r="K731" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L731" s="9">
-        <v>20000</v>
+      <c r="L731" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M731" s="7">
         <v>30</v>
@@ -43506,8 +43510,8 @@
       <c r="K732" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L732" s="9">
-        <v>20000</v>
+      <c r="L732" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M732" s="7">
         <v>30</v>
@@ -43568,8 +43572,8 @@
       <c r="K733" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L733" s="9">
-        <v>20000</v>
+      <c r="L733" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M733" s="7">
         <v>30</v>
@@ -43630,8 +43634,8 @@
       <c r="K734" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L734" s="9">
-        <v>20000</v>
+      <c r="L734" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M734" s="7">
         <v>30</v>
@@ -43692,8 +43696,8 @@
       <c r="K735" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L735" s="9">
-        <v>20000</v>
+      <c r="L735" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M735" s="7">
         <v>30</v>
@@ -43754,8 +43758,8 @@
       <c r="K736" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L736" s="9">
-        <v>20000</v>
+      <c r="L736" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M736" s="7">
         <v>50</v>
@@ -43816,8 +43820,8 @@
       <c r="K737" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L737" s="9">
-        <v>20000</v>
+      <c r="L737" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M737" s="7">
         <v>50</v>
@@ -43878,8 +43882,8 @@
       <c r="K738" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L738" s="9">
-        <v>20000</v>
+      <c r="L738" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M738" s="7">
         <v>50</v>
@@ -43940,8 +43944,8 @@
       <c r="K739" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L739" s="9">
-        <v>20000</v>
+      <c r="L739" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M739" s="7">
         <v>50</v>
@@ -44002,8 +44006,8 @@
       <c r="K740" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L740" s="9">
-        <v>20000</v>
+      <c r="L740" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M740" s="7">
         <v>50</v>
@@ -44064,8 +44068,8 @@
       <c r="K741" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L741" s="9">
-        <v>20000</v>
+      <c r="L741" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M741" s="7">
         <v>50</v>
@@ -44126,8 +44130,8 @@
       <c r="K742" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L742" s="9">
-        <v>20000</v>
+      <c r="L742" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M742" s="7">
         <v>50</v>
@@ -44188,8 +44192,8 @@
       <c r="K743" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L743" s="9">
-        <v>20000</v>
+      <c r="L743" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M743" s="7">
         <v>50</v>
@@ -44250,8 +44254,8 @@
       <c r="K744" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L744" s="9">
-        <v>20000</v>
+      <c r="L744" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M744" s="7">
         <v>50</v>
@@ -44312,8 +44316,8 @@
       <c r="K745" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L745" s="9">
-        <v>20000</v>
+      <c r="L745" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M745" s="7">
         <v>50</v>
@@ -44374,8 +44378,8 @@
       <c r="K746" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L746" s="9">
-        <v>20000</v>
+      <c r="L746" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M746" s="7">
         <v>70</v>
@@ -44436,8 +44440,8 @@
       <c r="K747" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L747" s="9">
-        <v>20000</v>
+      <c r="L747" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M747" s="7">
         <v>70</v>
@@ -44498,8 +44502,8 @@
       <c r="K748" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L748" s="9">
-        <v>20000</v>
+      <c r="L748" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M748" s="7">
         <v>70</v>
@@ -44560,8 +44564,8 @@
       <c r="K749" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L749" s="9">
-        <v>20000</v>
+      <c r="L749" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M749" s="7">
         <v>70</v>
@@ -44622,8 +44626,8 @@
       <c r="K750" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L750" s="9">
-        <v>20000</v>
+      <c r="L750" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M750" s="7">
         <v>70</v>
@@ -44684,8 +44688,8 @@
       <c r="K751" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L751" s="9">
-        <v>20000</v>
+      <c r="L751" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M751" s="7">
         <v>70</v>
@@ -44746,8 +44750,8 @@
       <c r="K752" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L752" s="9">
-        <v>20000</v>
+      <c r="L752" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M752" s="7">
         <v>70</v>
@@ -44808,8 +44812,8 @@
       <c r="K753" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L753" s="9">
-        <v>20000</v>
+      <c r="L753" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M753" s="7">
         <v>70</v>
@@ -44870,8 +44874,8 @@
       <c r="K754" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L754" s="9">
-        <v>20000</v>
+      <c r="L754" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M754" s="7">
         <v>70</v>
@@ -44932,8 +44936,8 @@
       <c r="K755" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L755" s="9">
-        <v>20000</v>
+      <c r="L755" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M755" s="7">
         <v>70</v>
@@ -44994,8 +44998,8 @@
       <c r="K756" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L756" s="9">
-        <v>20000</v>
+      <c r="L756" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M756" s="7">
         <v>100</v>
@@ -45056,8 +45060,8 @@
       <c r="K757" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L757" s="9">
-        <v>20000</v>
+      <c r="L757" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M757" s="7">
         <v>100</v>
@@ -45118,8 +45122,8 @@
       <c r="K758" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L758" s="9">
-        <v>20000</v>
+      <c r="L758" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M758" s="7">
         <v>100</v>
@@ -45180,8 +45184,8 @@
       <c r="K759" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L759" s="9">
-        <v>20000</v>
+      <c r="L759" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M759" s="7">
         <v>100</v>
@@ -45242,8 +45246,8 @@
       <c r="K760" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L760" s="9">
-        <v>20000</v>
+      <c r="L760" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M760" s="7">
         <v>100</v>
@@ -45304,8 +45308,8 @@
       <c r="K761" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L761" s="9">
-        <v>20000</v>
+      <c r="L761" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M761" s="7">
         <v>100</v>
@@ -45366,8 +45370,8 @@
       <c r="K762" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L762" s="9">
-        <v>20000</v>
+      <c r="L762" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M762" s="7">
         <v>100</v>
@@ -45428,8 +45432,8 @@
       <c r="K763" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L763" s="9">
-        <v>20000</v>
+      <c r="L763" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M763" s="7">
         <v>100</v>
@@ -45490,8 +45494,8 @@
       <c r="K764" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L764" s="9">
-        <v>20000</v>
+      <c r="L764" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M764" s="7">
         <v>100</v>
@@ -45552,8 +45556,8 @@
       <c r="K765" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L765" s="9">
-        <v>20000</v>
+      <c r="L765" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M765" s="7">
         <v>100</v>
@@ -45614,8 +45618,8 @@
       <c r="K766" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L766" s="9">
-        <v>20000</v>
+      <c r="L766" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M766" s="7">
         <v>100</v>
@@ -45676,8 +45680,8 @@
       <c r="K767" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L767" s="9">
-        <v>20000</v>
+      <c r="L767" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M767" s="7">
         <v>100</v>
@@ -45738,8 +45742,8 @@
       <c r="K768" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L768" s="9">
-        <v>20000</v>
+      <c r="L768" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M768" s="7">
         <v>100</v>
@@ -45800,8 +45804,8 @@
       <c r="K769" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L769" s="9">
-        <v>20000</v>
+      <c r="L769" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M769" s="7">
         <v>100</v>
@@ -45862,8 +45866,8 @@
       <c r="K770" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L770" s="9">
-        <v>20000</v>
+      <c r="L770" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M770" s="7">
         <v>100</v>
@@ -45924,8 +45928,8 @@
       <c r="K771" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L771" s="9">
-        <v>20000</v>
+      <c r="L771" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M771" s="7">
         <v>100</v>
@@ -45986,8 +45990,8 @@
       <c r="K772" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L772" s="9">
-        <v>20000</v>
+      <c r="L772" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M772" s="7">
         <v>100</v>
@@ -46048,8 +46052,8 @@
       <c r="K773" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L773" s="9">
-        <v>20000</v>
+      <c r="L773" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M773" s="7">
         <v>100</v>
@@ -46110,8 +46114,8 @@
       <c r="K774" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L774" s="9">
-        <v>20000</v>
+      <c r="L774" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M774" s="7">
         <v>100</v>
@@ -46172,8 +46176,8 @@
       <c r="K775" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L775" s="9">
-        <v>20000</v>
+      <c r="L775" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M775" s="7">
         <v>100</v>
@@ -46234,8 +46238,8 @@
       <c r="K776" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L776" s="9">
-        <v>20000</v>
+      <c r="L776" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M776" s="7">
         <v>100</v>
@@ -46296,8 +46300,8 @@
       <c r="K777" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L777" s="9">
-        <v>20000</v>
+      <c r="L777" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M777" s="7">
         <v>100</v>
@@ -46358,8 +46362,8 @@
       <c r="K778" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L778" s="9">
-        <v>20000</v>
+      <c r="L778" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M778" s="7">
         <v>100</v>
@@ -46420,8 +46424,8 @@
       <c r="K779" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L779" s="9">
-        <v>20000</v>
+      <c r="L779" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M779" s="7">
         <v>100</v>
@@ -46482,8 +46486,8 @@
       <c r="K780" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L780" s="9">
-        <v>20000</v>
+      <c r="L780" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M780" s="7">
         <v>100</v>
@@ -46544,8 +46548,8 @@
       <c r="K781" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L781" s="9">
-        <v>20000</v>
+      <c r="L781" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M781" s="7">
         <v>100</v>
@@ -46606,8 +46610,8 @@
       <c r="K782" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L782" s="9">
-        <v>20000</v>
+      <c r="L782" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M782" s="7">
         <v>100</v>
@@ -46668,8 +46672,8 @@
       <c r="K783" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L783" s="9">
-        <v>20000</v>
+      <c r="L783" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M783" s="7">
         <v>100</v>
@@ -46730,8 +46734,8 @@
       <c r="K784" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L784" s="9">
-        <v>20000</v>
+      <c r="L784" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M784" s="7">
         <v>100</v>
@@ -46792,8 +46796,8 @@
       <c r="K785" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L785" s="9">
-        <v>20000</v>
+      <c r="L785" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M785" s="7">
         <v>100</v>
@@ -46854,8 +46858,8 @@
       <c r="K786" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L786" s="9">
-        <v>20000</v>
+      <c r="L786" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M786" s="7">
         <v>100</v>
@@ -46916,8 +46920,8 @@
       <c r="K787" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L787" s="9">
-        <v>20000</v>
+      <c r="L787" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M787" s="7">
         <v>100</v>
@@ -46978,8 +46982,8 @@
       <c r="K788" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L788" s="9">
-        <v>20000</v>
+      <c r="L788" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M788" s="7">
         <v>100</v>
@@ -47040,8 +47044,8 @@
       <c r="K789" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L789" s="9">
-        <v>20000</v>
+      <c r="L789" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M789" s="7">
         <v>100</v>
@@ -47102,8 +47106,8 @@
       <c r="K790" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L790" s="9">
-        <v>20000</v>
+      <c r="L790" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M790" s="7">
         <v>100</v>
@@ -47164,8 +47168,8 @@
       <c r="K791" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L791" s="9">
-        <v>20000</v>
+      <c r="L791" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M791" s="7">
         <v>100</v>
@@ -47226,8 +47230,8 @@
       <c r="K792" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L792" s="9">
-        <v>20000</v>
+      <c r="L792" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M792" s="7">
         <v>100</v>
@@ -47288,8 +47292,8 @@
       <c r="K793" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L793" s="9">
-        <v>20000</v>
+      <c r="L793" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M793" s="7">
         <v>100</v>
@@ -47350,8 +47354,8 @@
       <c r="K794" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L794" s="9">
-        <v>20000</v>
+      <c r="L794" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="M794" s="7">
         <v>100</v>

--- a/Config/Excel/Character.xlsx
+++ b/Config/Excel/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA9D69-4E72-4A4D-AE3A-73B5186001A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8626705F-B2F1-44B1-9361-E05523F433B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{783A4908-2E1D-4CDA-894C-2389DB57EF2D}"/>
   </bookViews>
@@ -444,28 +444,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30001,30002</t>
+    <t>20000,20001</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30005,30006</t>
+    <t>30001,30002,30013,30014</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30003,30004</t>
+    <t>30005,30006,30017,30018</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30011,30012</t>
+    <t>30003,30004,30015,30016</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30009,30010</t>
+    <t>30011,30012,30023,30024</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30007,30008</t>
+    <t>30009,30010,30021,30022</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>31001,31002,31003,31004,31005,31006,31007,31008</t>
+    <t>30007,30008,30019,30020</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>20000,20001</t>
+    <t>31001,31002,31003,31004,31005</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1435,10 +1442,10 @@
   <dimension ref="A1:T994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C734" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C871" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L792" sqref="L792"/>
+      <selection pane="bottomRight" activeCell="L989" sqref="L989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1450,7 +1457,7 @@
     <col min="7" max="7" width="12" style="8" customWidth="1"/>
     <col min="8" max="10" width="8.875" style="7"/>
     <col min="11" max="11" width="9" style="9"/>
-    <col min="12" max="12" width="19.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.875" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="8.875" style="7"/>
     <col min="20" max="20" width="10.375" style="7" customWidth="1"/>
     <col min="21" max="16384" width="8.875" style="7"/>
@@ -4451,7 +4458,7 @@
         <v>29</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M102" s="7">
         <v>5</v>
@@ -4513,7 +4520,7 @@
         <v>29</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M103" s="7">
         <v>5</v>
@@ -4575,7 +4582,7 @@
         <v>40</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M104" s="7">
         <v>5</v>
@@ -4637,7 +4644,7 @@
         <v>40</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M105" s="7">
         <v>5</v>
@@ -4699,7 +4706,7 @@
         <v>40</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M106" s="7">
         <v>5</v>
@@ -4761,7 +4768,7 @@
         <v>40</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M107" s="7">
         <v>5</v>
@@ -4823,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M108" s="7">
         <v>5</v>
@@ -4885,7 +4892,7 @@
         <v>40</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M109" s="7">
         <v>5</v>
@@ -4947,7 +4954,7 @@
         <v>40</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M110" s="7">
         <v>5</v>
@@ -5009,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M111" s="7">
         <v>5</v>
@@ -5071,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M112" s="7">
         <v>10</v>
@@ -5133,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M113" s="7">
         <v>10</v>
@@ -5195,7 +5202,7 @@
         <v>40</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M114" s="7">
         <v>10</v>
@@ -5257,7 +5264,7 @@
         <v>40</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M115" s="7">
         <v>10</v>
@@ -5319,7 +5326,7 @@
         <v>40</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M116" s="7">
         <v>10</v>
@@ -5381,7 +5388,7 @@
         <v>40</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M117" s="7">
         <v>10</v>
@@ -5443,7 +5450,7 @@
         <v>40</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M118" s="7">
         <v>10</v>
@@ -5505,7 +5512,7 @@
         <v>40</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M119" s="7">
         <v>10</v>
@@ -5567,7 +5574,7 @@
         <v>40</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M120" s="7">
         <v>10</v>
@@ -5629,7 +5636,7 @@
         <v>40</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M121" s="7">
         <v>20</v>
@@ -5691,7 +5698,7 @@
         <v>40</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M122" s="7">
         <v>20</v>
@@ -5753,7 +5760,7 @@
         <v>40</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M123" s="7">
         <v>20</v>
@@ -5815,7 +5822,7 @@
         <v>40</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M124" s="7">
         <v>20</v>
@@ -5877,7 +5884,7 @@
         <v>40</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M125" s="7">
         <v>20</v>
@@ -5939,7 +5946,7 @@
         <v>40</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M126" s="7">
         <v>20</v>
@@ -6001,7 +6008,7 @@
         <v>40</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M127" s="7">
         <v>20</v>
@@ -6063,7 +6070,7 @@
         <v>40</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M128" s="7">
         <v>20</v>
@@ -6125,7 +6132,7 @@
         <v>40</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M129" s="7">
         <v>20</v>
@@ -6187,7 +6194,7 @@
         <v>40</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M130" s="7">
         <v>20</v>
@@ -6249,7 +6256,7 @@
         <v>40</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M131" s="7">
         <v>20</v>
@@ -6311,7 +6318,7 @@
         <v>40</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M132" s="7">
         <v>30</v>
@@ -6373,7 +6380,7 @@
         <v>40</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M133" s="7">
         <v>30</v>
@@ -6435,7 +6442,7 @@
         <v>40</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M134" s="7">
         <v>30</v>
@@ -6497,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M135" s="7">
         <v>30</v>
@@ -6559,7 +6566,7 @@
         <v>40</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M136" s="7">
         <v>30</v>
@@ -6621,7 +6628,7 @@
         <v>40</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M137" s="7">
         <v>30</v>
@@ -6683,7 +6690,7 @@
         <v>40</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M138" s="7">
         <v>30</v>
@@ -6745,7 +6752,7 @@
         <v>40</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M139" s="7">
         <v>30</v>
@@ -6807,7 +6814,7 @@
         <v>40</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M140" s="7">
         <v>30</v>
@@ -6869,7 +6876,7 @@
         <v>40</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M141" s="7">
         <v>30</v>
@@ -6931,7 +6938,7 @@
         <v>40</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M142" s="7">
         <v>50</v>
@@ -6993,7 +7000,7 @@
         <v>40</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M143" s="7">
         <v>50</v>
@@ -7055,7 +7062,7 @@
         <v>40</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M144" s="7">
         <v>50</v>
@@ -7117,7 +7124,7 @@
         <v>40</v>
       </c>
       <c r="L145" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M145" s="7">
         <v>50</v>
@@ -7179,7 +7186,7 @@
         <v>40</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M146" s="7">
         <v>50</v>
@@ -7241,7 +7248,7 @@
         <v>40</v>
       </c>
       <c r="L147" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M147" s="7">
         <v>50</v>
@@ -7303,7 +7310,7 @@
         <v>40</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M148" s="7">
         <v>50</v>
@@ -7365,7 +7372,7 @@
         <v>40</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M149" s="7">
         <v>50</v>
@@ -7427,7 +7434,7 @@
         <v>40</v>
       </c>
       <c r="L150" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M150" s="7">
         <v>50</v>
@@ -7489,7 +7496,7 @@
         <v>40</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M151" s="7">
         <v>50</v>
@@ -7551,7 +7558,7 @@
         <v>40</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M152" s="7">
         <v>70</v>
@@ -7613,7 +7620,7 @@
         <v>40</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M153" s="7">
         <v>70</v>
@@ -7675,7 +7682,7 @@
         <v>40</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M154" s="7">
         <v>70</v>
@@ -7737,7 +7744,7 @@
         <v>40</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M155" s="7">
         <v>70</v>
@@ -7799,7 +7806,7 @@
         <v>40</v>
       </c>
       <c r="L156" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M156" s="7">
         <v>70</v>
@@ -7861,7 +7868,7 @@
         <v>40</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M157" s="7">
         <v>70</v>
@@ -7923,7 +7930,7 @@
         <v>40</v>
       </c>
       <c r="L158" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M158" s="7">
         <v>70</v>
@@ -7985,7 +7992,7 @@
         <v>40</v>
       </c>
       <c r="L159" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M159" s="7">
         <v>70</v>
@@ -8047,7 +8054,7 @@
         <v>40</v>
       </c>
       <c r="L160" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M160" s="7">
         <v>70</v>
@@ -8109,7 +8116,7 @@
         <v>40</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M161" s="7">
         <v>70</v>
@@ -8171,7 +8178,7 @@
         <v>40</v>
       </c>
       <c r="L162" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M162" s="7">
         <v>100</v>
@@ -8233,7 +8240,7 @@
         <v>40</v>
       </c>
       <c r="L163" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M163" s="7">
         <v>100</v>
@@ -8295,7 +8302,7 @@
         <v>40</v>
       </c>
       <c r="L164" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M164" s="7">
         <v>100</v>
@@ -8357,7 +8364,7 @@
         <v>40</v>
       </c>
       <c r="L165" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M165" s="7">
         <v>100</v>
@@ -8419,7 +8426,7 @@
         <v>40</v>
       </c>
       <c r="L166" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M166" s="7">
         <v>100</v>
@@ -8481,7 +8488,7 @@
         <v>40</v>
       </c>
       <c r="L167" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M167" s="7">
         <v>100</v>
@@ -8543,7 +8550,7 @@
         <v>40</v>
       </c>
       <c r="L168" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M168" s="7">
         <v>100</v>
@@ -8605,7 +8612,7 @@
         <v>40</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M169" s="7">
         <v>100</v>
@@ -8667,7 +8674,7 @@
         <v>40</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M170" s="7">
         <v>100</v>
@@ -8729,7 +8736,7 @@
         <v>40</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M171" s="7">
         <v>100</v>
@@ -8791,7 +8798,7 @@
         <v>40</v>
       </c>
       <c r="L172" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M172" s="7">
         <v>100</v>
@@ -8853,7 +8860,7 @@
         <v>40</v>
       </c>
       <c r="L173" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M173" s="7">
         <v>100</v>
@@ -8915,7 +8922,7 @@
         <v>40</v>
       </c>
       <c r="L174" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M174" s="7">
         <v>100</v>
@@ -8977,7 +8984,7 @@
         <v>40</v>
       </c>
       <c r="L175" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M175" s="7">
         <v>100</v>
@@ -9039,7 +9046,7 @@
         <v>40</v>
       </c>
       <c r="L176" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M176" s="7">
         <v>100</v>
@@ -9101,7 +9108,7 @@
         <v>40</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M177" s="7">
         <v>100</v>
@@ -9163,7 +9170,7 @@
         <v>40</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M178" s="7">
         <v>100</v>
@@ -9225,7 +9232,7 @@
         <v>40</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M179" s="7">
         <v>100</v>
@@ -9287,7 +9294,7 @@
         <v>40</v>
       </c>
       <c r="L180" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M180" s="7">
         <v>100</v>
@@ -9349,7 +9356,7 @@
         <v>40</v>
       </c>
       <c r="L181" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M181" s="7">
         <v>100</v>
@@ -9411,7 +9418,7 @@
         <v>40</v>
       </c>
       <c r="L182" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M182" s="7">
         <v>100</v>
@@ -9473,7 +9480,7 @@
         <v>40</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M183" s="7">
         <v>100</v>
@@ -9535,7 +9542,7 @@
         <v>40</v>
       </c>
       <c r="L184" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M184" s="7">
         <v>100</v>
@@ -9597,7 +9604,7 @@
         <v>40</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M185" s="7">
         <v>100</v>
@@ -9659,7 +9666,7 @@
         <v>40</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M186" s="7">
         <v>100</v>
@@ -9721,7 +9728,7 @@
         <v>40</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M187" s="7">
         <v>100</v>
@@ -9783,7 +9790,7 @@
         <v>40</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M188" s="7">
         <v>100</v>
@@ -9845,7 +9852,7 @@
         <v>40</v>
       </c>
       <c r="L189" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M189" s="7">
         <v>100</v>
@@ -9907,7 +9914,7 @@
         <v>40</v>
       </c>
       <c r="L190" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M190" s="7">
         <v>100</v>
@@ -9969,7 +9976,7 @@
         <v>40</v>
       </c>
       <c r="L191" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M191" s="7">
         <v>100</v>
@@ -10031,7 +10038,7 @@
         <v>40</v>
       </c>
       <c r="L192" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M192" s="7">
         <v>100</v>
@@ -10093,7 +10100,7 @@
         <v>40</v>
       </c>
       <c r="L193" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M193" s="7">
         <v>100</v>
@@ -10155,7 +10162,7 @@
         <v>40</v>
       </c>
       <c r="L194" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M194" s="7">
         <v>100</v>
@@ -10217,7 +10224,7 @@
         <v>40</v>
       </c>
       <c r="L195" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M195" s="7">
         <v>100</v>
@@ -10279,7 +10286,7 @@
         <v>40</v>
       </c>
       <c r="L196" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M196" s="7">
         <v>100</v>
@@ -10341,7 +10348,7 @@
         <v>40</v>
       </c>
       <c r="L197" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M197" s="7">
         <v>100</v>
@@ -10403,7 +10410,7 @@
         <v>40</v>
       </c>
       <c r="L198" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M198" s="7">
         <v>100</v>
@@ -10465,7 +10472,7 @@
         <v>40</v>
       </c>
       <c r="L199" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M199" s="7">
         <v>100</v>
@@ -10527,7 +10534,7 @@
         <v>40</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M200" s="7">
         <v>100</v>
@@ -10589,7 +10596,7 @@
         <v>40</v>
       </c>
       <c r="L201" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M201" s="7">
         <v>5</v>
@@ -10651,7 +10658,7 @@
         <v>40</v>
       </c>
       <c r="L202" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M202" s="7">
         <v>5</v>
@@ -10713,7 +10720,7 @@
         <v>40</v>
       </c>
       <c r="L203" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M203" s="7">
         <v>5</v>
@@ -10775,7 +10782,7 @@
         <v>40</v>
       </c>
       <c r="L204" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M204" s="7">
         <v>5</v>
@@ -10837,7 +10844,7 @@
         <v>40</v>
       </c>
       <c r="L205" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M205" s="7">
         <v>5</v>
@@ -10899,7 +10906,7 @@
         <v>40</v>
       </c>
       <c r="L206" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M206" s="7">
         <v>5</v>
@@ -10961,7 +10968,7 @@
         <v>40</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M207" s="7">
         <v>5</v>
@@ -11023,7 +11030,7 @@
         <v>40</v>
       </c>
       <c r="L208" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M208" s="7">
         <v>5</v>
@@ -11085,7 +11092,7 @@
         <v>40</v>
       </c>
       <c r="L209" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M209" s="7">
         <v>5</v>
@@ -11147,7 +11154,7 @@
         <v>40</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M210" s="7">
         <v>5</v>
@@ -11209,7 +11216,7 @@
         <v>40</v>
       </c>
       <c r="L211" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M211" s="7">
         <v>10</v>
@@ -11271,7 +11278,7 @@
         <v>40</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M212" s="7">
         <v>10</v>
@@ -11333,7 +11340,7 @@
         <v>40</v>
       </c>
       <c r="L213" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M213" s="7">
         <v>10</v>
@@ -11395,7 +11402,7 @@
         <v>40</v>
       </c>
       <c r="L214" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M214" s="7">
         <v>10</v>
@@ -11457,7 +11464,7 @@
         <v>40</v>
       </c>
       <c r="L215" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M215" s="7">
         <v>10</v>
@@ -11519,7 +11526,7 @@
         <v>40</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M216" s="7">
         <v>10</v>
@@ -11581,7 +11588,7 @@
         <v>40</v>
       </c>
       <c r="L217" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M217" s="7">
         <v>10</v>
@@ -11643,7 +11650,7 @@
         <v>40</v>
       </c>
       <c r="L218" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M218" s="7">
         <v>10</v>
@@ -11705,7 +11712,7 @@
         <v>40</v>
       </c>
       <c r="L219" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M219" s="7">
         <v>10</v>
@@ -11767,7 +11774,7 @@
         <v>40</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M220" s="7">
         <v>20</v>
@@ -11829,7 +11836,7 @@
         <v>40</v>
       </c>
       <c r="L221" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M221" s="7">
         <v>20</v>
@@ -11891,7 +11898,7 @@
         <v>40</v>
       </c>
       <c r="L222" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M222" s="7">
         <v>20</v>
@@ -11953,7 +11960,7 @@
         <v>40</v>
       </c>
       <c r="L223" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M223" s="7">
         <v>20</v>
@@ -12015,7 +12022,7 @@
         <v>40</v>
       </c>
       <c r="L224" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M224" s="7">
         <v>20</v>
@@ -12077,7 +12084,7 @@
         <v>40</v>
       </c>
       <c r="L225" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M225" s="7">
         <v>20</v>
@@ -12139,7 +12146,7 @@
         <v>40</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M226" s="7">
         <v>20</v>
@@ -12201,7 +12208,7 @@
         <v>40</v>
       </c>
       <c r="L227" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M227" s="7">
         <v>20</v>
@@ -12263,7 +12270,7 @@
         <v>40</v>
       </c>
       <c r="L228" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M228" s="7">
         <v>20</v>
@@ -12325,7 +12332,7 @@
         <v>40</v>
       </c>
       <c r="L229" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M229" s="7">
         <v>20</v>
@@ -12387,7 +12394,7 @@
         <v>40</v>
       </c>
       <c r="L230" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M230" s="7">
         <v>20</v>
@@ -12449,7 +12456,7 @@
         <v>40</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M231" s="7">
         <v>30</v>
@@ -12511,7 +12518,7 @@
         <v>40</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M232" s="7">
         <v>30</v>
@@ -12573,7 +12580,7 @@
         <v>40</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M233" s="7">
         <v>30</v>
@@ -12635,7 +12642,7 @@
         <v>40</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M234" s="7">
         <v>30</v>
@@ -12697,7 +12704,7 @@
         <v>40</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M235" s="7">
         <v>30</v>
@@ -12759,7 +12766,7 @@
         <v>40</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M236" s="7">
         <v>30</v>
@@ -12821,7 +12828,7 @@
         <v>40</v>
       </c>
       <c r="L237" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M237" s="7">
         <v>30</v>
@@ -12883,7 +12890,7 @@
         <v>40</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M238" s="7">
         <v>30</v>
@@ -12945,7 +12952,7 @@
         <v>40</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M239" s="7">
         <v>30</v>
@@ -13007,7 +13014,7 @@
         <v>40</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M240" s="7">
         <v>30</v>
@@ -13069,7 +13076,7 @@
         <v>40</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M241" s="7">
         <v>50</v>
@@ -13131,7 +13138,7 @@
         <v>40</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M242" s="7">
         <v>50</v>
@@ -13193,7 +13200,7 @@
         <v>40</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M243" s="7">
         <v>50</v>
@@ -13255,7 +13262,7 @@
         <v>40</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M244" s="7">
         <v>50</v>
@@ -13317,7 +13324,7 @@
         <v>40</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M245" s="7">
         <v>50</v>
@@ -13379,7 +13386,7 @@
         <v>40</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M246" s="7">
         <v>50</v>
@@ -13441,7 +13448,7 @@
         <v>40</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M247" s="7">
         <v>50</v>
@@ -13503,7 +13510,7 @@
         <v>40</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M248" s="7">
         <v>50</v>
@@ -13565,7 +13572,7 @@
         <v>40</v>
       </c>
       <c r="L249" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M249" s="7">
         <v>50</v>
@@ -13627,7 +13634,7 @@
         <v>40</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M250" s="7">
         <v>50</v>
@@ -13689,7 +13696,7 @@
         <v>40</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M251" s="7">
         <v>70</v>
@@ -13751,7 +13758,7 @@
         <v>40</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M252" s="7">
         <v>70</v>
@@ -13813,7 +13820,7 @@
         <v>40</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M253" s="7">
         <v>70</v>
@@ -13875,7 +13882,7 @@
         <v>40</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M254" s="7">
         <v>70</v>
@@ -13937,7 +13944,7 @@
         <v>40</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M255" s="7">
         <v>70</v>
@@ -13999,7 +14006,7 @@
         <v>40</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M256" s="7">
         <v>70</v>
@@ -14061,7 +14068,7 @@
         <v>40</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M257" s="7">
         <v>70</v>
@@ -14123,7 +14130,7 @@
         <v>40</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M258" s="7">
         <v>70</v>
@@ -14185,7 +14192,7 @@
         <v>40</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M259" s="7">
         <v>70</v>
@@ -14247,7 +14254,7 @@
         <v>40</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M260" s="7">
         <v>70</v>
@@ -14309,7 +14316,7 @@
         <v>40</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M261" s="7">
         <v>100</v>
@@ -14371,7 +14378,7 @@
         <v>40</v>
       </c>
       <c r="L262" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M262" s="7">
         <v>100</v>
@@ -14433,7 +14440,7 @@
         <v>40</v>
       </c>
       <c r="L263" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M263" s="7">
         <v>100</v>
@@ -14495,7 +14502,7 @@
         <v>40</v>
       </c>
       <c r="L264" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M264" s="7">
         <v>100</v>
@@ -14557,7 +14564,7 @@
         <v>40</v>
       </c>
       <c r="L265" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M265" s="7">
         <v>100</v>
@@ -14619,7 +14626,7 @@
         <v>40</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M266" s="7">
         <v>100</v>
@@ -14681,7 +14688,7 @@
         <v>40</v>
       </c>
       <c r="L267" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M267" s="7">
         <v>100</v>
@@ -14743,7 +14750,7 @@
         <v>40</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M268" s="7">
         <v>100</v>
@@ -14805,7 +14812,7 @@
         <v>40</v>
       </c>
       <c r="L269" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M269" s="7">
         <v>100</v>
@@ -14867,7 +14874,7 @@
         <v>40</v>
       </c>
       <c r="L270" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M270" s="7">
         <v>100</v>
@@ -14929,7 +14936,7 @@
         <v>40</v>
       </c>
       <c r="L271" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M271" s="7">
         <v>100</v>
@@ -14991,7 +14998,7 @@
         <v>40</v>
       </c>
       <c r="L272" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M272" s="7">
         <v>100</v>
@@ -15053,7 +15060,7 @@
         <v>40</v>
       </c>
       <c r="L273" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M273" s="7">
         <v>100</v>
@@ -15115,7 +15122,7 @@
         <v>40</v>
       </c>
       <c r="L274" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M274" s="7">
         <v>100</v>
@@ -15177,7 +15184,7 @@
         <v>40</v>
       </c>
       <c r="L275" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M275" s="7">
         <v>100</v>
@@ -15239,7 +15246,7 @@
         <v>40</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M276" s="7">
         <v>100</v>
@@ -15301,7 +15308,7 @@
         <v>40</v>
       </c>
       <c r="L277" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M277" s="7">
         <v>100</v>
@@ -15363,7 +15370,7 @@
         <v>40</v>
       </c>
       <c r="L278" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M278" s="7">
         <v>100</v>
@@ -15425,7 +15432,7 @@
         <v>40</v>
       </c>
       <c r="L279" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M279" s="7">
         <v>100</v>
@@ -15487,7 +15494,7 @@
         <v>40</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M280" s="7">
         <v>100</v>
@@ -15549,7 +15556,7 @@
         <v>40</v>
       </c>
       <c r="L281" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M281" s="7">
         <v>100</v>
@@ -15611,7 +15618,7 @@
         <v>40</v>
       </c>
       <c r="L282" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M282" s="7">
         <v>100</v>
@@ -15673,7 +15680,7 @@
         <v>40</v>
       </c>
       <c r="L283" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M283" s="7">
         <v>100</v>
@@ -15735,7 +15742,7 @@
         <v>40</v>
       </c>
       <c r="L284" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M284" s="7">
         <v>100</v>
@@ -15797,7 +15804,7 @@
         <v>40</v>
       </c>
       <c r="L285" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M285" s="7">
         <v>100</v>
@@ -15859,7 +15866,7 @@
         <v>40</v>
       </c>
       <c r="L286" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M286" s="7">
         <v>100</v>
@@ -15921,7 +15928,7 @@
         <v>40</v>
       </c>
       <c r="L287" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M287" s="7">
         <v>100</v>
@@ -15983,7 +15990,7 @@
         <v>40</v>
       </c>
       <c r="L288" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M288" s="7">
         <v>100</v>
@@ -16045,7 +16052,7 @@
         <v>40</v>
       </c>
       <c r="L289" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M289" s="7">
         <v>100</v>
@@ -16107,7 +16114,7 @@
         <v>40</v>
       </c>
       <c r="L290" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M290" s="7">
         <v>100</v>
@@ -16169,7 +16176,7 @@
         <v>40</v>
       </c>
       <c r="L291" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M291" s="7">
         <v>100</v>
@@ -16231,7 +16238,7 @@
         <v>40</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M292" s="7">
         <v>100</v>
@@ -16293,7 +16300,7 @@
         <v>40</v>
       </c>
       <c r="L293" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M293" s="7">
         <v>100</v>
@@ -16355,7 +16362,7 @@
         <v>40</v>
       </c>
       <c r="L294" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M294" s="7">
         <v>100</v>
@@ -16417,7 +16424,7 @@
         <v>40</v>
       </c>
       <c r="L295" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M295" s="7">
         <v>100</v>
@@ -16479,7 +16486,7 @@
         <v>40</v>
       </c>
       <c r="L296" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M296" s="7">
         <v>100</v>
@@ -16541,7 +16548,7 @@
         <v>40</v>
       </c>
       <c r="L297" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M297" s="7">
         <v>100</v>
@@ -16603,7 +16610,7 @@
         <v>40</v>
       </c>
       <c r="L298" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M298" s="7">
         <v>100</v>
@@ -16665,7 +16672,7 @@
         <v>40</v>
       </c>
       <c r="L299" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M299" s="7">
         <v>100</v>
@@ -16727,7 +16734,7 @@
         <v>40</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M300" s="7">
         <v>5</v>
@@ -16789,7 +16796,7 @@
         <v>40</v>
       </c>
       <c r="L301" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M301" s="7">
         <v>5</v>
@@ -16851,7 +16858,7 @@
         <v>40</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M302" s="7">
         <v>5</v>
@@ -16913,7 +16920,7 @@
         <v>40</v>
       </c>
       <c r="L303" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M303" s="7">
         <v>5</v>
@@ -16975,7 +16982,7 @@
         <v>40</v>
       </c>
       <c r="L304" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M304" s="7">
         <v>5</v>
@@ -17037,7 +17044,7 @@
         <v>40</v>
       </c>
       <c r="L305" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M305" s="7">
         <v>5</v>
@@ -17099,7 +17106,7 @@
         <v>40</v>
       </c>
       <c r="L306" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M306" s="7">
         <v>5</v>
@@ -17161,7 +17168,7 @@
         <v>40</v>
       </c>
       <c r="L307" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M307" s="7">
         <v>5</v>
@@ -17223,7 +17230,7 @@
         <v>40</v>
       </c>
       <c r="L308" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M308" s="7">
         <v>5</v>
@@ -17285,7 +17292,7 @@
         <v>40</v>
       </c>
       <c r="L309" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M309" s="7">
         <v>5</v>
@@ -17347,7 +17354,7 @@
         <v>40</v>
       </c>
       <c r="L310" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M310" s="7">
         <v>10</v>
@@ -17409,7 +17416,7 @@
         <v>40</v>
       </c>
       <c r="L311" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M311" s="7">
         <v>10</v>
@@ -17471,7 +17478,7 @@
         <v>40</v>
       </c>
       <c r="L312" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M312" s="7">
         <v>10</v>
@@ -17533,7 +17540,7 @@
         <v>40</v>
       </c>
       <c r="L313" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M313" s="7">
         <v>10</v>
@@ -17595,7 +17602,7 @@
         <v>40</v>
       </c>
       <c r="L314" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M314" s="7">
         <v>10</v>
@@ -17657,7 +17664,7 @@
         <v>40</v>
       </c>
       <c r="L315" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M315" s="7">
         <v>10</v>
@@ -17719,7 +17726,7 @@
         <v>40</v>
       </c>
       <c r="L316" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M316" s="7">
         <v>10</v>
@@ -17781,7 +17788,7 @@
         <v>40</v>
       </c>
       <c r="L317" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M317" s="7">
         <v>10</v>
@@ -17843,7 +17850,7 @@
         <v>40</v>
       </c>
       <c r="L318" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M318" s="7">
         <v>10</v>
@@ -17905,7 +17912,7 @@
         <v>40</v>
       </c>
       <c r="L319" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M319" s="7">
         <v>20</v>
@@ -17967,7 +17974,7 @@
         <v>40</v>
       </c>
       <c r="L320" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M320" s="7">
         <v>20</v>
@@ -18029,7 +18036,7 @@
         <v>40</v>
       </c>
       <c r="L321" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M321" s="7">
         <v>20</v>
@@ -18091,7 +18098,7 @@
         <v>40</v>
       </c>
       <c r="L322" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M322" s="7">
         <v>20</v>
@@ -18153,7 +18160,7 @@
         <v>40</v>
       </c>
       <c r="L323" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M323" s="7">
         <v>20</v>
@@ -18215,7 +18222,7 @@
         <v>40</v>
       </c>
       <c r="L324" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M324" s="7">
         <v>20</v>
@@ -18277,7 +18284,7 @@
         <v>40</v>
       </c>
       <c r="L325" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M325" s="7">
         <v>20</v>
@@ -18339,7 +18346,7 @@
         <v>40</v>
       </c>
       <c r="L326" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M326" s="7">
         <v>20</v>
@@ -18401,7 +18408,7 @@
         <v>40</v>
       </c>
       <c r="L327" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M327" s="7">
         <v>20</v>
@@ -18463,7 +18470,7 @@
         <v>40</v>
       </c>
       <c r="L328" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M328" s="7">
         <v>20</v>
@@ -18525,7 +18532,7 @@
         <v>40</v>
       </c>
       <c r="L329" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M329" s="7">
         <v>20</v>
@@ -18587,7 +18594,7 @@
         <v>40</v>
       </c>
       <c r="L330" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M330" s="7">
         <v>30</v>
@@ -18649,7 +18656,7 @@
         <v>40</v>
       </c>
       <c r="L331" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M331" s="7">
         <v>30</v>
@@ -18711,7 +18718,7 @@
         <v>40</v>
       </c>
       <c r="L332" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M332" s="7">
         <v>30</v>
@@ -18773,7 +18780,7 @@
         <v>40</v>
       </c>
       <c r="L333" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M333" s="7">
         <v>30</v>
@@ -18835,7 +18842,7 @@
         <v>40</v>
       </c>
       <c r="L334" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M334" s="7">
         <v>30</v>
@@ -18897,7 +18904,7 @@
         <v>40</v>
       </c>
       <c r="L335" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M335" s="7">
         <v>30</v>
@@ -18959,7 +18966,7 @@
         <v>40</v>
       </c>
       <c r="L336" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M336" s="7">
         <v>30</v>
@@ -19021,7 +19028,7 @@
         <v>40</v>
       </c>
       <c r="L337" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M337" s="7">
         <v>30</v>
@@ -19083,7 +19090,7 @@
         <v>40</v>
       </c>
       <c r="L338" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M338" s="7">
         <v>30</v>
@@ -19145,7 +19152,7 @@
         <v>40</v>
       </c>
       <c r="L339" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M339" s="7">
         <v>30</v>
@@ -19207,7 +19214,7 @@
         <v>40</v>
       </c>
       <c r="L340" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M340" s="7">
         <v>50</v>
@@ -19269,7 +19276,7 @@
         <v>40</v>
       </c>
       <c r="L341" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M341" s="7">
         <v>50</v>
@@ -19331,7 +19338,7 @@
         <v>40</v>
       </c>
       <c r="L342" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M342" s="7">
         <v>50</v>
@@ -19393,7 +19400,7 @@
         <v>40</v>
       </c>
       <c r="L343" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M343" s="7">
         <v>50</v>
@@ -19455,7 +19462,7 @@
         <v>40</v>
       </c>
       <c r="L344" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M344" s="7">
         <v>50</v>
@@ -19517,7 +19524,7 @@
         <v>40</v>
       </c>
       <c r="L345" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M345" s="7">
         <v>50</v>
@@ -19579,7 +19586,7 @@
         <v>40</v>
       </c>
       <c r="L346" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M346" s="7">
         <v>50</v>
@@ -19641,7 +19648,7 @@
         <v>40</v>
       </c>
       <c r="L347" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M347" s="7">
         <v>50</v>
@@ -19703,7 +19710,7 @@
         <v>40</v>
       </c>
       <c r="L348" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M348" s="7">
         <v>50</v>
@@ -19765,7 +19772,7 @@
         <v>40</v>
       </c>
       <c r="L349" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M349" s="7">
         <v>50</v>
@@ -19827,7 +19834,7 @@
         <v>40</v>
       </c>
       <c r="L350" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M350" s="7">
         <v>70</v>
@@ -19889,7 +19896,7 @@
         <v>40</v>
       </c>
       <c r="L351" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M351" s="7">
         <v>70</v>
@@ -19951,7 +19958,7 @@
         <v>40</v>
       </c>
       <c r="L352" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M352" s="7">
         <v>70</v>
@@ -20013,7 +20020,7 @@
         <v>40</v>
       </c>
       <c r="L353" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M353" s="7">
         <v>70</v>
@@ -20075,7 +20082,7 @@
         <v>40</v>
       </c>
       <c r="L354" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M354" s="7">
         <v>70</v>
@@ -20137,7 +20144,7 @@
         <v>40</v>
       </c>
       <c r="L355" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M355" s="7">
         <v>70</v>
@@ -20199,7 +20206,7 @@
         <v>40</v>
       </c>
       <c r="L356" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M356" s="7">
         <v>70</v>
@@ -20261,7 +20268,7 @@
         <v>40</v>
       </c>
       <c r="L357" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M357" s="7">
         <v>70</v>
@@ -20323,7 +20330,7 @@
         <v>40</v>
       </c>
       <c r="L358" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M358" s="7">
         <v>70</v>
@@ -20385,7 +20392,7 @@
         <v>40</v>
       </c>
       <c r="L359" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M359" s="7">
         <v>70</v>
@@ -20447,7 +20454,7 @@
         <v>40</v>
       </c>
       <c r="L360" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M360" s="7">
         <v>100</v>
@@ -20509,7 +20516,7 @@
         <v>40</v>
       </c>
       <c r="L361" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M361" s="7">
         <v>100</v>
@@ -20571,7 +20578,7 @@
         <v>40</v>
       </c>
       <c r="L362" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M362" s="7">
         <v>100</v>
@@ -20633,7 +20640,7 @@
         <v>40</v>
       </c>
       <c r="L363" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M363" s="7">
         <v>100</v>
@@ -20695,7 +20702,7 @@
         <v>40</v>
       </c>
       <c r="L364" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M364" s="7">
         <v>100</v>
@@ -20757,7 +20764,7 @@
         <v>40</v>
       </c>
       <c r="L365" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M365" s="7">
         <v>100</v>
@@ -20819,7 +20826,7 @@
         <v>40</v>
       </c>
       <c r="L366" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M366" s="7">
         <v>100</v>
@@ -20881,7 +20888,7 @@
         <v>40</v>
       </c>
       <c r="L367" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M367" s="7">
         <v>100</v>
@@ -20943,7 +20950,7 @@
         <v>40</v>
       </c>
       <c r="L368" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M368" s="7">
         <v>100</v>
@@ -21005,7 +21012,7 @@
         <v>40</v>
       </c>
       <c r="L369" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M369" s="7">
         <v>100</v>
@@ -21067,7 +21074,7 @@
         <v>40</v>
       </c>
       <c r="L370" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M370" s="7">
         <v>100</v>
@@ -21129,7 +21136,7 @@
         <v>40</v>
       </c>
       <c r="L371" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M371" s="7">
         <v>100</v>
@@ -21191,7 +21198,7 @@
         <v>40</v>
       </c>
       <c r="L372" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M372" s="7">
         <v>100</v>
@@ -21253,7 +21260,7 @@
         <v>40</v>
       </c>
       <c r="L373" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M373" s="7">
         <v>100</v>
@@ -21315,7 +21322,7 @@
         <v>40</v>
       </c>
       <c r="L374" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M374" s="7">
         <v>100</v>
@@ -21377,7 +21384,7 @@
         <v>40</v>
       </c>
       <c r="L375" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M375" s="7">
         <v>100</v>
@@ -21439,7 +21446,7 @@
         <v>40</v>
       </c>
       <c r="L376" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M376" s="7">
         <v>100</v>
@@ -21501,7 +21508,7 @@
         <v>40</v>
       </c>
       <c r="L377" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M377" s="7">
         <v>100</v>
@@ -21563,7 +21570,7 @@
         <v>40</v>
       </c>
       <c r="L378" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M378" s="7">
         <v>100</v>
@@ -21625,7 +21632,7 @@
         <v>40</v>
       </c>
       <c r="L379" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M379" s="7">
         <v>100</v>
@@ -21687,7 +21694,7 @@
         <v>40</v>
       </c>
       <c r="L380" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M380" s="7">
         <v>100</v>
@@ -21749,7 +21756,7 @@
         <v>40</v>
       </c>
       <c r="L381" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M381" s="7">
         <v>100</v>
@@ -21811,7 +21818,7 @@
         <v>40</v>
       </c>
       <c r="L382" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M382" s="7">
         <v>100</v>
@@ -21873,7 +21880,7 @@
         <v>40</v>
       </c>
       <c r="L383" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M383" s="7">
         <v>100</v>
@@ -21935,7 +21942,7 @@
         <v>40</v>
       </c>
       <c r="L384" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M384" s="7">
         <v>100</v>
@@ -21997,7 +22004,7 @@
         <v>40</v>
       </c>
       <c r="L385" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M385" s="7">
         <v>100</v>
@@ -22059,7 +22066,7 @@
         <v>40</v>
       </c>
       <c r="L386" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M386" s="7">
         <v>100</v>
@@ -22121,7 +22128,7 @@
         <v>40</v>
       </c>
       <c r="L387" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M387" s="7">
         <v>100</v>
@@ -22183,7 +22190,7 @@
         <v>40</v>
       </c>
       <c r="L388" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M388" s="7">
         <v>100</v>
@@ -22245,7 +22252,7 @@
         <v>40</v>
       </c>
       <c r="L389" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M389" s="7">
         <v>100</v>
@@ -22307,7 +22314,7 @@
         <v>40</v>
       </c>
       <c r="L390" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M390" s="7">
         <v>100</v>
@@ -22369,7 +22376,7 @@
         <v>40</v>
       </c>
       <c r="L391" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M391" s="7">
         <v>100</v>
@@ -22431,7 +22438,7 @@
         <v>40</v>
       </c>
       <c r="L392" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M392" s="7">
         <v>100</v>
@@ -22493,7 +22500,7 @@
         <v>40</v>
       </c>
       <c r="L393" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M393" s="7">
         <v>100</v>
@@ -22555,7 +22562,7 @@
         <v>40</v>
       </c>
       <c r="L394" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M394" s="7">
         <v>100</v>
@@ -22617,7 +22624,7 @@
         <v>40</v>
       </c>
       <c r="L395" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M395" s="7">
         <v>100</v>
@@ -22679,7 +22686,7 @@
         <v>40</v>
       </c>
       <c r="L396" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M396" s="7">
         <v>100</v>
@@ -22741,7 +22748,7 @@
         <v>40</v>
       </c>
       <c r="L397" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M397" s="7">
         <v>100</v>
@@ -22803,7 +22810,7 @@
         <v>40</v>
       </c>
       <c r="L398" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M398" s="7">
         <v>100</v>
@@ -22865,7 +22872,7 @@
         <v>40</v>
       </c>
       <c r="L399" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M399" s="7">
         <v>5</v>
@@ -22927,7 +22934,7 @@
         <v>40</v>
       </c>
       <c r="L400" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M400" s="7">
         <v>5</v>
@@ -22989,7 +22996,7 @@
         <v>40</v>
       </c>
       <c r="L401" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M401" s="7">
         <v>5</v>
@@ -23051,7 +23058,7 @@
         <v>40</v>
       </c>
       <c r="L402" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M402" s="7">
         <v>5</v>
@@ -23113,7 +23120,7 @@
         <v>40</v>
       </c>
       <c r="L403" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M403" s="7">
         <v>5</v>
@@ -23175,7 +23182,7 @@
         <v>40</v>
       </c>
       <c r="L404" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M404" s="7">
         <v>5</v>
@@ -23237,7 +23244,7 @@
         <v>40</v>
       </c>
       <c r="L405" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M405" s="7">
         <v>5</v>
@@ -23299,7 +23306,7 @@
         <v>40</v>
       </c>
       <c r="L406" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M406" s="7">
         <v>5</v>
@@ -23361,7 +23368,7 @@
         <v>40</v>
       </c>
       <c r="L407" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M407" s="7">
         <v>5</v>
@@ -23423,7 +23430,7 @@
         <v>40</v>
       </c>
       <c r="L408" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M408" s="7">
         <v>5</v>
@@ -23485,7 +23492,7 @@
         <v>40</v>
       </c>
       <c r="L409" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M409" s="7">
         <v>10</v>
@@ -23547,7 +23554,7 @@
         <v>40</v>
       </c>
       <c r="L410" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M410" s="7">
         <v>10</v>
@@ -23609,7 +23616,7 @@
         <v>40</v>
       </c>
       <c r="L411" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M411" s="7">
         <v>10</v>
@@ -23671,7 +23678,7 @@
         <v>40</v>
       </c>
       <c r="L412" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M412" s="7">
         <v>10</v>
@@ -23733,7 +23740,7 @@
         <v>40</v>
       </c>
       <c r="L413" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M413" s="7">
         <v>10</v>
@@ -23795,7 +23802,7 @@
         <v>40</v>
       </c>
       <c r="L414" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M414" s="7">
         <v>10</v>
@@ -23857,7 +23864,7 @@
         <v>40</v>
       </c>
       <c r="L415" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M415" s="7">
         <v>10</v>
@@ -23919,7 +23926,7 @@
         <v>40</v>
       </c>
       <c r="L416" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M416" s="7">
         <v>10</v>
@@ -23981,7 +23988,7 @@
         <v>40</v>
       </c>
       <c r="L417" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M417" s="7">
         <v>10</v>
@@ -24043,7 +24050,7 @@
         <v>40</v>
       </c>
       <c r="L418" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M418" s="7">
         <v>20</v>
@@ -24105,7 +24112,7 @@
         <v>40</v>
       </c>
       <c r="L419" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M419" s="7">
         <v>20</v>
@@ -24167,7 +24174,7 @@
         <v>40</v>
       </c>
       <c r="L420" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M420" s="7">
         <v>20</v>
@@ -24229,7 +24236,7 @@
         <v>40</v>
       </c>
       <c r="L421" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M421" s="7">
         <v>20</v>
@@ -24291,7 +24298,7 @@
         <v>40</v>
       </c>
       <c r="L422" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M422" s="7">
         <v>20</v>
@@ -24353,7 +24360,7 @@
         <v>40</v>
       </c>
       <c r="L423" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M423" s="7">
         <v>20</v>
@@ -24415,7 +24422,7 @@
         <v>40</v>
       </c>
       <c r="L424" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M424" s="7">
         <v>20</v>
@@ -24477,7 +24484,7 @@
         <v>40</v>
       </c>
       <c r="L425" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M425" s="7">
         <v>20</v>
@@ -24539,7 +24546,7 @@
         <v>40</v>
       </c>
       <c r="L426" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M426" s="7">
         <v>20</v>
@@ -24601,7 +24608,7 @@
         <v>40</v>
       </c>
       <c r="L427" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M427" s="7">
         <v>20</v>
@@ -24663,7 +24670,7 @@
         <v>40</v>
       </c>
       <c r="L428" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M428" s="7">
         <v>20</v>
@@ -24725,7 +24732,7 @@
         <v>40</v>
       </c>
       <c r="L429" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M429" s="7">
         <v>30</v>
@@ -24787,7 +24794,7 @@
         <v>40</v>
       </c>
       <c r="L430" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M430" s="7">
         <v>30</v>
@@ -24849,7 +24856,7 @@
         <v>40</v>
       </c>
       <c r="L431" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M431" s="7">
         <v>30</v>
@@ -24911,7 +24918,7 @@
         <v>40</v>
       </c>
       <c r="L432" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M432" s="7">
         <v>30</v>
@@ -24973,7 +24980,7 @@
         <v>40</v>
       </c>
       <c r="L433" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M433" s="7">
         <v>30</v>
@@ -25035,7 +25042,7 @@
         <v>40</v>
       </c>
       <c r="L434" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M434" s="7">
         <v>30</v>
@@ -25097,7 +25104,7 @@
         <v>40</v>
       </c>
       <c r="L435" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M435" s="7">
         <v>30</v>
@@ -25159,7 +25166,7 @@
         <v>40</v>
       </c>
       <c r="L436" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M436" s="7">
         <v>30</v>
@@ -25221,7 +25228,7 @@
         <v>40</v>
       </c>
       <c r="L437" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M437" s="7">
         <v>30</v>
@@ -25283,7 +25290,7 @@
         <v>40</v>
       </c>
       <c r="L438" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M438" s="7">
         <v>30</v>
@@ -25345,7 +25352,7 @@
         <v>40</v>
       </c>
       <c r="L439" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M439" s="7">
         <v>50</v>
@@ -25407,7 +25414,7 @@
         <v>40</v>
       </c>
       <c r="L440" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M440" s="7">
         <v>50</v>
@@ -25469,7 +25476,7 @@
         <v>40</v>
       </c>
       <c r="L441" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M441" s="7">
         <v>50</v>
@@ -25531,7 +25538,7 @@
         <v>40</v>
       </c>
       <c r="L442" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M442" s="7">
         <v>50</v>
@@ -25593,7 +25600,7 @@
         <v>40</v>
       </c>
       <c r="L443" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M443" s="7">
         <v>50</v>
@@ -25655,7 +25662,7 @@
         <v>40</v>
       </c>
       <c r="L444" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M444" s="7">
         <v>50</v>
@@ -25717,7 +25724,7 @@
         <v>40</v>
       </c>
       <c r="L445" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M445" s="7">
         <v>50</v>
@@ -25779,7 +25786,7 @@
         <v>40</v>
       </c>
       <c r="L446" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M446" s="7">
         <v>50</v>
@@ -25841,7 +25848,7 @@
         <v>40</v>
       </c>
       <c r="L447" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M447" s="7">
         <v>50</v>
@@ -25903,7 +25910,7 @@
         <v>40</v>
       </c>
       <c r="L448" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M448" s="7">
         <v>50</v>
@@ -25965,7 +25972,7 @@
         <v>40</v>
       </c>
       <c r="L449" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M449" s="7">
         <v>70</v>
@@ -26027,7 +26034,7 @@
         <v>40</v>
       </c>
       <c r="L450" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M450" s="7">
         <v>70</v>
@@ -26089,7 +26096,7 @@
         <v>40</v>
       </c>
       <c r="L451" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M451" s="7">
         <v>70</v>
@@ -26151,7 +26158,7 @@
         <v>40</v>
       </c>
       <c r="L452" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M452" s="7">
         <v>70</v>
@@ -26213,7 +26220,7 @@
         <v>40</v>
       </c>
       <c r="L453" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M453" s="7">
         <v>70</v>
@@ -26275,7 +26282,7 @@
         <v>40</v>
       </c>
       <c r="L454" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M454" s="7">
         <v>70</v>
@@ -26337,7 +26344,7 @@
         <v>40</v>
       </c>
       <c r="L455" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M455" s="7">
         <v>70</v>
@@ -26399,7 +26406,7 @@
         <v>40</v>
       </c>
       <c r="L456" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M456" s="7">
         <v>70</v>
@@ -26461,7 +26468,7 @@
         <v>40</v>
       </c>
       <c r="L457" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M457" s="7">
         <v>70</v>
@@ -26523,7 +26530,7 @@
         <v>40</v>
       </c>
       <c r="L458" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M458" s="7">
         <v>70</v>
@@ -26585,7 +26592,7 @@
         <v>40</v>
       </c>
       <c r="L459" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M459" s="7">
         <v>100</v>
@@ -26647,7 +26654,7 @@
         <v>40</v>
       </c>
       <c r="L460" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M460" s="7">
         <v>100</v>
@@ -26709,7 +26716,7 @@
         <v>40</v>
       </c>
       <c r="L461" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M461" s="7">
         <v>100</v>
@@ -26771,7 +26778,7 @@
         <v>40</v>
       </c>
       <c r="L462" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M462" s="7">
         <v>100</v>
@@ -26833,7 +26840,7 @@
         <v>40</v>
       </c>
       <c r="L463" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M463" s="7">
         <v>100</v>
@@ -26895,7 +26902,7 @@
         <v>40</v>
       </c>
       <c r="L464" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M464" s="7">
         <v>100</v>
@@ -26957,7 +26964,7 @@
         <v>40</v>
       </c>
       <c r="L465" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M465" s="7">
         <v>100</v>
@@ -27019,7 +27026,7 @@
         <v>40</v>
       </c>
       <c r="L466" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M466" s="7">
         <v>100</v>
@@ -27081,7 +27088,7 @@
         <v>40</v>
       </c>
       <c r="L467" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M467" s="7">
         <v>100</v>
@@ -27143,7 +27150,7 @@
         <v>40</v>
       </c>
       <c r="L468" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M468" s="7">
         <v>100</v>
@@ -27205,7 +27212,7 @@
         <v>40</v>
       </c>
       <c r="L469" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M469" s="7">
         <v>100</v>
@@ -27267,7 +27274,7 @@
         <v>40</v>
       </c>
       <c r="L470" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M470" s="7">
         <v>100</v>
@@ -27329,7 +27336,7 @@
         <v>40</v>
       </c>
       <c r="L471" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M471" s="7">
         <v>100</v>
@@ -27391,7 +27398,7 @@
         <v>40</v>
       </c>
       <c r="L472" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M472" s="7">
         <v>100</v>
@@ -27453,7 +27460,7 @@
         <v>40</v>
       </c>
       <c r="L473" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M473" s="7">
         <v>100</v>
@@ -27515,7 +27522,7 @@
         <v>40</v>
       </c>
       <c r="L474" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M474" s="7">
         <v>100</v>
@@ -27577,7 +27584,7 @@
         <v>40</v>
       </c>
       <c r="L475" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M475" s="7">
         <v>100</v>
@@ -27639,7 +27646,7 @@
         <v>40</v>
       </c>
       <c r="L476" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M476" s="7">
         <v>100</v>
@@ -27701,7 +27708,7 @@
         <v>40</v>
       </c>
       <c r="L477" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M477" s="7">
         <v>100</v>
@@ -27763,7 +27770,7 @@
         <v>40</v>
       </c>
       <c r="L478" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M478" s="7">
         <v>100</v>
@@ -27825,7 +27832,7 @@
         <v>40</v>
       </c>
       <c r="L479" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M479" s="7">
         <v>100</v>
@@ -27887,7 +27894,7 @@
         <v>40</v>
       </c>
       <c r="L480" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M480" s="7">
         <v>100</v>
@@ -27949,7 +27956,7 @@
         <v>40</v>
       </c>
       <c r="L481" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M481" s="7">
         <v>100</v>
@@ -28011,7 +28018,7 @@
         <v>40</v>
       </c>
       <c r="L482" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M482" s="7">
         <v>100</v>
@@ -28073,7 +28080,7 @@
         <v>40</v>
       </c>
       <c r="L483" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M483" s="7">
         <v>100</v>
@@ -28135,7 +28142,7 @@
         <v>40</v>
       </c>
       <c r="L484" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M484" s="7">
         <v>100</v>
@@ -28197,7 +28204,7 @@
         <v>40</v>
       </c>
       <c r="L485" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M485" s="7">
         <v>100</v>
@@ -28259,7 +28266,7 @@
         <v>40</v>
       </c>
       <c r="L486" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M486" s="7">
         <v>100</v>
@@ -28321,7 +28328,7 @@
         <v>40</v>
       </c>
       <c r="L487" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M487" s="7">
         <v>100</v>
@@ -28383,7 +28390,7 @@
         <v>40</v>
       </c>
       <c r="L488" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M488" s="7">
         <v>100</v>
@@ -28445,7 +28452,7 @@
         <v>40</v>
       </c>
       <c r="L489" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M489" s="7">
         <v>100</v>
@@ -28507,7 +28514,7 @@
         <v>40</v>
       </c>
       <c r="L490" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M490" s="7">
         <v>100</v>
@@ -28569,7 +28576,7 @@
         <v>40</v>
       </c>
       <c r="L491" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M491" s="7">
         <v>100</v>
@@ -28631,7 +28638,7 @@
         <v>40</v>
       </c>
       <c r="L492" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M492" s="7">
         <v>100</v>
@@ -28693,7 +28700,7 @@
         <v>40</v>
       </c>
       <c r="L493" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M493" s="7">
         <v>100</v>
@@ -28755,7 +28762,7 @@
         <v>40</v>
       </c>
       <c r="L494" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M494" s="7">
         <v>100</v>
@@ -28817,7 +28824,7 @@
         <v>40</v>
       </c>
       <c r="L495" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M495" s="7">
         <v>100</v>
@@ -28879,7 +28886,7 @@
         <v>40</v>
       </c>
       <c r="L496" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M496" s="7">
         <v>100</v>
@@ -28941,7 +28948,7 @@
         <v>40</v>
       </c>
       <c r="L497" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M497" s="7">
         <v>100</v>
@@ -29003,7 +29010,7 @@
         <v>40</v>
       </c>
       <c r="L498" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M498" s="7">
         <v>5</v>
@@ -29065,7 +29072,7 @@
         <v>40</v>
       </c>
       <c r="L499" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M499" s="7">
         <v>5</v>
@@ -29127,7 +29134,7 @@
         <v>40</v>
       </c>
       <c r="L500" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M500" s="7">
         <v>5</v>
@@ -29189,7 +29196,7 @@
         <v>40</v>
       </c>
       <c r="L501" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M501" s="7">
         <v>5</v>
@@ -29251,7 +29258,7 @@
         <v>40</v>
       </c>
       <c r="L502" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M502" s="7">
         <v>5</v>
@@ -29313,7 +29320,7 @@
         <v>40</v>
       </c>
       <c r="L503" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M503" s="7">
         <v>5</v>
@@ -29375,7 +29382,7 @@
         <v>40</v>
       </c>
       <c r="L504" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M504" s="7">
         <v>5</v>
@@ -29437,7 +29444,7 @@
         <v>40</v>
       </c>
       <c r="L505" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M505" s="7">
         <v>5</v>
@@ -29499,7 +29506,7 @@
         <v>40</v>
       </c>
       <c r="L506" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M506" s="7">
         <v>5</v>
@@ -29561,7 +29568,7 @@
         <v>40</v>
       </c>
       <c r="L507" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M507" s="7">
         <v>5</v>
@@ -29623,7 +29630,7 @@
         <v>40</v>
       </c>
       <c r="L508" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M508" s="7">
         <v>10</v>
@@ -29685,7 +29692,7 @@
         <v>40</v>
       </c>
       <c r="L509" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M509" s="7">
         <v>10</v>
@@ -29747,7 +29754,7 @@
         <v>40</v>
       </c>
       <c r="L510" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M510" s="7">
         <v>10</v>
@@ -29809,7 +29816,7 @@
         <v>40</v>
       </c>
       <c r="L511" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M511" s="7">
         <v>10</v>
@@ -29871,7 +29878,7 @@
         <v>40</v>
       </c>
       <c r="L512" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M512" s="7">
         <v>10</v>
@@ -29933,7 +29940,7 @@
         <v>40</v>
       </c>
       <c r="L513" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M513" s="7">
         <v>10</v>
@@ -29995,7 +30002,7 @@
         <v>40</v>
       </c>
       <c r="L514" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M514" s="7">
         <v>10</v>
@@ -30057,7 +30064,7 @@
         <v>40</v>
       </c>
       <c r="L515" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M515" s="7">
         <v>10</v>
@@ -30119,7 +30126,7 @@
         <v>40</v>
       </c>
       <c r="L516" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M516" s="7">
         <v>10</v>
@@ -30181,7 +30188,7 @@
         <v>40</v>
       </c>
       <c r="L517" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M517" s="7">
         <v>20</v>
@@ -30243,7 +30250,7 @@
         <v>40</v>
       </c>
       <c r="L518" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M518" s="7">
         <v>20</v>
@@ -30305,7 +30312,7 @@
         <v>40</v>
       </c>
       <c r="L519" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M519" s="7">
         <v>20</v>
@@ -30367,7 +30374,7 @@
         <v>40</v>
       </c>
       <c r="L520" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M520" s="7">
         <v>20</v>
@@ -30429,7 +30436,7 @@
         <v>40</v>
       </c>
       <c r="L521" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M521" s="7">
         <v>20</v>
@@ -30491,7 +30498,7 @@
         <v>40</v>
       </c>
       <c r="L522" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M522" s="7">
         <v>20</v>
@@ -30553,7 +30560,7 @@
         <v>40</v>
       </c>
       <c r="L523" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M523" s="7">
         <v>20</v>
@@ -30615,7 +30622,7 @@
         <v>40</v>
       </c>
       <c r="L524" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M524" s="7">
         <v>20</v>
@@ -30677,7 +30684,7 @@
         <v>40</v>
       </c>
       <c r="L525" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M525" s="7">
         <v>20</v>
@@ -30739,7 +30746,7 @@
         <v>40</v>
       </c>
       <c r="L526" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M526" s="7">
         <v>20</v>
@@ -30801,7 +30808,7 @@
         <v>40</v>
       </c>
       <c r="L527" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M527" s="7">
         <v>20</v>
@@ -30863,7 +30870,7 @@
         <v>40</v>
       </c>
       <c r="L528" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M528" s="7">
         <v>30</v>
@@ -30925,7 +30932,7 @@
         <v>40</v>
       </c>
       <c r="L529" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M529" s="7">
         <v>30</v>
@@ -30987,7 +30994,7 @@
         <v>40</v>
       </c>
       <c r="L530" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M530" s="7">
         <v>30</v>
@@ -31049,7 +31056,7 @@
         <v>40</v>
       </c>
       <c r="L531" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M531" s="7">
         <v>30</v>
@@ -31111,7 +31118,7 @@
         <v>40</v>
       </c>
       <c r="L532" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M532" s="7">
         <v>30</v>
@@ -31173,7 +31180,7 @@
         <v>40</v>
       </c>
       <c r="L533" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M533" s="7">
         <v>30</v>
@@ -31235,7 +31242,7 @@
         <v>40</v>
       </c>
       <c r="L534" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M534" s="7">
         <v>30</v>
@@ -31297,7 +31304,7 @@
         <v>40</v>
       </c>
       <c r="L535" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M535" s="7">
         <v>30</v>
@@ -31359,7 +31366,7 @@
         <v>40</v>
       </c>
       <c r="L536" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M536" s="7">
         <v>30</v>
@@ -31421,7 +31428,7 @@
         <v>40</v>
       </c>
       <c r="L537" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M537" s="7">
         <v>30</v>
@@ -31483,7 +31490,7 @@
         <v>40</v>
       </c>
       <c r="L538" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M538" s="7">
         <v>50</v>
@@ -31545,7 +31552,7 @@
         <v>40</v>
       </c>
       <c r="L539" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M539" s="7">
         <v>50</v>
@@ -31607,7 +31614,7 @@
         <v>40</v>
       </c>
       <c r="L540" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M540" s="7">
         <v>50</v>
@@ -31669,7 +31676,7 @@
         <v>40</v>
       </c>
       <c r="L541" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M541" s="7">
         <v>50</v>
@@ -31731,7 +31738,7 @@
         <v>40</v>
       </c>
       <c r="L542" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M542" s="7">
         <v>50</v>
@@ -31793,7 +31800,7 @@
         <v>40</v>
       </c>
       <c r="L543" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M543" s="7">
         <v>50</v>
@@ -31855,7 +31862,7 @@
         <v>40</v>
       </c>
       <c r="L544" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M544" s="7">
         <v>50</v>
@@ -31917,7 +31924,7 @@
         <v>40</v>
       </c>
       <c r="L545" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M545" s="7">
         <v>50</v>
@@ -31979,7 +31986,7 @@
         <v>40</v>
       </c>
       <c r="L546" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M546" s="7">
         <v>50</v>
@@ -32041,7 +32048,7 @@
         <v>40</v>
       </c>
       <c r="L547" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M547" s="7">
         <v>50</v>
@@ -32103,7 +32110,7 @@
         <v>40</v>
       </c>
       <c r="L548" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M548" s="7">
         <v>70</v>
@@ -32165,7 +32172,7 @@
         <v>40</v>
       </c>
       <c r="L549" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M549" s="7">
         <v>70</v>
@@ -32227,7 +32234,7 @@
         <v>40</v>
       </c>
       <c r="L550" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M550" s="7">
         <v>70</v>
@@ -32289,7 +32296,7 @@
         <v>40</v>
       </c>
       <c r="L551" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M551" s="7">
         <v>70</v>
@@ -32351,7 +32358,7 @@
         <v>40</v>
       </c>
       <c r="L552" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M552" s="7">
         <v>70</v>
@@ -32413,7 +32420,7 @@
         <v>40</v>
       </c>
       <c r="L553" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M553" s="7">
         <v>70</v>
@@ -32475,7 +32482,7 @@
         <v>40</v>
       </c>
       <c r="L554" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M554" s="7">
         <v>70</v>
@@ -32537,7 +32544,7 @@
         <v>40</v>
       </c>
       <c r="L555" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M555" s="7">
         <v>70</v>
@@ -32599,7 +32606,7 @@
         <v>40</v>
       </c>
       <c r="L556" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M556" s="7">
         <v>70</v>
@@ -32661,7 +32668,7 @@
         <v>40</v>
       </c>
       <c r="L557" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M557" s="7">
         <v>70</v>
@@ -32723,7 +32730,7 @@
         <v>40</v>
       </c>
       <c r="L558" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M558" s="7">
         <v>100</v>
@@ -32785,7 +32792,7 @@
         <v>40</v>
       </c>
       <c r="L559" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M559" s="7">
         <v>100</v>
@@ -32847,7 +32854,7 @@
         <v>40</v>
       </c>
       <c r="L560" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M560" s="7">
         <v>100</v>
@@ -32909,7 +32916,7 @@
         <v>40</v>
       </c>
       <c r="L561" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M561" s="7">
         <v>100</v>
@@ -32971,7 +32978,7 @@
         <v>40</v>
       </c>
       <c r="L562" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M562" s="7">
         <v>100</v>
@@ -33033,7 +33040,7 @@
         <v>40</v>
       </c>
       <c r="L563" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M563" s="7">
         <v>100</v>
@@ -33095,7 +33102,7 @@
         <v>40</v>
       </c>
       <c r="L564" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M564" s="7">
         <v>100</v>
@@ -33157,7 +33164,7 @@
         <v>40</v>
       </c>
       <c r="L565" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M565" s="7">
         <v>100</v>
@@ -33219,7 +33226,7 @@
         <v>40</v>
       </c>
       <c r="L566" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M566" s="7">
         <v>100</v>
@@ -33281,7 +33288,7 @@
         <v>40</v>
       </c>
       <c r="L567" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M567" s="7">
         <v>100</v>
@@ -33343,7 +33350,7 @@
         <v>40</v>
       </c>
       <c r="L568" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M568" s="7">
         <v>100</v>
@@ -33405,7 +33412,7 @@
         <v>40</v>
       </c>
       <c r="L569" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M569" s="7">
         <v>100</v>
@@ -33467,7 +33474,7 @@
         <v>40</v>
       </c>
       <c r="L570" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M570" s="7">
         <v>100</v>
@@ -33529,7 +33536,7 @@
         <v>40</v>
       </c>
       <c r="L571" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M571" s="7">
         <v>100</v>
@@ -33591,7 +33598,7 @@
         <v>40</v>
       </c>
       <c r="L572" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M572" s="7">
         <v>100</v>
@@ -33653,7 +33660,7 @@
         <v>40</v>
       </c>
       <c r="L573" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M573" s="7">
         <v>100</v>
@@ -33715,7 +33722,7 @@
         <v>40</v>
       </c>
       <c r="L574" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M574" s="7">
         <v>100</v>
@@ -33777,7 +33784,7 @@
         <v>40</v>
       </c>
       <c r="L575" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M575" s="7">
         <v>100</v>
@@ -33839,7 +33846,7 @@
         <v>40</v>
       </c>
       <c r="L576" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M576" s="7">
         <v>100</v>
@@ -33901,7 +33908,7 @@
         <v>40</v>
       </c>
       <c r="L577" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M577" s="7">
         <v>100</v>
@@ -33963,7 +33970,7 @@
         <v>40</v>
       </c>
       <c r="L578" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M578" s="7">
         <v>100</v>
@@ -34025,7 +34032,7 @@
         <v>40</v>
       </c>
       <c r="L579" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M579" s="7">
         <v>100</v>
@@ -34087,7 +34094,7 @@
         <v>40</v>
       </c>
       <c r="L580" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M580" s="7">
         <v>100</v>
@@ -34149,7 +34156,7 @@
         <v>40</v>
       </c>
       <c r="L581" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M581" s="7">
         <v>100</v>
@@ -34211,7 +34218,7 @@
         <v>40</v>
       </c>
       <c r="L582" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M582" s="7">
         <v>100</v>
@@ -34273,7 +34280,7 @@
         <v>40</v>
       </c>
       <c r="L583" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M583" s="7">
         <v>100</v>
@@ -34335,7 +34342,7 @@
         <v>40</v>
       </c>
       <c r="L584" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M584" s="7">
         <v>100</v>
@@ -34397,7 +34404,7 @@
         <v>40</v>
       </c>
       <c r="L585" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M585" s="7">
         <v>100</v>
@@ -34459,7 +34466,7 @@
         <v>40</v>
       </c>
       <c r="L586" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M586" s="7">
         <v>100</v>
@@ -34521,7 +34528,7 @@
         <v>40</v>
       </c>
       <c r="L587" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M587" s="7">
         <v>100</v>
@@ -34583,7 +34590,7 @@
         <v>40</v>
       </c>
       <c r="L588" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M588" s="7">
         <v>100</v>
@@ -34645,7 +34652,7 @@
         <v>40</v>
       </c>
       <c r="L589" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M589" s="7">
         <v>100</v>
@@ -34707,7 +34714,7 @@
         <v>40</v>
       </c>
       <c r="L590" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M590" s="7">
         <v>100</v>
@@ -34769,7 +34776,7 @@
         <v>40</v>
       </c>
       <c r="L591" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M591" s="7">
         <v>100</v>
@@ -34831,7 +34838,7 @@
         <v>40</v>
       </c>
       <c r="L592" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M592" s="7">
         <v>100</v>
@@ -34893,7 +34900,7 @@
         <v>40</v>
       </c>
       <c r="L593" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M593" s="7">
         <v>100</v>
@@ -34955,7 +34962,7 @@
         <v>40</v>
       </c>
       <c r="L594" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M594" s="7">
         <v>100</v>
@@ -35017,7 +35024,7 @@
         <v>40</v>
       </c>
       <c r="L595" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M595" s="7">
         <v>100</v>
@@ -35079,7 +35086,7 @@
         <v>40</v>
       </c>
       <c r="L596" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M596" s="7">
         <v>100</v>
@@ -35141,7 +35148,7 @@
         <v>40</v>
       </c>
       <c r="L597" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M597" s="7">
         <v>5</v>
@@ -35203,7 +35210,7 @@
         <v>40</v>
       </c>
       <c r="L598" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M598" s="7">
         <v>5</v>
@@ -35265,7 +35272,7 @@
         <v>40</v>
       </c>
       <c r="L599" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M599" s="7">
         <v>5</v>
@@ -35327,7 +35334,7 @@
         <v>40</v>
       </c>
       <c r="L600" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M600" s="7">
         <v>5</v>
@@ -35389,7 +35396,7 @@
         <v>40</v>
       </c>
       <c r="L601" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M601" s="7">
         <v>5</v>
@@ -35451,7 +35458,7 @@
         <v>40</v>
       </c>
       <c r="L602" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M602" s="7">
         <v>5</v>
@@ -35513,7 +35520,7 @@
         <v>40</v>
       </c>
       <c r="L603" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M603" s="7">
         <v>5</v>
@@ -35575,7 +35582,7 @@
         <v>40</v>
       </c>
       <c r="L604" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M604" s="7">
         <v>5</v>
@@ -35637,7 +35644,7 @@
         <v>40</v>
       </c>
       <c r="L605" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M605" s="7">
         <v>5</v>
@@ -35699,7 +35706,7 @@
         <v>40</v>
       </c>
       <c r="L606" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M606" s="7">
         <v>5</v>
@@ -35761,7 +35768,7 @@
         <v>40</v>
       </c>
       <c r="L607" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M607" s="7">
         <v>10</v>
@@ -35823,7 +35830,7 @@
         <v>40</v>
       </c>
       <c r="L608" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M608" s="7">
         <v>10</v>
@@ -35885,7 +35892,7 @@
         <v>40</v>
       </c>
       <c r="L609" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M609" s="7">
         <v>10</v>
@@ -35947,7 +35954,7 @@
         <v>40</v>
       </c>
       <c r="L610" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M610" s="7">
         <v>10</v>
@@ -36009,7 +36016,7 @@
         <v>40</v>
       </c>
       <c r="L611" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M611" s="7">
         <v>10</v>
@@ -36071,7 +36078,7 @@
         <v>40</v>
       </c>
       <c r="L612" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M612" s="7">
         <v>10</v>
@@ -36133,7 +36140,7 @@
         <v>40</v>
       </c>
       <c r="L613" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M613" s="7">
         <v>10</v>
@@ -36195,7 +36202,7 @@
         <v>40</v>
       </c>
       <c r="L614" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M614" s="7">
         <v>10</v>
@@ -36257,7 +36264,7 @@
         <v>40</v>
       </c>
       <c r="L615" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M615" s="7">
         <v>10</v>
@@ -36319,7 +36326,7 @@
         <v>40</v>
       </c>
       <c r="L616" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M616" s="7">
         <v>20</v>
@@ -36381,7 +36388,7 @@
         <v>40</v>
       </c>
       <c r="L617" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M617" s="7">
         <v>20</v>
@@ -36443,7 +36450,7 @@
         <v>40</v>
       </c>
       <c r="L618" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M618" s="7">
         <v>20</v>
@@ -36505,7 +36512,7 @@
         <v>40</v>
       </c>
       <c r="L619" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M619" s="7">
         <v>20</v>
@@ -36567,7 +36574,7 @@
         <v>40</v>
       </c>
       <c r="L620" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M620" s="7">
         <v>20</v>
@@ -36629,7 +36636,7 @@
         <v>40</v>
       </c>
       <c r="L621" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M621" s="7">
         <v>20</v>
@@ -36691,7 +36698,7 @@
         <v>40</v>
       </c>
       <c r="L622" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M622" s="7">
         <v>20</v>
@@ -36753,7 +36760,7 @@
         <v>40</v>
       </c>
       <c r="L623" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M623" s="7">
         <v>20</v>
@@ -36815,7 +36822,7 @@
         <v>40</v>
       </c>
       <c r="L624" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M624" s="7">
         <v>20</v>
@@ -36877,7 +36884,7 @@
         <v>40</v>
       </c>
       <c r="L625" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M625" s="7">
         <v>20</v>
@@ -36939,7 +36946,7 @@
         <v>40</v>
       </c>
       <c r="L626" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M626" s="7">
         <v>20</v>
@@ -37001,7 +37008,7 @@
         <v>40</v>
       </c>
       <c r="L627" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M627" s="7">
         <v>30</v>
@@ -37063,7 +37070,7 @@
         <v>40</v>
       </c>
       <c r="L628" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M628" s="7">
         <v>30</v>
@@ -37125,7 +37132,7 @@
         <v>40</v>
       </c>
       <c r="L629" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M629" s="7">
         <v>30</v>
@@ -37187,7 +37194,7 @@
         <v>40</v>
       </c>
       <c r="L630" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M630" s="7">
         <v>30</v>
@@ -37249,7 +37256,7 @@
         <v>40</v>
       </c>
       <c r="L631" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M631" s="7">
         <v>30</v>
@@ -37311,7 +37318,7 @@
         <v>40</v>
       </c>
       <c r="L632" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M632" s="7">
         <v>30</v>
@@ -37373,7 +37380,7 @@
         <v>40</v>
       </c>
       <c r="L633" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M633" s="7">
         <v>30</v>
@@ -37435,7 +37442,7 @@
         <v>40</v>
       </c>
       <c r="L634" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M634" s="7">
         <v>30</v>
@@ -37497,7 +37504,7 @@
         <v>40</v>
       </c>
       <c r="L635" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M635" s="7">
         <v>30</v>
@@ -37559,7 +37566,7 @@
         <v>40</v>
       </c>
       <c r="L636" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M636" s="7">
         <v>30</v>
@@ -37621,7 +37628,7 @@
         <v>40</v>
       </c>
       <c r="L637" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M637" s="7">
         <v>50</v>
@@ -37683,7 +37690,7 @@
         <v>40</v>
       </c>
       <c r="L638" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M638" s="7">
         <v>50</v>
@@ -37745,7 +37752,7 @@
         <v>40</v>
       </c>
       <c r="L639" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M639" s="7">
         <v>50</v>
@@ -37807,7 +37814,7 @@
         <v>40</v>
       </c>
       <c r="L640" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M640" s="7">
         <v>50</v>
@@ -37869,7 +37876,7 @@
         <v>40</v>
       </c>
       <c r="L641" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M641" s="7">
         <v>50</v>
@@ -37931,7 +37938,7 @@
         <v>40</v>
       </c>
       <c r="L642" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M642" s="7">
         <v>50</v>
@@ -37993,7 +38000,7 @@
         <v>40</v>
       </c>
       <c r="L643" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M643" s="7">
         <v>50</v>
@@ -38055,7 +38062,7 @@
         <v>40</v>
       </c>
       <c r="L644" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M644" s="7">
         <v>50</v>
@@ -38117,7 +38124,7 @@
         <v>40</v>
       </c>
       <c r="L645" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M645" s="7">
         <v>50</v>
@@ -38179,7 +38186,7 @@
         <v>40</v>
       </c>
       <c r="L646" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M646" s="7">
         <v>50</v>
@@ -38241,7 +38248,7 @@
         <v>40</v>
       </c>
       <c r="L647" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M647" s="7">
         <v>70</v>
@@ -38303,7 +38310,7 @@
         <v>40</v>
       </c>
       <c r="L648" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M648" s="7">
         <v>70</v>
@@ -38365,7 +38372,7 @@
         <v>40</v>
       </c>
       <c r="L649" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M649" s="7">
         <v>70</v>
@@ -38427,7 +38434,7 @@
         <v>40</v>
       </c>
       <c r="L650" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M650" s="7">
         <v>70</v>
@@ -38489,7 +38496,7 @@
         <v>40</v>
       </c>
       <c r="L651" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M651" s="7">
         <v>70</v>
@@ -38551,7 +38558,7 @@
         <v>40</v>
       </c>
       <c r="L652" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M652" s="7">
         <v>70</v>
@@ -38613,7 +38620,7 @@
         <v>40</v>
       </c>
       <c r="L653" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M653" s="7">
         <v>70</v>
@@ -38675,7 +38682,7 @@
         <v>40</v>
       </c>
       <c r="L654" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M654" s="7">
         <v>70</v>
@@ -38737,7 +38744,7 @@
         <v>40</v>
       </c>
       <c r="L655" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M655" s="7">
         <v>70</v>
@@ -38799,7 +38806,7 @@
         <v>40</v>
       </c>
       <c r="L656" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M656" s="7">
         <v>70</v>
@@ -38861,7 +38868,7 @@
         <v>40</v>
       </c>
       <c r="L657" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M657" s="7">
         <v>100</v>
@@ -38923,7 +38930,7 @@
         <v>40</v>
       </c>
       <c r="L658" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M658" s="7">
         <v>100</v>
@@ -38985,7 +38992,7 @@
         <v>40</v>
       </c>
       <c r="L659" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M659" s="7">
         <v>100</v>
@@ -39047,7 +39054,7 @@
         <v>40</v>
       </c>
       <c r="L660" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M660" s="7">
         <v>100</v>
@@ -39109,7 +39116,7 @@
         <v>40</v>
       </c>
       <c r="L661" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M661" s="7">
         <v>100</v>
@@ -39171,7 +39178,7 @@
         <v>40</v>
       </c>
       <c r="L662" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M662" s="7">
         <v>100</v>
@@ -39233,7 +39240,7 @@
         <v>40</v>
       </c>
       <c r="L663" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M663" s="7">
         <v>100</v>
@@ -39295,7 +39302,7 @@
         <v>40</v>
       </c>
       <c r="L664" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M664" s="7">
         <v>100</v>
@@ -39357,7 +39364,7 @@
         <v>40</v>
       </c>
       <c r="L665" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M665" s="7">
         <v>100</v>
@@ -39419,7 +39426,7 @@
         <v>40</v>
       </c>
       <c r="L666" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M666" s="7">
         <v>100</v>
@@ -39481,7 +39488,7 @@
         <v>40</v>
       </c>
       <c r="L667" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M667" s="7">
         <v>100</v>
@@ -39543,7 +39550,7 @@
         <v>40</v>
       </c>
       <c r="L668" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M668" s="7">
         <v>100</v>
@@ -39605,7 +39612,7 @@
         <v>40</v>
       </c>
       <c r="L669" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M669" s="7">
         <v>100</v>
@@ -39667,7 +39674,7 @@
         <v>40</v>
       </c>
       <c r="L670" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M670" s="7">
         <v>100</v>
@@ -39729,7 +39736,7 @@
         <v>40</v>
       </c>
       <c r="L671" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M671" s="7">
         <v>100</v>
@@ -39791,7 +39798,7 @@
         <v>40</v>
       </c>
       <c r="L672" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M672" s="7">
         <v>100</v>
@@ -39853,7 +39860,7 @@
         <v>40</v>
       </c>
       <c r="L673" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M673" s="7">
         <v>100</v>
@@ -39915,7 +39922,7 @@
         <v>40</v>
       </c>
       <c r="L674" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M674" s="7">
         <v>100</v>
@@ -39977,7 +39984,7 @@
         <v>40</v>
       </c>
       <c r="L675" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M675" s="7">
         <v>100</v>
@@ -40039,7 +40046,7 @@
         <v>40</v>
       </c>
       <c r="L676" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M676" s="7">
         <v>100</v>
@@ -40101,7 +40108,7 @@
         <v>40</v>
       </c>
       <c r="L677" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M677" s="7">
         <v>100</v>
@@ -40163,7 +40170,7 @@
         <v>40</v>
       </c>
       <c r="L678" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M678" s="7">
         <v>100</v>
@@ -40225,7 +40232,7 @@
         <v>40</v>
       </c>
       <c r="L679" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M679" s="7">
         <v>100</v>
@@ -40287,7 +40294,7 @@
         <v>40</v>
       </c>
       <c r="L680" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M680" s="7">
         <v>100</v>
@@ -40349,7 +40356,7 @@
         <v>40</v>
       </c>
       <c r="L681" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M681" s="7">
         <v>100</v>
@@ -40411,7 +40418,7 @@
         <v>40</v>
       </c>
       <c r="L682" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M682" s="7">
         <v>100</v>
@@ -40473,7 +40480,7 @@
         <v>40</v>
       </c>
       <c r="L683" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M683" s="7">
         <v>100</v>
@@ -40535,7 +40542,7 @@
         <v>40</v>
       </c>
       <c r="L684" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M684" s="7">
         <v>100</v>
@@ -40597,7 +40604,7 @@
         <v>40</v>
       </c>
       <c r="L685" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M685" s="7">
         <v>100</v>
@@ -40659,7 +40666,7 @@
         <v>40</v>
       </c>
       <c r="L686" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M686" s="7">
         <v>100</v>
@@ -40721,7 +40728,7 @@
         <v>40</v>
       </c>
       <c r="L687" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M687" s="7">
         <v>100</v>
@@ -40783,7 +40790,7 @@
         <v>40</v>
       </c>
       <c r="L688" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M688" s="7">
         <v>100</v>
@@ -40845,7 +40852,7 @@
         <v>40</v>
       </c>
       <c r="L689" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M689" s="7">
         <v>100</v>
@@ -40907,7 +40914,7 @@
         <v>40</v>
       </c>
       <c r="L690" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M690" s="7">
         <v>100</v>
@@ -40969,7 +40976,7 @@
         <v>40</v>
       </c>
       <c r="L691" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M691" s="7">
         <v>100</v>
@@ -41031,7 +41038,7 @@
         <v>40</v>
       </c>
       <c r="L692" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M692" s="7">
         <v>100</v>
@@ -41093,7 +41100,7 @@
         <v>40</v>
       </c>
       <c r="L693" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M693" s="7">
         <v>100</v>
@@ -41155,7 +41162,7 @@
         <v>40</v>
       </c>
       <c r="L694" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M694" s="7">
         <v>100</v>
@@ -41217,7 +41224,7 @@
         <v>40</v>
       </c>
       <c r="L695" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M695" s="7">
         <v>100</v>
@@ -41279,7 +41286,7 @@
         <v>40</v>
       </c>
       <c r="L696" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M696" s="7">
         <v>5</v>
@@ -41341,7 +41348,7 @@
         <v>40</v>
       </c>
       <c r="L697" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M697" s="7">
         <v>5</v>
@@ -41403,7 +41410,7 @@
         <v>40</v>
       </c>
       <c r="L698" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M698" s="7">
         <v>5</v>
@@ -41465,7 +41472,7 @@
         <v>40</v>
       </c>
       <c r="L699" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M699" s="7">
         <v>5</v>
@@ -41527,7 +41534,7 @@
         <v>40</v>
       </c>
       <c r="L700" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M700" s="7">
         <v>5</v>
@@ -41589,7 +41596,7 @@
         <v>40</v>
       </c>
       <c r="L701" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M701" s="7">
         <v>5</v>
@@ -41651,7 +41658,7 @@
         <v>40</v>
       </c>
       <c r="L702" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M702" s="7">
         <v>5</v>
@@ -41713,7 +41720,7 @@
         <v>40</v>
       </c>
       <c r="L703" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M703" s="7">
         <v>5</v>
@@ -41775,7 +41782,7 @@
         <v>40</v>
       </c>
       <c r="L704" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M704" s="7">
         <v>5</v>
@@ -41837,7 +41844,7 @@
         <v>40</v>
       </c>
       <c r="L705" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M705" s="7">
         <v>5</v>
@@ -41899,7 +41906,7 @@
         <v>40</v>
       </c>
       <c r="L706" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M706" s="7">
         <v>10</v>
@@ -41961,7 +41968,7 @@
         <v>40</v>
       </c>
       <c r="L707" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M707" s="7">
         <v>10</v>
@@ -42023,7 +42030,7 @@
         <v>40</v>
       </c>
       <c r="L708" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M708" s="7">
         <v>10</v>
@@ -42085,7 +42092,7 @@
         <v>40</v>
       </c>
       <c r="L709" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M709" s="7">
         <v>10</v>
@@ -42147,7 +42154,7 @@
         <v>40</v>
       </c>
       <c r="L710" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M710" s="7">
         <v>10</v>
@@ -42209,7 +42216,7 @@
         <v>40</v>
       </c>
       <c r="L711" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M711" s="7">
         <v>10</v>
@@ -42271,7 +42278,7 @@
         <v>40</v>
       </c>
       <c r="L712" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M712" s="7">
         <v>10</v>
@@ -42333,7 +42340,7 @@
         <v>40</v>
       </c>
       <c r="L713" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M713" s="7">
         <v>10</v>
@@ -42395,7 +42402,7 @@
         <v>40</v>
       </c>
       <c r="L714" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M714" s="7">
         <v>10</v>
@@ -42457,7 +42464,7 @@
         <v>40</v>
       </c>
       <c r="L715" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M715" s="7">
         <v>20</v>
@@ -42519,7 +42526,7 @@
         <v>40</v>
       </c>
       <c r="L716" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M716" s="7">
         <v>20</v>
@@ -42581,7 +42588,7 @@
         <v>40</v>
       </c>
       <c r="L717" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M717" s="7">
         <v>20</v>
@@ -42643,7 +42650,7 @@
         <v>40</v>
       </c>
       <c r="L718" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M718" s="7">
         <v>20</v>
@@ -42705,7 +42712,7 @@
         <v>40</v>
       </c>
       <c r="L719" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M719" s="7">
         <v>20</v>
@@ -42767,7 +42774,7 @@
         <v>40</v>
       </c>
       <c r="L720" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M720" s="7">
         <v>20</v>
@@ -42829,7 +42836,7 @@
         <v>40</v>
       </c>
       <c r="L721" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M721" s="7">
         <v>20</v>
@@ -42891,7 +42898,7 @@
         <v>40</v>
       </c>
       <c r="L722" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M722" s="7">
         <v>20</v>
@@ -42953,7 +42960,7 @@
         <v>40</v>
       </c>
       <c r="L723" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M723" s="7">
         <v>20</v>
@@ -43015,7 +43022,7 @@
         <v>40</v>
       </c>
       <c r="L724" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M724" s="7">
         <v>20</v>
@@ -43077,7 +43084,7 @@
         <v>40</v>
       </c>
       <c r="L725" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M725" s="7">
         <v>20</v>
@@ -43139,7 +43146,7 @@
         <v>40</v>
       </c>
       <c r="L726" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M726" s="7">
         <v>30</v>
@@ -43201,7 +43208,7 @@
         <v>40</v>
       </c>
       <c r="L727" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M727" s="7">
         <v>30</v>
@@ -43263,7 +43270,7 @@
         <v>40</v>
       </c>
       <c r="L728" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M728" s="7">
         <v>30</v>
@@ -43325,7 +43332,7 @@
         <v>40</v>
       </c>
       <c r="L729" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M729" s="7">
         <v>30</v>
@@ -43387,7 +43394,7 @@
         <v>40</v>
       </c>
       <c r="L730" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M730" s="7">
         <v>30</v>
@@ -43449,7 +43456,7 @@
         <v>40</v>
       </c>
       <c r="L731" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M731" s="7">
         <v>30</v>
@@ -43511,7 +43518,7 @@
         <v>40</v>
       </c>
       <c r="L732" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M732" s="7">
         <v>30</v>
@@ -43573,7 +43580,7 @@
         <v>40</v>
       </c>
       <c r="L733" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M733" s="7">
         <v>30</v>
@@ -43635,7 +43642,7 @@
         <v>40</v>
       </c>
       <c r="L734" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M734" s="7">
         <v>30</v>
@@ -43697,7 +43704,7 @@
         <v>40</v>
       </c>
       <c r="L735" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M735" s="7">
         <v>30</v>
@@ -43759,7 +43766,7 @@
         <v>40</v>
       </c>
       <c r="L736" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M736" s="7">
         <v>50</v>
@@ -43821,7 +43828,7 @@
         <v>40</v>
       </c>
       <c r="L737" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M737" s="7">
         <v>50</v>
@@ -43883,7 +43890,7 @@
         <v>40</v>
       </c>
       <c r="L738" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M738" s="7">
         <v>50</v>
@@ -43945,7 +43952,7 @@
         <v>40</v>
       </c>
       <c r="L739" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M739" s="7">
         <v>50</v>
@@ -44007,7 +44014,7 @@
         <v>40</v>
       </c>
       <c r="L740" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M740" s="7">
         <v>50</v>
@@ -44069,7 +44076,7 @@
         <v>40</v>
       </c>
       <c r="L741" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M741" s="7">
         <v>50</v>
@@ -44131,7 +44138,7 @@
         <v>40</v>
       </c>
       <c r="L742" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M742" s="7">
         <v>50</v>
@@ -44193,7 +44200,7 @@
         <v>40</v>
       </c>
       <c r="L743" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M743" s="7">
         <v>50</v>
@@ -44255,7 +44262,7 @@
         <v>40</v>
       </c>
       <c r="L744" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M744" s="7">
         <v>50</v>
@@ -44317,7 +44324,7 @@
         <v>40</v>
       </c>
       <c r="L745" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M745" s="7">
         <v>50</v>
@@ -44379,7 +44386,7 @@
         <v>40</v>
       </c>
       <c r="L746" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M746" s="7">
         <v>70</v>
@@ -44441,7 +44448,7 @@
         <v>40</v>
       </c>
       <c r="L747" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M747" s="7">
         <v>70</v>
@@ -44503,7 +44510,7 @@
         <v>40</v>
       </c>
       <c r="L748" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M748" s="7">
         <v>70</v>
@@ -44565,7 +44572,7 @@
         <v>40</v>
       </c>
       <c r="L749" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M749" s="7">
         <v>70</v>
@@ -44627,7 +44634,7 @@
         <v>40</v>
       </c>
       <c r="L750" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M750" s="7">
         <v>70</v>
@@ -44689,7 +44696,7 @@
         <v>40</v>
       </c>
       <c r="L751" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M751" s="7">
         <v>70</v>
@@ -44751,7 +44758,7 @@
         <v>40</v>
       </c>
       <c r="L752" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M752" s="7">
         <v>70</v>
@@ -44813,7 +44820,7 @@
         <v>40</v>
       </c>
       <c r="L753" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M753" s="7">
         <v>70</v>
@@ -44875,7 +44882,7 @@
         <v>40</v>
       </c>
       <c r="L754" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M754" s="7">
         <v>70</v>
@@ -44937,7 +44944,7 @@
         <v>40</v>
       </c>
       <c r="L755" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M755" s="7">
         <v>70</v>
@@ -44999,7 +45006,7 @@
         <v>40</v>
       </c>
       <c r="L756" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M756" s="7">
         <v>100</v>
@@ -45061,7 +45068,7 @@
         <v>40</v>
       </c>
       <c r="L757" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M757" s="7">
         <v>100</v>
@@ -45123,7 +45130,7 @@
         <v>40</v>
       </c>
       <c r="L758" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M758" s="7">
         <v>100</v>
@@ -45185,7 +45192,7 @@
         <v>40</v>
       </c>
       <c r="L759" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M759" s="7">
         <v>100</v>
@@ -45247,7 +45254,7 @@
         <v>40</v>
       </c>
       <c r="L760" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M760" s="7">
         <v>100</v>
@@ -45309,7 +45316,7 @@
         <v>40</v>
       </c>
       <c r="L761" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M761" s="7">
         <v>100</v>
@@ -45371,7 +45378,7 @@
         <v>40</v>
       </c>
       <c r="L762" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M762" s="7">
         <v>100</v>
@@ -45433,7 +45440,7 @@
         <v>40</v>
       </c>
       <c r="L763" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M763" s="7">
         <v>100</v>
@@ -45495,7 +45502,7 @@
         <v>40</v>
       </c>
       <c r="L764" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M764" s="7">
         <v>100</v>
@@ -45557,7 +45564,7 @@
         <v>40</v>
       </c>
       <c r="L765" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M765" s="7">
         <v>100</v>
@@ -45619,7 +45626,7 @@
         <v>40</v>
       </c>
       <c r="L766" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M766" s="7">
         <v>100</v>
@@ -45681,7 +45688,7 @@
         <v>40</v>
       </c>
       <c r="L767" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M767" s="7">
         <v>100</v>
@@ -45743,7 +45750,7 @@
         <v>40</v>
       </c>
       <c r="L768" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M768" s="7">
         <v>100</v>
@@ -45805,7 +45812,7 @@
         <v>40</v>
       </c>
       <c r="L769" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M769" s="7">
         <v>100</v>
@@ -45867,7 +45874,7 @@
         <v>40</v>
       </c>
       <c r="L770" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M770" s="7">
         <v>100</v>
@@ -45929,7 +45936,7 @@
         <v>40</v>
       </c>
       <c r="L771" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M771" s="7">
         <v>100</v>
@@ -45991,7 +45998,7 @@
         <v>40</v>
       </c>
       <c r="L772" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M772" s="7">
         <v>100</v>
@@ -46053,7 +46060,7 @@
         <v>40</v>
       </c>
       <c r="L773" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M773" s="7">
         <v>100</v>
@@ -46115,7 +46122,7 @@
         <v>40</v>
       </c>
       <c r="L774" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M774" s="7">
         <v>100</v>
@@ -46177,7 +46184,7 @@
         <v>40</v>
       </c>
       <c r="L775" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M775" s="7">
         <v>100</v>
@@ -46239,7 +46246,7 @@
         <v>40</v>
       </c>
       <c r="L776" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M776" s="7">
         <v>100</v>
@@ -46301,7 +46308,7 @@
         <v>40</v>
       </c>
       <c r="L777" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M777" s="7">
         <v>100</v>
@@ -46363,7 +46370,7 @@
         <v>40</v>
       </c>
       <c r="L778" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M778" s="7">
         <v>100</v>
@@ -46425,7 +46432,7 @@
         <v>40</v>
       </c>
       <c r="L779" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M779" s="7">
         <v>100</v>
@@ -46487,7 +46494,7 @@
         <v>40</v>
       </c>
       <c r="L780" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M780" s="7">
         <v>100</v>
@@ -46549,7 +46556,7 @@
         <v>40</v>
       </c>
       <c r="L781" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M781" s="7">
         <v>100</v>
@@ -46611,7 +46618,7 @@
         <v>40</v>
       </c>
       <c r="L782" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M782" s="7">
         <v>100</v>
@@ -46673,7 +46680,7 @@
         <v>40</v>
       </c>
       <c r="L783" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M783" s="7">
         <v>100</v>
@@ -46735,7 +46742,7 @@
         <v>40</v>
       </c>
       <c r="L784" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M784" s="7">
         <v>100</v>
@@ -46797,7 +46804,7 @@
         <v>40</v>
       </c>
       <c r="L785" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M785" s="7">
         <v>100</v>
@@ -46859,7 +46866,7 @@
         <v>40</v>
       </c>
       <c r="L786" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M786" s="7">
         <v>100</v>
@@ -46921,7 +46928,7 @@
         <v>40</v>
       </c>
       <c r="L787" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M787" s="7">
         <v>100</v>
@@ -46983,7 +46990,7 @@
         <v>40</v>
       </c>
       <c r="L788" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M788" s="7">
         <v>100</v>
@@ -47045,7 +47052,7 @@
         <v>40</v>
       </c>
       <c r="L789" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M789" s="7">
         <v>100</v>
@@ -47107,7 +47114,7 @@
         <v>40</v>
       </c>
       <c r="L790" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M790" s="7">
         <v>100</v>
@@ -47169,7 +47176,7 @@
         <v>40</v>
       </c>
       <c r="L791" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M791" s="7">
         <v>100</v>
@@ -47231,7 +47238,7 @@
         <v>40</v>
       </c>
       <c r="L792" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M792" s="7">
         <v>100</v>
@@ -47293,7 +47300,7 @@
         <v>40</v>
       </c>
       <c r="L793" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M793" s="7">
         <v>100</v>
@@ -47355,7 +47362,7 @@
         <v>40</v>
       </c>
       <c r="L794" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M794" s="7">
         <v>100</v>
@@ -47417,7 +47424,7 @@
         <v>29</v>
       </c>
       <c r="L795" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M795" s="7">
         <v>5</v>
@@ -47479,7 +47486,7 @@
         <v>29</v>
       </c>
       <c r="L796" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M796" s="7">
         <v>5</v>
@@ -47541,7 +47548,7 @@
         <v>40</v>
       </c>
       <c r="L797" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M797" s="7">
         <v>5</v>
@@ -47603,7 +47610,7 @@
         <v>40</v>
       </c>
       <c r="L798" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M798" s="7">
         <v>5</v>
@@ -47665,7 +47672,7 @@
         <v>40</v>
       </c>
       <c r="L799" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M799" s="7">
         <v>5</v>
@@ -47727,7 +47734,7 @@
         <v>40</v>
       </c>
       <c r="L800" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M800" s="7">
         <v>5</v>
@@ -47789,7 +47796,7 @@
         <v>40</v>
       </c>
       <c r="L801" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M801" s="7">
         <v>5</v>
@@ -47851,7 +47858,7 @@
         <v>40</v>
       </c>
       <c r="L802" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M802" s="7">
         <v>5</v>
@@ -47913,7 +47920,7 @@
         <v>40</v>
       </c>
       <c r="L803" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M803" s="7">
         <v>5</v>
@@ -47975,7 +47982,7 @@
         <v>40</v>
       </c>
       <c r="L804" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M804" s="7">
         <v>5</v>
@@ -48037,7 +48044,7 @@
         <v>40</v>
       </c>
       <c r="L805" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M805" s="7">
         <v>10</v>
@@ -48099,7 +48106,7 @@
         <v>40</v>
       </c>
       <c r="L806" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M806" s="7">
         <v>10</v>
@@ -48161,7 +48168,7 @@
         <v>40</v>
       </c>
       <c r="L807" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M807" s="7">
         <v>10</v>
@@ -48223,7 +48230,7 @@
         <v>40</v>
       </c>
       <c r="L808" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M808" s="7">
         <v>10</v>
@@ -48285,7 +48292,7 @@
         <v>40</v>
       </c>
       <c r="L809" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M809" s="7">
         <v>10</v>
@@ -48347,7 +48354,7 @@
         <v>40</v>
       </c>
       <c r="L810" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M810" s="7">
         <v>10</v>
@@ -48409,7 +48416,7 @@
         <v>40</v>
       </c>
       <c r="L811" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M811" s="7">
         <v>10</v>
@@ -48471,7 +48478,7 @@
         <v>40</v>
       </c>
       <c r="L812" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M812" s="7">
         <v>10</v>
@@ -48533,7 +48540,7 @@
         <v>40</v>
       </c>
       <c r="L813" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M813" s="7">
         <v>10</v>
@@ -48595,7 +48602,7 @@
         <v>40</v>
       </c>
       <c r="L814" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M814" s="7">
         <v>20</v>
@@ -48657,7 +48664,7 @@
         <v>40</v>
       </c>
       <c r="L815" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M815" s="7">
         <v>20</v>
@@ -48719,7 +48726,7 @@
         <v>40</v>
       </c>
       <c r="L816" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M816" s="7">
         <v>20</v>
@@ -48781,7 +48788,7 @@
         <v>40</v>
       </c>
       <c r="L817" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M817" s="7">
         <v>20</v>
@@ -48843,7 +48850,7 @@
         <v>40</v>
       </c>
       <c r="L818" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M818" s="7">
         <v>20</v>
@@ -48905,7 +48912,7 @@
         <v>40</v>
       </c>
       <c r="L819" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M819" s="7">
         <v>20</v>
@@ -48967,7 +48974,7 @@
         <v>40</v>
       </c>
       <c r="L820" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M820" s="7">
         <v>20</v>
@@ -49029,7 +49036,7 @@
         <v>40</v>
       </c>
       <c r="L821" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M821" s="7">
         <v>20</v>
@@ -49091,7 +49098,7 @@
         <v>40</v>
       </c>
       <c r="L822" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M822" s="7">
         <v>20</v>
@@ -49153,7 +49160,7 @@
         <v>40</v>
       </c>
       <c r="L823" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M823" s="7">
         <v>20</v>
@@ -49215,7 +49222,7 @@
         <v>40</v>
       </c>
       <c r="L824" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M824" s="7">
         <v>20</v>
@@ -49277,7 +49284,7 @@
         <v>40</v>
       </c>
       <c r="L825" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M825" s="7">
         <v>30</v>
@@ -49339,7 +49346,7 @@
         <v>40</v>
       </c>
       <c r="L826" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M826" s="7">
         <v>30</v>
@@ -49401,7 +49408,7 @@
         <v>40</v>
       </c>
       <c r="L827" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M827" s="7">
         <v>30</v>
@@ -49463,7 +49470,7 @@
         <v>40</v>
       </c>
       <c r="L828" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M828" s="7">
         <v>30</v>
@@ -49525,7 +49532,7 @@
         <v>40</v>
       </c>
       <c r="L829" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M829" s="7">
         <v>30</v>
@@ -49587,7 +49594,7 @@
         <v>40</v>
       </c>
       <c r="L830" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M830" s="7">
         <v>30</v>
@@ -49649,7 +49656,7 @@
         <v>40</v>
       </c>
       <c r="L831" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M831" s="7">
         <v>30</v>
@@ -49711,7 +49718,7 @@
         <v>40</v>
       </c>
       <c r="L832" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M832" s="7">
         <v>30</v>
@@ -49773,7 +49780,7 @@
         <v>40</v>
       </c>
       <c r="L833" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M833" s="7">
         <v>30</v>
@@ -49835,7 +49842,7 @@
         <v>40</v>
       </c>
       <c r="L834" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M834" s="7">
         <v>30</v>
@@ -49897,7 +49904,7 @@
         <v>40</v>
       </c>
       <c r="L835" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M835" s="7">
         <v>50</v>
@@ -49959,7 +49966,7 @@
         <v>40</v>
       </c>
       <c r="L836" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M836" s="7">
         <v>50</v>
@@ -50021,7 +50028,7 @@
         <v>40</v>
       </c>
       <c r="L837" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M837" s="7">
         <v>50</v>
@@ -50083,7 +50090,7 @@
         <v>40</v>
       </c>
       <c r="L838" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M838" s="7">
         <v>50</v>
@@ -50145,7 +50152,7 @@
         <v>40</v>
       </c>
       <c r="L839" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M839" s="7">
         <v>50</v>
@@ -50207,7 +50214,7 @@
         <v>40</v>
       </c>
       <c r="L840" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M840" s="7">
         <v>50</v>
@@ -50269,7 +50276,7 @@
         <v>40</v>
       </c>
       <c r="L841" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M841" s="7">
         <v>50</v>
@@ -50331,7 +50338,7 @@
         <v>40</v>
       </c>
       <c r="L842" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M842" s="7">
         <v>50</v>
@@ -50393,7 +50400,7 @@
         <v>40</v>
       </c>
       <c r="L843" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M843" s="7">
         <v>50</v>
@@ -50455,7 +50462,7 @@
         <v>40</v>
       </c>
       <c r="L844" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M844" s="7">
         <v>50</v>
@@ -50517,7 +50524,7 @@
         <v>40</v>
       </c>
       <c r="L845" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M845" s="7">
         <v>70</v>
@@ -50579,7 +50586,7 @@
         <v>40</v>
       </c>
       <c r="L846" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M846" s="7">
         <v>70</v>
@@ -50641,7 +50648,7 @@
         <v>40</v>
       </c>
       <c r="L847" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M847" s="7">
         <v>70</v>
@@ -50703,7 +50710,7 @@
         <v>40</v>
       </c>
       <c r="L848" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M848" s="7">
         <v>70</v>
@@ -50765,7 +50772,7 @@
         <v>40</v>
       </c>
       <c r="L849" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M849" s="7">
         <v>70</v>
@@ -50827,7 +50834,7 @@
         <v>40</v>
       </c>
       <c r="L850" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M850" s="7">
         <v>70</v>
@@ -50889,7 +50896,7 @@
         <v>40</v>
       </c>
       <c r="L851" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M851" s="7">
         <v>70</v>
@@ -50951,7 +50958,7 @@
         <v>40</v>
       </c>
       <c r="L852" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M852" s="7">
         <v>70</v>
@@ -51013,7 +51020,7 @@
         <v>40</v>
       </c>
       <c r="L853" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M853" s="7">
         <v>70</v>
@@ -51075,7 +51082,7 @@
         <v>40</v>
       </c>
       <c r="L854" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M854" s="7">
         <v>70</v>
@@ -51137,7 +51144,7 @@
         <v>40</v>
       </c>
       <c r="L855" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M855" s="7">
         <v>100</v>
@@ -51199,7 +51206,7 @@
         <v>40</v>
       </c>
       <c r="L856" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M856" s="7">
         <v>100</v>
@@ -51261,7 +51268,7 @@
         <v>40</v>
       </c>
       <c r="L857" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M857" s="7">
         <v>100</v>
@@ -51323,7 +51330,7 @@
         <v>40</v>
       </c>
       <c r="L858" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M858" s="7">
         <v>100</v>
@@ -51385,7 +51392,7 @@
         <v>40</v>
       </c>
       <c r="L859" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M859" s="7">
         <v>100</v>
@@ -51447,7 +51454,7 @@
         <v>40</v>
       </c>
       <c r="L860" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M860" s="7">
         <v>100</v>
@@ -51509,7 +51516,7 @@
         <v>40</v>
       </c>
       <c r="L861" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M861" s="7">
         <v>100</v>
@@ -51571,7 +51578,7 @@
         <v>40</v>
       </c>
       <c r="L862" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M862" s="7">
         <v>100</v>
@@ -51633,7 +51640,7 @@
         <v>40</v>
       </c>
       <c r="L863" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M863" s="7">
         <v>100</v>
@@ -51695,7 +51702,7 @@
         <v>40</v>
       </c>
       <c r="L864" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M864" s="7">
         <v>100</v>
@@ -51757,7 +51764,7 @@
         <v>40</v>
       </c>
       <c r="L865" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M865" s="7">
         <v>100</v>
@@ -51819,7 +51826,7 @@
         <v>40</v>
       </c>
       <c r="L866" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M866" s="7">
         <v>100</v>
@@ -51881,7 +51888,7 @@
         <v>40</v>
       </c>
       <c r="L867" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M867" s="7">
         <v>100</v>
@@ -51943,7 +51950,7 @@
         <v>40</v>
       </c>
       <c r="L868" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M868" s="7">
         <v>100</v>
@@ -52005,7 +52012,7 @@
         <v>40</v>
       </c>
       <c r="L869" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M869" s="7">
         <v>100</v>
@@ -52067,7 +52074,7 @@
         <v>40</v>
       </c>
       <c r="L870" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M870" s="7">
         <v>100</v>
@@ -52129,7 +52136,7 @@
         <v>40</v>
       </c>
       <c r="L871" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M871" s="7">
         <v>100</v>
@@ -52191,7 +52198,7 @@
         <v>40</v>
       </c>
       <c r="L872" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M872" s="7">
         <v>100</v>
@@ -52253,7 +52260,7 @@
         <v>40</v>
       </c>
       <c r="L873" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M873" s="7">
         <v>100</v>
@@ -52315,7 +52322,7 @@
         <v>40</v>
       </c>
       <c r="L874" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M874" s="7">
         <v>100</v>
@@ -52377,7 +52384,7 @@
         <v>40</v>
       </c>
       <c r="L875" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M875" s="7">
         <v>100</v>
@@ -52439,7 +52446,7 @@
         <v>40</v>
       </c>
       <c r="L876" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M876" s="7">
         <v>100</v>
@@ -52501,7 +52508,7 @@
         <v>40</v>
       </c>
       <c r="L877" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M877" s="7">
         <v>100</v>
@@ -52563,7 +52570,7 @@
         <v>40</v>
       </c>
       <c r="L878" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M878" s="7">
         <v>100</v>
@@ -52625,7 +52632,7 @@
         <v>40</v>
       </c>
       <c r="L879" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M879" s="7">
         <v>100</v>
@@ -52687,7 +52694,7 @@
         <v>40</v>
       </c>
       <c r="L880" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M880" s="7">
         <v>100</v>
@@ -52749,7 +52756,7 @@
         <v>40</v>
       </c>
       <c r="L881" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M881" s="7">
         <v>100</v>
@@ -52811,7 +52818,7 @@
         <v>40</v>
       </c>
       <c r="L882" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M882" s="7">
         <v>100</v>
@@ -52873,7 +52880,7 @@
         <v>40</v>
       </c>
       <c r="L883" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M883" s="7">
         <v>100</v>
@@ -52935,7 +52942,7 @@
         <v>40</v>
       </c>
       <c r="L884" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M884" s="7">
         <v>100</v>
@@ -52997,7 +53004,7 @@
         <v>40</v>
       </c>
       <c r="L885" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M885" s="7">
         <v>100</v>
@@ -53059,7 +53066,7 @@
         <v>40</v>
       </c>
       <c r="L886" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M886" s="7">
         <v>100</v>
@@ -53121,7 +53128,7 @@
         <v>40</v>
       </c>
       <c r="L887" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M887" s="7">
         <v>100</v>
@@ -53183,7 +53190,7 @@
         <v>40</v>
       </c>
       <c r="L888" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M888" s="7">
         <v>100</v>
@@ -53245,7 +53252,7 @@
         <v>40</v>
       </c>
       <c r="L889" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M889" s="7">
         <v>100</v>
@@ -53307,7 +53314,7 @@
         <v>40</v>
       </c>
       <c r="L890" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M890" s="7">
         <v>100</v>
@@ -53369,7 +53376,7 @@
         <v>40</v>
       </c>
       <c r="L891" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M891" s="7">
         <v>100</v>
@@ -53431,7 +53438,7 @@
         <v>40</v>
       </c>
       <c r="L892" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M892" s="7">
         <v>100</v>
@@ -53493,7 +53500,7 @@
         <v>40</v>
       </c>
       <c r="L893" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M893" s="7">
         <v>100</v>
@@ -53555,7 +53562,7 @@
         <v>29</v>
       </c>
       <c r="L894" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M894" s="7">
         <v>5</v>
@@ -53617,7 +53624,7 @@
         <v>29</v>
       </c>
       <c r="L895" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M895" s="7">
         <v>5</v>
@@ -53679,7 +53686,7 @@
         <v>40</v>
       </c>
       <c r="L896" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M896" s="7">
         <v>5</v>
@@ -53741,7 +53748,7 @@
         <v>40</v>
       </c>
       <c r="L897" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M897" s="7">
         <v>5</v>
@@ -53803,7 +53810,7 @@
         <v>40</v>
       </c>
       <c r="L898" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M898" s="7">
         <v>5</v>
@@ -53865,7 +53872,7 @@
         <v>40</v>
       </c>
       <c r="L899" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M899" s="7">
         <v>5</v>
@@ -53927,7 +53934,7 @@
         <v>40</v>
       </c>
       <c r="L900" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M900" s="7">
         <v>5</v>
@@ -53989,7 +53996,7 @@
         <v>40</v>
       </c>
       <c r="L901" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M901" s="7">
         <v>5</v>
@@ -54051,7 +54058,7 @@
         <v>40</v>
       </c>
       <c r="L902" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M902" s="7">
         <v>5</v>
@@ -54113,7 +54120,7 @@
         <v>40</v>
       </c>
       <c r="L903" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M903" s="7">
         <v>5</v>
@@ -54175,7 +54182,7 @@
         <v>40</v>
       </c>
       <c r="L904" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M904" s="7">
         <v>10</v>
@@ -54237,7 +54244,7 @@
         <v>40</v>
       </c>
       <c r="L905" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M905" s="7">
         <v>10</v>
@@ -54299,7 +54306,7 @@
         <v>40</v>
       </c>
       <c r="L906" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M906" s="7">
         <v>10</v>
@@ -54361,7 +54368,7 @@
         <v>40</v>
       </c>
       <c r="L907" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M907" s="7">
         <v>10</v>
@@ -54423,7 +54430,7 @@
         <v>40</v>
       </c>
       <c r="L908" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M908" s="7">
         <v>10</v>
@@ -54485,7 +54492,7 @@
         <v>40</v>
       </c>
       <c r="L909" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M909" s="7">
         <v>10</v>
@@ -54547,7 +54554,7 @@
         <v>40</v>
       </c>
       <c r="L910" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M910" s="7">
         <v>10</v>
@@ -54609,7 +54616,7 @@
         <v>40</v>
       </c>
       <c r="L911" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M911" s="7">
         <v>10</v>
@@ -54671,7 +54678,7 @@
         <v>40</v>
       </c>
       <c r="L912" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M912" s="7">
         <v>10</v>
@@ -54733,7 +54740,7 @@
         <v>40</v>
       </c>
       <c r="L913" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M913" s="7">
         <v>20</v>
@@ -54795,7 +54802,7 @@
         <v>40</v>
       </c>
       <c r="L914" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M914" s="7">
         <v>20</v>
@@ -54857,7 +54864,7 @@
         <v>40</v>
       </c>
       <c r="L915" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M915" s="7">
         <v>20</v>
@@ -54919,7 +54926,7 @@
         <v>40</v>
       </c>
       <c r="L916" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M916" s="7">
         <v>20</v>
@@ -54981,7 +54988,7 @@
         <v>40</v>
       </c>
       <c r="L917" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M917" s="7">
         <v>20</v>
@@ -55043,7 +55050,7 @@
         <v>40</v>
       </c>
       <c r="L918" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M918" s="7">
         <v>20</v>
@@ -55105,7 +55112,7 @@
         <v>40</v>
       </c>
       <c r="L919" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M919" s="7">
         <v>20</v>
@@ -55167,7 +55174,7 @@
         <v>40</v>
       </c>
       <c r="L920" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M920" s="7">
         <v>20</v>
@@ -55229,7 +55236,7 @@
         <v>40</v>
       </c>
       <c r="L921" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M921" s="7">
         <v>20</v>
@@ -55291,7 +55298,7 @@
         <v>40</v>
       </c>
       <c r="L922" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M922" s="7">
         <v>20</v>
@@ -55353,7 +55360,7 @@
         <v>40</v>
       </c>
       <c r="L923" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M923" s="7">
         <v>20</v>
@@ -55415,7 +55422,7 @@
         <v>40</v>
       </c>
       <c r="L924" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M924" s="7">
         <v>30</v>
@@ -55477,7 +55484,7 @@
         <v>40</v>
       </c>
       <c r="L925" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M925" s="7">
         <v>30</v>
@@ -55539,7 +55546,7 @@
         <v>40</v>
       </c>
       <c r="L926" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M926" s="7">
         <v>30</v>
@@ -55601,7 +55608,7 @@
         <v>40</v>
       </c>
       <c r="L927" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M927" s="7">
         <v>30</v>
@@ -55663,7 +55670,7 @@
         <v>40</v>
       </c>
       <c r="L928" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M928" s="7">
         <v>30</v>
@@ -55725,7 +55732,7 @@
         <v>40</v>
       </c>
       <c r="L929" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M929" s="7">
         <v>30</v>
@@ -55787,7 +55794,7 @@
         <v>40</v>
       </c>
       <c r="L930" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M930" s="7">
         <v>30</v>
@@ -55849,7 +55856,7 @@
         <v>40</v>
       </c>
       <c r="L931" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M931" s="7">
         <v>30</v>
@@ -55911,7 +55918,7 @@
         <v>40</v>
       </c>
       <c r="L932" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M932" s="7">
         <v>30</v>
@@ -55973,7 +55980,7 @@
         <v>40</v>
       </c>
       <c r="L933" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M933" s="7">
         <v>30</v>
@@ -56035,7 +56042,7 @@
         <v>40</v>
       </c>
       <c r="L934" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M934" s="7">
         <v>50</v>
@@ -56097,7 +56104,7 @@
         <v>40</v>
       </c>
       <c r="L935" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M935" s="7">
         <v>50</v>
@@ -56159,7 +56166,7 @@
         <v>40</v>
       </c>
       <c r="L936" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M936" s="7">
         <v>50</v>
@@ -56221,7 +56228,7 @@
         <v>40</v>
       </c>
       <c r="L937" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M937" s="7">
         <v>50</v>
@@ -56283,7 +56290,7 @@
         <v>40</v>
       </c>
       <c r="L938" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M938" s="7">
         <v>50</v>
@@ -56345,7 +56352,7 @@
         <v>40</v>
       </c>
       <c r="L939" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M939" s="7">
         <v>50</v>
@@ -56407,7 +56414,7 @@
         <v>40</v>
       </c>
       <c r="L940" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M940" s="7">
         <v>50</v>
@@ -56469,7 +56476,7 @@
         <v>40</v>
       </c>
       <c r="L941" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M941" s="7">
         <v>50</v>
@@ -56531,7 +56538,7 @@
         <v>40</v>
       </c>
       <c r="L942" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M942" s="7">
         <v>50</v>
@@ -56593,7 +56600,7 @@
         <v>40</v>
       </c>
       <c r="L943" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M943" s="7">
         <v>50</v>
@@ -56655,7 +56662,7 @@
         <v>40</v>
       </c>
       <c r="L944" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M944" s="7">
         <v>70</v>
@@ -56717,7 +56724,7 @@
         <v>40</v>
       </c>
       <c r="L945" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M945" s="7">
         <v>70</v>
@@ -56779,7 +56786,7 @@
         <v>40</v>
       </c>
       <c r="L946" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M946" s="7">
         <v>70</v>
@@ -56841,7 +56848,7 @@
         <v>40</v>
       </c>
       <c r="L947" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M947" s="7">
         <v>70</v>
@@ -56903,7 +56910,7 @@
         <v>40</v>
       </c>
       <c r="L948" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M948" s="7">
         <v>70</v>
@@ -56965,7 +56972,7 @@
         <v>40</v>
       </c>
       <c r="L949" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M949" s="7">
         <v>70</v>
@@ -57027,7 +57034,7 @@
         <v>40</v>
       </c>
       <c r="L950" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M950" s="7">
         <v>70</v>
@@ -57089,7 +57096,7 @@
         <v>40</v>
       </c>
       <c r="L951" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M951" s="7">
         <v>70</v>
@@ -57151,7 +57158,7 @@
         <v>40</v>
       </c>
       <c r="L952" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M952" s="7">
         <v>70</v>
@@ -57213,7 +57220,7 @@
         <v>40</v>
       </c>
       <c r="L953" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M953" s="7">
         <v>70</v>
@@ -57275,7 +57282,7 @@
         <v>40</v>
       </c>
       <c r="L954" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M954" s="7">
         <v>100</v>
@@ -57337,7 +57344,7 @@
         <v>40</v>
       </c>
       <c r="L955" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M955" s="7">
         <v>100</v>
@@ -57399,7 +57406,7 @@
         <v>40</v>
       </c>
       <c r="L956" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M956" s="7">
         <v>100</v>
@@ -57461,7 +57468,7 @@
         <v>40</v>
       </c>
       <c r="L957" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M957" s="7">
         <v>100</v>
@@ -57523,7 +57530,7 @@
         <v>40</v>
       </c>
       <c r="L958" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M958" s="7">
         <v>100</v>
@@ -57585,7 +57592,7 @@
         <v>40</v>
       </c>
       <c r="L959" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M959" s="7">
         <v>100</v>
@@ -57647,7 +57654,7 @@
         <v>40</v>
       </c>
       <c r="L960" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M960" s="7">
         <v>100</v>
@@ -57709,7 +57716,7 @@
         <v>40</v>
       </c>
       <c r="L961" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M961" s="7">
         <v>100</v>
@@ -57771,7 +57778,7 @@
         <v>40</v>
       </c>
       <c r="L962" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M962" s="7">
         <v>100</v>
@@ -57833,7 +57840,7 @@
         <v>40</v>
       </c>
       <c r="L963" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M963" s="7">
         <v>100</v>
@@ -57895,7 +57902,7 @@
         <v>40</v>
       </c>
       <c r="L964" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M964" s="7">
         <v>100</v>
@@ -57957,7 +57964,7 @@
         <v>40</v>
       </c>
       <c r="L965" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M965" s="7">
         <v>100</v>
@@ -58019,7 +58026,7 @@
         <v>40</v>
       </c>
       <c r="L966" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M966" s="7">
         <v>100</v>
@@ -58081,7 +58088,7 @@
         <v>40</v>
       </c>
       <c r="L967" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M967" s="7">
         <v>100</v>
@@ -58143,7 +58150,7 @@
         <v>40</v>
       </c>
       <c r="L968" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M968" s="7">
         <v>100</v>
@@ -58205,7 +58212,7 @@
         <v>40</v>
       </c>
       <c r="L969" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M969" s="7">
         <v>100</v>
@@ -58267,7 +58274,7 @@
         <v>40</v>
       </c>
       <c r="L970" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M970" s="7">
         <v>100</v>
@@ -58329,7 +58336,7 @@
         <v>40</v>
       </c>
       <c r="L971" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M971" s="7">
         <v>100</v>
@@ -58391,7 +58398,7 @@
         <v>40</v>
       </c>
       <c r="L972" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M972" s="7">
         <v>100</v>
@@ -58453,7 +58460,7 @@
         <v>40</v>
       </c>
       <c r="L973" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M973" s="7">
         <v>100</v>
@@ -58515,7 +58522,7 @@
         <v>40</v>
       </c>
       <c r="L974" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M974" s="7">
         <v>100</v>
@@ -58577,7 +58584,7 @@
         <v>40</v>
       </c>
       <c r="L975" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M975" s="7">
         <v>100</v>
@@ -58639,7 +58646,7 @@
         <v>40</v>
       </c>
       <c r="L976" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M976" s="7">
         <v>100</v>
@@ -58701,7 +58708,7 @@
         <v>40</v>
       </c>
       <c r="L977" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M977" s="7">
         <v>100</v>
@@ -58763,7 +58770,7 @@
         <v>40</v>
       </c>
       <c r="L978" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M978" s="7">
         <v>100</v>
@@ -58825,7 +58832,7 @@
         <v>40</v>
       </c>
       <c r="L979" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M979" s="7">
         <v>100</v>
@@ -58887,7 +58894,7 @@
         <v>40</v>
       </c>
       <c r="L980" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M980" s="7">
         <v>100</v>
@@ -58949,7 +58956,7 @@
         <v>40</v>
       </c>
       <c r="L981" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M981" s="7">
         <v>100</v>
@@ -59011,7 +59018,7 @@
         <v>40</v>
       </c>
       <c r="L982" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M982" s="7">
         <v>100</v>
@@ -59073,7 +59080,7 @@
         <v>40</v>
       </c>
       <c r="L983" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M983" s="7">
         <v>100</v>
@@ -59135,7 +59142,7 @@
         <v>40</v>
       </c>
       <c r="L984" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M984" s="7">
         <v>100</v>
@@ -59197,7 +59204,7 @@
         <v>40</v>
       </c>
       <c r="L985" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M985" s="7">
         <v>100</v>
@@ -59259,7 +59266,7 @@
         <v>40</v>
       </c>
       <c r="L986" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M986" s="7">
         <v>100</v>
@@ -59321,7 +59328,7 @@
         <v>40</v>
       </c>
       <c r="L987" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M987" s="7">
         <v>100</v>
@@ -59383,7 +59390,7 @@
         <v>40</v>
       </c>
       <c r="L988" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M988" s="7">
         <v>100</v>
@@ -59445,7 +59452,7 @@
         <v>40</v>
       </c>
       <c r="L989" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M989" s="7">
         <v>100</v>
@@ -59507,7 +59514,7 @@
         <v>40</v>
       </c>
       <c r="L990" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M990" s="7">
         <v>100</v>
@@ -59569,7 +59576,7 @@
         <v>40</v>
       </c>
       <c r="L991" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M991" s="7">
         <v>100</v>
@@ -59631,7 +59638,7 @@
         <v>40</v>
       </c>
       <c r="L992" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M992" s="7">
         <v>100</v>
